--- a/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
+++ b/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0" shapeId="0">
+    <comment ref="F47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F46" authorId="0" shapeId="0">
+    <comment ref="F60" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,31 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13057</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F49" authorId="0" shapeId="0">
+    <comment ref="F62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -289,15 +265,9 @@
     <t>When Original Price is equal to 999</t>
   </si>
   <si>
-    <t>When Original Price is greater than 999 and less than 999,999</t>
-  </si>
-  <si>
     <t>When Original Price is equal to 999,999</t>
   </si>
   <si>
-    <t>When Original Price is greater than 999,999 and less than 999,999,999</t>
-  </si>
-  <si>
     <t>When Original Price is equal to 999,999,999</t>
   </si>
   <si>
@@ -310,61 +280,109 @@
     <t>When Discounted Price is equal to 999</t>
   </si>
   <si>
-    <t>When Discounted Price is greater than 999 and less than 999,999</t>
-  </si>
-  <si>
     <t>When Discounted Price is equal to 999,999</t>
   </si>
   <si>
-    <t>When Discounted Price is greater than 999,999 and less than 999,999,999</t>
-  </si>
-  <si>
     <t>When Discounted Price is equal to 999,999,999</t>
   </si>
   <si>
-    <t>When the digit in the tenth of the Discounted Price is less than 5</t>
-  </si>
-  <si>
-    <t>When the digit in the tenth of the Discounted Price is equal to 5</t>
-  </si>
-  <si>
-    <t>When the digit in the tenth of the Discounted Price is greater than 5</t>
-  </si>
-  <si>
     <t>2. Check display photos</t>
   </si>
   <si>
-    <t>When the user doesn't upload any photo</t>
-  </si>
-  <si>
-    <t>When the user uploads less than 5 photos</t>
-  </si>
-  <si>
-    <t>When the user uploads 5 photos</t>
-  </si>
-  <si>
-    <t>When the user uploads greater than 5 photos</t>
-  </si>
-  <si>
     <t>When the View Product screen is in default status</t>
   </si>
   <si>
-    <t xml:space="preserve">When the user selects the first photo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user selects the last photo </t>
-  </si>
-  <si>
-    <t>When the user selects any photo in the middle</t>
-  </si>
-  <si>
     <t>Nguyen Thi Van Anh</t>
   </si>
   <si>
-    <t>When the user clicks on "&gt;" button 1 time</t>
-  </si>
-  <si>
-    <t>When the user clicks on "&lt;" button 1 time</t>
+    <t>Check the currency</t>
+  </si>
+  <si>
+    <t>When Original Price is equal to 1,000</t>
+  </si>
+  <si>
+    <t>When Original Price is greater than 1,000 and less than 999,999</t>
+  </si>
+  <si>
+    <t>When Original Price is equal to 1,000,000</t>
+  </si>
+  <si>
+    <t>When Original Price is greater than 1,000,000 and less than 999,999,999</t>
+  </si>
+  <si>
+    <t>When Discounted Price is equal to 1,000</t>
+  </si>
+  <si>
+    <t>When Discounted Price is greater than 1,000 and less than 999,999</t>
+  </si>
+  <si>
+    <t>When Discounted Price is equal to 1,000,000</t>
+  </si>
+  <si>
+    <t>When Discounted Price is greater than 1,000,000 and less than 999,999,999</t>
+  </si>
+  <si>
+    <t>Check Big Photo</t>
+  </si>
+  <si>
+    <t>Check &lt;&gt; button</t>
+  </si>
+  <si>
+    <t>Check Photo List</t>
+  </si>
+  <si>
+    <t>Check rounding function - If discounted price is a float with format x.y when y&gt;5</t>
+  </si>
+  <si>
+    <t>Check rounding function - If discounted price is a float with format x.y when y=5</t>
+  </si>
+  <si>
+    <t>Check rounding function - If discounted price is a float with format x.y when y&lt;5</t>
+  </si>
+  <si>
+    <t>Check rounding function - If discounted price is a float with format x.y when y=0</t>
+  </si>
+  <si>
+    <t>When the number of photos is bettween 1 and 5</t>
+  </si>
+  <si>
+    <t>When the number of photos is bettween 5 and 15</t>
+  </si>
+  <si>
+    <t>When the product has no photo</t>
+  </si>
+  <si>
+    <t>When the product has 1 photo</t>
+  </si>
+  <si>
+    <t>When the product has 5 photos</t>
+  </si>
+  <si>
+    <t>When the product has 15 photos</t>
+  </si>
+  <si>
+    <t>When the user clicks any photo on the photo list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user clicks on "&gt;" button </t>
+  </si>
+  <si>
+    <t>When the user clicks on "&gt;" button switch from 1st photo to 2nd photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user clicks on "&lt;" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;" button is disable when the user focus on the first photo </t>
+  </si>
+  <si>
+    <t>"&lt;" button is enable when the user focus on the second photo onward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&gt;" button is disable when the user focus on the last photo </t>
+  </si>
+  <si>
+    <t>"&gt;" button is enable when the user focus on the close-to-last photo backward</t>
   </si>
 </sst>
 </file>
@@ -484,7 +502,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +573,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -658,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -770,6 +794,39 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -788,41 +845,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1132,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1150,10 +1196,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1162,13 +1208,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1177,9 +1223,9 @@
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="48"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1190,11 +1236,11 @@
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1208,9 +1254,9 @@
       <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1224,9 +1270,9 @@
       <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1237,11 +1283,11 @@
       <c r="A7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1253,9 +1299,9 @@
       <c r="A8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1">
@@ -1297,15 +1343,15 @@
         <v>13</v>
       </c>
       <c r="B11" s="15">
-        <f>COUNTIF($F$18:$F$44,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$52,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="15">
-        <f>COUNTIF($G$18:$G$44,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$52,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <f>COUNTIF($H$18:$H$44,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$52,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -1314,15 +1360,15 @@
         <v>14</v>
       </c>
       <c r="B12" s="15">
-        <f>COUNTIF($F$18:$F$44,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$52,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <f>COUNTIF($G$18:$G$44,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$52,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <f>COUNTIF($H$18:$H$44,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$52,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -1331,15 +1377,15 @@
         <v>15</v>
       </c>
       <c r="B13" s="15">
-        <f>COUNTIF($F$18:$F$44,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$52,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="15">
-        <f>COUNTIF($G$18:$G$44,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$52,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <f>COUNTIF($H$18:$H$44,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$52,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="4"/>
@@ -1353,15 +1399,15 @@
         <v>16</v>
       </c>
       <c r="B14" s="15">
-        <f>COUNTIF($F$18:$F$44,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$52,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <f>COUNTIF($G$18:$G$44,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$52,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <f>COUNTIF($H$18:$H$44,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$52,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="4"/>
@@ -1375,15 +1421,15 @@
         <v>17</v>
       </c>
       <c r="B15" s="15">
-        <f>COUNTIF($F$18:$F$44,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$52,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="15">
-        <f>COUNTIF($G$18:$G$44,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$52,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <f>COUNTIF($H$18:$H$44,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$52,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="4"/>
@@ -1398,11 +1444,11 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
@@ -1436,11 +1482,11 @@
     </row>
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -1448,24 +1494,25 @@
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" s="27" customFormat="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="60"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
+        <f ca="1">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="24"/>
@@ -1477,30 +1524,30 @@
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1">
       <c r="A21" s="2">
-        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+        <f t="shared" ref="A21:A28" ca="1" si="0">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="28"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="25"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="26"/>
     </row>
-    <row r="22" spans="1:9" s="31" customFormat="1" ht="25.5">
+    <row r="22" spans="1:9" s="31" customFormat="1" ht="14.25">
       <c r="A22" s="2">
-        <f ca="1">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="29"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="25"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1509,46 +1556,46 @@
     </row>
     <row r="23" spans="1:9" s="31" customFormat="1" ht="14.25">
       <c r="A23" s="2">
-        <f ca="1">IF(OFFSET(A23,-1,0) ="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="25"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="25"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="30"/>
     </row>
-    <row r="24" spans="1:9" s="31" customFormat="1" ht="36.75" customHeight="1">
+    <row r="24" spans="1:9" s="31" customFormat="1" ht="25.5">
       <c r="A24" s="2">
-        <f ca="1">IF(OFFSET(A24,-1,0) ="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="29"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="25"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="30"/>
     </row>
-    <row r="25" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:9" s="31" customFormat="1" ht="14.25">
       <c r="A25" s="2">
-        <f ca="1">IF(OFFSET(A25,-1,0) ="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="29"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="25"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1556,25 +1603,28 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="60"/>
-    </row>
-    <row r="27" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" s="31" customFormat="1" ht="25.5">
       <c r="A27" s="2">
-        <f t="shared" ref="A27:A54" ca="1" si="0">IF(OFFSET(A27,-1,0) ="",OFFSET(A27,-2,0)+1,OFFSET(A27,-1,0)+1 )</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="24"/>
@@ -1587,74 +1637,71 @@
     <row r="28" spans="1:9" s="31" customFormat="1" ht="14.25">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="28"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="25"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="1:9" s="31" customFormat="1" ht="25.5">
-      <c r="A29" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="30"/>
+    <row r="29" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="48"/>
     </row>
     <row r="30" spans="1:9" s="31" customFormat="1" ht="14.25">
       <c r="A30" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="A30:A42" ca="1" si="1">IF(OFFSET(A30,-1,0) ="",OFFSET(A30,-2,0)+1,OFFSET(A30,-1,0)+1 )</f>
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="25"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="25"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="30"/>
     </row>
-    <row r="31" spans="1:9" s="31" customFormat="1" ht="25.5">
+    <row r="31" spans="1:9" s="31" customFormat="1" ht="14.25">
       <c r="A31" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="29"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="25"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="30"/>
     </row>
-    <row r="32" spans="1:9" s="37" customFormat="1" ht="14.25">
+    <row r="32" spans="1:9" s="31" customFormat="1" ht="14.25">
       <c r="A32" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="29"/>
@@ -1664,16 +1711,16 @@
       <c r="H32" s="1"/>
       <c r="I32" s="30"/>
     </row>
-    <row r="33" spans="1:9" s="31" customFormat="1" ht="25.5">
+    <row r="33" spans="1:9" s="31" customFormat="1" ht="14.25">
       <c r="A33" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="B33" s="62" t="s">
-        <v>40</v>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="24"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1682,30 +1729,30 @@
     </row>
     <row r="34" spans="1:9" s="31" customFormat="1" ht="25.5">
       <c r="A34" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="B34" s="62" t="s">
-        <v>41</v>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="28"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" spans="1:9" s="31" customFormat="1" ht="25.5">
+    <row r="35" spans="1:9" s="31" customFormat="1" ht="14.25">
       <c r="A35" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-      <c r="B35" s="62" t="s">
-        <v>42</v>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="29"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="25"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1713,297 +1760,426 @@
       <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A36" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" s="31" customFormat="1" ht="25.5">
       <c r="A37" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="24"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="25"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="35"/>
-    </row>
-    <row r="38" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A38" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" s="37" customFormat="1" ht="14.25">
+      <c r="A38" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="28"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="35"/>
-    </row>
-    <row r="39" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A39" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>46</v>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="1:9" s="37" customFormat="1" ht="25.5">
+      <c r="A39" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>51</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="24"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="35"/>
-    </row>
-    <row r="40" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A40" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" s="37" customFormat="1" ht="25.5">
+      <c r="A40" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>52</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="29"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="35"/>
-    </row>
-    <row r="41" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A41" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" s="37" customFormat="1" ht="25.5">
+      <c r="A41" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>53</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="25"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="35"/>
-    </row>
-    <row r="42" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A42" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9" s="31" customFormat="1" ht="25.5">
+      <c r="A42" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>54</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="24"/>
       <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="36"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A43" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="65"/>
+      <c r="B44" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="36"/>
-    </row>
-    <row r="44" spans="1:9" s="31" customFormat="1" ht="14.25">
-      <c r="A44" s="35">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="66"/>
+    </row>
+    <row r="45" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A45" s="35">
         <v>23</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="35"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="25"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+    <row r="46" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A46" s="2">
+        <f t="shared" ref="A46:A50" ca="1" si="2">IF(OFFSET(A46,-1,0) ="",OFFSET(A46,-2,0)+1,OFFSET(A46,-1,0)+1 )</f>
+        <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="25"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B47" s="1"/>
+    <row r="47" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A47" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="25"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B48" s="1"/>
+    <row r="48" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A48" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="35">
-        <f ca="1">IF(OFFSET(A49,-1,0) ="",OFFSET(A49,-2,0)+1,OFFSET(A49,-1,0)+1 )</f>
-        <v>28</v>
-      </c>
-      <c r="B49" s="1"/>
+    <row r="49" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A49" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="25"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="29"/>
+    <row r="50" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A50" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="35"/>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="35"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="25"/>
+    <row r="51" spans="1:9" s="31" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="65"/>
+      <c r="B51" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="66"/>
+    </row>
+    <row r="52" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A52" s="36">
+        <f t="shared" ref="A52:A62" ca="1" si="3">IF(OFFSET(A52,-1,0) ="",OFFSET(A52,-2,0)+1,OFFSET(A52,-1,0)+1 )</f>
+        <v>29</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="25"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="25"/>
+    <row r="53" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A53" s="36">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="25"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="25"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="35"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+    <row r="54" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A54" s="36">
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="29"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="25"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="35"/>
     </row>
+    <row r="55" spans="1:9" s="31" customFormat="1" ht="25.5">
+      <c r="A55" s="36">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="68"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="35"/>
+    </row>
+    <row r="56" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A56" s="65"/>
+      <c r="B56" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="66"/>
+    </row>
+    <row r="57" spans="1:9" s="37" customFormat="1" ht="25.5">
+      <c r="A57" s="36">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="36"/>
+    </row>
+    <row r="58" spans="1:9" s="37" customFormat="1" ht="25.5">
+      <c r="A58" s="36">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="36"/>
+    </row>
+    <row r="59" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A59" s="35">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="35"/>
+    </row>
+    <row r="60" spans="1:9" s="31" customFormat="1" ht="25.5">
+      <c r="A60" s="35">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="35"/>
+    </row>
+    <row r="61" spans="1:9" s="31" customFormat="1" ht="25.5">
+      <c r="A61" s="35">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="35"/>
+    </row>
+    <row r="62" spans="1:9" s="31" customFormat="1" ht="14.25">
+      <c r="A62" s="35">
+        <f ca="1">IF(OFFSET(A62,-1,0) ="",OFFSET(A62,-2,0)+1,OFFSET(A62,-1,0)+1 )</f>
+        <v>38</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -2011,11 +2187,16 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H19 F26:H26"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H19 F29:H29"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" sqref="F20:H25 F27:H54">
+    <dataValidation type="list" allowBlank="1" sqref="F20:H28 F30:H62">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
+++ b/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
@@ -4,47 +4,66 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Assignment 2" sheetId="4" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assignment 1'!$A$17:$X$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Assignment 2'!$A$17:$X$17</definedName>
     <definedName name="abc" localSheetId="0">#REF!</definedName>
+    <definedName name="abc" localSheetId="1">#REF!</definedName>
     <definedName name="abc">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="0">#REF!</definedName>
+    <definedName name="Check_inputed_mail_address" localSheetId="1">#REF!</definedName>
     <definedName name="Check_inputed_mail_address">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="0">#REF!</definedName>
+    <definedName name="CS_IT_1.1_001" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_001">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="0">#REF!</definedName>
+    <definedName name="CS_IT_1.1_002" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_002">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="0">#REF!</definedName>
+    <definedName name="CS_IT_1.1_003" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_003">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="0">#REF!</definedName>
+    <definedName name="CS_IT_1.1_004" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_004">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="0">#REF!</definedName>
+    <definedName name="Evaluation" localSheetId="1">#REF!</definedName>
     <definedName name="Evaluation">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="0">#REF!</definedName>
+    <definedName name="JaEnNickname" localSheetId="1">#REF!</definedName>
     <definedName name="JaEnNickname">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="0">#REF!</definedName>
+    <definedName name="Mail_Magazine" localSheetId="1">#REF!</definedName>
     <definedName name="Mail_Magazine">#REF!</definedName>
     <definedName name="project_code" localSheetId="0">#REF!</definedName>
+    <definedName name="project_code" localSheetId="1">#REF!</definedName>
     <definedName name="project_code">#REF!</definedName>
     <definedName name="ProjectName" localSheetId="0">'[1]Version 1'!#REF!</definedName>
+    <definedName name="ProjectName" localSheetId="1">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName">'[1]Version 1'!#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="0">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_001" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="0">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_002" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="0">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_003" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="0">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_004" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004">#REF!</definedName>
     <definedName name="safa" localSheetId="0">#REF!</definedName>
+    <definedName name="safa" localSheetId="1">#REF!</definedName>
     <definedName name="safa">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -168,8 +187,96 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F167" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bug ID: 13057</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="241">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -665,6 +772,313 @@
   </si>
   <si>
     <t>Verify that the big photo frame switch from the last photo to the close-to-last photo</t>
+  </si>
+  <si>
+    <t>1. Check fields of Sign up with Email function</t>
+  </si>
+  <si>
+    <t>Check Email</t>
+  </si>
+  <si>
+    <t>When Email is in default status</t>
+  </si>
+  <si>
+    <t>When the user enters alphabetic characters into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters special characters into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters numeric characters into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters space in the middle of a valid characters
+string into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters space at the beginning and the end of a valid characters
+string into the Email box</t>
+  </si>
+  <si>
+    <t>When the user doesn't enter any character
+into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters a string of spaces into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters less than 10 valid characters into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters 10 valid characters into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters greater than 10 valid characters into the Email box</t>
+  </si>
+  <si>
+    <t>Check SMS Verification Code</t>
+  </si>
+  <si>
+    <t>When SMS Verification Code is in default status</t>
+  </si>
+  <si>
+    <t>When the user enters alphabetic characters into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user enters special characters into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user enters numeric characters into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user enters space in the middle of a valid characters
+string into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user enters space at the beginning and the end of a valid characters
+string into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user doesn't enter any character
+into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user enters a string of spaces into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user enters less than 6 valid characters into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user enters 6 valid characters into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user enters greater than 6 valid characters into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>Check Password</t>
+  </si>
+  <si>
+    <t>When Password is in default status</t>
+  </si>
+  <si>
+    <t>When the user enters alphabetic characters into the Password box</t>
+  </si>
+  <si>
+    <t>When the user enters special characters into the Password box</t>
+  </si>
+  <si>
+    <t>When the user enters numeric characters into the Password box</t>
+  </si>
+  <si>
+    <t>When the user enters a string that contains alphabetic and numeric characters into the Password box</t>
+  </si>
+  <si>
+    <t>When the user enters space in the middle of a valid characters string into the Password box</t>
+  </si>
+  <si>
+    <t>When the user enters space at the beginning and the end of a valid characters string into the Password box</t>
+  </si>
+  <si>
+    <t>When the user doesn't enter any character
+into the Password box</t>
+  </si>
+  <si>
+    <t>When the user enters a string of spaces into the Password box</t>
+  </si>
+  <si>
+    <t>When the user enters less than 6 valid characters into the Password box</t>
+  </si>
+  <si>
+    <t>When the user enters 6 valid characters into the Password box</t>
+  </si>
+  <si>
+    <t>When the user enters 50 valid characters into the Password box</t>
+  </si>
+  <si>
+    <t>When the user enters greater than 50 valid characters into the Password box</t>
+  </si>
+  <si>
+    <t>Check Eye icon in default status</t>
+  </si>
+  <si>
+    <t>When the user clicks on the Eye icon to show the password</t>
+  </si>
+  <si>
+    <t>When the user clicks on the Eye icon to hide the password</t>
+  </si>
+  <si>
+    <t>Check Birthday</t>
+  </si>
+  <si>
+    <t>When Birthday is in default status</t>
+  </si>
+  <si>
+    <t>When the user doesn't enter data</t>
+  </si>
+  <si>
+    <t>When the user enters valid date</t>
+  </si>
+  <si>
+    <t>When the user enters invalid date</t>
+  </si>
+  <si>
+    <t>Check Gender</t>
+  </si>
+  <si>
+    <t>When Gender is in default status</t>
+  </si>
+  <si>
+    <t>When the user enters valid value</t>
+  </si>
+  <si>
+    <t>Check Full Name</t>
+  </si>
+  <si>
+    <t>When Full Name is in default status</t>
+  </si>
+  <si>
+    <t>When the user enters alphabetic characters into the Full Name box</t>
+  </si>
+  <si>
+    <t>When the user enters special characters into the Full Name box</t>
+  </si>
+  <si>
+    <t>When the user enters numeric characters into the Full Name box</t>
+  </si>
+  <si>
+    <t>When the user enters space in the middle of a numeric characters
+string into the Full Name box</t>
+  </si>
+  <si>
+    <t>When the user enters space at the beginning and the end of a valid characters string into the Full Name box</t>
+  </si>
+  <si>
+    <t>When the user doesn't enter any character
+into the Full Name box</t>
+  </si>
+  <si>
+    <t>When the user enters a string of spaces into the Full Name box</t>
+  </si>
+  <si>
+    <t>When the user enters less than 6 valid characters into the Full Name box</t>
+  </si>
+  <si>
+    <t>When the user enters 6 valid characters into the Full Name box</t>
+  </si>
+  <si>
+    <t>When the user enters 50 valid characters into the Full Name box</t>
+  </si>
+  <si>
+    <t>When the user enters greater than 50 valid characters into the Full Name box</t>
+  </si>
+  <si>
+    <t>Check Checkbox</t>
+  </si>
+  <si>
+    <t>When Check box is in default status</t>
+  </si>
+  <si>
+    <t>When Check box is unchecked</t>
+  </si>
+  <si>
+    <t>When Check box is checked</t>
+  </si>
+  <si>
+    <t>2. Check fields of Sign up with Email function</t>
+  </si>
+  <si>
+    <t>When the user enters correct email format into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters incorrect email format into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters space in the middle of a valid characters string into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters space at the beginning and the end of a valid characters string into the Email box</t>
+  </si>
+  <si>
+    <t>When the user doesn't enter any character into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters less than 6 valid characters into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters 6 valid characters into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters 60 valid characters into the Email box</t>
+  </si>
+  <si>
+    <t>When the user enters greater than 60 valid characters into the Email box</t>
+  </si>
+  <si>
+    <t>Check Email Code</t>
+  </si>
+  <si>
+    <t>When Email Code is in default status</t>
+  </si>
+  <si>
+    <t>When the user enters alphabetic characters into the Email Code box</t>
+  </si>
+  <si>
+    <t>When the user enters special characters into the Email Code box</t>
+  </si>
+  <si>
+    <t>When the user enters numeric characters into the Email Code box</t>
+  </si>
+  <si>
+    <t>When the user enters space in the middle of a valid characters string into the Email Code box</t>
+  </si>
+  <si>
+    <t>When the user enters space at the beginning and the end of a valid characters string into the Email Code box</t>
+  </si>
+  <si>
+    <t>When the user doesn't enter any character
+into the Email Code box</t>
+  </si>
+  <si>
+    <t>When the user enters a string of spaces into the Email Code box</t>
+  </si>
+  <si>
+    <t>When the user enters less than 6 valid characters into the Email Code box</t>
+  </si>
+  <si>
+    <t>When the user enters 6 valid characters into the Email Code box</t>
+  </si>
+  <si>
+    <t>When the user enters greater than 6 valid characters into the Email Code box</t>
+  </si>
+  <si>
+    <t>3. Check Sign up function</t>
+  </si>
+  <si>
+    <t>Check Sign up with Email</t>
+  </si>
+  <si>
+    <t>When all fields are enters valid data</t>
+  </si>
+  <si>
+    <t>When the user enters a registered Email</t>
+  </si>
+  <si>
+    <t>When the user enters any invalid fields</t>
+  </si>
+  <si>
+    <t>When the user clicks on ‘Sign up with Email’ button</t>
+  </si>
+  <si>
+    <t>Check Sign up with Facebook</t>
+  </si>
+  <si>
+    <t>When the user clicks on ‘Facebook’ button</t>
+  </si>
+  <si>
+    <t>Check Sign up with Google</t>
+  </si>
+  <si>
+    <t>When the user clicks on ‘Google’ button</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1143,6 +1557,66 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,6 +1657,21 @@
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Assignment 1"/>
+      <sheetName val="Assignment 2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1453,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -18983,4 +19472,2690 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X167"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12" style="36" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="37" customWidth="1"/>
+    <col min="3" max="4" width="35.140625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="37" customWidth="1"/>
+    <col min="6" max="8" width="9.7109375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" s="9" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="X4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="9" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="X5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="9" customFormat="1" ht="25.5">
+      <c r="A6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:24" s="9" customFormat="1">
+      <c r="A7" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" s="12" customFormat="1">
+      <c r="A8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+    </row>
+    <row r="9" spans="1:24" s="12" customFormat="1">
+      <c r="A9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f>F17</f>
+        <v>Internal Build 03112011</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <f>G17</f>
+        <v>Internal build 14112011</v>
+      </c>
+      <c r="D9" s="13" t="str">
+        <f>H17</f>
+        <v>External build 16112011</v>
+      </c>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+    </row>
+    <row r="10" spans="1:24" s="12" customFormat="1">
+      <c r="A10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <f>SUM(B11:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <f>SUM(C11:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <f>SUM(D11:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+    </row>
+    <row r="11" spans="1:24" s="12" customFormat="1">
+      <c r="A11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15">
+        <f>COUNTIF($F$18:$F$167,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <f>COUNTIF($G$18:$G$167,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <f>COUNTIF($H$18:$H$167,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="1:24" s="12" customFormat="1">
+      <c r="A12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15">
+        <f>COUNTIF($F$18:$F$167,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <f>COUNTIF($G$18:$G$167,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <f>COUNTIF($H$18:$H$167,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+    </row>
+    <row r="13" spans="1:24" s="12" customFormat="1">
+      <c r="A13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15">
+        <f>COUNTIF($F$18:$F$167,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <f>COUNTIF($G$18:$G$167,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <f>COUNTIF($H$18:$H$167,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:24" s="12" customFormat="1">
+      <c r="A14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="15">
+        <f>COUNTIF($F$18:$F$167,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <f>COUNTIF($G$18:$G$167,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <f>COUNTIF($H$18:$H$167,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" s="12" customFormat="1" ht="38.25">
+      <c r="A15" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15">
+        <f>COUNTIF($F$18:$F$167,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <f>COUNTIF($G$18:$G$167,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <f>COUNTIF($H$18:$H$167,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:24" s="21" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
+      <c r="A17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="71"/>
+    </row>
+    <row r="19" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="78"/>
+    </row>
+    <row r="20" spans="1:9" s="27" customFormat="1">
+      <c r="A20" s="80">
+        <f t="shared" ref="A20:A83" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A21" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A22" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A23" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A24" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A25" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A26" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A27" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A28" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A29" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A30" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="82"/>
+    </row>
+    <row r="31" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="43"/>
+      <c r="B31" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="78"/>
+    </row>
+    <row r="32" spans="1:9" s="27" customFormat="1">
+      <c r="A32" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A33" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A34" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A35" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A36" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A37" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A38" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A39" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="82"/>
+    </row>
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A40" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="82"/>
+    </row>
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A41" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="82"/>
+    </row>
+    <row r="42" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A42" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="82"/>
+    </row>
+    <row r="43" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="43"/>
+      <c r="B43" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="78"/>
+    </row>
+    <row r="44" spans="1:9" s="27" customFormat="1">
+      <c r="A44" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A45" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A46" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A47" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A48" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A49" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A50" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A51" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A52" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="82"/>
+    </row>
+    <row r="53" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A53" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="82"/>
+    </row>
+    <row r="54" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A54" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="82"/>
+    </row>
+    <row r="55" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A55" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="82"/>
+    </row>
+    <row r="56" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A56" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="82"/>
+    </row>
+    <row r="57" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A57" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="82"/>
+    </row>
+    <row r="58" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A58" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="82"/>
+    </row>
+    <row r="59" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A59" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="82"/>
+    </row>
+    <row r="60" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A60" s="43"/>
+      <c r="B60" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="78"/>
+    </row>
+    <row r="61" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A61" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="82"/>
+    </row>
+    <row r="62" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A62" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="82"/>
+    </row>
+    <row r="63" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A63" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="82"/>
+    </row>
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A64" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="82"/>
+    </row>
+    <row r="65" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A65" s="43"/>
+      <c r="B65" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="76"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="78"/>
+    </row>
+    <row r="66" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A66" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="82"/>
+    </row>
+    <row r="67" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A67" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="82"/>
+    </row>
+    <row r="68" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A68" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="82"/>
+    </row>
+    <row r="69" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A69" s="43"/>
+      <c r="B69" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="76"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="78"/>
+    </row>
+    <row r="70" spans="1:9" s="27" customFormat="1">
+      <c r="A70" s="80">
+        <f t="shared" ref="A70:A81" ca="1" si="1">IF(OFFSET(A70,-1,0) ="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1 )</f>
+        <v>46</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A71" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A72" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A73" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B73" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A74" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="26"/>
+    </row>
+    <row r="75" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A75" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="26"/>
+    </row>
+    <row r="76" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A76" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="82"/>
+    </row>
+    <row r="77" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A77" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A78" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="82"/>
+    </row>
+    <row r="79" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A79" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="82"/>
+    </row>
+    <row r="80" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A80" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="82"/>
+    </row>
+    <row r="81" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A81" s="80">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="82"/>
+    </row>
+    <row r="82" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A82" s="43"/>
+      <c r="B82" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" s="76"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="78"/>
+    </row>
+    <row r="83" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A83" s="80">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="82"/>
+    </row>
+    <row r="84" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A84" s="80">
+        <f t="shared" ref="A84:A192" ca="1" si="2">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
+        <v>59</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="82"/>
+    </row>
+    <row r="85" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A85" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="82"/>
+    </row>
+    <row r="86" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A86" s="71"/>
+      <c r="B86" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="73"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="71"/>
+    </row>
+    <row r="87" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A87" s="43"/>
+      <c r="B87" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="76"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="78"/>
+    </row>
+    <row r="88" spans="1:9" s="27" customFormat="1">
+      <c r="A88" s="80">
+        <f ca="1">A85+1</f>
+        <v>61</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="26"/>
+    </row>
+    <row r="89" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A89" s="80">
+        <f t="shared" ref="A88:A124" ca="1" si="3">IF(OFFSET(A89,-1,0) ="",OFFSET(A89,-2,0)+1,OFFSET(A89,-1,0)+1 )</f>
+        <v>62</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="26"/>
+    </row>
+    <row r="90" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A90" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="26"/>
+    </row>
+    <row r="91" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A91" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="26"/>
+    </row>
+    <row r="92" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A92" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A93" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="82"/>
+    </row>
+    <row r="94" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A94" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="26"/>
+    </row>
+    <row r="95" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A95" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="82"/>
+    </row>
+    <row r="96" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A96" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="82"/>
+    </row>
+    <row r="97" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A97" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="82"/>
+    </row>
+    <row r="98" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A98" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="82"/>
+    </row>
+    <row r="99" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A99" s="43"/>
+      <c r="B99" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="76"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="79"/>
+      <c r="H99" s="79"/>
+      <c r="I99" s="78"/>
+    </row>
+    <row r="100" spans="1:9" s="27" customFormat="1">
+      <c r="A100" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="26"/>
+    </row>
+    <row r="101" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A101" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="26"/>
+    </row>
+    <row r="102" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A102" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="26"/>
+    </row>
+    <row r="103" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A103" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B103" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="26"/>
+    </row>
+    <row r="104" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A104" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="26"/>
+    </row>
+    <row r="105" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A105" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="26"/>
+    </row>
+    <row r="106" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A106" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="26"/>
+    </row>
+    <row r="107" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A107" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="82"/>
+    </row>
+    <row r="108" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A108" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="82"/>
+    </row>
+    <row r="109" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A109" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="82"/>
+    </row>
+    <row r="110" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A110" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="82"/>
+    </row>
+    <row r="111" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A111" s="43"/>
+      <c r="B111" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" s="76"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="78"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="79"/>
+      <c r="H111" s="79"/>
+      <c r="I111" s="78"/>
+    </row>
+    <row r="112" spans="1:9" s="27" customFormat="1">
+      <c r="A112" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="26"/>
+    </row>
+    <row r="113" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A113" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="26"/>
+    </row>
+    <row r="114" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A114" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="26"/>
+    </row>
+    <row r="115" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A115" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="26"/>
+    </row>
+    <row r="116" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A116" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="26"/>
+    </row>
+    <row r="117" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A117" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="26"/>
+    </row>
+    <row r="118" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A118" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="26"/>
+    </row>
+    <row r="119" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A119" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="26"/>
+    </row>
+    <row r="120" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A120" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="82"/>
+    </row>
+    <row r="121" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A121" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="82"/>
+    </row>
+    <row r="122" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A122" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="82"/>
+    </row>
+    <row r="123" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A123" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="82"/>
+    </row>
+    <row r="124" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A124" s="80">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="82"/>
+    </row>
+    <row r="125" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A125" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="82"/>
+    </row>
+    <row r="126" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A126" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="82"/>
+    </row>
+    <row r="127" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A127" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="82"/>
+    </row>
+    <row r="128" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A128" s="43"/>
+      <c r="B128" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" s="76"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="79"/>
+      <c r="G128" s="79"/>
+      <c r="H128" s="79"/>
+      <c r="I128" s="78"/>
+    </row>
+    <row r="129" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A129" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="82"/>
+    </row>
+    <row r="130" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A130" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="82"/>
+    </row>
+    <row r="131" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A131" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="82"/>
+    </row>
+    <row r="132" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A132" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="82"/>
+    </row>
+    <row r="133" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A133" s="43"/>
+      <c r="B133" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C133" s="76"/>
+      <c r="D133" s="77"/>
+      <c r="E133" s="78"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="79"/>
+      <c r="H133" s="79"/>
+      <c r="I133" s="78"/>
+    </row>
+    <row r="134" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A134" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="82"/>
+    </row>
+    <row r="135" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A135" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="82"/>
+    </row>
+    <row r="136" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A136" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="82"/>
+    </row>
+    <row r="137" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A137" s="43"/>
+      <c r="B137" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C137" s="76"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="79"/>
+      <c r="H137" s="79"/>
+      <c r="I137" s="78"/>
+    </row>
+    <row r="138" spans="1:9" s="27" customFormat="1">
+      <c r="A138" s="80">
+        <f t="shared" ref="A138:A149" ca="1" si="4">IF(OFFSET(A138,-1,0) ="",OFFSET(A138,-2,0)+1,OFFSET(A138,-1,0)+1 )</f>
+        <v>106</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="26"/>
+    </row>
+    <row r="139" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A139" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D139" s="24"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="26"/>
+    </row>
+    <row r="140" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A140" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="26"/>
+    </row>
+    <row r="141" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A141" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B141" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="26"/>
+    </row>
+    <row r="142" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A142" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="26"/>
+    </row>
+    <row r="143" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A143" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="26"/>
+    </row>
+    <row r="144" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A144" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="82"/>
+    </row>
+    <row r="145" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A145" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="26"/>
+    </row>
+    <row r="146" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A146" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="82"/>
+    </row>
+    <row r="147" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A147" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="82"/>
+    </row>
+    <row r="148" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A148" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="82"/>
+    </row>
+    <row r="149" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A149" s="80">
+        <f t="shared" ca="1" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="82"/>
+    </row>
+    <row r="150" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A150" s="43"/>
+      <c r="B150" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C150" s="76"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="79"/>
+      <c r="G150" s="79"/>
+      <c r="H150" s="79"/>
+      <c r="I150" s="78"/>
+    </row>
+    <row r="151" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A151" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="82"/>
+    </row>
+    <row r="152" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A152" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="82"/>
+    </row>
+    <row r="153" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A153" s="80">
+        <f t="shared" ca="1" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="82"/>
+    </row>
+    <row r="154" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A154" s="83"/>
+      <c r="B154" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C154" s="73"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="84"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="84"/>
+    </row>
+    <row r="155" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A155" s="43"/>
+      <c r="B155" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="C155" s="76"/>
+      <c r="D155" s="77"/>
+      <c r="E155" s="78"/>
+      <c r="F155" s="79"/>
+      <c r="G155" s="79"/>
+      <c r="H155" s="79"/>
+      <c r="I155" s="78"/>
+    </row>
+    <row r="156" spans="1:9" s="27" customFormat="1">
+      <c r="A156" s="80">
+        <f ca="1">A153+1</f>
+        <v>121</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="26"/>
+    </row>
+    <row r="157" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A157" s="80">
+        <f ca="1">IF(OFFSET(A157,-1,0) ="",OFFSET(A157,-2,0)+1,OFFSET(A157,-1,0)+1 )</f>
+        <v>122</v>
+      </c>
+      <c r="B157" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="82"/>
+    </row>
+    <row r="158" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A158" s="80">
+        <f ca="1">IF(OFFSET(A158,-1,0) ="",OFFSET(A158,-2,0)+1,OFFSET(A158,-1,0)+1 )</f>
+        <v>123</v>
+      </c>
+      <c r="B158" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C158" s="86"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="82"/>
+    </row>
+    <row r="159" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A159" s="43"/>
+      <c r="B159" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="C159" s="76"/>
+      <c r="D159" s="77"/>
+      <c r="E159" s="78"/>
+      <c r="F159" s="79"/>
+      <c r="G159" s="79"/>
+      <c r="H159" s="79"/>
+      <c r="I159" s="78"/>
+    </row>
+    <row r="160" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A160" s="80">
+        <f t="shared" ref="A160:A163" ca="1" si="5">IF(OFFSET(A160,-1,0) ="",OFFSET(A160,-2,0)+1,OFFSET(A160,-1,0)+1 )</f>
+        <v>124</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="82"/>
+    </row>
+    <row r="161" spans="1:9" s="27" customFormat="1">
+      <c r="A161" s="80">
+        <f t="shared" ca="1" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="26"/>
+    </row>
+    <row r="162" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A162" s="80">
+        <f t="shared" ca="1" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="B162" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="85"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="82"/>
+    </row>
+    <row r="163" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A163" s="80">
+        <f t="shared" ca="1" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="B163" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C163" s="86"/>
+      <c r="D163" s="85"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="82"/>
+    </row>
+    <row r="164" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A164" s="43"/>
+      <c r="B164" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C164" s="76"/>
+      <c r="D164" s="77"/>
+      <c r="E164" s="78"/>
+      <c r="F164" s="79"/>
+      <c r="G164" s="79"/>
+      <c r="H164" s="79"/>
+      <c r="I164" s="78"/>
+    </row>
+    <row r="165" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A165" s="87">
+        <f t="shared" ca="1" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="87"/>
+    </row>
+    <row r="166" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A166" s="43"/>
+      <c r="B166" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C166" s="76"/>
+      <c r="D166" s="77"/>
+      <c r="E166" s="78"/>
+      <c r="F166" s="79"/>
+      <c r="G166" s="79"/>
+      <c r="H166" s="79"/>
+      <c r="I166" s="78"/>
+    </row>
+    <row r="167" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A167" s="87">
+        <f t="shared" ref="A167" ca="1" si="6">IF(OFFSET(A167,-1,0) ="",OFFSET(A167,-2,0)+1,OFFSET(A167,-1,0)+1 )</f>
+        <v>129</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60:H60 F18:H19 F166:H166 F65:H65 F82:H82 F31:H31 F43:H43 F155:H155 F159:H159 F164:H164 F69:H69 F128:H128 F86:H87 F133:H133 F150:H150 F99:H99 F111:H111 F137:H137"/>
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
+    <dataValidation type="list" allowBlank="1" sqref="F61:H64 F66:H68 F44:H59 F32:H42 F70:H81 F165:H165 F167:H167 F156:H158 F20:H30 F83:H85 F151:H154 F129:H132 F134:H136 F112:H127 F100:H110 F138:H149 F160:H163 F88:H98">
+      <formula1>$A$11:$A$15</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
+++ b/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
@@ -12,7 +12,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assignment 1'!$A$17:$X$17</definedName>
@@ -247,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F167" authorId="0" shapeId="0">
+    <comment ref="F96" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="220">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -774,48 +773,6 @@
     <t>Verify that the big photo frame switch from the last photo to the close-to-last photo</t>
   </si>
   <si>
-    <t>1. Check fields of Sign up with Email function</t>
-  </si>
-  <si>
-    <t>Check Email</t>
-  </si>
-  <si>
-    <t>When Email is in default status</t>
-  </si>
-  <si>
-    <t>When the user enters alphabetic characters into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters special characters into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters numeric characters into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters space in the middle of a valid characters
-string into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters space at the beginning and the end of a valid characters
-string into the Email box</t>
-  </si>
-  <si>
-    <t>When the user doesn't enter any character
-into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters a string of spaces into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters less than 10 valid characters into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters 10 valid characters into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters greater than 10 valid characters into the Email box</t>
-  </si>
-  <si>
     <t>Check SMS Verification Code</t>
   </si>
   <si>
@@ -829,14 +786,6 @@
   </si>
   <si>
     <t>When the user enters numeric characters into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user enters space in the middle of a valid characters
-string into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user enters space at the beginning and the end of a valid characters
-string into the SMS Verification Code box</t>
   </si>
   <si>
     <t>When the user doesn't enter any character
@@ -984,85 +933,12 @@
     <t>When Check box is checked</t>
   </si>
   <si>
-    <t>2. Check fields of Sign up with Email function</t>
-  </si>
-  <si>
-    <t>When the user enters correct email format into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters incorrect email format into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters space in the middle of a valid characters string into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters space at the beginning and the end of a valid characters string into the Email box</t>
-  </si>
-  <si>
-    <t>When the user doesn't enter any character into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters less than 6 valid characters into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters 6 valid characters into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters 60 valid characters into the Email box</t>
-  </si>
-  <si>
-    <t>When the user enters greater than 60 valid characters into the Email box</t>
-  </si>
-  <si>
-    <t>Check Email Code</t>
-  </si>
-  <si>
-    <t>When Email Code is in default status</t>
-  </si>
-  <si>
-    <t>When the user enters alphabetic characters into the Email Code box</t>
-  </si>
-  <si>
-    <t>When the user enters special characters into the Email Code box</t>
-  </si>
-  <si>
-    <t>When the user enters numeric characters into the Email Code box</t>
-  </si>
-  <si>
-    <t>When the user enters space in the middle of a valid characters string into the Email Code box</t>
-  </si>
-  <si>
-    <t>When the user enters space at the beginning and the end of a valid characters string into the Email Code box</t>
-  </si>
-  <si>
-    <t>When the user doesn't enter any character
-into the Email Code box</t>
-  </si>
-  <si>
-    <t>When the user enters a string of spaces into the Email Code box</t>
-  </si>
-  <si>
-    <t>When the user enters less than 6 valid characters into the Email Code box</t>
-  </si>
-  <si>
-    <t>When the user enters 6 valid characters into the Email Code box</t>
-  </si>
-  <si>
-    <t>When the user enters greater than 6 valid characters into the Email Code box</t>
-  </si>
-  <si>
-    <t>3. Check Sign up function</t>
-  </si>
-  <si>
     <t>Check Sign up with Email</t>
   </si>
   <si>
     <t>When all fields are enters valid data</t>
   </si>
   <si>
-    <t>When the user enters a registered Email</t>
-  </si>
-  <si>
     <t>When the user enters any invalid fields</t>
   </si>
   <si>
@@ -1079,6 +955,60 @@
   </si>
   <si>
     <t>When the user clicks on ‘Google’ button</t>
+  </si>
+  <si>
+    <t>1. Check fields of Sign up with Phone number function</t>
+  </si>
+  <si>
+    <t>2. Check Sign up function</t>
+  </si>
+  <si>
+    <t>Check Phone Number</t>
+  </si>
+  <si>
+    <t>When Phone number is in default status</t>
+  </si>
+  <si>
+    <t>When the user enters alphabetic characters into the Phone number box</t>
+  </si>
+  <si>
+    <t>When the user enters special characters into the Phone number box</t>
+  </si>
+  <si>
+    <t>When the user enters numeric characters into the Phone number box</t>
+  </si>
+  <si>
+    <t>When the user enters a string of spaces into the Phone number box</t>
+  </si>
+  <si>
+    <t>When the user enters less than 10 valid characters into the Phone number box</t>
+  </si>
+  <si>
+    <t>When the user enters 10 valid characters into the Phone number box</t>
+  </si>
+  <si>
+    <t>When the user enters greater than 10 valid characters into the Phone number box</t>
+  </si>
+  <si>
+    <t>When the user enters space in the middle of a valid characters string into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user enters space at the beginning and the end of a valid characters string into the SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>When the user enters space in the middle of a valid characters string into the Phone number box</t>
+  </si>
+  <si>
+    <t>When the user enters space at the beginning and the end of a valid characters string into the Phone number box</t>
+  </si>
+  <si>
+    <t>When the user doesn't enter any character into the Phone number box</t>
+  </si>
+  <si>
+    <t>Check Sign up with Phone Number</t>
+  </si>
+  <si>
+    <t>When the user enters a registered Phone Number</t>
   </si>
 </sst>
 </file>
@@ -1521,42 +1451,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1568,15 +1462,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1616,6 +1501,51 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1657,21 +1587,6 @@
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Assignment 1"/>
-      <sheetName val="Assignment 2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1958,10 +1873,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1970,13 +1885,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1985,9 +1900,9 @@
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1998,11 +1913,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2016,9 +1931,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2032,9 +1947,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2045,11 +1960,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2061,9 +1976,9 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1">
@@ -2206,11 +2121,11 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:16384" s="21" customFormat="1" ht="38.25">
@@ -2244,11 +2159,11 @@
     </row>
     <row r="18" spans="1:16384" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -19097,11 +19012,11 @@
     </row>
     <row r="43" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="30"/>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
       <c r="E43" s="31"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -19476,16 +19391,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X167"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="37" customWidth="1"/>
     <col min="3" max="4" width="35.140625" style="37" customWidth="1"/>
     <col min="5" max="5" width="32.140625" style="37" customWidth="1"/>
     <col min="6" max="8" width="9.7109375" style="37" customWidth="1"/>
@@ -19494,10 +19409,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -19506,13 +19421,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -19521,9 +19436,9 @@
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="62"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -19534,11 +19449,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -19552,9 +19467,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -19568,9 +19483,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -19581,11 +19496,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -19597,14 +19512,14 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1">
       <c r="A9" s="39" t="s">
@@ -19622,11 +19537,11 @@
         <f>H17</f>
         <v>External build 16112011</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:24" s="12" customFormat="1">
       <c r="A10" s="40" t="s">
@@ -19644,70 +19559,70 @@
         <f>SUM(D11:D14)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:24" s="12" customFormat="1">
       <c r="A11" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="15">
-        <f>COUNTIF($F$18:$F$167,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$96,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="15">
-        <f>COUNTIF($G$18:$G$167,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$96,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <f>COUNTIF($H$18:$H$167,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$96,"*Passed")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1">
       <c r="A12" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="15">
-        <f>COUNTIF($F$18:$F$167,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$96,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <f>COUNTIF($G$18:$G$167,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$96,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <f>COUNTIF($H$18:$H$167,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$96,"*Failed*")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1">
       <c r="A13" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="15">
-        <f>COUNTIF($F$18:$F$167,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$96,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="15">
-        <f>COUNTIF($G$18:$G$167,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$96,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <f>COUNTIF($H$18:$H$167,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$96,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="8"/>
@@ -19721,15 +19636,15 @@
         <v>16</v>
       </c>
       <c r="B14" s="15">
-        <f>COUNTIF($F$18:$F$167,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$96,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <f>COUNTIF($G$18:$G$167,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$96,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <f>COUNTIF($H$18:$H$167,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$96,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="8"/>
@@ -19743,15 +19658,15 @@
         <v>17</v>
       </c>
       <c r="B15" s="15">
-        <f>COUNTIF($F$18:$F$167,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$96,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="15">
-        <f>COUNTIF($G$18:$G$167,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$96,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <f>COUNTIF($H$18:$H$167,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$96,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="8"/>
@@ -19761,16 +19676,16 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:24" s="21" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
@@ -19803,38 +19718,38 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="71"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="43"/>
       <c r="B19" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="78"/>
+        <v>204</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="63"/>
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1">
-      <c r="A20" s="80">
+      <c r="A20" s="65">
         <f t="shared" ref="A20:A83" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="24"/>
@@ -19845,12 +19760,12 @@
       <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A21" s="80">
+      <c r="A21" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
@@ -19860,12 +19775,12 @@
       <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A22" s="80">
+      <c r="A22" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="24"/>
@@ -19876,12 +19791,12 @@
       <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A23" s="80">
+      <c r="A23" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B23" s="81" t="s">
-        <v>147</v>
+      <c r="B23" s="66" t="s">
+        <v>208</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="24"/>
@@ -19891,13 +19806,13 @@
       <c r="H23" s="1"/>
       <c r="I23" s="26"/>
     </row>
-    <row r="24" spans="1:9" s="27" customFormat="1" ht="38.25">
-      <c r="A24" s="80">
+    <row r="24" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A24" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="24"/>
@@ -19907,13 +19822,13 @@
       <c r="H24" s="1"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" spans="1:9" s="27" customFormat="1" ht="38.25">
-      <c r="A25" s="80">
+    <row r="25" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A25" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="24"/>
@@ -19924,12 +19839,12 @@
       <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A26" s="80">
+      <c r="A26" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="24"/>
@@ -19937,15 +19852,15 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="82"/>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A27" s="80">
+      <c r="A27" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="24"/>
@@ -19956,12 +19871,12 @@
       <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A28" s="80">
+      <c r="A28" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="24"/>
@@ -19969,15 +19884,15 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="82"/>
+      <c r="I28" s="67"/>
     </row>
     <row r="29" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A29" s="80">
+      <c r="A29" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="24"/>
@@ -19985,15 +19900,15 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="82"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A30" s="80">
+      <c r="A30" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="24"/>
@@ -20001,28 +19916,28 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="82"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="43"/>
       <c r="B31" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="78"/>
+        <v>142</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="63"/>
     </row>
     <row r="32" spans="1:9" s="27" customFormat="1">
-      <c r="A32" s="80">
+      <c r="A32" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="24"/>
@@ -20033,12 +19948,12 @@
       <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A33" s="80">
+      <c r="A33" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="25"/>
@@ -20048,12 +19963,12 @@
       <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A34" s="80">
+      <c r="A34" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="24"/>
@@ -20064,12 +19979,12 @@
       <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A35" s="80">
+      <c r="A35" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="B35" s="81" t="s">
-        <v>159</v>
+      <c r="B35" s="66" t="s">
+        <v>146</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="24"/>
@@ -20079,13 +19994,13 @@
       <c r="H35" s="1"/>
       <c r="I35" s="26"/>
     </row>
-    <row r="36" spans="1:9" s="27" customFormat="1" ht="38.25">
-      <c r="A36" s="80">
+    <row r="36" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A36" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="24"/>
@@ -20095,13 +20010,13 @@
       <c r="H36" s="1"/>
       <c r="I36" s="26"/>
     </row>
-    <row r="37" spans="1:9" s="27" customFormat="1" ht="38.25">
-      <c r="A37" s="80">
+    <row r="37" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A37" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="24"/>
@@ -20112,12 +20027,12 @@
       <c r="I37" s="26"/>
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A38" s="80">
+      <c r="A38" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="24"/>
@@ -20128,12 +20043,12 @@
       <c r="I38" s="26"/>
     </row>
     <row r="39" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A39" s="80">
+      <c r="A39" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="24"/>
@@ -20141,15 +20056,15 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="82"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A40" s="80">
+      <c r="A40" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="24"/>
@@ -20157,15 +20072,15 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="82"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A41" s="80">
+      <c r="A41" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="24"/>
@@ -20173,15 +20088,15 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="82"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A42" s="80">
+      <c r="A42" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="24"/>
@@ -20189,28 +20104,28 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="82"/>
+      <c r="I42" s="67"/>
     </row>
     <row r="43" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="43"/>
       <c r="B43" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="78"/>
+        <v>152</v>
+      </c>
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="63"/>
     </row>
     <row r="44" spans="1:9" s="27" customFormat="1">
-      <c r="A44" s="80">
+      <c r="A44" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="24"/>
@@ -20221,12 +20136,12 @@
       <c r="I44" s="26"/>
     </row>
     <row r="45" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A45" s="80">
+      <c r="A45" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="24"/>
@@ -20237,12 +20152,12 @@
       <c r="I45" s="26"/>
     </row>
     <row r="46" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A46" s="80">
+      <c r="A46" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="25"/>
@@ -20252,12 +20167,12 @@
       <c r="I46" s="26"/>
     </row>
     <row r="47" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A47" s="80">
+      <c r="A47" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="24"/>
@@ -20268,12 +20183,12 @@
       <c r="I47" s="26"/>
     </row>
     <row r="48" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A48" s="80">
+      <c r="A48" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="24"/>
@@ -20284,12 +20199,12 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A49" s="80">
+      <c r="A49" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="24"/>
@@ -20300,12 +20215,12 @@
       <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A50" s="80">
+      <c r="A50" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="24"/>
@@ -20316,12 +20231,12 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A51" s="80">
+      <c r="A51" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="24"/>
@@ -20332,12 +20247,12 @@
       <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A52" s="80">
+      <c r="A52" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="24"/>
@@ -20345,15 +20260,15 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="82"/>
+      <c r="I52" s="67"/>
     </row>
     <row r="53" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A53" s="80">
+      <c r="A53" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="24"/>
@@ -20361,15 +20276,15 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="82"/>
+      <c r="I53" s="67"/>
     </row>
     <row r="54" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A54" s="80">
+      <c r="A54" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="24"/>
@@ -20377,15 +20292,15 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="82"/>
+      <c r="I54" s="67"/>
     </row>
     <row r="55" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A55" s="80">
+      <c r="A55" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="24"/>
@@ -20393,15 +20308,15 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="82"/>
+      <c r="I55" s="67"/>
     </row>
     <row r="56" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A56" s="80">
+      <c r="A56" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="24"/>
@@ -20409,15 +20324,15 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="82"/>
+      <c r="I56" s="67"/>
     </row>
     <row r="57" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A57" s="80">
+      <c r="A57" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="24"/>
@@ -20425,15 +20340,15 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="82"/>
+      <c r="I57" s="67"/>
     </row>
     <row r="58" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A58" s="80">
+      <c r="A58" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>37</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="24"/>
@@ -20441,15 +20356,15 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="82"/>
+      <c r="I58" s="67"/>
     </row>
     <row r="59" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A59" s="80">
+      <c r="A59" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="24"/>
@@ -20457,28 +20372,28 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="82"/>
+      <c r="I59" s="67"/>
     </row>
     <row r="60" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A60" s="43"/>
       <c r="B60" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="78"/>
+        <v>169</v>
+      </c>
+      <c r="C60" s="61"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="63"/>
     </row>
     <row r="61" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A61" s="80">
+      <c r="A61" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="24"/>
@@ -20486,15 +20401,15 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="82"/>
+      <c r="I61" s="67"/>
     </row>
     <row r="62" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A62" s="80">
+      <c r="A62" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="24"/>
@@ -20502,15 +20417,15 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="82"/>
+      <c r="I62" s="67"/>
     </row>
     <row r="63" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A63" s="80">
+      <c r="A63" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="24"/>
@@ -20518,15 +20433,15 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="82"/>
+      <c r="I63" s="67"/>
     </row>
     <row r="64" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A64" s="80">
+      <c r="A64" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="24"/>
@@ -20534,28 +20449,28 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="82"/>
+      <c r="I64" s="67"/>
     </row>
     <row r="65" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A65" s="43"/>
       <c r="B65" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="76"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="78"/>
+        <v>174</v>
+      </c>
+      <c r="C65" s="61"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="63"/>
     </row>
     <row r="66" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A66" s="80">
+      <c r="A66" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="24"/>
@@ -20563,15 +20478,15 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="82"/>
+      <c r="I66" s="67"/>
     </row>
     <row r="67" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A67" s="80">
+      <c r="A67" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="24"/>
@@ -20579,15 +20494,15 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="82"/>
+      <c r="I67" s="67"/>
     </row>
     <row r="68" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A68" s="80">
+      <c r="A68" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="24"/>
@@ -20595,28 +20510,28 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="82"/>
+      <c r="I68" s="67"/>
     </row>
     <row r="69" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="43"/>
       <c r="B69" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="76"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="78"/>
+        <v>177</v>
+      </c>
+      <c r="C69" s="61"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="63"/>
     </row>
     <row r="70" spans="1:9" s="27" customFormat="1">
-      <c r="A70" s="80">
+      <c r="A70" s="65">
         <f t="shared" ref="A70:A81" ca="1" si="1">IF(OFFSET(A70,-1,0) ="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1 )</f>
         <v>46</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="24"/>
@@ -20627,12 +20542,12 @@
       <c r="I70" s="26"/>
     </row>
     <row r="71" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A71" s="80">
+      <c r="A71" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="25"/>
@@ -20642,12 +20557,12 @@
       <c r="I71" s="26"/>
     </row>
     <row r="72" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A72" s="80">
+      <c r="A72" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>48</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="24"/>
@@ -20658,12 +20573,12 @@
       <c r="I72" s="26"/>
     </row>
     <row r="73" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A73" s="80">
+      <c r="A73" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
-      <c r="B73" s="81" t="s">
-        <v>196</v>
+      <c r="B73" s="66" t="s">
+        <v>181</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="24"/>
@@ -20674,12 +20589,12 @@
       <c r="I73" s="26"/>
     </row>
     <row r="74" spans="1:9" s="27" customFormat="1" ht="38.25">
-      <c r="A74" s="80">
+      <c r="A74" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>50</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="24"/>
@@ -20690,12 +20605,12 @@
       <c r="I74" s="26"/>
     </row>
     <row r="75" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A75" s="80">
+      <c r="A75" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="24"/>
@@ -20706,12 +20621,12 @@
       <c r="I75" s="26"/>
     </row>
     <row r="76" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A76" s="80">
+      <c r="A76" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="24"/>
@@ -20719,15 +20634,15 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="82"/>
+      <c r="I76" s="67"/>
     </row>
     <row r="77" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A77" s="80">
+      <c r="A77" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="24"/>
@@ -20738,12 +20653,12 @@
       <c r="I77" s="26"/>
     </row>
     <row r="78" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A78" s="80">
+      <c r="A78" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>54</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="24"/>
@@ -20751,15 +20666,15 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="82"/>
+      <c r="I78" s="67"/>
     </row>
     <row r="79" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A79" s="80">
+      <c r="A79" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="24"/>
@@ -20767,15 +20682,15 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="82"/>
+      <c r="I79" s="67"/>
     </row>
     <row r="80" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A80" s="80">
+      <c r="A80" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>56</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="24"/>
@@ -20783,15 +20698,15 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="82"/>
+      <c r="I80" s="67"/>
     </row>
     <row r="81" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A81" s="80">
+      <c r="A81" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>57</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="24"/>
@@ -20799,28 +20714,28 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="82"/>
+      <c r="I81" s="67"/>
     </row>
     <row r="82" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A82" s="43"/>
       <c r="B82" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="78"/>
+        <v>190</v>
+      </c>
+      <c r="C82" s="61"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="63"/>
     </row>
     <row r="83" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A83" s="80">
+      <c r="A83" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="24"/>
@@ -20828,15 +20743,15 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="82"/>
+      <c r="I83" s="67"/>
     </row>
     <row r="84" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A84" s="80">
-        <f t="shared" ref="A84:A192" ca="1" si="2">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
+      <c r="A84" s="65">
+        <f t="shared" ref="A84:A94" ca="1" si="2">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
         <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="24"/>
@@ -20844,15 +20759,15 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="82"/>
+      <c r="I84" s="67"/>
     </row>
     <row r="85" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A85" s="80">
+      <c r="A85" s="65">
         <f t="shared" ca="1" si="2"/>
         <v>60</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="24"/>
@@ -20860,41 +20775,41 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="82"/>
+      <c r="I85" s="67"/>
     </row>
-    <row r="86" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A86" s="71"/>
-      <c r="B86" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="C86" s="73"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="75"/>
-      <c r="G86" s="75"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="71"/>
+    <row r="86" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A86" s="68"/>
+      <c r="B86" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="86"/>
+      <c r="D86" s="87"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="69"/>
     </row>
     <row r="87" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A87" s="43"/>
       <c r="B87" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C87" s="76"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="79"/>
-      <c r="H87" s="79"/>
-      <c r="I87" s="78"/>
+        <v>218</v>
+      </c>
+      <c r="C87" s="61"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="63"/>
     </row>
     <row r="88" spans="1:9" s="27" customFormat="1">
-      <c r="A88" s="80">
+      <c r="A88" s="65">
         <f ca="1">A85+1</f>
         <v>61</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="24"/>
@@ -20904,60 +20819,58 @@
       <c r="H88" s="1"/>
       <c r="I88" s="26"/>
     </row>
-    <row r="89" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A89" s="80">
-        <f t="shared" ref="A88:A124" ca="1" si="3">IF(OFFSET(A89,-1,0) ="",OFFSET(A89,-2,0)+1,OFFSET(A89,-1,0)+1 )</f>
+    <row r="89" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A89" s="65">
+        <f ca="1">IF(OFFSET(A89,-1,0) ="",OFFSET(A89,-2,0)+1,OFFSET(A89,-1,0)+1 )</f>
         <v>62</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D89" s="24"/>
+      <c r="B89" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="70"/>
       <c r="E89" s="25"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="26"/>
+      <c r="I89" s="67"/>
     </row>
-    <row r="90" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A90" s="80">
-        <f t="shared" ca="1" si="3"/>
+    <row r="90" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A90" s="65">
+        <f ca="1">IF(OFFSET(A90,-1,0) ="",OFFSET(A90,-2,0)+1,OFFSET(A90,-1,0)+1 )</f>
         <v>63</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="24"/>
+      <c r="B90" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="71"/>
+      <c r="D90" s="70"/>
       <c r="E90" s="25"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="26"/>
+      <c r="I90" s="67"/>
     </row>
-    <row r="91" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A91" s="80">
-        <f t="shared" ca="1" si="3"/>
+    <row r="91" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A91" s="43"/>
+      <c r="B91" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="61"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="63"/>
+    </row>
+    <row r="92" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A92" s="65">
+        <f t="shared" ref="A92" ca="1" si="3">IF(OFFSET(A92,-1,0) ="",OFFSET(A92,-2,0)+1,OFFSET(A92,-1,0)+1 )</f>
         <v>64</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="26"/>
-    </row>
-    <row r="92" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A92" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
       <c r="B92" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="24"/>
@@ -20965,1192 +20878,85 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="26"/>
+      <c r="I92" s="67"/>
     </row>
-    <row r="93" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A93" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="82"/>
+    <row r="93" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A93" s="43"/>
+      <c r="B93" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="61"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="63"/>
     </row>
-    <row r="94" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A94" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+    <row r="94" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A94" s="72">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="24"/>
       <c r="E94" s="25"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="25"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="26"/>
+      <c r="I94" s="72"/>
     </row>
-    <row r="95" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A95" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="82"/>
+    <row r="95" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A95" s="43"/>
+      <c r="B95" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="61"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="63"/>
     </row>
-    <row r="96" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A96" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+    <row r="96" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A96" s="72">
+        <f t="shared" ref="A96" ca="1" si="4">IF(OFFSET(A96,-1,0) ="",OFFSET(A96,-2,0)+1,OFFSET(A96,-1,0)+1 )</f>
+        <v>66</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="24"/>
       <c r="E96" s="25"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="25"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="82"/>
-    </row>
-    <row r="97" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A97" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="82"/>
-    </row>
-    <row r="98" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A98" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="82"/>
-    </row>
-    <row r="99" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A99" s="43"/>
-      <c r="B99" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" s="76"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="78"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="79"/>
-      <c r="H99" s="79"/>
-      <c r="I99" s="78"/>
-    </row>
-    <row r="100" spans="1:9" s="27" customFormat="1">
-      <c r="A100" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="26"/>
-    </row>
-    <row r="101" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A101" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="26"/>
-    </row>
-    <row r="102" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A102" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="26"/>
-    </row>
-    <row r="103" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A103" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="B103" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="26"/>
-    </row>
-    <row r="104" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A104" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="26"/>
-    </row>
-    <row r="105" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A105" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="26"/>
-    </row>
-    <row r="106" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A106" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="26"/>
-    </row>
-    <row r="107" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A107" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="82"/>
-    </row>
-    <row r="108" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A108" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="82"/>
-    </row>
-    <row r="109" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A109" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="82"/>
-    </row>
-    <row r="110" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A110" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="82"/>
-    </row>
-    <row r="111" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A111" s="43"/>
-      <c r="B111" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C111" s="76"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="78"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="79"/>
-      <c r="H111" s="79"/>
-      <c r="I111" s="78"/>
-    </row>
-    <row r="112" spans="1:9" s="27" customFormat="1">
-      <c r="A112" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="26"/>
-    </row>
-    <row r="113" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A113" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="26"/>
-    </row>
-    <row r="114" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A114" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D114" s="24"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="26"/>
-    </row>
-    <row r="115" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A115" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="26"/>
-    </row>
-    <row r="116" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A116" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="26"/>
-    </row>
-    <row r="117" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A117" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="26"/>
-    </row>
-    <row r="118" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A118" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>89</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="26"/>
-    </row>
-    <row r="119" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A119" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="26"/>
-    </row>
-    <row r="120" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A120" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="82"/>
-    </row>
-    <row r="121" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A121" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="82"/>
-    </row>
-    <row r="122" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A122" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>93</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="82"/>
-    </row>
-    <row r="123" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A123" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>94</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="82"/>
-    </row>
-    <row r="124" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A124" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="82"/>
-    </row>
-    <row r="125" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A125" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="82"/>
-    </row>
-    <row r="126" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A126" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="82"/>
-    </row>
-    <row r="127" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A127" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="82"/>
-    </row>
-    <row r="128" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A128" s="43"/>
-      <c r="B128" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="C128" s="76"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="79"/>
-      <c r="G128" s="79"/>
-      <c r="H128" s="79"/>
-      <c r="I128" s="78"/>
-    </row>
-    <row r="129" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A129" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="82"/>
-    </row>
-    <row r="130" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A130" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="82"/>
-    </row>
-    <row r="131" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A131" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="82"/>
-    </row>
-    <row r="132" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A132" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="82"/>
-    </row>
-    <row r="133" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A133" s="43"/>
-      <c r="B133" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C133" s="76"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="78"/>
-      <c r="F133" s="79"/>
-      <c r="G133" s="79"/>
-      <c r="H133" s="79"/>
-      <c r="I133" s="78"/>
-    </row>
-    <row r="134" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A134" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="82"/>
-    </row>
-    <row r="135" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A135" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="82"/>
-    </row>
-    <row r="136" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A136" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="82"/>
-    </row>
-    <row r="137" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A137" s="43"/>
-      <c r="B137" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C137" s="76"/>
-      <c r="D137" s="77"/>
-      <c r="E137" s="78"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="79"/>
-      <c r="H137" s="79"/>
-      <c r="I137" s="78"/>
-    </row>
-    <row r="138" spans="1:9" s="27" customFormat="1">
-      <c r="A138" s="80">
-        <f t="shared" ref="A138:A149" ca="1" si="4">IF(OFFSET(A138,-1,0) ="",OFFSET(A138,-2,0)+1,OFFSET(A138,-1,0)+1 )</f>
-        <v>106</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="26"/>
-    </row>
-    <row r="139" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A139" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>107</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D139" s="24"/>
-      <c r="E139" s="25"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="26"/>
-    </row>
-    <row r="140" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A140" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="26"/>
-    </row>
-    <row r="141" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A141" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>109</v>
-      </c>
-      <c r="B141" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="25"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="26"/>
-    </row>
-    <row r="142" spans="1:9" s="27" customFormat="1" ht="38.25">
-      <c r="A142" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="26"/>
-    </row>
-    <row r="143" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A143" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="26"/>
-    </row>
-    <row r="144" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A144" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>112</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="25"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="82"/>
-    </row>
-    <row r="145" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A145" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>113</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="25"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="26"/>
-    </row>
-    <row r="146" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A146" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="82"/>
-    </row>
-    <row r="147" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A147" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="82"/>
-    </row>
-    <row r="148" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A148" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>116</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="25"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="82"/>
-    </row>
-    <row r="149" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A149" s="80">
-        <f t="shared" ca="1" si="4"/>
-        <v>117</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C149" s="1"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="82"/>
-    </row>
-    <row r="150" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A150" s="43"/>
-      <c r="B150" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="C150" s="76"/>
-      <c r="D150" s="77"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="79"/>
-      <c r="G150" s="79"/>
-      <c r="H150" s="79"/>
-      <c r="I150" s="78"/>
-    </row>
-    <row r="151" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A151" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C151" s="1"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="82"/>
-    </row>
-    <row r="152" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A152" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>119</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="25"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="82"/>
-    </row>
-    <row r="153" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A153" s="80">
-        <f t="shared" ca="1" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="24"/>
-      <c r="E153" s="25"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="82"/>
-    </row>
-    <row r="154" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A154" s="83"/>
-      <c r="B154" s="72" t="s">
-        <v>231</v>
-      </c>
-      <c r="C154" s="73"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="84"/>
-      <c r="F154" s="32"/>
-      <c r="G154" s="32"/>
-      <c r="H154" s="32"/>
-      <c r="I154" s="84"/>
-    </row>
-    <row r="155" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A155" s="43"/>
-      <c r="B155" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="C155" s="76"/>
-      <c r="D155" s="77"/>
-      <c r="E155" s="78"/>
-      <c r="F155" s="79"/>
-      <c r="G155" s="79"/>
-      <c r="H155" s="79"/>
-      <c r="I155" s="78"/>
-    </row>
-    <row r="156" spans="1:9" s="27" customFormat="1">
-      <c r="A156" s="80">
-        <f ca="1">A153+1</f>
-        <v>121</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="25"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="26"/>
-    </row>
-    <row r="157" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A157" s="80">
-        <f ca="1">IF(OFFSET(A157,-1,0) ="",OFFSET(A157,-2,0)+1,OFFSET(A157,-1,0)+1 )</f>
-        <v>122</v>
-      </c>
-      <c r="B157" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="85"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="82"/>
-    </row>
-    <row r="158" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A158" s="80">
-        <f ca="1">IF(OFFSET(A158,-1,0) ="",OFFSET(A158,-2,0)+1,OFFSET(A158,-1,0)+1 )</f>
-        <v>123</v>
-      </c>
-      <c r="B158" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="C158" s="86"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="25"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="82"/>
-    </row>
-    <row r="159" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A159" s="43"/>
-      <c r="B159" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="C159" s="76"/>
-      <c r="D159" s="77"/>
-      <c r="E159" s="78"/>
-      <c r="F159" s="79"/>
-      <c r="G159" s="79"/>
-      <c r="H159" s="79"/>
-      <c r="I159" s="78"/>
-    </row>
-    <row r="160" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A160" s="80">
-        <f t="shared" ref="A160:A163" ca="1" si="5">IF(OFFSET(A160,-1,0) ="",OFFSET(A160,-2,0)+1,OFFSET(A160,-1,0)+1 )</f>
-        <v>124</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="24"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="82"/>
-    </row>
-    <row r="161" spans="1:9" s="27" customFormat="1">
-      <c r="A161" s="80">
-        <f t="shared" ca="1" si="5"/>
-        <v>125</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C161" s="1"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="25"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="26"/>
-    </row>
-    <row r="162" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A162" s="80">
-        <f t="shared" ca="1" si="5"/>
-        <v>126</v>
-      </c>
-      <c r="B162" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="C162" s="1"/>
-      <c r="D162" s="85"/>
-      <c r="E162" s="25"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="82"/>
-    </row>
-    <row r="163" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A163" s="80">
-        <f t="shared" ca="1" si="5"/>
-        <v>127</v>
-      </c>
-      <c r="B163" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="C163" s="86"/>
-      <c r="D163" s="85"/>
-      <c r="E163" s="25"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="82"/>
-    </row>
-    <row r="164" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A164" s="43"/>
-      <c r="B164" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="C164" s="76"/>
-      <c r="D164" s="77"/>
-      <c r="E164" s="78"/>
-      <c r="F164" s="79"/>
-      <c r="G164" s="79"/>
-      <c r="H164" s="79"/>
-      <c r="I164" s="78"/>
-    </row>
-    <row r="165" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A165" s="87">
-        <f t="shared" ca="1" si="2"/>
-        <v>128</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C165" s="1"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="87"/>
-    </row>
-    <row r="166" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A166" s="43"/>
-      <c r="B166" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="C166" s="76"/>
-      <c r="D166" s="77"/>
-      <c r="E166" s="78"/>
-      <c r="F166" s="79"/>
-      <c r="G166" s="79"/>
-      <c r="H166" s="79"/>
-      <c r="I166" s="78"/>
-    </row>
-    <row r="167" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A167" s="87">
-        <f t="shared" ref="A167" ca="1" si="6">IF(OFFSET(A167,-1,0) ="",OFFSET(A167,-2,0)+1,OFFSET(A167,-1,0)+1 )</f>
-        <v>129</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C167" s="1"/>
-      <c r="D167" s="24"/>
-      <c r="E167" s="25"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="87"/>
+      <c r="I96" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B154:D154"/>
+  <mergeCells count="12">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60:H60 F18:H19 F166:H166 F65:H65 F82:H82 F31:H31 F43:H43 F155:H155 F159:H159 F164:H164 F69:H69 F128:H128 F86:H87 F133:H133 F150:H150 F99:H99 F111:H111 F137:H137"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60:H60 F18:H19 F95:H95 F65:H65 F82:H82 F31:H31 F43:H43 F87:H87 F91:H91 F93:H93 F69:H69"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" sqref="F61:H64 F66:H68 F44:H59 F32:H42 F70:H81 F165:H165 F167:H167 F156:H158 F20:H30 F83:H85 F151:H154 F129:H132 F134:H136 F112:H127 F100:H110 F138:H149 F160:H163 F88:H98">
+    <dataValidation type="list" allowBlank="1" sqref="F61:H64 F66:H68 F44:H59 F32:H42 F70:H81 F94:H94 F96:H96 F88:H90 F20:H30 F92:H92 F83:H86">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
+++ b/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
@@ -4,65 +4,83 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="3" r:id="rId1"/>
     <sheet name="Assignment 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Assignment 3" sheetId="6" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assignment 1'!$A$17:$X$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Assignment 2'!$A$17:$X$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Assignment 2'!$A$17:$I$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Assignment 3'!$A$17:$X$17</definedName>
     <definedName name="abc" localSheetId="0">#REF!</definedName>
     <definedName name="abc" localSheetId="1">#REF!</definedName>
+    <definedName name="abc" localSheetId="2">#REF!</definedName>
     <definedName name="abc">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="0">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="1">#REF!</definedName>
+    <definedName name="Check_inputed_mail_address" localSheetId="2">#REF!</definedName>
     <definedName name="Check_inputed_mail_address">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="1">#REF!</definedName>
+    <definedName name="CS_IT_1.1_001" localSheetId="2">#REF!</definedName>
     <definedName name="CS_IT_1.1_001">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="1">#REF!</definedName>
+    <definedName name="CS_IT_1.1_002" localSheetId="2">#REF!</definedName>
     <definedName name="CS_IT_1.1_002">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="1">#REF!</definedName>
+    <definedName name="CS_IT_1.1_003" localSheetId="2">#REF!</definedName>
     <definedName name="CS_IT_1.1_003">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="1">#REF!</definedName>
+    <definedName name="CS_IT_1.1_004" localSheetId="2">#REF!</definedName>
     <definedName name="CS_IT_1.1_004">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="0">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="1">#REF!</definedName>
+    <definedName name="Evaluation" localSheetId="2">#REF!</definedName>
     <definedName name="Evaluation">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="0">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="1">#REF!</definedName>
+    <definedName name="JaEnNickname" localSheetId="2">#REF!</definedName>
     <definedName name="JaEnNickname">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="0">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="1">#REF!</definedName>
+    <definedName name="Mail_Magazine" localSheetId="2">#REF!</definedName>
     <definedName name="Mail_Magazine">#REF!</definedName>
     <definedName name="project_code" localSheetId="0">#REF!</definedName>
     <definedName name="project_code" localSheetId="1">#REF!</definedName>
+    <definedName name="project_code" localSheetId="2">#REF!</definedName>
     <definedName name="project_code">#REF!</definedName>
     <definedName name="ProjectName" localSheetId="0">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName" localSheetId="1">'[1]Version 1'!#REF!</definedName>
+    <definedName name="ProjectName" localSheetId="2">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName">'[1]Version 1'!#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="1">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_001" localSheetId="2">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="1">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_002" localSheetId="2">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="1">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_003" localSheetId="2">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="1">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_004" localSheetId="2">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004">#REF!</definedName>
     <definedName name="safa" localSheetId="0">#REF!</definedName>
     <definedName name="safa" localSheetId="1">#REF!</definedName>
+    <definedName name="safa" localSheetId="2">#REF!</definedName>
     <definedName name="safa">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -246,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F96" authorId="0" shapeId="0">
+    <comment ref="F120" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,8 +292,168 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bug ID: 13050</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F56" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bug ID: 13050</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bug ID: 13050</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F67" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bug ID: 13050</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="330">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -776,77 +954,9 @@
     <t>Check SMS Verification Code</t>
   </si>
   <si>
-    <t>When SMS Verification Code is in default status</t>
-  </si>
-  <si>
-    <t>When the user enters alphabetic characters into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user enters special characters into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user enters numeric characters into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user doesn't enter any character
-into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user enters a string of spaces into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user enters less than 6 valid characters into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user enters 6 valid characters into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user enters greater than 6 valid characters into the SMS Verification Code box</t>
-  </si>
-  <si>
     <t>Check Password</t>
   </si>
   <si>
-    <t>When Password is in default status</t>
-  </si>
-  <si>
-    <t>When the user enters alphabetic characters into the Password box</t>
-  </si>
-  <si>
-    <t>When the user enters special characters into the Password box</t>
-  </si>
-  <si>
-    <t>When the user enters numeric characters into the Password box</t>
-  </si>
-  <si>
-    <t>When the user enters a string that contains alphabetic and numeric characters into the Password box</t>
-  </si>
-  <si>
-    <t>When the user enters space in the middle of a valid characters string into the Password box</t>
-  </si>
-  <si>
-    <t>When the user enters space at the beginning and the end of a valid characters string into the Password box</t>
-  </si>
-  <si>
-    <t>When the user doesn't enter any character
-into the Password box</t>
-  </si>
-  <si>
-    <t>When the user enters a string of spaces into the Password box</t>
-  </si>
-  <si>
-    <t>When the user enters less than 6 valid characters into the Password box</t>
-  </si>
-  <si>
-    <t>When the user enters 6 valid characters into the Password box</t>
-  </si>
-  <si>
-    <t>When the user enters 50 valid characters into the Password box</t>
-  </si>
-  <si>
-    <t>When the user enters greater than 50 valid characters into the Password box</t>
-  </si>
-  <si>
     <t>Check Eye icon in default status</t>
   </si>
   <si>
@@ -862,65 +972,12 @@
     <t>When Birthday is in default status</t>
   </si>
   <si>
-    <t>When the user doesn't enter data</t>
-  </si>
-  <si>
-    <t>When the user enters valid date</t>
-  </si>
-  <si>
-    <t>When the user enters invalid date</t>
-  </si>
-  <si>
     <t>Check Gender</t>
   </si>
   <si>
-    <t>When Gender is in default status</t>
-  </si>
-  <si>
-    <t>When the user enters valid value</t>
-  </si>
-  <si>
     <t>Check Full Name</t>
   </si>
   <si>
-    <t>When Full Name is in default status</t>
-  </si>
-  <si>
-    <t>When the user enters alphabetic characters into the Full Name box</t>
-  </si>
-  <si>
-    <t>When the user enters special characters into the Full Name box</t>
-  </si>
-  <si>
-    <t>When the user enters numeric characters into the Full Name box</t>
-  </si>
-  <si>
-    <t>When the user enters space in the middle of a numeric characters
-string into the Full Name box</t>
-  </si>
-  <si>
-    <t>When the user enters space at the beginning and the end of a valid characters string into the Full Name box</t>
-  </si>
-  <si>
-    <t>When the user doesn't enter any character
-into the Full Name box</t>
-  </si>
-  <si>
-    <t>When the user enters a string of spaces into the Full Name box</t>
-  </si>
-  <si>
-    <t>When the user enters less than 6 valid characters into the Full Name box</t>
-  </si>
-  <si>
-    <t>When the user enters 6 valid characters into the Full Name box</t>
-  </si>
-  <si>
-    <t>When the user enters 50 valid characters into the Full Name box</t>
-  </si>
-  <si>
-    <t>When the user enters greater than 50 valid characters into the Full Name box</t>
-  </si>
-  <si>
     <t>Check Checkbox</t>
   </si>
   <si>
@@ -933,82 +990,596 @@
     <t>When Check box is checked</t>
   </si>
   <si>
-    <t>Check Sign up with Email</t>
-  </si>
-  <si>
-    <t>When all fields are enters valid data</t>
-  </si>
-  <si>
-    <t>When the user enters any invalid fields</t>
-  </si>
-  <si>
     <t>When the user clicks on ‘Sign up with Email’ button</t>
   </si>
   <si>
-    <t>Check Sign up with Facebook</t>
-  </si>
-  <si>
     <t>When the user clicks on ‘Facebook’ button</t>
   </si>
   <si>
-    <t>Check Sign up with Google</t>
-  </si>
-  <si>
     <t>When the user clicks on ‘Google’ button</t>
   </si>
   <si>
     <t>1. Check fields of Sign up with Phone number function</t>
   </si>
   <si>
-    <t>2. Check Sign up function</t>
-  </si>
-  <si>
     <t>Check Phone Number</t>
   </si>
   <si>
-    <t>When Phone number is in default status</t>
-  </si>
-  <si>
-    <t>When the user enters alphabetic characters into the Phone number box</t>
-  </si>
-  <si>
-    <t>When the user enters special characters into the Phone number box</t>
-  </si>
-  <si>
-    <t>When the user enters numeric characters into the Phone number box</t>
-  </si>
-  <si>
-    <t>When the user enters a string of spaces into the Phone number box</t>
-  </si>
-  <si>
-    <t>When the user enters less than 10 valid characters into the Phone number box</t>
-  </si>
-  <si>
-    <t>When the user enters 10 valid characters into the Phone number box</t>
-  </si>
-  <si>
-    <t>When the user enters greater than 10 valid characters into the Phone number box</t>
-  </si>
-  <si>
-    <t>When the user enters space in the middle of a valid characters string into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user enters space at the beginning and the end of a valid characters string into the SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>When the user enters space in the middle of a valid characters string into the Phone number box</t>
-  </si>
-  <si>
-    <t>When the user enters space at the beginning and the end of a valid characters string into the Phone number box</t>
-  </si>
-  <si>
-    <t>When the user doesn't enter any character into the Phone number box</t>
-  </si>
-  <si>
-    <t>Check Sign up with Phone Number</t>
-  </si>
-  <si>
-    <t>When the user enters a registered Phone Number</t>
+    <t>When the user clicks on close (x) button</t>
+  </si>
+  <si>
+    <t>Sign up fail when the user enters a registered Phone Number</t>
+  </si>
+  <si>
+    <t>Sign up fail when the user enters expired SMS code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters alphabetic characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters special characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user doesn't enter any character  </t>
+  </si>
+  <si>
+    <t>Check button</t>
+  </si>
+  <si>
+    <t>Check default status</t>
+  </si>
+  <si>
+    <t>Check Trim space</t>
+  </si>
+  <si>
+    <t>Check Copy/Paste phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters less than 6 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters 6 characters  </t>
+  </si>
+  <si>
+    <t>When the user doesn't enter any character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters alphabetic and numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters numeric and special characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters alphabetic and special characters  </t>
+  </si>
+  <si>
+    <t>When the user enters alphabetic, numeric and special characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters greater than 6 and less than 50 characters  </t>
+  </si>
+  <si>
+    <t>When the user enters upper password</t>
+  </si>
+  <si>
+    <t>When the user enters lower password</t>
+  </si>
+  <si>
+    <t>When the user enters password that meets the policy</t>
+  </si>
+  <si>
+    <t>When the user doesn't select anything</t>
+  </si>
+  <si>
+    <t>When the user only selects Month</t>
+  </si>
+  <si>
+    <t>When the user only selects Day</t>
+  </si>
+  <si>
+    <t>When the user only selects Year</t>
+  </si>
+  <si>
+    <t>When the user only selects Month and Day</t>
+  </si>
+  <si>
+    <t>When the user only selects Month and Year</t>
+  </si>
+  <si>
+    <t>When the user only selects Year and Day</t>
+  </si>
+  <si>
+    <t>Check dropdown list of Month</t>
+  </si>
+  <si>
+    <t>Check dropdown list of Day</t>
+  </si>
+  <si>
+    <t>Check dropdown list of Year</t>
+  </si>
+  <si>
+    <t>Check scroll bar of Month</t>
+  </si>
+  <si>
+    <t>Check scroll bar of Day</t>
+  </si>
+  <si>
+    <t>Check scroll bar of Year</t>
+  </si>
+  <si>
+    <t>When the user selects valid date</t>
+  </si>
+  <si>
+    <t>When the user enters from keyboard</t>
+  </si>
+  <si>
+    <t>When the user selects invalid date</t>
+  </si>
+  <si>
+    <t>When the user selects future date</t>
+  </si>
+  <si>
+    <t>Check scroll bar</t>
+  </si>
+  <si>
+    <t>Check dropdown list</t>
+  </si>
+  <si>
+    <t>When the user doesn't select data</t>
+  </si>
+  <si>
+    <t>When the user enters invalid phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters only alphabetic characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters only special characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters only numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters greater than 50 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters 50 characters  </t>
+  </si>
+  <si>
+    <t>Check Copy/Paste data</t>
+  </si>
+  <si>
+    <t>Check Copy/Paste password</t>
+  </si>
+  <si>
+    <t>Check Copy/Paste SMS Verification Code</t>
+  </si>
+  <si>
+    <t>Check Copy/Paste Full Name</t>
+  </si>
+  <si>
+    <t>Sign up successfully when all fields are entered valid data</t>
+  </si>
+  <si>
+    <t>Sign up fail when all fields are entered invalid data</t>
+  </si>
+  <si>
+    <t>Sign up successfully when all mandatory fields are entered valid data</t>
+  </si>
+  <si>
+    <t>2. Check function</t>
+  </si>
+  <si>
+    <t>When the user clicks Terms and conditions</t>
+  </si>
+  <si>
+    <t>Check slide function when the user doesn't enter phone number</t>
+  </si>
+  <si>
+    <t>Check slide function when the user enters valid phone number</t>
+  </si>
+  <si>
+    <t>Check slide function when the user enters invalid phone number</t>
+  </si>
+  <si>
+    <t>When the user enters valid Full Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters Product Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters Category Name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters Brand Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters Supplier Name </t>
+  </si>
+  <si>
+    <t>When search criteria is not match</t>
+  </si>
+  <si>
+    <t>When the user sorts products by 'Low to high price'</t>
+  </si>
+  <si>
+    <t>When the user sorts products by 'High to low price'</t>
+  </si>
+  <si>
+    <t>1. Check Search Box</t>
+  </si>
+  <si>
+    <t>2. Check Search Function</t>
+  </si>
+  <si>
+    <t>When the user selects a keyword on Search Suggestion</t>
+  </si>
+  <si>
+    <t>Verify that keywords on Search Suggestion are highlighted when the user hovers over them</t>
+  </si>
+  <si>
+    <t>Check Searching</t>
+  </si>
+  <si>
+    <t>Check Search Suggestion</t>
+  </si>
+  <si>
+    <t>Check Search History</t>
+  </si>
+  <si>
+    <t>Check Sorting</t>
+  </si>
+  <si>
+    <t>Check Pagination</t>
+  </si>
+  <si>
+    <t>Verify search working by entering keyword and pressing the Enter key from the keyboard.</t>
+  </si>
+  <si>
+    <t>Verify search working by entering keyword and on click on the Search button</t>
+  </si>
+  <si>
+    <t>Verify that the search results won't change when the user only changes the search keyword, don't press Enter key or click on Search button</t>
+  </si>
+  <si>
+    <t>Verify that the search results will change corresponding when the user changes the search keyword and presses Enter key or click on Search button</t>
+  </si>
+  <si>
+    <t>Verify that if user enters keyword in Search box, system will show Search Suggestion</t>
+  </si>
+  <si>
+    <t>Verify that if user deletes keyword in Search box, Search Suggestion will disappear</t>
+  </si>
+  <si>
+    <t>Verify that Search Suggestion is not displayed when the user enters a keyword that is not in the database</t>
+  </si>
+  <si>
+    <t>Verify that Search History is sorted by Lastest</t>
+  </si>
+  <si>
+    <t>Verify that Search History doesn’t record keyword that the user has entered but hasn't pressed Enter key or clicked on Search button</t>
+  </si>
+  <si>
+    <t>When the user clicks Clear button</t>
+  </si>
+  <si>
+    <t>Verify that if user clicks on Search box that is in default status, system will show Search History</t>
+  </si>
+  <si>
+    <t>Verify that Search history will be displayed when the user deletes the current keyword on Search box</t>
+  </si>
+  <si>
+    <t>Check dropdown list of Sorting function</t>
+  </si>
+  <si>
+    <t>Check scroll bar of Sorting function</t>
+  </si>
+  <si>
+    <t>Result will be displayed in 1 page</t>
+  </si>
+  <si>
+    <t>Results will be displayed more than 1 page and each page will display maximum 10 results</t>
+  </si>
+  <si>
+    <t>Pagination will not be displayed</t>
+  </si>
+  <si>
+    <t>Back button is enable</t>
+  </si>
+  <si>
+    <t>Back button is disable</t>
+  </si>
+  <si>
+    <t>Check Navigation function</t>
+  </si>
+  <si>
+    <t>Number button</t>
+  </si>
+  <si>
+    <t>Back button</t>
+  </si>
+  <si>
+    <t>Next button</t>
+  </si>
+  <si>
+    <t>When Search results have no result</t>
+  </si>
+  <si>
+    <t>When Search results have 10 results</t>
+  </si>
+  <si>
+    <t>When Search results have more than 10 results</t>
+  </si>
+  <si>
+    <t>When Search results have any number of results</t>
+  </si>
+  <si>
+    <t>Number button will not be displayed</t>
+  </si>
+  <si>
+    <t>Number button is enable</t>
+  </si>
+  <si>
+    <t>Back button will not be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Search results have less than 10 results </t>
+  </si>
+  <si>
+    <t>When Search results have more than 10 results, the user focuses on the second page onward</t>
+  </si>
+  <si>
+    <t>Next button will not be displayed</t>
+  </si>
+  <si>
+    <t>Next button is disable</t>
+  </si>
+  <si>
+    <t>Next button is enable</t>
+  </si>
+  <si>
+    <t>When Search results have more than 10 results, the user focuses on the close-to-last page backward</t>
+  </si>
+  <si>
+    <t>When Search results have more than 10 results, the user focuses on the last page</t>
+  </si>
+  <si>
+    <t>When Search results have more than 10 results, the user focuses on the first page</t>
+  </si>
+  <si>
+    <t>When Search results have more than 10 results, the user clicks on any number button</t>
+  </si>
+  <si>
+    <t>The user can view corresponding page</t>
+  </si>
+  <si>
+    <t>When the user clicks on Back button</t>
+  </si>
+  <si>
+    <t>The user can view previous page</t>
+  </si>
+  <si>
+    <t>When the user clicks on Next button</t>
+  </si>
+  <si>
+    <t>The user can view next page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Lazada registration page
+2. Observe the display of the Phone Numer </t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page</t>
+  </si>
+  <si>
+    <t>Phone number is blank 
+The placeholder is "Enter your phone number"
+There is a symbol * marks phone number as a mandatory field</t>
+  </si>
+  <si>
+    <t>Entered characters will be deleted</t>
+  </si>
+  <si>
+    <t>Allow input of numeric characters</t>
+  </si>
+  <si>
+    <t>Allow copy/paste phone number</t>
+  </si>
+  <si>
+    <t>Spaces are removed, SMS code is sent to the entered phone number</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter space at the beginning and the end of the phone number
+3. Slide to get SMS code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters 10 numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters greater than 10 numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters less than 10 numeric characters  </t>
+  </si>
+  <si>
+    <t>SMS Verification Code is blank 
+The placeholder is "6 digits"
+There is a symbol * marks SMS Verification Code as a mandatory field</t>
+  </si>
+  <si>
+    <t>Allow copy/paste SMS Verification Code</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Observe the display of SMS Verification Code</t>
+  </si>
+  <si>
+    <t>Do not allow input of alphabetic characters</t>
+  </si>
+  <si>
+    <t>Do not allow input of special characters</t>
+  </si>
+  <si>
+    <t>System will show error message “Please enter phone number”</t>
+  </si>
+  <si>
+    <t>System will show error message “Please enter a valid phone number”</t>
+  </si>
+  <si>
+    <t>System will show error message “The length of Phone number should be 10 characters"</t>
+  </si>
+  <si>
+    <t>When the user enters invalid SMS Verification Code</t>
+  </si>
+  <si>
+    <t>Do not allow input of space</t>
+  </si>
+  <si>
+    <t>System will show error message “Please enter only 6 digits"</t>
+  </si>
+  <si>
+    <t>Sign up successfully, return to login screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters 6 numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters less than 6 numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters greater than 6 numeric characters  </t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter less than 10 numeric characters in SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter more than 10 numeric characters in SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>System will show error message “Please enter a valid SMS Verification Code"</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter more than 10 numeric characters
+3. Slide to get SMS code</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter numberic characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter special characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter alphabetic characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter invalid phone number
+3. Slide to get SMS code</t>
+  </si>
+  <si>
+    <t>System will show error message “Please enter SMS Verification Code”</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter characters
+3. Click on close (x) button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter alphabetic characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Don't enter character
+3. Slide to get SMS code</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter less than 10 numeric characters
+3. Slide to get SMS code</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter special characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter numberic characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Copy/Paste SMS Verification Code</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Copy/Paste phone number</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 10 numeric characters (valid phone number)
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter 6 numeric characters (valid SMS Verification Code)
+5. Other fields are valid
+6. Click Sign Up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter invalid SMS Verification Code
+5. Other fields are valid
+6. Click Sign Up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter characters
+3. Click on close (x) button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+2. Don't enter character
+4. Other fields are valid
+5. Click Sign Up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter space into SMS Verification Code</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,8 +1698,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1204,6 +1781,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
@@ -1308,7 +1897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1496,11 +2085,24 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1857,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1873,10 +2475,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1885,13 +2487,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1900,9 +2502,9 @@
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="79"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1913,11 +2515,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1931,9 +2533,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1947,9 +2549,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1960,11 +2562,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1976,9 +2578,9 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1">
@@ -2121,11 +2723,11 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:16384" s="21" customFormat="1" ht="38.25">
@@ -2159,11 +2761,11 @@
     </row>
     <row r="18" spans="1:16384" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -19012,11 +19614,11 @@
     </row>
     <row r="43" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="30"/>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
       <c r="E43" s="31"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -19391,137 +19993,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="37" customWidth="1"/>
-    <col min="3" max="4" width="35.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="37" customWidth="1"/>
     <col min="5" max="5" width="32.140625" style="37" customWidth="1"/>
     <col min="6" max="8" width="9.7109375" style="37" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="37" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="14.25">
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="78" t="s">
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="79"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" s="9" customFormat="1" ht="27.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="X4" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="9" customFormat="1" ht="144.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="144.75" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="X5" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="9" customFormat="1" ht="25.5">
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="25.5">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:24" s="9" customFormat="1">
+    <row r="7" spans="1:9" s="9" customFormat="1">
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="10"/>
       <c r="I7" s="8"/>
-      <c r="X7" s="11"/>
-    </row>
-    <row r="8" spans="1:24" s="12" customFormat="1">
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1">
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="7"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
     </row>
-    <row r="9" spans="1:24" s="12" customFormat="1">
+    <row r="9" spans="1:9" s="12" customFormat="1">
       <c r="A9" s="39" t="s">
         <v>11</v>
       </c>
@@ -19543,7 +20136,7 @@
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
     </row>
-    <row r="10" spans="1:24" s="12" customFormat="1">
+    <row r="10" spans="1:9" s="12" customFormat="1">
       <c r="A10" s="40" t="s">
         <v>12</v>
       </c>
@@ -19565,20 +20158,20 @@
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
     </row>
-    <row r="11" spans="1:24" s="12" customFormat="1">
+    <row r="11" spans="1:9" s="12" customFormat="1">
       <c r="A11" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="15">
-        <f>COUNTIF($F$18:$F$96,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$128,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="15">
-        <f>COUNTIF($G$18:$G$96,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$128,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <f>COUNTIF($H$18:$H$96,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$128,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E11" s="56"/>
@@ -19587,20 +20180,20 @@
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
     </row>
-    <row r="12" spans="1:24" s="12" customFormat="1">
+    <row r="12" spans="1:9" s="12" customFormat="1">
       <c r="A12" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="15">
-        <f>COUNTIF($F$18:$F$96,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$128,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <f>COUNTIF($G$18:$G$96,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$128,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <f>COUNTIF($H$18:$H$96,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$128,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="56"/>
@@ -19609,20 +20202,20 @@
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
     </row>
-    <row r="13" spans="1:24" s="12" customFormat="1">
+    <row r="13" spans="1:9" s="12" customFormat="1">
       <c r="A13" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="15">
-        <f>COUNTIF($F$18:$F$96,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$128,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="15">
-        <f>COUNTIF($G$18:$G$96,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$128,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <f>COUNTIF($H$18:$H$96,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$128,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="8"/>
@@ -19631,20 +20224,20 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:24" s="12" customFormat="1">
+    <row r="14" spans="1:9" s="12" customFormat="1">
       <c r="A14" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="15">
-        <f>COUNTIF($F$18:$F$96,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$128,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <f>COUNTIF($G$18:$G$96,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$128,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <f>COUNTIF($H$18:$H$96,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$128,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="8"/>
@@ -19653,20 +20246,20 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:24" s="12" customFormat="1" ht="38.25">
+    <row r="15" spans="1:9" s="12" customFormat="1" ht="38.25">
       <c r="A15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15">
-        <f>COUNTIF($F$18:$F$96,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$128,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="15">
-        <f>COUNTIF($G$18:$G$96,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$128,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <f>COUNTIF($H$18:$H$96,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$128,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="8"/>
@@ -19675,17 +20268,17 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:24" s="21" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:9" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="57"/>
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
@@ -19719,11 +20312,11 @@
     </row>
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="59"/>
-      <c r="B18" s="85" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
+      <c r="B18" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="59"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -19733,7 +20326,7 @@
     <row r="19" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="43"/>
       <c r="B19" s="53" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="62"/>
@@ -19743,36 +20336,45 @@
       <c r="H19" s="64"/>
       <c r="I19" s="63"/>
     </row>
-    <row r="20" spans="1:9" s="27" customFormat="1">
+    <row r="20" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A20" s="65">
-        <f t="shared" ref="A20:A83" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <f t="shared" ref="A20:A114" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="24"/>
+        <v>168</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>283</v>
+      </c>
       <c r="E20" s="25"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A21" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="24"/>
+        <v>166</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>297</v>
+      </c>
       <c r="E21" s="25"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="26"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A22" s="65">
@@ -19780,10 +20382,14 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="24"/>
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>298</v>
+      </c>
       <c r="E22" s="25"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -19795,11 +20401,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B23" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>298</v>
+      </c>
       <c r="E23" s="25"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -19812,10 +20422,14 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="24"/>
+        <v>165</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>285</v>
+      </c>
       <c r="E24" s="25"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -19828,336 +20442,416 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="24"/>
+        <v>170</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>286</v>
+      </c>
       <c r="E25" s="25"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="26" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A26" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="24"/>
+        <v>169</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>287</v>
+      </c>
       <c r="E26" s="25"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="67"/>
-    </row>
-    <row r="27" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A27" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="24"/>
+        <v>291</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>299</v>
+      </c>
       <c r="E27" s="25"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="26"/>
-    </row>
-    <row r="28" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="I27" s="67"/>
+    </row>
+    <row r="28" spans="1:9" s="29" customFormat="1" ht="63.75">
       <c r="A28" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="24"/>
+        <v>289</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>303</v>
+      </c>
       <c r="E28" s="25"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="67"/>
     </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A29" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+        <v>290</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="67"/>
     </row>
-    <row r="30" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="30" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A30" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
+        <v>202</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="67"/>
     </row>
-    <row r="31" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="63"/>
-    </row>
-    <row r="32" spans="1:9" s="27" customFormat="1">
-      <c r="A32" s="65">
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="38.25">
+      <c r="A31" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="B31" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="67"/>
+    </row>
+    <row r="32" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="43"/>
+      <c r="B32" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A33" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="24"/>
+        <v>168</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>292</v>
+      </c>
       <c r="E33" s="25"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="26"/>
     </row>
-    <row r="34" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="34" spans="1:9" s="27" customFormat="1" ht="76.5">
       <c r="A34" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A34,-1,0) ="",OFFSET(A34,-2,0)+1,OFFSET(A34,-1,0)+1 )</f>
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="24"/>
+        <v>173</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>315</v>
+      </c>
       <c r="E34" s="25"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="26"/>
     </row>
-    <row r="35" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="35" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A35" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="B35" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>295</v>
+      </c>
       <c r="E35" s="25"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="26"/>
     </row>
-    <row r="36" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="36" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A36" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="24"/>
+        <v>164</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>296</v>
+      </c>
       <c r="E36" s="25"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="26"/>
     </row>
-    <row r="37" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="37" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A37" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>285</v>
+      </c>
       <c r="E37" s="25"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="26"/>
     </row>
-    <row r="38" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="38" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A38" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="24"/>
+        <v>210</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>293</v>
+      </c>
       <c r="E38" s="25"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="26"/>
     </row>
-    <row r="39" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="39" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A39" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="24"/>
+        <v>169</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E39" s="25"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="67"/>
-    </row>
-    <row r="40" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="63.75">
       <c r="A40" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="24"/>
+        <v>305</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>302</v>
+      </c>
       <c r="E40" s="25"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="67"/>
     </row>
-    <row r="41" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="89.25">
       <c r="A41" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="24"/>
+        <v>304</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>303</v>
+      </c>
       <c r="E41" s="25"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="67"/>
     </row>
-    <row r="42" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="42" spans="1:9" s="29" customFormat="1" ht="63.75">
       <c r="A42" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="24"/>
+        <v>306</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>302</v>
+      </c>
       <c r="E42" s="25"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="67"/>
     </row>
-    <row r="43" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="63"/>
-    </row>
-    <row r="44" spans="1:9" s="27" customFormat="1">
+    <row r="43" spans="1:9" s="29" customFormat="1" ht="76.5">
+      <c r="A43" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="67"/>
+    </row>
+    <row r="44" spans="1:9" s="29" customFormat="1" ht="63.75">
       <c r="A44" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>284</v>
+      </c>
       <c r="E44" s="25"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="26"/>
-    </row>
-    <row r="45" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A45" s="65">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="26"/>
-    </row>
-    <row r="46" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="I44" s="67"/>
+    </row>
+    <row r="45" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="43"/>
+      <c r="B45" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="63"/>
+    </row>
+    <row r="46" spans="1:9" s="27" customFormat="1">
       <c r="A46" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="25"/>
@@ -20166,15 +20860,17 @@
       <c r="H46" s="1"/>
       <c r="I46" s="26"/>
     </row>
-    <row r="47" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="47" spans="1:9" s="27" customFormat="1">
       <c r="A47" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A47,-1,0) ="",OFFSET(A47,-2,0)+1,OFFSET(A47,-1,0)+1 )</f>
         <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D47" s="24"/>
       <c r="E47" s="25"/>
       <c r="F47" s="1"/>
@@ -20182,15 +20878,17 @@
       <c r="H47" s="1"/>
       <c r="I47" s="26"/>
     </row>
-    <row r="48" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="48" spans="1:9" s="27" customFormat="1">
       <c r="A48" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D48" s="24"/>
       <c r="E48" s="25"/>
       <c r="F48" s="1"/>
@@ -20198,15 +20896,17 @@
       <c r="H48" s="1"/>
       <c r="I48" s="26"/>
     </row>
-    <row r="49" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="49" spans="1:9" s="27" customFormat="1">
       <c r="A49" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D49" s="24"/>
       <c r="E49" s="25"/>
       <c r="F49" s="1"/>
@@ -20214,15 +20914,17 @@
       <c r="H49" s="1"/>
       <c r="I49" s="26"/>
     </row>
-    <row r="50" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="50" spans="1:9" s="27" customFormat="1">
       <c r="A50" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D50" s="24"/>
       <c r="E50" s="25"/>
       <c r="F50" s="1"/>
@@ -20230,15 +20932,17 @@
       <c r="H50" s="1"/>
       <c r="I50" s="26"/>
     </row>
-    <row r="51" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="51" spans="1:9" s="27" customFormat="1">
       <c r="A51" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D51" s="24"/>
       <c r="E51" s="25"/>
       <c r="F51" s="1"/>
@@ -20246,85 +20950,95 @@
       <c r="H51" s="1"/>
       <c r="I51" s="26"/>
     </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="52" spans="1:9" s="27" customFormat="1">
       <c r="A52" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D52" s="24"/>
       <c r="E52" s="25"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="67"/>
-    </row>
-    <row r="53" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" spans="1:9" s="27" customFormat="1">
       <c r="A53" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D53" s="24"/>
       <c r="E53" s="25"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="67"/>
-    </row>
-    <row r="54" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" spans="1:9" s="27" customFormat="1">
       <c r="A54" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D54" s="24"/>
       <c r="E54" s="25"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="67"/>
-    </row>
-    <row r="55" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="I54" s="26"/>
+    </row>
+    <row r="55" spans="1:9" s="27" customFormat="1">
       <c r="A55" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D55" s="24"/>
       <c r="E55" s="25"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="67"/>
-    </row>
-    <row r="56" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" s="27" customFormat="1">
       <c r="A56" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D56" s="24"/>
       <c r="E56" s="25"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="67"/>
+      <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A57" s="65">
@@ -20332,9 +21046,11 @@
         <v>36</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D57" s="24"/>
       <c r="E57" s="25"/>
       <c r="F57" s="1"/>
@@ -20342,15 +21058,17 @@
       <c r="H57" s="1"/>
       <c r="I57" s="67"/>
     </row>
-    <row r="58" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="58" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A58" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>37</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D58" s="24"/>
       <c r="E58" s="25"/>
       <c r="F58" s="1"/>
@@ -20358,15 +21076,17 @@
       <c r="H58" s="1"/>
       <c r="I58" s="67"/>
     </row>
-    <row r="59" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="59" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A59" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D59" s="24"/>
       <c r="E59" s="25"/>
       <c r="F59" s="1"/>
@@ -20374,28 +21094,35 @@
       <c r="H59" s="1"/>
       <c r="I59" s="67"/>
     </row>
-    <row r="60" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A60" s="43"/>
-      <c r="B60" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="63"/>
+    <row r="60" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A60" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="67"/>
     </row>
     <row r="61" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A61" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D61" s="24"/>
       <c r="E61" s="25"/>
       <c r="F61" s="1"/>
@@ -20406,12 +21133,14 @@
     <row r="62" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A62" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D62" s="24"/>
       <c r="E62" s="25"/>
       <c r="F62" s="1"/>
@@ -20422,12 +21151,14 @@
     <row r="63" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A63" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D63" s="24"/>
       <c r="E63" s="25"/>
       <c r="F63" s="1"/>
@@ -20438,12 +21169,14 @@
     <row r="64" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A64" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D64" s="24"/>
       <c r="E64" s="25"/>
       <c r="F64" s="1"/>
@@ -20451,28 +21184,35 @@
       <c r="H64" s="1"/>
       <c r="I64" s="67"/>
     </row>
-    <row r="65" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A65" s="43"/>
-      <c r="B65" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="63"/>
+    <row r="65" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A65" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="67"/>
     </row>
     <row r="66" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A66" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D66" s="24"/>
       <c r="E66" s="25"/>
       <c r="F66" s="1"/>
@@ -20483,12 +21223,14 @@
     <row r="67" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A67" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D67" s="24"/>
       <c r="E67" s="25"/>
       <c r="F67" s="1"/>
@@ -20499,13 +21241,15 @@
     <row r="68" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A68" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="24"/>
+        <v>160</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="70"/>
       <c r="E68" s="25"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -20515,7 +21259,7 @@
     <row r="69" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A69" s="43"/>
       <c r="B69" s="53" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C69" s="61"/>
       <c r="D69" s="62"/>
@@ -20525,110 +21269,125 @@
       <c r="H69" s="64"/>
       <c r="I69" s="63"/>
     </row>
-    <row r="70" spans="1:9" s="27" customFormat="1">
+    <row r="70" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A70" s="65">
-        <f t="shared" ref="A70:A81" ca="1" si="1">IF(OFFSET(A70,-1,0) ="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1 )</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D70" s="24"/>
       <c r="E70" s="25"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="26"/>
-    </row>
-    <row r="71" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="I70" s="67"/>
+    </row>
+    <row r="71" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A71" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="25"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="26"/>
-    </row>
-    <row r="72" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="I71" s="67"/>
+    </row>
+    <row r="72" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A72" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D72" s="24"/>
       <c r="E72" s="25"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="26"/>
-    </row>
-    <row r="73" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="I72" s="67"/>
+    </row>
+    <row r="73" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A73" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B73" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="1"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D73" s="24"/>
       <c r="E73" s="25"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="26"/>
-    </row>
-    <row r="74" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="I73" s="67"/>
+    </row>
+    <row r="74" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A74" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D74" s="24"/>
       <c r="E74" s="25"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="26"/>
-    </row>
-    <row r="75" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="I74" s="67"/>
+    </row>
+    <row r="75" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A75" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D75" s="24"/>
       <c r="E75" s="25"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="26"/>
-    </row>
-    <row r="76" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="I75" s="67"/>
+    </row>
+    <row r="76" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A76" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D76" s="24"/>
       <c r="E76" s="25"/>
       <c r="F76" s="1"/>
@@ -20636,31 +21395,35 @@
       <c r="H76" s="1"/>
       <c r="I76" s="67"/>
     </row>
-    <row r="77" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="77" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A77" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D77" s="24"/>
       <c r="E77" s="25"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="26"/>
-    </row>
-    <row r="78" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="I77" s="67"/>
+    </row>
+    <row r="78" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A78" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D78" s="24"/>
       <c r="E78" s="25"/>
       <c r="F78" s="1"/>
@@ -20668,77 +21431,90 @@
       <c r="H78" s="1"/>
       <c r="I78" s="67"/>
     </row>
-    <row r="79" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="79" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A79" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="24"/>
+        <v>197</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="1"/>
       <c r="E79" s="25"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="67"/>
     </row>
-    <row r="80" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="80" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A80" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="24"/>
+        <v>198</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D80" s="1"/>
       <c r="E80" s="25"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="67"/>
     </row>
-    <row r="81" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="81" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A81" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="24"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="1"/>
       <c r="E81" s="25"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="67"/>
     </row>
-    <row r="82" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A82" s="43"/>
-      <c r="B82" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" s="61"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="63"/>
+    <row r="82" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A82" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="67"/>
     </row>
     <row r="83" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A83" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D83" s="1"/>
       <c r="E83" s="25"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -20747,14 +21523,16 @@
     </row>
     <row r="84" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A84" s="65">
-        <f t="shared" ref="A84:A94" ca="1" si="2">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
-        <v>59</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="24"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" s="1"/>
       <c r="E84" s="25"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -20763,72 +21541,83 @@
     </row>
     <row r="85" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A85" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="24"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D85" s="1"/>
       <c r="E85" s="25"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="67"/>
     </row>
-    <row r="86" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="68"/>
-      <c r="B86" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="C86" s="86"/>
-      <c r="D86" s="87"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="69"/>
-    </row>
-    <row r="87" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A87" s="43"/>
-      <c r="B87" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" s="61"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="63"/>
-    </row>
-    <row r="88" spans="1:9" s="27" customFormat="1">
-      <c r="A88" s="65">
-        <f ca="1">A85+1</f>
-        <v>61</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="26"/>
+    <row r="86" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A86" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="67"/>
+    </row>
+    <row r="87" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A87" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="67"/>
+    </row>
+    <row r="88" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A88" s="43"/>
+      <c r="B88" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" s="61"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="63"/>
     </row>
     <row r="89" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A89" s="65">
-        <f ca="1">IF(OFFSET(A89,-1,0) ="",OFFSET(A89,-2,0)+1,OFFSET(A89,-1,0)+1 )</f>
-        <v>62</v>
-      </c>
-      <c r="B89" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="70"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="24"/>
       <c r="E89" s="25"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -20837,42 +21626,51 @@
     </row>
     <row r="90" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A90" s="65">
-        <f ca="1">IF(OFFSET(A90,-1,0) ="",OFFSET(A90,-2,0)+1,OFFSET(A90,-1,0)+1 )</f>
-        <v>63</v>
-      </c>
-      <c r="B90" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" s="71"/>
-      <c r="D90" s="70"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="24"/>
       <c r="E90" s="25"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="67"/>
     </row>
-    <row r="91" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A91" s="43"/>
-      <c r="B91" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="63"/>
+    <row r="91" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A91" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="67"/>
     </row>
     <row r="92" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A92" s="65">
-        <f t="shared" ref="A92" ca="1" si="3">IF(OFFSET(A92,-1,0) ="",OFFSET(A92,-2,0)+1,OFFSET(A92,-1,0)+1 )</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D92" s="24"/>
       <c r="E92" s="25"/>
       <c r="F92" s="1"/>
@@ -20880,63 +21678,669 @@
       <c r="H92" s="1"/>
       <c r="I92" s="67"/>
     </row>
-    <row r="93" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="43"/>
-      <c r="B93" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C93" s="61"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="64"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="63"/>
-    </row>
-    <row r="94" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A94" s="72">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="72"/>
-    </row>
-    <row r="95" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A95" s="43"/>
-      <c r="B95" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="C95" s="61"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="63"/>
-    </row>
-    <row r="96" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A96" s="72">
-        <f t="shared" ref="A96" ca="1" si="4">IF(OFFSET(A96,-1,0) ="",OFFSET(A96,-2,0)+1,OFFSET(A96,-1,0)+1 )</f>
-        <v>66</v>
+    <row r="93" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A93" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="67"/>
+    </row>
+    <row r="94" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A94" s="43"/>
+      <c r="B94" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" s="61"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="63"/>
+    </row>
+    <row r="95" spans="1:9" s="27" customFormat="1">
+      <c r="A95" s="65">
+        <f t="shared" ref="A95:A110" ca="1" si="1">IF(OFFSET(A95,-1,0) ="",OFFSET(A95,-2,0)+1,OFFSET(A95,-1,0)+1 )</f>
+        <v>71</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="26"/>
+    </row>
+    <row r="96" spans="1:9" s="27" customFormat="1">
+      <c r="A96" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C96" s="1"/>
+        <v>203</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D96" s="24"/>
       <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
+      <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="72"/>
+      <c r="I96" s="26"/>
+    </row>
+    <row r="97" spans="1:9" s="27" customFormat="1">
+      <c r="A97" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D97" s="24"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="26"/>
+    </row>
+    <row r="98" spans="1:9" s="27" customFormat="1">
+      <c r="A98" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="26"/>
+    </row>
+    <row r="99" spans="1:9" s="27" customFormat="1">
+      <c r="A99" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D99" s="24"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="26"/>
+    </row>
+    <row r="100" spans="1:9" s="27" customFormat="1">
+      <c r="A100" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" s="24"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="26"/>
+    </row>
+    <row r="101" spans="1:9" s="27" customFormat="1">
+      <c r="A101" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="26"/>
+    </row>
+    <row r="102" spans="1:9" s="27" customFormat="1">
+      <c r="A102" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D102" s="24"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="26"/>
+    </row>
+    <row r="103" spans="1:9" s="27" customFormat="1">
+      <c r="A103" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="26"/>
+    </row>
+    <row r="104" spans="1:9" s="27" customFormat="1">
+      <c r="A104" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D104" s="24"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="26"/>
+    </row>
+    <row r="105" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A105" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="24"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="67"/>
+    </row>
+    <row r="106" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A106" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D106" s="24"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="67"/>
+    </row>
+    <row r="107" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A107" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="67"/>
+    </row>
+    <row r="108" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A108" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="67"/>
+    </row>
+    <row r="109" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A109" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D109" s="24"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="67"/>
+    </row>
+    <row r="110" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A110" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D110" s="24"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="67"/>
+    </row>
+    <row r="111" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A111" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="B111" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="67"/>
+    </row>
+    <row r="112" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A112" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="67"/>
+    </row>
+    <row r="113" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A113" s="43"/>
+      <c r="B113" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" s="61"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="63"/>
+    </row>
+    <row r="114" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A114" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="67"/>
+    </row>
+    <row r="115" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A115" s="65">
+        <f t="shared" ref="A115:A116" ca="1" si="2">IF(OFFSET(A115,-1,0) ="",OFFSET(A115,-2,0)+1,OFFSET(A115,-1,0)+1 )</f>
+        <v>90</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D115" s="24"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="67"/>
+    </row>
+    <row r="116" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A116" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D116" s="24"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="67"/>
+    </row>
+    <row r="117" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A117" s="43"/>
+      <c r="B117" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117" s="61"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="63"/>
+    </row>
+    <row r="118" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A118" s="65">
+        <f t="shared" ref="A118" ca="1" si="3">IF(OFFSET(A118,-1,0) ="",OFFSET(A118,-2,0)+1,OFFSET(A118,-1,0)+1 )</f>
+        <v>92</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D118" s="24"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="67"/>
+    </row>
+    <row r="119" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A119" s="71">
+        <f ca="1">IF(OFFSET(A119,-1,0) ="",OFFSET(A119,-2,0)+1,OFFSET(A119,-1,0)+1 )</f>
+        <v>93</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D119" s="24"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="71"/>
+    </row>
+    <row r="120" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A120" s="71">
+        <f t="shared" ref="A120:A130" ca="1" si="4">IF(OFFSET(A120,-1,0) ="",OFFSET(A120,-2,0)+1,OFFSET(A120,-1,0)+1 )</f>
+        <v>94</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="71"/>
+    </row>
+    <row r="121" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A121" s="68"/>
+      <c r="B121" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" s="91"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="69"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="69"/>
+    </row>
+    <row r="122" spans="1:9" s="27" customFormat="1">
+      <c r="A122" s="71">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="26"/>
+    </row>
+    <row r="123" spans="1:9" s="27" customFormat="1">
+      <c r="A123" s="71">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" s="24"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="26"/>
+    </row>
+    <row r="124" spans="1:9" s="27" customFormat="1">
+      <c r="A124" s="71">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D124" s="24"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="26"/>
+    </row>
+    <row r="125" spans="1:9" s="27" customFormat="1">
+      <c r="A125" s="71">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B125" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D125" s="24"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="26"/>
+    </row>
+    <row r="126" spans="1:9" s="27" customFormat="1">
+      <c r="A126" s="71">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B126" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D126" s="24"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="26"/>
+    </row>
+    <row r="127" spans="1:9" s="27" customFormat="1">
+      <c r="A127" s="71">
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B127" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D127" s="24"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="26"/>
+    </row>
+    <row r="128" spans="1:9" s="27" customFormat="1">
+      <c r="A128" s="71">
+        <f t="shared" ca="1" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D128" s="24"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="26"/>
+    </row>
+    <row r="129" spans="1:9" s="27" customFormat="1">
+      <c r="A129" s="71">
+        <f t="shared" ca="1" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D129" s="24"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="26"/>
+    </row>
+    <row r="130" spans="1:9" s="27" customFormat="1">
+      <c r="A130" s="71">
+        <f t="shared" ca="1" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D130" s="24"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -20946,7 +22350,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B121:D121"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
@@ -20954,9 +22358,1321 @@
     <mergeCell ref="B18:D18"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60:H60 F18:H19 F95:H95 F65:H65 F82:H82 F31:H31 F43:H43 F87:H87 F91:H91 F93:H93 F69:H69"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F69:H69 F18:H19 F88:H88 F113:H113 F32:H32 F45:H45 F94:H94 F117:H117"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" sqref="F61:H64 F66:H68 F44:H59 F32:H42 F70:H81 F94:H94 F96:H96 F88:H90 F20:H30 F92:H92 F83:H86">
+    <dataValidation type="list" allowBlank="1" sqref="F114:H116 F70:H87 F118:H130 F46:H68 F89:H93 F95:H112 F33:H44 F20:H31">
+      <formula1>$A$11:$A$15</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X78"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12" style="36" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="37" customWidth="1"/>
+    <col min="6" max="8" width="9.7109375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
+      <c r="A1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" s="9" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="X4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="9" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="X5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="9" customFormat="1" ht="25.5">
+      <c r="A6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:24" s="9" customFormat="1">
+      <c r="A7" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" s="12" customFormat="1">
+      <c r="A8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" s="12" customFormat="1">
+      <c r="A9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f>F17</f>
+        <v>Internal Build 03112011</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <f>G17</f>
+        <v>Internal build 14112011</v>
+      </c>
+      <c r="D9" s="13" t="str">
+        <f>H17</f>
+        <v>External build 16112011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="12" customFormat="1">
+      <c r="A10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <f>SUM(B11:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <f>SUM(C11:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <f>SUM(D11:D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="12" customFormat="1">
+      <c r="A11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15">
+        <f>COUNTIF($F$18:$F$78,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <f>COUNTIF($G$18:$G$78,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <f>COUNTIF($H$18:$H$78,"*Passed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="12" customFormat="1">
+      <c r="A12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15">
+        <f>COUNTIF($F$18:$F$78,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <f>COUNTIF($G$18:$G$78,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <f>COUNTIF($H$18:$H$78,"*Failed*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="12" customFormat="1">
+      <c r="A13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15">
+        <f>COUNTIF($F$18:$F$78,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <f>COUNTIF($G$18:$G$78,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <f>COUNTIF($H$18:$H$78,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" s="12" customFormat="1">
+      <c r="A14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="15">
+        <f>COUNTIF($F$18:$F$78,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <f>COUNTIF($G$18:$G$78,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <f>COUNTIF($H$18:$H$78,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" s="12" customFormat="1" ht="38.25">
+      <c r="A15" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15">
+        <f>COUNTIF($F$18:$F$78,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <f>COUNTIF($G$18:$G$78,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <f>COUNTIF($H$18:$H$78,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" s="21" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
+      <c r="A17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" s="27" customFormat="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" s="27" customFormat="1">
+      <c r="A20" s="1">
+        <f ca="1">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" s="27" customFormat="1">
+      <c r="A21" s="1">
+        <f t="shared" ref="A21:A25" ca="1" si="0">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" s="27" customFormat="1">
+      <c r="A22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="27" customFormat="1">
+      <c r="A23" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" s="27" customFormat="1">
+      <c r="A24" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" s="27" customFormat="1">
+      <c r="A25" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="46"/>
+    </row>
+    <row r="28" spans="1:9" s="27" customFormat="1">
+      <c r="A28" s="65">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A29" s="2">
+        <f t="shared" ref="A29:A36" ca="1" si="1">IF(OFFSET(A29,-1,0) ="",OFFSET(A29,-2,0)+1,OFFSET(A29,-1,0)+1 )</f>
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" s="27" customFormat="1">
+      <c r="A30" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A31" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A32" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A33" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A34" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="38.25">
+      <c r="A35" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="38.25">
+      <c r="A36" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="46"/>
+    </row>
+    <row r="38" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A38" s="33">
+        <f ca="1">IF(OFFSET(A38,-1,0) ="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1 )</f>
+        <v>17</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A39" s="2">
+        <f t="shared" ref="A39:A76" ca="1" si="2">IF(OFFSET(A39,-1,0) ="",OFFSET(A39,-2,0)+1,OFFSET(A39,-1,0)+1 )</f>
+        <v>18</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A40" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A41" s="33">
+        <f ca="1">IF(OFFSET(A41,-1,0) ="",OFFSET(A41,-2,0)+1,OFFSET(A41,-1,0)+1 )</f>
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A42" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="46"/>
+      <c r="B43" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="46"/>
+    </row>
+    <row r="44" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A44" s="34">
+        <f ca="1">IF(OFFSET(A44,-1,0) ="",OFFSET(A44,-2,0)+1,OFFSET(A44,-1,0)+1 )</f>
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="1:9" s="29" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A45" s="34">
+        <f ca="1">IF(OFFSET(A45,-1,0) ="",OFFSET(A45,-2,0)+1,OFFSET(A45,-1,0)+1 )</f>
+        <v>23</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A46" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="33"/>
+    </row>
+    <row r="47" spans="1:9" s="29" customFormat="1" ht="38.25">
+      <c r="A47" s="33">
+        <f ca="1">IF(OFFSET(A47,-1,0) ="",OFFSET(A47,-2,0)+1,OFFSET(A47,-1,0)+1 )</f>
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="33"/>
+    </row>
+    <row r="48" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A48" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="33"/>
+    </row>
+    <row r="49" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="46"/>
+      <c r="B49" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="44"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="46"/>
+    </row>
+    <row r="50" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A50" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="33"/>
+    </row>
+    <row r="51" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A51" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="33"/>
+    </row>
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A52" s="33">
+        <f ca="1">IF(OFFSET(A52,-1,0) ="",OFFSET(A52,-2,0)+1,OFFSET(A52,-1,0)+1 )</f>
+        <v>29</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="33"/>
+    </row>
+    <row r="53" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A53" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="33"/>
+    </row>
+    <row r="54" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A54" s="46"/>
+      <c r="B54" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="1:9" s="76" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="72"/>
+      <c r="B55" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="73"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="72"/>
+    </row>
+    <row r="56" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A56" s="2">
+        <f ca="1">A53+1</f>
+        <v>31</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="33"/>
+    </row>
+    <row r="57" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A57" s="34">
+        <f ca="1">IF(OFFSET(A57,-1,0) ="",OFFSET(A57,-2,0)+1,OFFSET(A57,-1,0)+1 )</f>
+        <v>32</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="33"/>
+    </row>
+    <row r="58" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A58" s="34">
+        <f ca="1">IF(OFFSET(A58,-1,0) ="",OFFSET(A58,-2,0)+1,OFFSET(A58,-1,0)+1 )</f>
+        <v>33</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="33"/>
+    </row>
+    <row r="59" spans="1:9" s="76" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A59" s="72"/>
+      <c r="B59" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="72"/>
+    </row>
+    <row r="60" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A60" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="33"/>
+    </row>
+    <row r="61" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A61" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="33"/>
+    </row>
+    <row r="62" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A62" s="33">
+        <f ca="1">IF(OFFSET(A62,-1,0) ="",OFFSET(A62,-2,0)+1,OFFSET(A62,-1,0)+1 )</f>
+        <v>36</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="33"/>
+    </row>
+    <row r="63" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A63" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="33"/>
+    </row>
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A64" s="34">
+        <f ca="1">IF(OFFSET(A64,-1,0) ="",OFFSET(A64,-2,0)+1,OFFSET(A64,-1,0)+1 )</f>
+        <v>38</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="33"/>
+    </row>
+    <row r="65" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A65" s="34">
+        <f ca="1">IF(OFFSET(A65,-1,0) ="",OFFSET(A65,-2,0)+1,OFFSET(A65,-1,0)+1 )</f>
+        <v>39</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="33"/>
+    </row>
+    <row r="66" spans="1:9" s="76" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="72"/>
+      <c r="B66" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="72"/>
+    </row>
+    <row r="67" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A67" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="33"/>
+    </row>
+    <row r="68" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A68" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68" s="25"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="33"/>
+    </row>
+    <row r="69" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A69" s="33">
+        <f ca="1">IF(OFFSET(A69,-1,0) ="",OFFSET(A69,-2,0)+1,OFFSET(A69,-1,0)+1 )</f>
+        <v>42</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="33"/>
+    </row>
+    <row r="70" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A70" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70" s="25"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="33"/>
+    </row>
+    <row r="71" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A71" s="34">
+        <f ca="1">IF(OFFSET(A71,-1,0) ="",OFFSET(A71,-2,0)+1,OFFSET(A71,-1,0)+1 )</f>
+        <v>44</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="33"/>
+    </row>
+    <row r="72" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A72" s="34">
+        <f ca="1">IF(OFFSET(A72,-1,0) ="",OFFSET(A72,-2,0)+1,OFFSET(A72,-1,0)+1 )</f>
+        <v>45</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="33"/>
+    </row>
+    <row r="73" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="46"/>
+      <c r="B73" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="46"/>
+    </row>
+    <row r="74" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A74" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="33"/>
+    </row>
+    <row r="75" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A75" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A76" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A77" s="34">
+        <f t="shared" ref="A77:A78" ca="1" si="3">IF(OFFSET(A77,-1,0) ="",OFFSET(A77,-2,0)+1,OFFSET(A77,-1,0)+1 )</f>
+        <v>49</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="33"/>
+    </row>
+    <row r="78" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A78" s="34">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:H27 F18:H18 F37:H37 F43:H43 F49:H49 F73:H73 F54:H55 F59:H59 F66:H66"/>
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
+    <dataValidation type="list" allowBlank="1" sqref="F19:H25 F28:H36 F74:H78 F38:H42 F44:H48 F56:H58 F67:H72 F50:H53 F60:H65">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
+++ b/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="3" r:id="rId1"/>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F120" authorId="0" shapeId="0">
+    <comment ref="F118" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="389">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -1068,9 +1068,6 @@
     <t>When the user enters lower password</t>
   </si>
   <si>
-    <t>When the user enters password that meets the policy</t>
-  </si>
-  <si>
     <t>When the user doesn't select anything</t>
   </si>
   <si>
@@ -1120,9 +1117,6 @@
   </si>
   <si>
     <t>When the user selects future date</t>
-  </si>
-  <si>
-    <t>Check scroll bar</t>
   </si>
   <si>
     <t>Check dropdown list</t>
@@ -1456,24 +1450,7 @@
     <t xml:space="preserve">When the user enters greater than 6 numeric characters  </t>
   </si>
   <si>
-    <t>1. Open Lazada registration page
-2. Enter valid phone number
-3. Slide to get SMS code
-4. Enter less than 10 numeric characters in SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter valid phone number
-3. Slide to get SMS code
-4. Enter more than 10 numeric characters in SMS Verification Code box</t>
-  </si>
-  <si>
     <t>System will show error message “Please enter a valid SMS Verification Code"</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter more than 10 numeric characters
-3. Slide to get SMS code</t>
   </si>
   <si>
     <t>1. Open Lazada registration page
@@ -1509,11 +1486,6 @@
   <si>
     <t>1. Open Lazada registration page
 2. Don't enter character
-3. Slide to get SMS code</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter less than 10 numeric characters
 3. Slide to get SMS code</t>
   </si>
   <si>
@@ -1580,6 +1552,297 @@
 2. Enter valid phone number
 3. Slide to get SMS code
 4. Enter space into SMS Verification Code</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Observe the display of the Password</t>
+  </si>
+  <si>
+    <t>Password is blank 
+The placeholder is "Minimum 6 characters with a number and a letter"
+There is a symbol * marks Password as a mandatory field</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Don't enter character
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>System will show error message “Please enter Password”</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter only alphabetic characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter only special characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter only numberic characters</t>
+  </si>
+  <si>
+    <t>System will show error message "Password should contain alphabetic and numeric characters"</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter numeric and special characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter alphabetic and special characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter alphabetic and numeric characters
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter numeric, alphabetic and special characters
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Copy/Paste password</t>
+  </si>
+  <si>
+    <t>Do not allow copy/paste password</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter space at the beginning and the end of the password
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>Spaces are removed
+Sign up successfully, return to login screen</t>
+  </si>
+  <si>
+    <t>System will show error message "The length of Password should be 6-50 characters"</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 6 characters (valid password)
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 10 characters (valid password) 
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 50 characters (valid password) 
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 5 characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter 5 numeric characters in SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter 17 numeric characters in SMS Verification Code box</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 11 numeric characters
+3. Slide to get SMS code</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 9 numeric characters
+3. Slide to get SMS code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Lazada registration page
+2. Enter 51 characters
+</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter a valid password where all letters are uppercase
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter a valid password where all letters are lowercase
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>Password is shown</t>
+  </si>
+  <si>
+    <t>Password is hided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Lazada registration page
+2. Observe the display of the Eye icon
+3. Enter any character </t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on the Eye icon to show the password</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on the Eye icon to hide the password</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+4. Enter characters
+3. Click on close (x) button</t>
+  </si>
+  <si>
+    <t>Month is blank, the placeholder is "Month"
+Day is blank, the placeholder is "Day"
+Year is blank, the placeholder is "Year"</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Don't select birthday
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Month
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Day
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Year
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Month and Day
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Month and Year
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Year and Day
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select valid date
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select invalid date
+3. Other fields are valid
+4. Click Sign up button</t>
+  </si>
+  <si>
+    <t>System will show error message “Please select the correct birthday"</t>
+  </si>
+  <si>
+    <t>System will show error message  “Please select the correct birthday"</t>
+  </si>
+  <si>
+    <t>System will show error message “Wrong birthday format"</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select future date</t>
+  </si>
+  <si>
+    <t>There is a scrollbar when the list of Months exceeds the display frame</t>
+  </si>
+  <si>
+    <t>There is a scrollbar when the list of Days exceeds the display frame</t>
+  </si>
+  <si>
+    <t>There is a scrollbar when the list of Years exceeds the display frame</t>
+  </si>
+  <si>
+    <t>The months are fully displayed in the dropdown list and sorted in ascending order</t>
+  </si>
+  <si>
+    <t>Do not allow enter from keyboard</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Observe the display of the Birthday</t>
+  </si>
+  <si>
+    <t>Gender is blank
+The placeholder is "Select"</t>
+  </si>
+  <si>
+    <t>The days are fully displayed in the dropdown list and sorted in ascending order</t>
+  </si>
+  <si>
+    <t>List of years starting from 1990 to 2022 and sorted in descending order</t>
+  </si>
+  <si>
+    <t>There are 2 values: Female and male</t>
+  </si>
+  <si>
+    <t>srollbar maybe not need</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on Month</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on Day</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on Year</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on Gender</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter characters from keyboard</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Don't select Gender
+3. Other fields are valid
+4. Click Sign up button</t>
   </si>
 </sst>
 </file>
@@ -19993,10 +20256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -20163,15 +20426,15 @@
         <v>13</v>
       </c>
       <c r="B11" s="15">
-        <f>COUNTIF($F$18:$F$128,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$126,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="15">
-        <f>COUNTIF($G$18:$G$128,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$126,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <f>COUNTIF($H$18:$H$128,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$126,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E11" s="56"/>
@@ -20185,15 +20448,15 @@
         <v>14</v>
       </c>
       <c r="B12" s="15">
-        <f>COUNTIF($F$18:$F$128,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$126,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <f>COUNTIF($G$18:$G$128,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$126,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <f>COUNTIF($H$18:$H$128,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$126,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="56"/>
@@ -20207,15 +20470,15 @@
         <v>15</v>
       </c>
       <c r="B13" s="15">
-        <f>COUNTIF($F$18:$F$128,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$126,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="15">
-        <f>COUNTIF($G$18:$G$128,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$126,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <f>COUNTIF($H$18:$H$128,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$126,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="8"/>
@@ -20229,15 +20492,15 @@
         <v>16</v>
       </c>
       <c r="B14" s="15">
-        <f>COUNTIF($F$18:$F$128,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$126,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <f>COUNTIF($G$18:$G$128,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$126,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <f>COUNTIF($H$18:$H$128,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$126,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="8"/>
@@ -20251,15 +20514,15 @@
         <v>17</v>
       </c>
       <c r="B15" s="15">
-        <f>COUNTIF($F$18:$F$128,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$126,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="15">
-        <f>COUNTIF($G$18:$G$128,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$126,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <f>COUNTIF($H$18:$H$128,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$126,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="8"/>
@@ -20338,17 +20601,17 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A20" s="65">
-        <f t="shared" ref="A20:A114" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <f t="shared" ref="A20:A112" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>281</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>283</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="1"/>
@@ -20365,10 +20628,10 @@
         <v>166</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="1"/>
@@ -20385,10 +20648,10 @@
         <v>163</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="1"/>
@@ -20405,10 +20668,10 @@
         <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="1"/>
@@ -20425,10 +20688,10 @@
         <v>165</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="1"/>
@@ -20445,10 +20708,10 @@
         <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="1"/>
@@ -20465,10 +20728,10 @@
         <v>169</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="1"/>
@@ -20482,13 +20745,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="1"/>
@@ -20502,13 +20765,13 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="1"/>
@@ -20522,13 +20785,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -20542,13 +20805,13 @@
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -20565,10 +20828,10 @@
         <v>160</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="1"/>
@@ -20598,10 +20861,10 @@
         <v>168</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="1"/>
@@ -20618,10 +20881,10 @@
         <v>173</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="1"/>
@@ -20638,10 +20901,10 @@
         <v>163</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="1"/>
@@ -20658,10 +20921,10 @@
         <v>164</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="1"/>
@@ -20678,10 +20941,10 @@
         <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="1"/>
@@ -20695,13 +20958,13 @@
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="1"/>
@@ -20718,10 +20981,10 @@
         <v>169</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="1"/>
@@ -20735,13 +20998,13 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="1"/>
@@ -20755,13 +21018,13 @@
         <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="1"/>
@@ -20775,13 +21038,13 @@
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="1"/>
@@ -20795,13 +21058,13 @@
         <v>23</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -20818,10 +21081,10 @@
         <v>160</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="1"/>
@@ -20842,7 +21105,7 @@
       <c r="H45" s="64"/>
       <c r="I45" s="63"/>
     </row>
-    <row r="46" spans="1:9" s="27" customFormat="1">
+    <row r="46" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A46" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
@@ -20851,16 +21114,18 @@
         <v>168</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D46" s="24"/>
+        <v>324</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>325</v>
+      </c>
       <c r="E46" s="25"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="26"/>
     </row>
-    <row r="47" spans="1:9" s="27" customFormat="1">
+    <row r="47" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A47" s="65">
         <f ca="1">IF(OFFSET(A47,-1,0) ="",OFFSET(A47,-2,0)+1,OFFSET(A47,-1,0)+1 )</f>
         <v>26</v>
@@ -20869,70 +21134,78 @@
         <v>173</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D47" s="24"/>
+        <v>326</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>327</v>
+      </c>
       <c r="E47" s="25"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="26"/>
     </row>
-    <row r="48" spans="1:9" s="27" customFormat="1">
+    <row r="48" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A48" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D48" s="24"/>
+        <v>328</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>331</v>
+      </c>
       <c r="E48" s="25"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="26"/>
     </row>
-    <row r="49" spans="1:9" s="27" customFormat="1">
+    <row r="49" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A49" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D49" s="24"/>
+        <v>329</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>331</v>
+      </c>
       <c r="E49" s="25"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="26"/>
     </row>
-    <row r="50" spans="1:9" s="27" customFormat="1">
+    <row r="50" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A50" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D50" s="24"/>
+        <v>330</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>331</v>
+      </c>
       <c r="E50" s="25"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="26"/>
     </row>
-    <row r="51" spans="1:9" s="27" customFormat="1">
+    <row r="51" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A51" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
@@ -20941,16 +21214,18 @@
         <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D51" s="24"/>
+        <v>334</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E51" s="25"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="26"/>
     </row>
-    <row r="52" spans="1:9" s="27" customFormat="1">
+    <row r="52" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A52" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
@@ -20959,16 +21234,18 @@
         <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D52" s="24"/>
+        <v>332</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>331</v>
+      </c>
       <c r="E52" s="25"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="26"/>
     </row>
-    <row r="53" spans="1:9" s="27" customFormat="1">
+    <row r="53" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A53" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>32</v>
@@ -20977,16 +21254,18 @@
         <v>176</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D53" s="24"/>
+        <v>333</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>331</v>
+      </c>
       <c r="E53" s="25"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="26"/>
     </row>
-    <row r="54" spans="1:9" s="27" customFormat="1">
+    <row r="54" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A54" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>33</v>
@@ -20995,34 +21274,38 @@
         <v>177</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="24"/>
+        <v>335</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E54" s="25"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="26"/>
     </row>
-    <row r="55" spans="1:9" s="27" customFormat="1">
+    <row r="55" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A55" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D55" s="24"/>
+        <v>336</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>337</v>
+      </c>
       <c r="E55" s="25"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="26"/>
     </row>
-    <row r="56" spans="1:9" s="27" customFormat="1">
+    <row r="56" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A56" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
@@ -21031,16 +21314,18 @@
         <v>169</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D56" s="24"/>
+        <v>338</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>339</v>
+      </c>
       <c r="E56" s="25"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="26"/>
     </row>
-    <row r="57" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="57" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A57" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
@@ -21049,16 +21334,18 @@
         <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="24"/>
+        <v>344</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>340</v>
+      </c>
       <c r="E57" s="25"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="67"/>
     </row>
-    <row r="58" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="58" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A58" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>37</v>
@@ -21067,16 +21354,18 @@
         <v>172</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D58" s="24"/>
+        <v>341</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E58" s="25"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="67"/>
     </row>
-    <row r="59" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="59" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A59" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>38</v>
@@ -21085,52 +21374,58 @@
         <v>178</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D59" s="24"/>
+        <v>342</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E59" s="25"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="67"/>
     </row>
-    <row r="60" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="60" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A60" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D60" s="24"/>
+        <v>343</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E60" s="25"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="67"/>
     </row>
-    <row r="61" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="61" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A61" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="24"/>
+        <v>349</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>340</v>
+      </c>
       <c r="E61" s="25"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="67"/>
     </row>
-    <row r="62" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="62" spans="1:9" s="29" customFormat="1" ht="63.75">
       <c r="A62" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
@@ -21139,16 +21434,18 @@
         <v>179</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D62" s="24"/>
+        <v>350</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E62" s="25"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="67"/>
     </row>
-    <row r="63" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="63" spans="1:9" s="29" customFormat="1" ht="63.75">
       <c r="A63" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>42</v>
@@ -21157,137 +21454,151 @@
         <v>180</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D63" s="24"/>
+        <v>351</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E63" s="25"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="67"/>
     </row>
-    <row r="64" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A64" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
-      <c r="B64" s="54" t="s">
-        <v>181</v>
+      <c r="B64" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D64" s="24"/>
+        <v>354</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>352</v>
+      </c>
       <c r="E64" s="25"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="67"/>
     </row>
-    <row r="65" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="65" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A65" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D65" s="24"/>
+        <v>355</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>352</v>
+      </c>
       <c r="E65" s="25"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="67"/>
     </row>
-    <row r="66" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="66" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A66" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D66" s="24"/>
+        <v>356</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>353</v>
+      </c>
       <c r="E66" s="25"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="67"/>
     </row>
-    <row r="67" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="67" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A67" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D67" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="D67" s="24"/>
       <c r="E67" s="25"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="67"/>
     </row>
-    <row r="68" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A68" s="65">
+    <row r="68" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="43"/>
+      <c r="B68" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="61"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="63"/>
+    </row>
+    <row r="69" spans="1:9" s="29" customFormat="1" ht="38.25">
+      <c r="A69" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D68" s="70"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="67"/>
-    </row>
-    <row r="69" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="43"/>
-      <c r="B69" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="63"/>
-    </row>
-    <row r="70" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="B69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E69" s="25"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="67"/>
+    </row>
+    <row r="70" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A70" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D70" s="24"/>
+        <v>359</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E70" s="25"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="67"/>
     </row>
-    <row r="71" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="71" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A71" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>49</v>
@@ -21296,16 +21607,18 @@
         <v>182</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D71" s="24"/>
+        <v>360</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>369</v>
+      </c>
       <c r="E71" s="25"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="67"/>
     </row>
-    <row r="72" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="72" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A72" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>50</v>
@@ -21314,16 +21627,18 @@
         <v>183</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D72" s="24"/>
+        <v>361</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>369</v>
+      </c>
       <c r="E72" s="25"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="67"/>
     </row>
-    <row r="73" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="73" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A73" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>51</v>
@@ -21332,16 +21647,18 @@
         <v>184</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D73" s="24"/>
+        <v>362</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>369</v>
+      </c>
       <c r="E73" s="25"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="67"/>
     </row>
-    <row r="74" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="74" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A74" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>52</v>
@@ -21350,16 +21667,18 @@
         <v>185</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D74" s="24"/>
+        <v>363</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>369</v>
+      </c>
       <c r="E74" s="25"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="67"/>
     </row>
-    <row r="75" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="75" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A75" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
@@ -21368,16 +21687,18 @@
         <v>186</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D75" s="24"/>
+        <v>364</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>369</v>
+      </c>
       <c r="E75" s="25"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="67"/>
     </row>
-    <row r="76" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="76" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A76" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
@@ -21386,52 +21707,58 @@
         <v>187</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D76" s="24"/>
+        <v>365</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>369</v>
+      </c>
       <c r="E76" s="25"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="67"/>
     </row>
-    <row r="77" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="77" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A77" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D77" s="24"/>
+        <v>366</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E77" s="25"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="67"/>
     </row>
-    <row r="78" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="78" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A78" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D78" s="24"/>
+        <v>367</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>368</v>
+      </c>
       <c r="E78" s="25"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="67"/>
     </row>
-    <row r="79" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="79" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A79" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>57</v>
@@ -21440,34 +21767,38 @@
         <v>197</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D79" s="1"/>
+        <v>371</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>370</v>
+      </c>
       <c r="E79" s="25"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="67"/>
     </row>
-    <row r="80" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="80" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A80" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>198</v>
+      <c r="B80" s="54" t="s">
+        <v>191</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D80" s="1"/>
+        <v>383</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="E80" s="25"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="67"/>
     </row>
-    <row r="81" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="81" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A81" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>59</v>
@@ -21476,16 +21807,18 @@
         <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="1"/>
+        <v>384</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="E81" s="25"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="67"/>
     </row>
-    <row r="82" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="82" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A82" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>60</v>
@@ -21494,34 +21827,38 @@
         <v>193</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D82" s="1"/>
+        <v>385</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="E82" s="25"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="67"/>
     </row>
-    <row r="83" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="83" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A83" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>61</v>
       </c>
       <c r="B83" s="54" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>383</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="E83" s="25"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="67"/>
     </row>
-    <row r="84" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="84" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A84" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>62</v>
@@ -21530,16 +21867,18 @@
         <v>189</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D84" s="1"/>
+        <v>384</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="E84" s="25"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="67"/>
     </row>
-    <row r="85" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="85" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A85" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
@@ -21548,83 +21887,93 @@
         <v>190</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D85" s="1"/>
+        <v>385</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="E85" s="25"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="67"/>
     </row>
-    <row r="86" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="86" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A86" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
       <c r="B86" s="54" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D86" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="E86" s="25"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="67"/>
     </row>
-    <row r="87" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A87" s="65">
+    <row r="87" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A87" s="43"/>
+      <c r="B87" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="61"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="63"/>
+    </row>
+    <row r="88" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A88" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
-      <c r="B87" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="67"/>
-    </row>
-    <row r="88" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A88" s="43"/>
-      <c r="B88" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C88" s="61"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="63"/>
-    </row>
-    <row r="89" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="B88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E88" s="25"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="67"/>
+    </row>
+    <row r="89" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A89" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="25"/>
+        <v>386</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>382</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="67"/>
     </row>
-    <row r="90" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="90" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A90" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>67</v>
@@ -21633,92 +21982,96 @@
         <v>199</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D90" s="24"/>
+        <v>388</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="E90" s="25"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="67"/>
     </row>
-    <row r="91" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="91" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A91" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>68</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>200</v>
+      <c r="B91" s="54" t="s">
+        <v>195</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D91" s="24"/>
+        <v>387</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="E91" s="25"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="67"/>
     </row>
-    <row r="92" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A92" s="65">
-        <f t="shared" ca="1" si="0"/>
+    <row r="92" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A92" s="43"/>
+      <c r="B92" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="61"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="63"/>
+    </row>
+    <row r="93" spans="1:9" s="27" customFormat="1">
+      <c r="A93" s="65">
+        <f t="shared" ref="A93:A108" ca="1" si="1">IF(OFFSET(A93,-1,0) ="",OFFSET(A93,-2,0)+1,OFFSET(A93,-1,0)+1 )</f>
         <v>69</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D92" s="24"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="67"/>
-    </row>
-    <row r="93" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A93" s="65">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B93" s="54" t="s">
-        <v>196</v>
+      <c r="B93" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="D93" s="24"/>
       <c r="E93" s="25"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="67"/>
-    </row>
-    <row r="94" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A94" s="43"/>
-      <c r="B94" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C94" s="61"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="63"/>
+      <c r="I93" s="26"/>
+    </row>
+    <row r="94" spans="1:9" s="27" customFormat="1">
+      <c r="A94" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="26"/>
     </row>
     <row r="95" spans="1:9" s="27" customFormat="1">
       <c r="A95" s="65">
-        <f t="shared" ref="A95:A110" ca="1" si="1">IF(OFFSET(A95,-1,0) ="",OFFSET(A95,-2,0)+1,OFFSET(A95,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>71</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D95" s="24"/>
       <c r="E95" s="25"/>
@@ -21736,7 +22089,7 @@
         <v>203</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D96" s="24"/>
       <c r="E96" s="25"/>
@@ -21751,10 +22104,10 @@
         <v>73</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D97" s="24"/>
       <c r="E97" s="25"/>
@@ -21769,10 +22122,10 @@
         <v>74</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D98" s="24"/>
       <c r="E98" s="25"/>
@@ -21787,10 +22140,10 @@
         <v>75</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" s="24"/>
       <c r="E99" s="25"/>
@@ -21805,10 +22158,10 @@
         <v>76</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="24"/>
       <c r="E100" s="25"/>
@@ -21823,10 +22176,10 @@
         <v>77</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="24"/>
       <c r="E101" s="25"/>
@@ -21841,10 +22194,10 @@
         <v>78</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D102" s="24"/>
       <c r="E102" s="25"/>
@@ -21853,41 +22206,41 @@
       <c r="H102" s="1"/>
       <c r="I102" s="26"/>
     </row>
-    <row r="103" spans="1:9" s="27" customFormat="1">
+    <row r="103" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A103" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>79</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D103" s="24"/>
       <c r="E103" s="25"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="26"/>
-    </row>
-    <row r="104" spans="1:9" s="27" customFormat="1">
+      <c r="I103" s="67"/>
+    </row>
+    <row r="104" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A104" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>80</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D104" s="24"/>
       <c r="E104" s="25"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="26"/>
+      <c r="I104" s="67"/>
     </row>
     <row r="105" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A105" s="65">
@@ -21895,10 +22248,10 @@
         <v>81</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D105" s="24"/>
       <c r="E105" s="25"/>
@@ -21913,10 +22266,10 @@
         <v>82</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="25"/>
@@ -21931,10 +22284,10 @@
         <v>83</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D107" s="24"/>
       <c r="E107" s="25"/>
@@ -21949,10 +22302,10 @@
         <v>84</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D108" s="24"/>
       <c r="E108" s="25"/>
@@ -21963,17 +22316,17 @@
     </row>
     <row r="109" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A109" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>85</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>207</v>
+      <c r="B109" s="54" t="s">
+        <v>218</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D109" s="24"/>
-      <c r="E109" s="25"/>
+        <v>280</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -21981,81 +22334,81 @@
     </row>
     <row r="110" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A110" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>86</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D110" s="24"/>
+        <v>280</v>
+      </c>
+      <c r="D110" s="1"/>
       <c r="E110" s="25"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="67"/>
     </row>
-    <row r="111" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A111" s="65">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="B111" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="67"/>
+    <row r="111" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A111" s="43"/>
+      <c r="B111" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="61"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="63"/>
     </row>
     <row r="112" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A112" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D112" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="D112" s="24"/>
       <c r="E112" s="25"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="67"/>
     </row>
-    <row r="113" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A113" s="43"/>
-      <c r="B113" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C113" s="61"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="63"/>
+    <row r="113" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A113" s="65">
+        <f t="shared" ref="A113:A114" ca="1" si="2">IF(OFFSET(A113,-1,0) ="",OFFSET(A113,-2,0)+1,OFFSET(A113,-1,0)+1 )</f>
+        <v>88</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D113" s="24"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="67"/>
     </row>
     <row r="114" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A114" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>89</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D114" s="24"/>
       <c r="E114" s="25"/>
@@ -22064,34 +22417,29 @@
       <c r="H114" s="1"/>
       <c r="I114" s="67"/>
     </row>
-    <row r="115" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A115" s="65">
-        <f t="shared" ref="A115:A116" ca="1" si="2">IF(OFFSET(A115,-1,0) ="",OFFSET(A115,-2,0)+1,OFFSET(A115,-1,0)+1 )</f>
-        <v>90</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="67"/>
+    <row r="115" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A115" s="43"/>
+      <c r="B115" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" s="61"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="63"/>
     </row>
     <row r="116" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A116" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <f t="shared" ref="A116" ca="1" si="3">IF(OFFSET(A116,-1,0) ="",OFFSET(A116,-2,0)+1,OFFSET(A116,-1,0)+1 )</f>
+        <v>90</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D116" s="24"/>
       <c r="E116" s="25"/>
@@ -22100,85 +22448,90 @@
       <c r="H116" s="1"/>
       <c r="I116" s="67"/>
     </row>
-    <row r="117" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A117" s="43"/>
-      <c r="B117" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C117" s="61"/>
-      <c r="D117" s="62"/>
-      <c r="E117" s="63"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="64"/>
-      <c r="H117" s="64"/>
-      <c r="I117" s="63"/>
+    <row r="117" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A117" s="71">
+        <f ca="1">IF(OFFSET(A117,-1,0) ="",OFFSET(A117,-2,0)+1,OFFSET(A117,-1,0)+1 )</f>
+        <v>91</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D117" s="24"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="71"/>
     </row>
     <row r="118" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A118" s="65">
-        <f t="shared" ref="A118" ca="1" si="3">IF(OFFSET(A118,-1,0) ="",OFFSET(A118,-2,0)+1,OFFSET(A118,-1,0)+1 )</f>
+      <c r="A118" s="71">
+        <f t="shared" ref="A118:A128" ca="1" si="4">IF(OFFSET(A118,-1,0) ="",OFFSET(A118,-2,0)+1,OFFSET(A118,-1,0)+1 )</f>
         <v>92</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="25"/>
-      <c r="F118" s="1"/>
+      <c r="F118" s="25"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="67"/>
-    </row>
-    <row r="119" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A119" s="71">
-        <f ca="1">IF(OFFSET(A119,-1,0) ="",OFFSET(A119,-2,0)+1,OFFSET(A119,-1,0)+1 )</f>
+      <c r="I118" s="71"/>
+    </row>
+    <row r="119" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A119" s="68"/>
+      <c r="B119" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C119" s="91"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="69"/>
+    </row>
+    <row r="120" spans="1:9" s="27" customFormat="1">
+      <c r="A120" s="71">
+        <f t="shared" ca="1" si="4"/>
         <v>93</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D119" s="24"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="71"/>
-    </row>
-    <row r="120" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A120" s="71">
-        <f t="shared" ref="A120:A130" ca="1" si="4">IF(OFFSET(A120,-1,0) ="",OFFSET(A120,-2,0)+1,OFFSET(A120,-1,0)+1 )</f>
-        <v>94</v>
-      </c>
       <c r="B120" s="1" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D120" s="24"/>
       <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
+      <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="71"/>
-    </row>
-    <row r="121" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A121" s="68"/>
-      <c r="B121" s="90" t="s">
-        <v>215</v>
-      </c>
-      <c r="C121" s="91"/>
-      <c r="D121" s="92"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="69"/>
+      <c r="I120" s="26"/>
+    </row>
+    <row r="121" spans="1:9" s="27" customFormat="1">
+      <c r="A121" s="71">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="26"/>
     </row>
     <row r="122" spans="1:9" s="27" customFormat="1">
       <c r="A122" s="71">
@@ -22186,10 +22539,10 @@
         <v>95</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D122" s="24"/>
       <c r="E122" s="25"/>
@@ -22203,11 +22556,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>96</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>214</v>
+      <c r="B123" s="54" t="s">
+        <v>161</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D123" s="24"/>
       <c r="E123" s="25"/>
@@ -22221,11 +22574,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>97</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>213</v>
+      <c r="B124" s="54" t="s">
+        <v>162</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D124" s="24"/>
       <c r="E124" s="25"/>
@@ -22240,10 +22593,10 @@
         <v>98</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D125" s="24"/>
       <c r="E125" s="25"/>
@@ -22257,11 +22610,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>99</v>
       </c>
-      <c r="B126" s="54" t="s">
-        <v>162</v>
+      <c r="B126" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D126" s="24"/>
       <c r="E126" s="25"/>
@@ -22275,11 +22628,11 @@
         <f t="shared" ca="1" si="4"/>
         <v>100</v>
       </c>
-      <c r="B127" s="54" t="s">
+      <c r="B127" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D127" s="24"/>
       <c r="E127" s="25"/>
@@ -22297,7 +22650,7 @@
         <v>217</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D128" s="24"/>
       <c r="E128" s="25"/>
@@ -22306,61 +22659,25 @@
       <c r="H128" s="1"/>
       <c r="I128" s="26"/>
     </row>
-    <row r="129" spans="1:9" s="27" customFormat="1">
-      <c r="A129" s="71">
-        <f t="shared" ca="1" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D129" s="24"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="26"/>
-    </row>
-    <row r="130" spans="1:9" s="27" customFormat="1">
-      <c r="A130" s="71">
-        <f t="shared" ca="1" si="4"/>
-        <v>103</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D130" s="24"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="26"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F69:H69 F18:H19 F88:H88 F113:H113 F32:H32 F45:H45 F94:H94 F117:H117"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F68:H68 F18:H19 F87:H87 F111:H111 F32:H32 F45:H45 F92:H92 F115:H115"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" sqref="F114:H116 F70:H87 F118:H130 F46:H68 F89:H93 F95:H112 F33:H44 F20:H31">
+    <dataValidation type="list" allowBlank="1" sqref="F112:H114 F69:H86 F116:H128 F93:H110 F33:H44 F20:H31 F46:H67 F88:H91">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -22374,7 +22691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -22678,7 +22995,7 @@
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="79" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="81"/>
@@ -22773,7 +23090,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="24"/>
@@ -22802,7 +23119,7 @@
     <row r="26" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="79" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -22815,7 +23132,7 @@
     <row r="27" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="46"/>
       <c r="B27" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="45"/>
@@ -22830,7 +23147,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="24"/>
@@ -22846,7 +23163,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="24"/>
@@ -22862,7 +23179,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="24"/>
@@ -22878,7 +23195,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="24"/>
@@ -22894,7 +23211,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="24"/>
@@ -22910,7 +23227,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="24"/>
@@ -22926,7 +23243,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="24"/>
@@ -22942,7 +23259,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="24"/>
@@ -22958,7 +23275,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="24"/>
@@ -22971,7 +23288,7 @@
     <row r="37" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="46"/>
       <c r="B37" s="55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C37" s="44"/>
       <c r="D37" s="45"/>
@@ -22987,7 +23304,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="24"/>
@@ -23003,7 +23320,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="24"/>
@@ -23019,7 +23336,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="24"/>
@@ -23035,7 +23352,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="24"/>
@@ -23051,7 +23368,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="24"/>
@@ -23064,7 +23381,7 @@
     <row r="43" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="46"/>
       <c r="B43" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C43" s="44"/>
       <c r="D43" s="45"/>
@@ -23080,7 +23397,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="24"/>
@@ -23096,7 +23413,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="24"/>
@@ -23112,7 +23429,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="24"/>
@@ -23128,7 +23445,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="24"/>
@@ -23144,7 +23461,7 @@
         <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="24"/>
@@ -23157,7 +23474,7 @@
     <row r="49" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A49" s="46"/>
       <c r="B49" s="55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="45"/>
@@ -23173,11 +23490,11 @@
         <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -23191,11 +23508,11 @@
         <v>28</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="1"/>
@@ -23209,11 +23526,11 @@
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
@@ -23227,11 +23544,11 @@
         <v>30</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="1"/>
@@ -23242,7 +23559,7 @@
     <row r="54" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="46"/>
       <c r="B54" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C54" s="44"/>
       <c r="D54" s="45"/>
@@ -23255,7 +23572,7 @@
     <row r="55" spans="1:9" s="76" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="72"/>
       <c r="B55" s="77" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="74"/>
@@ -23271,11 +23588,11 @@
         <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
@@ -23289,11 +23606,11 @@
         <v>32</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
@@ -23307,11 +23624,11 @@
         <v>33</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
@@ -23322,7 +23639,7 @@
     <row r="59" spans="1:9" s="76" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="72"/>
       <c r="B59" s="77" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C59" s="73"/>
       <c r="D59" s="74"/>
@@ -23338,11 +23655,11 @@
         <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
@@ -23356,11 +23673,11 @@
         <v>35</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="1"/>
@@ -23374,11 +23691,11 @@
         <v>36</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
@@ -23392,11 +23709,11 @@
         <v>37</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="1"/>
@@ -23410,11 +23727,11 @@
         <v>38</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
@@ -23428,11 +23745,11 @@
         <v>39</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
@@ -23443,7 +23760,7 @@
     <row r="66" spans="1:9" s="76" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="72"/>
       <c r="B66" s="77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C66" s="73"/>
       <c r="D66" s="74"/>
@@ -23459,11 +23776,11 @@
         <v>40</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
@@ -23477,11 +23794,11 @@
         <v>41</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="1"/>
@@ -23495,11 +23812,11 @@
         <v>42</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
@@ -23513,11 +23830,11 @@
         <v>43</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="1"/>
@@ -23531,11 +23848,11 @@
         <v>44</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
@@ -23549,11 +23866,11 @@
         <v>45</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -23564,7 +23881,7 @@
     <row r="73" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="46"/>
       <c r="B73" s="55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C73" s="44"/>
       <c r="D73" s="45"/>
@@ -23596,7 +23913,7 @@
         <v>47</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -23612,7 +23929,7 @@
         <v>48</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -23628,7 +23945,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="24"/>
@@ -23644,7 +23961,7 @@
         <v>50</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="24"/>
@@ -23656,6 +23973,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
@@ -23663,11 +23985,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:H27 F18:H18 F37:H37 F43:H43 F49:H49 F73:H73 F54:H55 F59:H59 F66:H66"/>

--- a/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
+++ b/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F118" authorId="0" shapeId="0">
+    <comment ref="F117" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="427">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -1155,21 +1155,12 @@
     <t>Check Copy/Paste Full Name</t>
   </si>
   <si>
-    <t>Sign up successfully when all fields are entered valid data</t>
-  </si>
-  <si>
     <t>Sign up fail when all fields are entered invalid data</t>
   </si>
   <si>
-    <t>Sign up successfully when all mandatory fields are entered valid data</t>
-  </si>
-  <si>
     <t>2. Check function</t>
   </si>
   <si>
-    <t>When the user clicks Terms and conditions</t>
-  </si>
-  <si>
     <t>Check slide function when the user doesn't enter phone number</t>
   </si>
   <si>
@@ -1177,9 +1168,6 @@
   </si>
   <si>
     <t>Check slide function when the user enters invalid phone number</t>
-  </si>
-  <si>
-    <t>When the user enters valid Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">When the user enters Product Name </t>
@@ -1364,9 +1352,6 @@
   <si>
     <t xml:space="preserve">1. Open Lazada registration page
 2. Observe the display of the Phone Numer </t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page</t>
   </si>
   <si>
     <t>Phone number is blank 
@@ -1381,14 +1366,6 @@
   </si>
   <si>
     <t>Allow copy/paste phone number</t>
-  </si>
-  <si>
-    <t>Spaces are removed, SMS code is sent to the entered phone number</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter space at the beginning and the end of the phone number
-3. Slide to get SMS code</t>
   </si>
   <si>
     <t xml:space="preserve">When the user enters 10 numeric characters  </t>
@@ -1465,11 +1442,6 @@
 2. Enter alphabetic characters</t>
   </si>
   <si>
-    <t>1. Open Lazada registration page
-2. Enter invalid phone number
-3. Slide to get SMS code</t>
-  </si>
-  <si>
     <t>System will show error message “Please enter SMS Verification Code”</t>
   </si>
   <si>
@@ -1512,9 +1484,309 @@
   </si>
   <si>
     <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter characters
+3. Click on close (x) button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter space into SMS Verification Code</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Observe the display of the Password</t>
+  </si>
+  <si>
+    <t>Password is blank 
+The placeholder is "Minimum 6 characters with a number and a letter"
+There is a symbol * marks Password as a mandatory field</t>
+  </si>
+  <si>
+    <t>System will show error message “Please enter Password”</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter only alphabetic characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter only special characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter only numberic characters</t>
+  </si>
+  <si>
+    <t>System will show error message "Password should contain alphabetic and numeric characters"</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter numeric and special characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter alphabetic and special characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Copy/Paste password</t>
+  </si>
+  <si>
+    <t>Do not allow copy/paste password</t>
+  </si>
+  <si>
+    <t>Spaces are removed
+Sign up successfully, return to login screen</t>
+  </si>
+  <si>
+    <t>System will show error message "The length of Password should be 6-50 characters"</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 5 characters</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+4. Enter 5 numeric characters in SMS Verification Code box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Lazada registration page
+2. Enter 51 characters
+</t>
+  </si>
+  <si>
+    <t>Password is shown</t>
+  </si>
+  <si>
+    <t>Password is hided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Lazada registration page
+2. Observe the display of the Eye icon
+3. Enter any character </t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+4. Enter characters
+3. Click on close (x) button</t>
+  </si>
+  <si>
+    <t>Month is blank, the placeholder is "Month"
+Day is blank, the placeholder is "Day"
+Year is blank, the placeholder is "Year"</t>
+  </si>
+  <si>
+    <t>System will show error message “Please select the correct birthday"</t>
+  </si>
+  <si>
+    <t>System will show error message  “Please select the correct birthday"</t>
+  </si>
+  <si>
+    <t>System will show error message “Wrong birthday format"</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select future date</t>
+  </si>
+  <si>
+    <t>There is a scrollbar when the list of Months exceeds the display frame</t>
+  </si>
+  <si>
+    <t>There is a scrollbar when the list of Days exceeds the display frame</t>
+  </si>
+  <si>
+    <t>There is a scrollbar when the list of Years exceeds the display frame</t>
+  </si>
+  <si>
+    <t>The months are fully displayed in the dropdown list and sorted in ascending order</t>
+  </si>
+  <si>
+    <t>Do not allow enter from keyboard</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Observe the display of the Birthday</t>
+  </si>
+  <si>
+    <t>Gender is blank
+The placeholder is "Select"</t>
+  </si>
+  <si>
+    <t>The days are fully displayed in the dropdown list and sorted in ascending order</t>
+  </si>
+  <si>
+    <t>List of years starting from 1990 to 2022 and sorted in descending order</t>
+  </si>
+  <si>
+    <t>There are 2 values: Female and male</t>
+  </si>
+  <si>
+    <t>srollbar maybe not need</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on Month</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on Day</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on Year</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on Gender</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter characters from keyboard</t>
+  </si>
+  <si>
+    <t>System will show error message “Please enter Full Name”</t>
+  </si>
+  <si>
+    <t>System will show error message "The length of Full Name should be 6-50 characters"</t>
+  </si>
+  <si>
+    <t>Full Name is blank 
+The placeholder is "First Last"
+There is a symbol * marks Full Name as a mandatory field</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Observe the display of the Full Name</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Copy/Paste Full Name</t>
+  </si>
+  <si>
+    <t>System will show error message "Full Name should not contain special characters"</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter numeric, alphabetic and special characters</t>
+  </si>
+  <si>
+    <t>Allow copy/paste Full Name</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Observe the display of the Check box</t>
+  </si>
+  <si>
+    <t>There is a check mark in the Check box</t>
+  </si>
+  <si>
+    <t>The Check box is blank</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on ‘Sign up with Email’ button</t>
+  </si>
+  <si>
+    <t>System will show the page to create new account with Email address</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on ‘Facebook’ button</t>
+  </si>
+  <si>
+    <t>New pop-up will be displayed to confirm if user is ready to continue login with Facebook</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on ‘Google’ button</t>
+  </si>
+  <si>
+    <t>New pop-up will be displayed with Google account so that user can select desired account he want to use</t>
+  </si>
+  <si>
+    <t>Sign up successfully when all fields are entered valid datas</t>
+  </si>
+  <si>
+    <t>Sign up successfully when all mandatory fields are entered valid datas</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter invalid phone number 
+3. Slide to get SMS code</t>
+  </si>
+  <si>
+    <t>0000000001</t>
+  </si>
+  <si>
+    <t>0981980721</t>
+  </si>
+  <si>
+    <t>31/2/1999</t>
+  </si>
+  <si>
+    <t>System will show error message "Please enter the sms code"</t>
+  </si>
+  <si>
+    <t>System will show error message "This phone number is linked to another account, please enter another number"</t>
+  </si>
+  <si>
+    <t>System will show error message "Invalid verification code"</t>
+  </si>
+  <si>
+    <t>Go to the page of Terms and conditions</t>
+  </si>
+  <si>
+    <t>When the user clicks on Terms and conditions</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number 
+3. Slide to get SMS code</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 11 numeric characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Lazada registration page
+2. Enter 9 numeric characters
+</t>
+  </si>
+  <si>
+    <t>SMS code is sent to the entered phone number</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2.  Don't select Check box</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select Check box</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter space at the beginning and the end of the valid phone number
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
 2. Enter 10 numeric characters (valid phone number)
 3. Other fields are valid
-4. Click Sign up button</t>
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter valid phone number
+3. Slide to get SMS code
+2. Don't enter character
+4. Other fields are valid
+5. Click on Sign Up button</t>
   </si>
   <si>
     <t>1. Open Lazada registration page
@@ -1522,7 +1794,7 @@
 3. Slide to get SMS code
 4. Enter 6 numeric characters (valid SMS Verification Code)
 5. Other fields are valid
-6. Click Sign Up button</t>
+6. Click on Sign Up button</t>
   </si>
   <si>
     <t>1. Open Lazada registration page
@@ -1530,319 +1802,205 @@
 3. Slide to get SMS code
 4. Enter invalid SMS Verification Code
 5. Other fields are valid
-6. Click Sign Up button</t>
+6. Click on Sign Up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Don't enter character
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter alphabetic and numeric characters
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter numeric, alphabetic and special characters
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter space at the beginning and the end of the password
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 6 characters (valid password)
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 10 characters (valid password) 
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 50 characters (valid password) 
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter a valid password where all letters are uppercase
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter a valid password where all letters are lowercase
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on on the Eye icon to show the password</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on on the Eye icon to hide the password</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Don't select birthday
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Month
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Day
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Year
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Month and Day
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Month and Year
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select only Year and Day
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select valid date
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Select invalid date
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on on Day</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Don't select Gender
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter only alphabetic characters
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter only numberic characters
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter space at the beginning and the end of the Full Name
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 6 characters (valid Full Name)
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 10 characters (valid Full Name) 
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter 50 characters (valid Full Name) 
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. All fields are entered valid datas
+3. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. All mandatory fields are entered valid datas
+3. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. All fields are entered invalid datas
+3. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter a registered Phone Number
+3. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter expired SMS code
+3. Other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Click on on Terms and conditions</t>
   </si>
   <si>
     <t>1. Open Lazada registration page
 2. Enter valid phone number
 3. Slide to get SMS code
-4. Enter characters
-3. Click on close (x) button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter valid phone number
-3. Slide to get SMS code
-2. Don't enter character
-4. Other fields are valid
-5. Click Sign Up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter valid phone number
-3. Slide to get SMS code
-4. Enter space into SMS Verification Code</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Observe the display of the Password</t>
-  </si>
-  <si>
-    <t>Password is blank 
-The placeholder is "Minimum 6 characters with a number and a letter"
-There is a symbol * marks Password as a mandatory field</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Don't enter character
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>System will show error message “Please enter Password”</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter only alphabetic characters</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter only special characters</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter only numberic characters</t>
-  </si>
-  <si>
-    <t>System will show error message "Password should contain alphabetic and numeric characters"</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter numeric and special characters</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter alphabetic and special characters</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter alphabetic and numeric characters
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter numeric, alphabetic and special characters
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Copy/Paste password</t>
-  </si>
-  <si>
-    <t>Do not allow copy/paste password</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter space at the beginning and the end of the password
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>Spaces are removed
-Sign up successfully, return to login screen</t>
-  </si>
-  <si>
-    <t>System will show error message "The length of Password should be 6-50 characters"</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter 6 characters (valid password)
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter 10 characters (valid password) 
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter 50 characters (valid password) 
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter 5 characters</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter valid phone number
-3. Slide to get SMS code
-4. Enter 5 numeric characters in SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter valid phone number
-3. Slide to get SMS code
-4. Enter 17 numeric characters in SMS Verification Code box</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter 11 numeric characters
-3. Slide to get SMS code</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter 9 numeric characters
-3. Slide to get SMS code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open Lazada registration page
-2. Enter 51 characters
-</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter a valid password where all letters are uppercase
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter a valid password where all letters are lowercase
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>Password is shown</t>
-  </si>
-  <si>
-    <t>Password is hided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open Lazada registration page
-2. Observe the display of the Eye icon
-3. Enter any character </t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Click on the Eye icon to show the password</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Click on the Eye icon to hide the password</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-4. Enter characters
-3. Click on close (x) button</t>
-  </si>
-  <si>
-    <t>Month is blank, the placeholder is "Month"
-Day is blank, the placeholder is "Day"
-Year is blank, the placeholder is "Year"</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Don't select birthday
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Select only Month
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Select only Day
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Select only Year
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Select only Month and Day
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Select only Month and Year
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Select only Year and Day
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Select valid date
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Select invalid date
-3. Other fields are valid
-4. Click Sign up button</t>
-  </si>
-  <si>
-    <t>System will show error message “Please select the correct birthday"</t>
-  </si>
-  <si>
-    <t>System will show error message  “Please select the correct birthday"</t>
-  </si>
-  <si>
-    <t>System will show error message “Wrong birthday format"</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Select future date</t>
-  </si>
-  <si>
-    <t>There is a scrollbar when the list of Months exceeds the display frame</t>
-  </si>
-  <si>
-    <t>There is a scrollbar when the list of Days exceeds the display frame</t>
-  </si>
-  <si>
-    <t>There is a scrollbar when the list of Years exceeds the display frame</t>
-  </si>
-  <si>
-    <t>The months are fully displayed in the dropdown list and sorted in ascending order</t>
-  </si>
-  <si>
-    <t>Do not allow enter from keyboard</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Observe the display of the Birthday</t>
-  </si>
-  <si>
-    <t>Gender is blank
-The placeholder is "Select"</t>
-  </si>
-  <si>
-    <t>The days are fully displayed in the dropdown list and sorted in ascending order</t>
-  </si>
-  <si>
-    <t>List of years starting from 1990 to 2022 and sorted in descending order</t>
-  </si>
-  <si>
-    <t>There are 2 values: Female and male</t>
-  </si>
-  <si>
-    <t>srollbar maybe not need</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Click on Month</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Click on Day</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Click on Year</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Click on Gender</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter characters from keyboard</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Don't select Gender
-3. Other fields are valid
-4. Click Sign up button</t>
+4. Enter 7 numeric characters in SMS Verification Code box</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2411,6 +2569,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20256,10 +20420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -20426,15 +20590,15 @@
         <v>13</v>
       </c>
       <c r="B11" s="15">
-        <f>COUNTIF($F$18:$F$126,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$125,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="15">
-        <f>COUNTIF($G$18:$G$126,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$125,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <f>COUNTIF($H$18:$H$126,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$125,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E11" s="56"/>
@@ -20448,15 +20612,15 @@
         <v>14</v>
       </c>
       <c r="B12" s="15">
-        <f>COUNTIF($F$18:$F$126,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$125,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <f>COUNTIF($G$18:$G$126,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$125,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <f>COUNTIF($H$18:$H$126,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$125,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="56"/>
@@ -20470,15 +20634,15 @@
         <v>15</v>
       </c>
       <c r="B13" s="15">
-        <f>COUNTIF($F$18:$F$126,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$125,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="15">
-        <f>COUNTIF($G$18:$G$126,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$125,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <f>COUNTIF($H$18:$H$126,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$125,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="8"/>
@@ -20492,15 +20656,15 @@
         <v>16</v>
       </c>
       <c r="B14" s="15">
-        <f>COUNTIF($F$18:$F$126,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$125,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <f>COUNTIF($G$18:$G$126,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$125,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <f>COUNTIF($H$18:$H$126,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$125,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="8"/>
@@ -20514,15 +20678,15 @@
         <v>17</v>
       </c>
       <c r="B15" s="15">
-        <f>COUNTIF($F$18:$F$126,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$125,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="15">
-        <f>COUNTIF($G$18:$G$126,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$125,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <f>COUNTIF($H$18:$H$126,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$125,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="8"/>
@@ -20601,17 +20765,17 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A20" s="65">
-        <f t="shared" ref="A20:A112" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <f t="shared" ref="A20:A111" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="1"/>
@@ -20628,10 +20792,10 @@
         <v>166</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="1"/>
@@ -20648,10 +20812,10 @@
         <v>163</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="1"/>
@@ -20668,10 +20832,10 @@
         <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="1"/>
@@ -20688,10 +20852,10 @@
         <v>165</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="1"/>
@@ -20708,10 +20872,10 @@
         <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="1"/>
@@ -20719,7 +20883,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" spans="1:9" s="27" customFormat="1" ht="51">
+    <row r="26" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A26" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
@@ -20728,10 +20892,10 @@
         <v>169</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>286</v>
+        <v>387</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="1"/>
@@ -20745,13 +20909,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="1"/>
@@ -20765,15 +20929,17 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="E28" s="25"/>
+        <v>294</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>374</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -20785,13 +20951,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -20808,12 +20974,14 @@
         <v>200</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>373</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -20828,10 +20996,10 @@
         <v>160</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="1"/>
@@ -20861,10 +21029,10 @@
         <v>168</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="1"/>
@@ -20881,10 +21049,10 @@
         <v>173</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="1"/>
@@ -20901,10 +21069,10 @@
         <v>163</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="1"/>
@@ -20921,10 +21089,10 @@
         <v>164</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="1"/>
@@ -20941,10 +21109,10 @@
         <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="1"/>
@@ -20961,10 +21129,10 @@
         <v>208</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="1"/>
@@ -20981,10 +21149,10 @@
         <v>169</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="1"/>
@@ -20998,13 +21166,13 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="1"/>
@@ -21018,13 +21186,13 @@
         <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="1"/>
@@ -21038,13 +21206,13 @@
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>346</v>
+        <v>426</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="1"/>
@@ -21058,13 +21226,13 @@
         <v>23</v>
       </c>
       <c r="B43" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>298</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>305</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -21081,10 +21249,10 @@
         <v>160</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="1"/>
@@ -21114,10 +21282,10 @@
         <v>168</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="1"/>
@@ -21134,10 +21302,10 @@
         <v>173</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="1"/>
@@ -21154,10 +21322,10 @@
         <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="1"/>
@@ -21174,10 +21342,10 @@
         <v>202</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="1"/>
@@ -21194,10 +21362,10 @@
         <v>203</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="1"/>
@@ -21214,10 +21382,10 @@
         <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="1"/>
@@ -21234,10 +21402,10 @@
         <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="1"/>
@@ -21254,10 +21422,10 @@
         <v>176</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="1"/>
@@ -21274,10 +21442,10 @@
         <v>177</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="1"/>
@@ -21294,10 +21462,10 @@
         <v>207</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="1"/>
@@ -21314,10 +21482,10 @@
         <v>169</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="1"/>
@@ -21334,10 +21502,10 @@
         <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="1"/>
@@ -21354,10 +21522,10 @@
         <v>172</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="1"/>
@@ -21374,10 +21542,10 @@
         <v>178</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="1"/>
@@ -21394,10 +21562,10 @@
         <v>205</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="1"/>
@@ -21414,10 +21582,10 @@
         <v>204</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="1"/>
@@ -21434,10 +21602,10 @@
         <v>179</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="1"/>
@@ -21454,10 +21622,10 @@
         <v>180</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="1"/>
@@ -21474,10 +21642,10 @@
         <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="1"/>
@@ -21494,10 +21662,10 @@
         <v>145</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="1"/>
@@ -21514,10 +21682,10 @@
         <v>146</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="1"/>
@@ -21534,10 +21702,10 @@
         <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="D67" s="70" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="1"/>
@@ -21567,10 +21735,10 @@
         <v>148</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="1"/>
@@ -21587,10 +21755,10 @@
         <v>181</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="1"/>
@@ -21607,10 +21775,10 @@
         <v>182</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="1"/>
@@ -21627,10 +21795,10 @@
         <v>183</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="1"/>
@@ -21647,10 +21815,10 @@
         <v>184</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="E73" s="25"/>
       <c r="F73" s="1"/>
@@ -21667,10 +21835,10 @@
         <v>185</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="E74" s="25"/>
       <c r="F74" s="1"/>
@@ -21687,10 +21855,10 @@
         <v>186</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="E75" s="25"/>
       <c r="F75" s="1"/>
@@ -21707,10 +21875,10 @@
         <v>187</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="1"/>
@@ -21727,10 +21895,10 @@
         <v>194</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E77" s="25"/>
       <c r="F77" s="1"/>
@@ -21747,12 +21915,14 @@
         <v>196</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="E78" s="25"/>
+        <v>333</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>375</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -21767,12 +21937,14 @@
         <v>197</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E79" s="25"/>
+        <v>335</v>
+      </c>
+      <c r="E79" s="94">
+        <v>44604</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -21787,10 +21959,10 @@
         <v>191</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="1"/>
@@ -21807,10 +21979,10 @@
         <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="E81" s="25"/>
       <c r="F81" s="1"/>
@@ -21827,10 +21999,10 @@
         <v>193</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="1"/>
@@ -21847,10 +22019,10 @@
         <v>188</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="1"/>
@@ -21867,10 +22039,10 @@
         <v>189</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="1"/>
@@ -21887,10 +22059,10 @@
         <v>190</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="1"/>
@@ -21907,10 +22079,10 @@
         <v>195</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="1"/>
@@ -21940,10 +22112,10 @@
         <v>168</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="1"/>
@@ -21960,13 +22132,13 @@
         <v>198</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -21982,10 +22154,10 @@
         <v>199</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E90" s="25"/>
       <c r="F90" s="1"/>
@@ -22002,10 +22174,10 @@
         <v>195</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="E91" s="25"/>
       <c r="F91" s="1"/>
@@ -22026,7 +22198,7 @@
       <c r="H92" s="64"/>
       <c r="I92" s="63"/>
     </row>
-    <row r="93" spans="1:9" s="27" customFormat="1">
+    <row r="93" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A93" s="65">
         <f t="shared" ref="A93:A108" ca="1" si="1">IF(OFFSET(A93,-1,0) ="",OFFSET(A93,-2,0)+1,OFFSET(A93,-1,0)+1 )</f>
         <v>69</v>
@@ -22035,196 +22207,218 @@
         <v>168</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D93" s="24"/>
+        <v>356</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>355</v>
+      </c>
       <c r="E93" s="25"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="26"/>
     </row>
-    <row r="94" spans="1:9" s="27" customFormat="1">
+    <row r="94" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A94" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A94,-1,0) ="",OFFSET(A94,-2,0)+1,OFFSET(A94,-1,0)+1 )</f>
         <v>70</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94" s="24"/>
+        <v>392</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>353</v>
+      </c>
       <c r="E94" s="25"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="26"/>
-    </row>
-    <row r="95" spans="1:9" s="27" customFormat="1">
+      <c r="I94" s="67"/>
+    </row>
+    <row r="95" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A95" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>71</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D95" s="24"/>
+        <v>414</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>294</v>
+      </c>
       <c r="E95" s="25"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="26"/>
     </row>
-    <row r="96" spans="1:9" s="27" customFormat="1">
+    <row r="96" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A96" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D96" s="24"/>
+        <v>316</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>358</v>
+      </c>
       <c r="E96" s="25"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="26"/>
     </row>
-    <row r="97" spans="1:9" s="27" customFormat="1">
+    <row r="97" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A97" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>73</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D97" s="24"/>
+        <v>415</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>294</v>
+      </c>
       <c r="E97" s="25"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="26"/>
     </row>
-    <row r="98" spans="1:9" s="27" customFormat="1">
+    <row r="98" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A98" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>74</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D98" s="24"/>
+        <v>393</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>294</v>
+      </c>
       <c r="E98" s="25"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="26"/>
     </row>
-    <row r="99" spans="1:9" s="27" customFormat="1">
+    <row r="99" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A99" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>75</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D99" s="24"/>
+        <v>319</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>358</v>
+      </c>
       <c r="E99" s="25"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="26"/>
     </row>
-    <row r="100" spans="1:9" s="27" customFormat="1">
+    <row r="100" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A100" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>76</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D100" s="24"/>
+        <v>320</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>358</v>
+      </c>
       <c r="E100" s="25"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="26"/>
     </row>
-    <row r="101" spans="1:9" s="27" customFormat="1">
+    <row r="101" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A101" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>77</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D101" s="24"/>
+        <v>359</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>358</v>
+      </c>
       <c r="E101" s="25"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="26"/>
     </row>
-    <row r="102" spans="1:9" s="27" customFormat="1">
+    <row r="102" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A102" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D102" s="24"/>
+        <v>357</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>360</v>
+      </c>
       <c r="E102" s="25"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="26"/>
     </row>
-    <row r="103" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="103" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A103" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>79</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D103" s="24"/>
+        <v>416</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>323</v>
+      </c>
       <c r="E103" s="25"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="67"/>
-    </row>
-    <row r="104" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="I103" s="26"/>
+    </row>
+    <row r="104" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A104" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>80</v>
@@ -22233,16 +22427,18 @@
         <v>171</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D104" s="24"/>
+        <v>325</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>354</v>
+      </c>
       <c r="E104" s="25"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="67"/>
     </row>
-    <row r="105" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="105" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A105" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>81</v>
@@ -22251,16 +22447,18 @@
         <v>172</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D105" s="24"/>
+        <v>417</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>294</v>
+      </c>
       <c r="E105" s="25"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="67"/>
     </row>
-    <row r="106" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="106" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A106" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>82</v>
@@ -22269,16 +22467,18 @@
         <v>178</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D106" s="24"/>
+        <v>418</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>294</v>
+      </c>
       <c r="E106" s="25"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="67"/>
     </row>
-    <row r="107" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="107" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A107" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>83</v>
@@ -22287,16 +22487,18 @@
         <v>205</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D107" s="24"/>
+        <v>419</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>294</v>
+      </c>
       <c r="E107" s="25"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="67"/>
     </row>
-    <row r="108" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="108" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A108" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>84</v>
@@ -22305,379 +22507,395 @@
         <v>204</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D108" s="24"/>
+        <v>327</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>354</v>
+      </c>
       <c r="E108" s="25"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="67"/>
     </row>
-    <row r="109" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="109" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A109" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>85</v>
       </c>
-      <c r="B109" s="54" t="s">
-        <v>218</v>
+      <c r="B109" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="D109" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="E109" s="25"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="67"/>
     </row>
-    <row r="110" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A110" s="65">
+    <row r="110" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A110" s="43"/>
+      <c r="B110" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="61"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="63"/>
+    </row>
+    <row r="111" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A111" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>86</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="67"/>
-    </row>
-    <row r="111" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A111" s="43"/>
-      <c r="B111" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C111" s="61"/>
-      <c r="D111" s="62"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="63"/>
-    </row>
-    <row r="112" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="B111" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E111" s="25"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="67"/>
+    </row>
+    <row r="112" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A112" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="A112:A113" ca="1" si="2">IF(OFFSET(A112,-1,0) ="",OFFSET(A112,-2,0)+1,OFFSET(A112,-1,0)+1 )</f>
         <v>87</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D112" s="24"/>
+        <v>385</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>363</v>
+      </c>
       <c r="E112" s="25"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="67"/>
     </row>
-    <row r="113" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="113" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A113" s="65">
-        <f t="shared" ref="A113:A114" ca="1" si="2">IF(OFFSET(A113,-1,0) ="",OFFSET(A113,-2,0)+1,OFFSET(A113,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="2"/>
         <v>88</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D113" s="24"/>
+        <v>386</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>362</v>
+      </c>
       <c r="E113" s="25"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="67"/>
     </row>
-    <row r="114" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A114" s="65">
-        <f t="shared" ca="1" si="2"/>
+    <row r="114" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A114" s="43"/>
+      <c r="B114" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="61"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="63"/>
+    </row>
+    <row r="115" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A115" s="65">
+        <f t="shared" ref="A115" ca="1" si="3">IF(OFFSET(A115,-1,0) ="",OFFSET(A115,-2,0)+1,OFFSET(A115,-1,0)+1 )</f>
         <v>89</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D114" s="24"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="67"/>
-    </row>
-    <row r="115" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A115" s="43"/>
-      <c r="B115" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C115" s="61"/>
-      <c r="D115" s="62"/>
-      <c r="E115" s="63"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="64"/>
-      <c r="H115" s="64"/>
-      <c r="I115" s="63"/>
-    </row>
-    <row r="116" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A116" s="65">
-        <f t="shared" ref="A116" ca="1" si="3">IF(OFFSET(A116,-1,0) ="",OFFSET(A116,-2,0)+1,OFFSET(A116,-1,0)+1 )</f>
+      <c r="B115" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E115" s="25"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="67"/>
+    </row>
+    <row r="116" spans="1:9" s="29" customFormat="1" ht="38.25">
+      <c r="A116" s="71">
+        <f ca="1">IF(OFFSET(A116,-1,0) ="",OFFSET(A116,-2,0)+1,OFFSET(A116,-1,0)+1 )</f>
         <v>90</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D116" s="24"/>
+        <v>366</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>367</v>
+      </c>
       <c r="E116" s="25"/>
-      <c r="F116" s="1"/>
+      <c r="F116" s="25"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="67"/>
-    </row>
-    <row r="117" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="I116" s="71"/>
+    </row>
+    <row r="117" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A117" s="71">
-        <f ca="1">IF(OFFSET(A117,-1,0) ="",OFFSET(A117,-2,0)+1,OFFSET(A117,-1,0)+1 )</f>
+        <f t="shared" ref="A117:A127" ca="1" si="4">IF(OFFSET(A117,-1,0) ="",OFFSET(A117,-2,0)+1,OFFSET(A117,-1,0)+1 )</f>
         <v>91</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D117" s="24"/>
+        <v>368</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>369</v>
+      </c>
       <c r="E117" s="25"/>
       <c r="F117" s="25"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="71"/>
     </row>
-    <row r="118" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A118" s="71">
-        <f t="shared" ref="A118:A128" ca="1" si="4">IF(OFFSET(A118,-1,0) ="",OFFSET(A118,-2,0)+1,OFFSET(A118,-1,0)+1 )</f>
+    <row r="118" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A118" s="68"/>
+      <c r="B118" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" s="91"/>
+      <c r="D118" s="92"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="69"/>
+    </row>
+    <row r="119" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A119" s="71">
+        <f t="shared" ca="1" si="4"/>
         <v>92</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D118" s="24"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="71"/>
-    </row>
-    <row r="119" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A119" s="68"/>
-      <c r="B119" s="90" t="s">
-        <v>213</v>
-      </c>
-      <c r="C119" s="91"/>
-      <c r="D119" s="92"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="32"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="69"/>
-    </row>
-    <row r="120" spans="1:9" s="27" customFormat="1">
+      <c r="B119" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E119" s="25"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="26"/>
+    </row>
+    <row r="120" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A120" s="71">
         <f t="shared" ca="1" si="4"/>
         <v>93</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>210</v>
+        <v>371</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D120" s="24"/>
+        <v>421</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>294</v>
+      </c>
       <c r="E120" s="25"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="26"/>
     </row>
-    <row r="121" spans="1:9" s="27" customFormat="1">
+    <row r="121" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A121" s="71">
         <f t="shared" ca="1" si="4"/>
         <v>94</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D121" s="24"/>
+        <v>422</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>376</v>
+      </c>
       <c r="E121" s="25"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="26"/>
     </row>
-    <row r="122" spans="1:9" s="27" customFormat="1">
+    <row r="122" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A122" s="71">
         <f t="shared" ca="1" si="4"/>
         <v>95</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>211</v>
+      <c r="B122" s="54" t="s">
+        <v>161</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D122" s="24"/>
+        <v>423</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>377</v>
+      </c>
       <c r="E122" s="25"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="26"/>
     </row>
-    <row r="123" spans="1:9" s="27" customFormat="1">
+    <row r="123" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A123" s="71">
         <f t="shared" ca="1" si="4"/>
         <v>96</v>
       </c>
       <c r="B123" s="54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D123" s="24"/>
+        <v>424</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>378</v>
+      </c>
       <c r="E123" s="25"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="26"/>
     </row>
-    <row r="124" spans="1:9" s="27" customFormat="1">
+    <row r="124" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A124" s="71">
         <f t="shared" ca="1" si="4"/>
         <v>97</v>
       </c>
       <c r="B124" s="54" t="s">
-        <v>162</v>
+        <v>380</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D124" s="24"/>
+        <v>425</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>379</v>
+      </c>
       <c r="E124" s="25"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="26"/>
     </row>
-    <row r="125" spans="1:9" s="27" customFormat="1">
+    <row r="125" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A125" s="71">
         <f t="shared" ca="1" si="4"/>
         <v>98</v>
       </c>
-      <c r="B125" s="54" t="s">
-        <v>214</v>
+      <c r="B125" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D125" s="24"/>
+        <v>305</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>288</v>
+      </c>
       <c r="E125" s="25"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="26"/>
     </row>
-    <row r="126" spans="1:9" s="27" customFormat="1">
+    <row r="126" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A126" s="71">
         <f t="shared" ca="1" si="4"/>
         <v>99</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D126" s="24"/>
+        <v>381</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>384</v>
+      </c>
       <c r="E126" s="25"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="26"/>
     </row>
-    <row r="127" spans="1:9" s="27" customFormat="1">
+    <row r="127" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A127" s="71">
         <f t="shared" ca="1" si="4"/>
         <v>100</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D127" s="24"/>
+        <v>372</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>289</v>
+      </c>
       <c r="E127" s="25"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="26"/>
     </row>
-    <row r="128" spans="1:9" s="27" customFormat="1">
-      <c r="A128" s="71">
-        <f t="shared" ca="1" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D128" s="24"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="26"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F68:H68 F18:H19 F87:H87 F111:H111 F32:H32 F45:H45 F92:H92 F115:H115"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F68:H68 F18:H19 F87:H87 F110:H110 F32:H32 F45:H45 F92:H92 F114:H114"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" sqref="F112:H114 F69:H86 F116:H128 F93:H110 F33:H44 F20:H31 F46:H67 F88:H91">
+    <dataValidation type="list" allowBlank="1" sqref="F111:H113 F69:H86 F115:H127 F88:H91 F33:H44 F20:H31 F46:H67 F93:H109">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -22995,7 +23213,7 @@
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="79" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="81"/>
@@ -23119,7 +23337,7 @@
     <row r="26" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="79" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -23132,7 +23350,7 @@
     <row r="27" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="46"/>
       <c r="B27" s="55" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="45"/>
@@ -23147,7 +23365,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="24"/>
@@ -23163,7 +23381,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="24"/>
@@ -23179,7 +23397,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="24"/>
@@ -23195,7 +23413,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="24"/>
@@ -23211,7 +23429,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="24"/>
@@ -23227,7 +23445,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="24"/>
@@ -23243,7 +23461,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="24"/>
@@ -23259,7 +23477,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="24"/>
@@ -23275,7 +23493,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="24"/>
@@ -23288,7 +23506,7 @@
     <row r="37" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="46"/>
       <c r="B37" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C37" s="44"/>
       <c r="D37" s="45"/>
@@ -23304,7 +23522,7 @@
         <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="24"/>
@@ -23320,7 +23538,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="24"/>
@@ -23336,7 +23554,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="24"/>
@@ -23352,7 +23570,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="24"/>
@@ -23368,7 +23586,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="24"/>
@@ -23381,7 +23599,7 @@
     <row r="43" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A43" s="46"/>
       <c r="B43" s="55" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C43" s="44"/>
       <c r="D43" s="45"/>
@@ -23397,7 +23615,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="24"/>
@@ -23413,7 +23631,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="24"/>
@@ -23429,7 +23647,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="24"/>
@@ -23445,7 +23663,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="24"/>
@@ -23461,7 +23679,7 @@
         <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="24"/>
@@ -23474,7 +23692,7 @@
     <row r="49" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A49" s="46"/>
       <c r="B49" s="55" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="45"/>
@@ -23490,11 +23708,11 @@
         <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -23508,11 +23726,11 @@
         <v>28</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="24" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="1"/>
@@ -23526,11 +23744,11 @@
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="24" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
@@ -23544,11 +23762,11 @@
         <v>30</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="24" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="1"/>
@@ -23559,7 +23777,7 @@
     <row r="54" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="46"/>
       <c r="B54" s="55" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C54" s="44"/>
       <c r="D54" s="45"/>
@@ -23572,7 +23790,7 @@
     <row r="55" spans="1:9" s="76" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="72"/>
       <c r="B55" s="77" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="74"/>
@@ -23588,11 +23806,11 @@
         <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="24" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
@@ -23606,11 +23824,11 @@
         <v>32</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="24" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
@@ -23624,11 +23842,11 @@
         <v>33</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
@@ -23639,7 +23857,7 @@
     <row r="59" spans="1:9" s="76" customFormat="1" ht="15.75" customHeight="1">
       <c r="A59" s="72"/>
       <c r="B59" s="77" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C59" s="73"/>
       <c r="D59" s="74"/>
@@ -23655,11 +23873,11 @@
         <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="24" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
@@ -23673,11 +23891,11 @@
         <v>35</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="1"/>
@@ -23691,11 +23909,11 @@
         <v>36</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
@@ -23709,11 +23927,11 @@
         <v>37</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="1"/>
@@ -23727,11 +23945,11 @@
         <v>38</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
@@ -23745,11 +23963,11 @@
         <v>39</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
@@ -23760,7 +23978,7 @@
     <row r="66" spans="1:9" s="76" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="72"/>
       <c r="B66" s="77" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C66" s="73"/>
       <c r="D66" s="74"/>
@@ -23776,11 +23994,11 @@
         <v>40</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
@@ -23794,11 +24012,11 @@
         <v>41</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="1"/>
@@ -23812,11 +24030,11 @@
         <v>42</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
@@ -23830,11 +24048,11 @@
         <v>43</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="1"/>
@@ -23848,11 +24066,11 @@
         <v>44</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
@@ -23866,11 +24084,11 @@
         <v>45</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
@@ -23881,7 +24099,7 @@
     <row r="73" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="46"/>
       <c r="B73" s="55" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C73" s="44"/>
       <c r="D73" s="45"/>
@@ -23913,7 +24131,7 @@
         <v>47</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -23929,7 +24147,7 @@
         <v>48</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -23945,7 +24163,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="24"/>
@@ -23961,7 +24179,7 @@
         <v>50</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="24"/>
@@ -23973,11 +24191,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
@@ -23985,6 +24198,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:H27 F18:H18 F37:H37 F43:H43 F49:H49 F73:H73 F54:H55 F59:H59 F66:H66"/>

--- a/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
+++ b/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
@@ -4,83 +4,101 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="3" r:id="rId1"/>
     <sheet name="Assignment 2" sheetId="4" r:id="rId2"/>
     <sheet name="Assignment 3" sheetId="6" r:id="rId3"/>
+    <sheet name="Assignment 4" sheetId="7" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assignment 1'!$A$17:$X$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Assignment 2'!$A$19:$Z$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Assignment 3'!$A$17:$X$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Assignment 4'!$A$37:$Z$103</definedName>
     <definedName name="abc" localSheetId="0">#REF!</definedName>
     <definedName name="abc" localSheetId="1">#REF!</definedName>
     <definedName name="abc" localSheetId="2">#REF!</definedName>
+    <definedName name="abc" localSheetId="3">#REF!</definedName>
     <definedName name="abc">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="0">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="1">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="2">#REF!</definedName>
+    <definedName name="Check_inputed_mail_address" localSheetId="3">#REF!</definedName>
     <definedName name="Check_inputed_mail_address">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="2">#REF!</definedName>
+    <definedName name="CS_IT_1.1_001" localSheetId="3">#REF!</definedName>
     <definedName name="CS_IT_1.1_001">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="2">#REF!</definedName>
+    <definedName name="CS_IT_1.1_002" localSheetId="3">#REF!</definedName>
     <definedName name="CS_IT_1.1_002">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="2">#REF!</definedName>
+    <definedName name="CS_IT_1.1_003" localSheetId="3">#REF!</definedName>
     <definedName name="CS_IT_1.1_003">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="2">#REF!</definedName>
+    <definedName name="CS_IT_1.1_004" localSheetId="3">#REF!</definedName>
     <definedName name="CS_IT_1.1_004">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="0">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="1">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="2">#REF!</definedName>
+    <definedName name="Evaluation" localSheetId="3">#REF!</definedName>
     <definedName name="Evaluation">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="0">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="1">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="2">#REF!</definedName>
+    <definedName name="JaEnNickname" localSheetId="3">#REF!</definedName>
     <definedName name="JaEnNickname">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="0">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="1">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="2">#REF!</definedName>
+    <definedName name="Mail_Magazine" localSheetId="3">#REF!</definedName>
     <definedName name="Mail_Magazine">#REF!</definedName>
     <definedName name="project_code" localSheetId="0">#REF!</definedName>
     <definedName name="project_code" localSheetId="1">#REF!</definedName>
     <definedName name="project_code" localSheetId="2">#REF!</definedName>
+    <definedName name="project_code" localSheetId="3">#REF!</definedName>
     <definedName name="project_code">#REF!</definedName>
     <definedName name="ProjectName" localSheetId="0">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName" localSheetId="1">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName" localSheetId="2">'[1]Version 1'!#REF!</definedName>
+    <definedName name="ProjectName" localSheetId="3">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName">'[1]Version 1'!#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="2">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_001" localSheetId="3">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="2">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_002" localSheetId="3">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="2">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_003" localSheetId="3">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="2">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_004" localSheetId="3">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004">#REF!</definedName>
     <definedName name="safa" localSheetId="0">#REF!</definedName>
     <definedName name="safa" localSheetId="1">#REF!</definedName>
     <definedName name="safa" localSheetId="2">#REF!</definedName>
+    <definedName name="safa" localSheetId="3">#REF!</definedName>
     <definedName name="safa">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
@@ -381,8 +399,72 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="513">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -1384,10 +1466,6 @@
   </si>
   <si>
     <t>Do not allow copy/paste password</t>
-  </si>
-  <si>
-    <t>Spaces are removed
-Sign up successfully, return to login screen</t>
   </si>
   <si>
     <t>System will show error message "The length of Password should be 6-50 characters"</t>
@@ -1845,12 +1923,6 @@
   <si>
     <t>1. Open Lazada registration page
 2. Enter only numberic characters
-3. Enter other fields are valid
-4. Click on Sign up button</t>
-  </si>
-  <si>
-    <t>1. Open Lazada registration page
-2. Enter space at the beginning and the end of the Full Name
 3. Enter other fields are valid
 4. Click on Sign up button</t>
   </si>
@@ -2149,6 +2221,120 @@
     <t>1. Open Lazada home page
 2. Search a keyword has more than 10 results
 3. Click on &lt;&lt;&lt; button</t>
+  </si>
+  <si>
+    <t>1. Check fields</t>
+  </si>
+  <si>
+    <t>Check Address</t>
+  </si>
+  <si>
+    <t>Check Province</t>
+  </si>
+  <si>
+    <t>Check District</t>
+  </si>
+  <si>
+    <t>Check Ward</t>
+  </si>
+  <si>
+    <t>1. Open Lazada registration page
+2. Enter space bettween the Full name
+3. Enter other fields are valid
+4. Click on Sign up button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters less than 2 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters 2 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters greater than 2 and less than 50 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters 10 numeric characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters less than 5 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters 5 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters greater than 5 and less than 350 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters 350 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the user enters greater than 350 characters  </t>
+  </si>
+  <si>
+    <t>Check Copy/Paste Address</t>
+  </si>
+  <si>
+    <t>When the user selects a Province</t>
+  </si>
+  <si>
+    <t>Check scroll bar of Province</t>
+  </si>
+  <si>
+    <t>When the user selects a District</t>
+  </si>
+  <si>
+    <t>Check scroll bar of District</t>
+  </si>
+  <si>
+    <t>Check scroll bar of Ward</t>
+  </si>
+  <si>
+    <t>When the user selects a Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check default status </t>
+  </si>
+  <si>
+    <t>When Home is in default status</t>
+  </si>
+  <si>
+    <t>When Home is unchecked</t>
+  </si>
+  <si>
+    <t>When Home is checked</t>
+  </si>
+  <si>
+    <t>When Office is in default status</t>
+  </si>
+  <si>
+    <t>When Office is unchecked</t>
+  </si>
+  <si>
+    <t>When Office is checked</t>
+  </si>
+  <si>
+    <t>Check Home button</t>
+  </si>
+  <si>
+    <t>Check Office button</t>
+  </si>
+  <si>
+    <t>New address can be added successfully when all fields are entered valid values</t>
+  </si>
+  <si>
+    <t>Add address fail when all fields are entered invalid value</t>
+  </si>
+  <si>
+    <t>Ward is enable when the user selected District</t>
+  </si>
+  <si>
+    <t>District is enable when the user selected Province</t>
+  </si>
+  <si>
+    <t>Add address fail when the user clicks on the Cancel button</t>
+  </si>
+  <si>
+    <t>New address can be added successfully when all mandatory fields are entered valid values</t>
   </si>
 </sst>
 </file>
@@ -2655,7 +2841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3049,6 +3235,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3085,10 +3272,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3098,6 +3281,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3430,10 +3617,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="151"/>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3442,13 +3629,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -3457,9 +3644,9 @@
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="153"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="154"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -3470,11 +3657,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3488,9 +3675,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3504,9 +3691,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3517,11 +3704,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -3533,9 +3720,9 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1">
@@ -3678,11 +3865,11 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="147" t="s">
+      <c r="F16" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:16384" s="21" customFormat="1" ht="38.25">
@@ -3716,11 +3903,11 @@
     </row>
     <row r="18" spans="1:16384" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -20569,11 +20756,11 @@
     </row>
     <row r="43" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="30"/>
-      <c r="B43" s="148" t="s">
+      <c r="B43" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="149"/>
-      <c r="D43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="31"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -20950,8 +21137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20968,10 +21155,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="151"/>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="76"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -20979,13 +21166,13 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="159"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="163"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -20993,9 +21180,9 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="160"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="164"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -21005,11 +21192,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="77"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -21020,9 +21207,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="77"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -21033,9 +21220,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
       <c r="E6" s="77"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -21046,11 +21233,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
       <c r="E7" s="77"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -21061,9 +21248,9 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="77"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -21230,11 +21417,11 @@
       <c r="C16" s="58"/>
       <c r="D16" s="18"/>
       <c r="E16" s="80"/>
-      <c r="F16" s="147" t="s">
+      <c r="F16" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
@@ -21268,11 +21455,11 @@
     </row>
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="59"/>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="160" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="82"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -21321,7 +21508,7 @@
         <v>166</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="102" t="s">
         <v>261</v>
@@ -21347,7 +21534,7 @@
         <v>262</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -21369,7 +21556,7 @@
         <v>262</v>
       </c>
       <c r="E23" s="84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -21388,7 +21575,7 @@
         <v>272</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
@@ -21408,10 +21595,10 @@
         <v>282</v>
       </c>
       <c r="D25" s="107" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E25" s="85" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -21427,13 +21614,13 @@
         <v>169</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>262</v>
       </c>
       <c r="E26" s="116" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F26" s="116"/>
       <c r="G26" s="115"/>
@@ -21449,13 +21636,13 @@
         <v>256</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>263</v>
       </c>
       <c r="E27" s="85" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -21471,13 +21658,13 @@
         <v>254</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D28" s="102" t="s">
         <v>267</v>
       </c>
       <c r="E28" s="103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F28" s="101"/>
       <c r="G28" s="101"/>
@@ -21493,13 +21680,13 @@
         <v>255</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>263</v>
       </c>
       <c r="E29" s="85" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -21515,13 +21702,13 @@
         <v>200</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D30" s="102" t="s">
         <v>262</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F30" s="101"/>
       <c r="G30" s="101"/>
@@ -21543,7 +21730,7 @@
         <v>253</v>
       </c>
       <c r="E31" s="85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -21592,7 +21779,7 @@
         <v>173</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D34" s="96" t="s">
         <v>275</v>
@@ -21618,7 +21805,7 @@
         <v>259</v>
       </c>
       <c r="E35" s="107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F35" s="107"/>
       <c r="G35" s="101"/>
@@ -21640,7 +21827,7 @@
         <v>260</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -21659,7 +21846,7 @@
         <v>280</v>
       </c>
       <c r="D37" s="107" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E37" s="84"/>
       <c r="F37" s="1"/>
@@ -21679,7 +21866,7 @@
         <v>281</v>
       </c>
       <c r="D38" s="107" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E38" s="84"/>
       <c r="F38" s="1"/>
@@ -21716,7 +21903,7 @@
         <v>269</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D40" s="96" t="s">
         <v>266</v>
@@ -21736,7 +21923,7 @@
         <v>268</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D41" s="96" t="s">
         <v>267</v>
@@ -21756,7 +21943,7 @@
         <v>270</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D42" s="96" t="s">
         <v>266</v>
@@ -21776,7 +21963,7 @@
         <v>264</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D43" s="96" t="s">
         <v>271</v>
@@ -21849,7 +22036,7 @@
         <v>173</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>287</v>
@@ -21929,7 +22116,7 @@
         <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>267</v>
@@ -21989,7 +22176,7 @@
         <v>177</v>
       </c>
       <c r="C54" s="101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D54" s="102" t="s">
         <v>291</v>
@@ -22029,7 +22216,7 @@
         <v>169</v>
       </c>
       <c r="C56" s="115" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>291</v>
@@ -22049,10 +22236,10 @@
         <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E57" s="84"/>
       <c r="F57" s="1"/>
@@ -22069,7 +22256,7 @@
         <v>172</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>267</v>
@@ -22089,7 +22276,7 @@
         <v>178</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>267</v>
@@ -22109,7 +22296,7 @@
         <v>205</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>267</v>
@@ -22129,10 +22316,10 @@
         <v>204</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E61" s="84"/>
       <c r="F61" s="1"/>
@@ -22149,7 +22336,7 @@
         <v>179</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>267</v>
@@ -22169,7 +22356,7 @@
         <v>180</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>267</v>
@@ -22189,10 +22376,10 @@
         <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E64" s="84"/>
       <c r="F64" s="1"/>
@@ -22209,10 +22396,10 @@
         <v>145</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E65" s="84"/>
       <c r="F65" s="1"/>
@@ -22229,10 +22416,10 @@
         <v>146</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E66" s="84"/>
       <c r="F66" s="1"/>
@@ -22249,7 +22436,7 @@
         <v>160</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D67" s="70" t="s">
         <v>253</v>
@@ -22282,10 +22469,10 @@
         <v>148</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E69" s="84"/>
       <c r="F69" s="1"/>
@@ -22302,7 +22489,7 @@
         <v>181</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>267</v>
@@ -22322,10 +22509,10 @@
         <v>182</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E71" s="84"/>
       <c r="F71" s="1"/>
@@ -22342,10 +22529,10 @@
         <v>183</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E72" s="84"/>
       <c r="F72" s="1"/>
@@ -22362,10 +22549,10 @@
         <v>184</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E73" s="84"/>
       <c r="F73" s="1"/>
@@ -22382,10 +22569,10 @@
         <v>185</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E74" s="84"/>
       <c r="F74" s="1"/>
@@ -22402,10 +22589,10 @@
         <v>186</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E75" s="84"/>
       <c r="F75" s="1"/>
@@ -22422,10 +22609,10 @@
         <v>187</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E76" s="84"/>
       <c r="F76" s="1"/>
@@ -22442,7 +22629,7 @@
         <v>194</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>267</v>
@@ -22462,13 +22649,13 @@
         <v>196</v>
       </c>
       <c r="C78" s="101" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D78" s="102" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E78" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F78" s="101"/>
       <c r="G78" s="101"/>
@@ -22484,10 +22671,10 @@
         <v>197</v>
       </c>
       <c r="C79" s="101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D79" s="102" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E79" s="106">
         <v>44604</v>
@@ -22506,10 +22693,10 @@
         <v>191</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E80" s="84"/>
       <c r="F80" s="1"/>
@@ -22526,10 +22713,10 @@
         <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E81" s="84"/>
       <c r="F81" s="1"/>
@@ -22546,10 +22733,10 @@
         <v>193</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E82" s="84"/>
       <c r="F82" s="1"/>
@@ -22566,10 +22753,10 @@
         <v>188</v>
       </c>
       <c r="C83" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D83" s="101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E83" s="107"/>
       <c r="F83" s="107"/>
@@ -22586,10 +22773,10 @@
         <v>189</v>
       </c>
       <c r="C84" s="101" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D84" s="101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E84" s="107"/>
       <c r="F84" s="107"/>
@@ -22606,10 +22793,10 @@
         <v>190</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E85" s="84"/>
       <c r="F85" s="1"/>
@@ -22626,10 +22813,10 @@
         <v>195</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E86" s="84"/>
       <c r="F86" s="1"/>
@@ -22662,7 +22849,7 @@
         <v>285</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E88" s="84"/>
       <c r="F88" s="1"/>
@@ -22679,10 +22866,10 @@
         <v>198</v>
       </c>
       <c r="C89" s="101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D89" s="102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E89" s="103"/>
       <c r="F89" s="101"/>
@@ -22699,7 +22886,7 @@
         <v>199</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>267</v>
@@ -22711,12 +22898,15 @@
       <c r="I90" s="67"/>
     </row>
     <row r="91" spans="1:9" s="105" customFormat="1" ht="51">
-      <c r="A91" s="100"/>
+      <c r="A91" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
       <c r="B91" s="101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C91" s="101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D91" s="102" t="s">
         <v>267</v>
@@ -22730,16 +22920,16 @@
     <row r="92" spans="1:9" s="105" customFormat="1" ht="25.5">
       <c r="A92" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B92" s="112" t="s">
         <v>195</v>
       </c>
       <c r="C92" s="101" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D92" s="101" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E92" s="107"/>
       <c r="F92" s="107"/>
@@ -22763,16 +22953,16 @@
     <row r="94" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A94" s="65">
         <f t="shared" ref="A94:A109" ca="1" si="1">IF(OFFSET(A94,-1,0) ="",OFFSET(A94,-2,0)+1,OFFSET(A94,-1,0)+1 )</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E94" s="84"/>
       <c r="F94" s="1"/>
@@ -22783,16 +22973,16 @@
     <row r="95" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A95" s="65">
         <f ca="1">IF(OFFSET(A95,-1,0) ="",OFFSET(A95,-2,0)+1,OFFSET(A95,-1,0)+1 )</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E95" s="84"/>
       <c r="F95" s="1"/>
@@ -22803,13 +22993,13 @@
     <row r="96" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A96" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>267</v>
@@ -22823,7 +23013,7 @@
     <row r="97" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A97" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>202</v>
@@ -22832,7 +23022,7 @@
         <v>289</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E97" s="84"/>
       <c r="F97" s="1"/>
@@ -22843,13 +23033,13 @@
     <row r="98" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A98" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>267</v>
@@ -22863,13 +23053,13 @@
     <row r="99" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A99" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>267</v>
@@ -22883,7 +23073,7 @@
     <row r="100" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A100" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>175</v>
@@ -22892,7 +23082,7 @@
         <v>292</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E100" s="84"/>
       <c r="F100" s="1"/>
@@ -22903,7 +23093,7 @@
     <row r="101" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A101" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>176</v>
@@ -22912,7 +23102,7 @@
         <v>293</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E101" s="84"/>
       <c r="F101" s="1"/>
@@ -22923,16 +23113,16 @@
     <row r="102" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A102" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E102" s="84"/>
       <c r="F102" s="1"/>
@@ -22943,16 +23133,16 @@
     <row r="103" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A103" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E103" s="84"/>
       <c r="F103" s="1"/>
@@ -22960,19 +23150,19 @@
       <c r="H103" s="1"/>
       <c r="I103" s="26"/>
     </row>
-    <row r="104" spans="1:9" s="27" customFormat="1" ht="63.75">
+    <row r="104" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A104" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E104" s="84"/>
       <c r="F104" s="1"/>
@@ -22983,16 +23173,16 @@
     <row r="105" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A105" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E105" s="84"/>
       <c r="F105" s="1"/>
@@ -23003,13 +23193,13 @@
     <row r="106" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A106" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>267</v>
@@ -23023,13 +23213,13 @@
     <row r="107" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A107" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>267</v>
@@ -23043,13 +23233,13 @@
     <row r="108" spans="1:9" s="29" customFormat="1" ht="51">
       <c r="A108" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>267</v>
@@ -23063,16 +23253,16 @@
     <row r="109" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A109" s="65">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E109" s="84"/>
       <c r="F109" s="1"/>
@@ -23083,13 +23273,13 @@
     <row r="110" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A110" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="70" t="s">
         <v>253</v>
@@ -23116,16 +23306,16 @@
     <row r="112" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A112" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E112" s="84"/>
       <c r="F112" s="1"/>
@@ -23136,16 +23326,16 @@
     <row r="113" spans="1:26" s="29" customFormat="1" ht="25.5">
       <c r="A113" s="65">
         <f t="shared" ref="A113:A114" ca="1" si="2">IF(OFFSET(A113,-1,0) ="",OFFSET(A113,-2,0)+1,OFFSET(A113,-1,0)+1 )</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E113" s="84"/>
       <c r="F113" s="1"/>
@@ -23156,16 +23346,16 @@
     <row r="114" spans="1:26" s="29" customFormat="1" ht="25.5">
       <c r="A114" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E114" s="84"/>
       <c r="F114" s="1"/>
@@ -23189,16 +23379,16 @@
     <row r="116" spans="1:26" s="29" customFormat="1" ht="25.5">
       <c r="A116" s="65">
         <f t="shared" ref="A116" ca="1" si="3">IF(OFFSET(A116,-1,0) ="",OFFSET(A116,-2,0)+1,OFFSET(A116,-1,0)+1 )</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D116" s="24" t="s">
         <v>333</v>
-      </c>
-      <c r="D116" s="24" t="s">
-        <v>334</v>
       </c>
       <c r="E116" s="84"/>
       <c r="F116" s="1"/>
@@ -23209,16 +23399,16 @@
     <row r="117" spans="1:26" s="29" customFormat="1" ht="38.25">
       <c r="A117" s="71">
         <f ca="1">IF(OFFSET(A117,-1,0) ="",OFFSET(A117,-2,0)+1,OFFSET(A117,-1,0)+1 )</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D117" s="24" t="s">
         <v>335</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>336</v>
       </c>
       <c r="E117" s="84"/>
       <c r="F117" s="25"/>
@@ -23229,16 +23419,16 @@
     <row r="118" spans="1:26" s="29" customFormat="1" ht="38.25">
       <c r="A118" s="71">
         <f t="shared" ref="A118:A128" ca="1" si="4">IF(OFFSET(A118,-1,0) ="",OFFSET(A118,-2,0)+1,OFFSET(A118,-1,0)+1 )</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D118" s="24" t="s">
         <v>337</v>
-      </c>
-      <c r="D118" s="24" t="s">
-        <v>338</v>
       </c>
       <c r="E118" s="84"/>
       <c r="F118" s="25"/>
@@ -23248,11 +23438,11 @@
     </row>
     <row r="119" spans="1:26" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="68"/>
-      <c r="B119" s="161" t="s">
+      <c r="B119" s="160" t="s">
         <v>210</v>
       </c>
-      <c r="C119" s="162"/>
-      <c r="D119" s="163"/>
+      <c r="C119" s="161"/>
+      <c r="D119" s="162"/>
       <c r="E119" s="86"/>
       <c r="F119" s="32"/>
       <c r="G119" s="32"/>
@@ -23262,13 +23452,13 @@
     <row r="120" spans="1:26" s="27" customFormat="1" ht="38.25">
       <c r="A120" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D120" s="24" t="s">
         <v>267</v>
@@ -23282,13 +23472,13 @@
     <row r="121" spans="1:26" s="27" customFormat="1" ht="38.25">
       <c r="A121" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D121" s="24" t="s">
         <v>267</v>
@@ -23302,16 +23492,16 @@
     <row r="122" spans="1:26" s="27" customFormat="1" ht="38.25">
       <c r="A122" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E122" s="84"/>
       <c r="F122" s="1"/>
@@ -23322,16 +23512,16 @@
     <row r="123" spans="1:26" s="27" customFormat="1" ht="38.25">
       <c r="A123" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B123" s="54" t="s">
         <v>161</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E123" s="84"/>
       <c r="F123" s="1"/>
@@ -23342,16 +23532,16 @@
     <row r="124" spans="1:26" s="27" customFormat="1" ht="51">
       <c r="A124" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B124" s="54" t="s">
         <v>162</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E124" s="84"/>
       <c r="F124" s="1"/>
@@ -23362,16 +23552,16 @@
     <row r="125" spans="1:26" s="27" customFormat="1" ht="25.5">
       <c r="A125" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E125" s="84"/>
       <c r="F125" s="1"/>
@@ -23382,7 +23572,7 @@
     <row r="126" spans="1:26" s="99" customFormat="1" ht="27" customHeight="1">
       <c r="A126" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B126" s="84" t="s">
         <v>211</v>
@@ -23421,16 +23611,16 @@
     <row r="127" spans="1:26" s="27" customFormat="1" ht="38.25">
       <c r="A127" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E127" s="84"/>
       <c r="F127" s="1"/>
@@ -23441,13 +23631,13 @@
     <row r="128" spans="1:26" s="27" customFormat="1" ht="38.25">
       <c r="A128" s="71">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D128" s="24" t="s">
         <v>262</v>
@@ -26079,18 +26269,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="B119:D119"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F68:H68 F18:H19 F87:H87 F111:H111 F32:H32 F45:H45 F93:H93 F115:H115"/>
@@ -26109,7 +26299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X983"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -26126,10 +26316,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="151"/>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
       <c r="E1" s="119"/>
       <c r="F1" s="119"/>
       <c r="G1" s="119"/>
@@ -26138,13 +26328,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="165"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="120"/>
       <c r="G2" s="120"/>
       <c r="H2" s="120"/>
@@ -26153,9 +26343,9 @@
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="165"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="166"/>
       <c r="F3" s="120"/>
       <c r="G3" s="120"/>
       <c r="H3" s="120"/>
@@ -26166,11 +26356,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="121"/>
       <c r="F4" s="121"/>
       <c r="G4" s="121"/>
@@ -26184,9 +26374,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="121"/>
       <c r="F5" s="121"/>
       <c r="G5" s="121"/>
@@ -26200,9 +26390,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
       <c r="E6" s="121"/>
       <c r="F6" s="121"/>
       <c r="G6" s="121"/>
@@ -26213,11 +26403,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
       <c r="E7" s="121"/>
       <c r="F7" s="121"/>
       <c r="G7" s="121"/>
@@ -26229,9 +26419,9 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="121"/>
       <c r="F8" s="124"/>
       <c r="G8" s="124"/>
@@ -26398,11 +26588,11 @@
       <c r="C16" s="92"/>
       <c r="D16" s="18"/>
       <c r="E16" s="126"/>
-      <c r="F16" s="164" t="s">
+      <c r="F16" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
       <c r="I16" s="127"/>
     </row>
     <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
@@ -26436,11 +26626,11 @@
     </row>
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="149" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="129"/>
       <c r="F18" s="130"/>
       <c r="G18" s="130"/>
@@ -26455,10 +26645,10 @@
         <v>168</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E19" s="131"/>
       <c r="F19" s="132"/>
@@ -26468,11 +26658,11 @@
     </row>
     <row r="20" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="148" t="s">
+      <c r="B20" s="149" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="149"/>
-      <c r="D20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
       <c r="E20" s="129"/>
       <c r="F20" s="130"/>
       <c r="G20" s="130"/>
@@ -26501,10 +26691,10 @@
         <v>214</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E22" s="138"/>
       <c r="F22" s="132"/>
@@ -26521,10 +26711,10 @@
         <v>215</v>
       </c>
       <c r="C23" s="101" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E23" s="138"/>
       <c r="F23" s="132"/>
@@ -26541,10 +26731,10 @@
         <v>216</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E24" s="138"/>
       <c r="F24" s="132"/>
@@ -26561,10 +26751,10 @@
         <v>217</v>
       </c>
       <c r="C25" s="101" t="s">
+        <v>454</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>456</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>458</v>
       </c>
       <c r="E25" s="138"/>
       <c r="F25" s="132"/>
@@ -26578,13 +26768,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>460</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>461</v>
-      </c>
-      <c r="C26" s="101" t="s">
-        <v>462</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>463</v>
       </c>
       <c r="E26" s="138"/>
       <c r="F26" s="132"/>
@@ -26598,13 +26788,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>443</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>444</v>
-      </c>
-      <c r="C27" s="101" t="s">
-        <v>445</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>446</v>
       </c>
       <c r="E27" s="138"/>
       <c r="F27" s="132"/>
@@ -26621,10 +26811,10 @@
         <v>218</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E28" s="138"/>
       <c r="F28" s="132"/>
@@ -26638,13 +26828,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="101" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="101" t="s">
         <v>415</v>
       </c>
-      <c r="C29" s="101" t="s">
+      <c r="D29" s="102" t="s">
         <v>417</v>
-      </c>
-      <c r="D29" s="102" t="s">
-        <v>419</v>
       </c>
       <c r="E29" s="134"/>
       <c r="F29" s="135"/>
@@ -26658,13 +26848,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="135" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D30" s="138" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E30" s="134"/>
       <c r="F30" s="135"/>
@@ -26691,13 +26881,13 @@
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E32" s="138"/>
       <c r="F32" s="138"/>
@@ -26714,10 +26904,10 @@
         <v>223</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E33" s="138"/>
       <c r="F33" s="132"/>
@@ -26744,13 +26934,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E35" s="138"/>
       <c r="F35" s="138"/>
@@ -26767,10 +26957,10 @@
         <v>229</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E36" s="138"/>
       <c r="F36" s="132"/>
@@ -26784,13 +26974,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E37" s="138"/>
       <c r="F37" s="138"/>
@@ -26807,10 +26997,10 @@
         <v>230</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E38" s="144"/>
       <c r="F38" s="132"/>
@@ -26840,10 +27030,10 @@
         <v>237</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E40" s="138"/>
       <c r="F40" s="138"/>
@@ -26860,10 +27050,10 @@
         <v>240</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E41" s="138"/>
       <c r="F41" s="132"/>
@@ -26880,10 +27070,10 @@
         <v>238</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E42" s="138"/>
       <c r="F42" s="138"/>
@@ -26900,10 +27090,10 @@
         <v>239</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E43" s="138"/>
       <c r="F43" s="132"/>
@@ -26946,7 +27136,7 @@
         <v>246</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>233</v>
@@ -26966,7 +27156,7 @@
         <v>241</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>232</v>
@@ -26986,7 +27176,7 @@
         <v>247</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>248</v>
@@ -27019,7 +27209,7 @@
         <v>245</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>242</v>
@@ -27039,7 +27229,7 @@
         <v>244</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>243</v>
@@ -27059,7 +27249,7 @@
         <v>249</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>250</v>
@@ -27073,7 +27263,7 @@
     <row r="53" spans="1:9" s="74" customFormat="1" ht="15.75" customHeight="1">
       <c r="A53" s="72"/>
       <c r="B53" s="75" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C53" s="94"/>
       <c r="D53" s="73"/>
@@ -27089,13 +27279,13 @@
         <v>27</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E54" s="138"/>
       <c r="F54" s="132"/>
@@ -27106,7 +27296,7 @@
     <row r="55" spans="1:9" s="74" customFormat="1" ht="15.75" customHeight="1">
       <c r="A55" s="72"/>
       <c r="B55" s="75" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C55" s="94"/>
       <c r="D55" s="73"/>
@@ -27122,13 +27312,13 @@
         <v>28</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E56" s="138"/>
       <c r="F56" s="132"/>
@@ -27158,10 +27348,10 @@
         <v>168</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E58" s="132"/>
       <c r="F58" s="132"/>
@@ -27178,10 +27368,10 @@
         <v>231</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E59" s="132"/>
       <c r="F59" s="132"/>
@@ -27198,10 +27388,10 @@
         <v>219</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D60" s="24" t="s">
         <v>440</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>442</v>
       </c>
       <c r="E60" s="138"/>
       <c r="F60" s="138"/>
@@ -27218,10 +27408,10 @@
         <v>220</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>441</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>443</v>
       </c>
       <c r="E61" s="138"/>
       <c r="F61" s="138"/>
@@ -29999,11 +30189,6 @@
   </sheetData>
   <autoFilter ref="A17:X61"/>
   <mergeCells count="12">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
@@ -30011,6 +30196,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="F19:H19 F40:H43 F59:H61 F46:H48 F50:H52 F35:H38 F22:H30 F32:H33 F54:H54 F56:H56">
@@ -30030,4 +30220,4317 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I976"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" style="36" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="147" customWidth="1"/>
+    <col min="6" max="6" width="13" style="37" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="14.25">
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="25.5">
+      <c r="A6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="12.75">
+      <c r="A7" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="158" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="12.75">
+      <c r="A8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="12.75">
+      <c r="A9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f>F17</f>
+        <v>Internal Build 03112011</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <f>G17</f>
+        <v>Internal build 14112011</v>
+      </c>
+      <c r="D9" s="13" t="str">
+        <f>H17</f>
+        <v>External build 16112011</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" s="12" customFormat="1" ht="12.75">
+      <c r="A10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <f>SUM(B11:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <f>SUM(C11:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <f>SUM(D11:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" s="12" customFormat="1" ht="12.75">
+      <c r="A11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15">
+        <f>COUNTIF($F$18:$F$103,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <f>COUNTIF($G$18:$G$103,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <f>COUNTIF($H$18:$H$103,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" s="12" customFormat="1" ht="12.75">
+      <c r="A12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15">
+        <f>COUNTIF($F$18:$F$103,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <f>COUNTIF($G$18:$G$103,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <f>COUNTIF($H$18:$H$103,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="78"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="12.75">
+      <c r="A13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15">
+        <f>COUNTIF($F$18:$F$103,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <f>COUNTIF($G$18:$G$103,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <f>COUNTIF($H$18:$H$103,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" ht="12.75">
+      <c r="A14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="15">
+        <f>COUNTIF($F$18:$F$103,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <f>COUNTIF($G$18:$G$103,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <f>COUNTIF($H$18:$H$103,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="79"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" s="12" customFormat="1" ht="38.25">
+      <c r="A15" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15">
+        <f>COUNTIF($F$18:$F$103,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <f>COUNTIF($G$18:$G$103,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <f>COUNTIF($H$18:$H$103,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="79"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" s="21" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
+      <c r="A17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="160" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="161"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="59"/>
+    </row>
+    <row r="19" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A20" s="65">
+        <f t="shared" ref="A20:A35" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A21" s="65">
+        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="67"/>
+    </row>
+    <row r="22" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A22" s="65">
+        <f ca="1">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A23" s="65">
+        <f ca="1">IF(OFFSET(A23,-1,0) ="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1 )</f>
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A24" s="65">
+        <f ca="1">IF(OFFSET(A24,-1,0) ="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1 )</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A25" s="65">
+        <f ca="1">IF(OFFSET(A25,-1,0) ="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1 )</f>
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A26" s="65">
+        <f ca="1">IF(OFFSET(A26,-1,0) ="",OFFSET(A26,-2,0)+1,OFFSET(A26,-1,0)+1 )</f>
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A27" s="65">
+        <f ca="1">IF(OFFSET(A27,-1,0) ="",OFFSET(A27,-2,0)+1,OFFSET(A27,-1,0)+1 )</f>
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A28" s="65">
+        <f ca="1">IF(OFFSET(A28,-1,0) ="",OFFSET(A28,-2,0)+1,OFFSET(A28,-1,0)+1 )</f>
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A29" s="65">
+        <f ca="1">IF(OFFSET(A29,-1,0) ="",OFFSET(A29,-2,0)+1,OFFSET(A29,-1,0)+1 )</f>
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A30" s="65">
+        <f ca="1">IF(OFFSET(A30,-1,0) ="",OFFSET(A30,-2,0)+1,OFFSET(A30,-1,0)+1 )</f>
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A31" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="67"/>
+    </row>
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A32" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="67"/>
+    </row>
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A33" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="67"/>
+    </row>
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A34" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="67"/>
+    </row>
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A35" s="65">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="67"/>
+    </row>
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A36" s="65">
+        <f ca="1">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="67"/>
+    </row>
+    <row r="37" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="43"/>
+      <c r="B37" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="63"/>
+    </row>
+    <row r="38" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A38" s="65">
+        <f t="shared" ref="A38:A90" ca="1" si="1">IF(OFFSET(A38,-1,0) ="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1 )</f>
+        <v>18</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" s="105" customFormat="1" ht="14.25">
+      <c r="A39" s="100">
+        <f ca="1">IF(OFFSET(A39,-1,0) ="",OFFSET(A39,-2,0)+1,OFFSET(A39,-1,0)+1 )</f>
+        <v>19</v>
+      </c>
+      <c r="B39" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="104"/>
+    </row>
+    <row r="40" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A40" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A41" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:9" s="110" customFormat="1" ht="12.75">
+      <c r="A42" s="100">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="101"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="109"/>
+    </row>
+    <row r="43" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A43" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" s="118" customFormat="1" ht="12.75">
+      <c r="A44" s="114">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B44" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="115"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="117"/>
+    </row>
+    <row r="45" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A45" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="67"/>
+    </row>
+    <row r="46" spans="1:9" s="105" customFormat="1" ht="14.25">
+      <c r="A46" s="100">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B46" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="104"/>
+    </row>
+    <row r="47" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A47" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="67"/>
+    </row>
+    <row r="48" spans="1:9" s="105" customFormat="1" ht="14.25">
+      <c r="A48" s="100">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B48" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="101"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="104"/>
+    </row>
+    <row r="49" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A49" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="67"/>
+    </row>
+    <row r="50" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="43"/>
+      <c r="B50" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="63"/>
+    </row>
+    <row r="51" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A51" s="65">
+        <f t="shared" ref="A51:A66" ca="1" si="2">IF(OFFSET(A51,-1,0) ="",OFFSET(A51,-2,0)+1,OFFSET(A51,-1,0)+1 )</f>
+        <v>30</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A52" s="65">
+        <f ca="1">IF(OFFSET(A52,-1,0) ="",OFFSET(A52,-2,0)+1,OFFSET(A52,-1,0)+1 )</f>
+        <v>31</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="67"/>
+    </row>
+    <row r="53" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A53" s="65">
+        <f ca="1">IF(OFFSET(A53,-1,0) ="",OFFSET(A53,-2,0)+1,OFFSET(A53,-1,0)+1 )</f>
+        <v>32</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A54" s="65">
+        <f ca="1">IF(OFFSET(A54,-1,0) ="",OFFSET(A54,-2,0)+1,OFFSET(A54,-1,0)+1 )</f>
+        <v>33</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="26"/>
+    </row>
+    <row r="55" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A55" s="65">
+        <f ca="1">IF(OFFSET(A55,-1,0) ="",OFFSET(A55,-2,0)+1,OFFSET(A55,-1,0)+1 )</f>
+        <v>34</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A56" s="65">
+        <f ca="1">IF(OFFSET(A56,-1,0) ="",OFFSET(A56,-2,0)+1,OFFSET(A56,-1,0)+1 )</f>
+        <v>35</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="57" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A57" s="65">
+        <f ca="1">IF(OFFSET(A57,-1,0) ="",OFFSET(A57,-2,0)+1,OFFSET(A57,-1,0)+1 )</f>
+        <v>36</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A58" s="65">
+        <f ca="1">IF(OFFSET(A58,-1,0) ="",OFFSET(A58,-2,0)+1,OFFSET(A58,-1,0)+1 )</f>
+        <v>37</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="26"/>
+    </row>
+    <row r="59" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A59" s="65">
+        <f ca="1">IF(OFFSET(A59,-1,0) ="",OFFSET(A59,-2,0)+1,OFFSET(A59,-1,0)+1 )</f>
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="26"/>
+    </row>
+    <row r="60" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A60" s="65">
+        <f ca="1">IF(OFFSET(A60,-1,0) ="",OFFSET(A60,-2,0)+1,OFFSET(A60,-1,0)+1 )</f>
+        <v>39</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="26"/>
+    </row>
+    <row r="61" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A61" s="65">
+        <f ca="1">IF(OFFSET(A61,-1,0) ="",OFFSET(A61,-2,0)+1,OFFSET(A61,-1,0)+1 )</f>
+        <v>40</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="26"/>
+    </row>
+    <row r="62" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A62" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="67"/>
+    </row>
+    <row r="63" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A63" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="67"/>
+    </row>
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A64" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="67"/>
+    </row>
+    <row r="65" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A65" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="67"/>
+    </row>
+    <row r="66" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A66" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="67"/>
+    </row>
+    <row r="67" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A67" s="65">
+        <f ca="1">IF(OFFSET(A67,-1,0) ="",OFFSET(A67,-2,0)+1,OFFSET(A67,-1,0)+1 )</f>
+        <v>46</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="67"/>
+    </row>
+    <row r="68" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="43"/>
+      <c r="B68" s="53" t="s">
+        <v>478</v>
+      </c>
+      <c r="C68" s="61"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="63"/>
+    </row>
+    <row r="69" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A69" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A70" s="65">
+        <f ca="1">IF(OFFSET(A70,-1,0) ="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1 )</f>
+        <v>48</v>
+      </c>
+      <c r="B70" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A71" s="65">
+        <f t="shared" ref="A71:A72" ca="1" si="3">IF(OFFSET(A71,-1,0) ="",OFFSET(A71,-2,0)+1,OFFSET(A71,-1,0)+1 )</f>
+        <v>49</v>
+      </c>
+      <c r="B71" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A72" s="65">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="84"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A73" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B73" s="101" t="s">
+        <v>492</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A74" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B74" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="26"/>
+    </row>
+    <row r="75" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="43"/>
+      <c r="B75" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="C75" s="61"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="63"/>
+    </row>
+    <row r="76" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A76" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="26"/>
+    </row>
+    <row r="77" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A77" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A78" s="65">
+        <f ca="1">IF(OFFSET(A78,-1,0) ="",OFFSET(A78,-2,0)+1,OFFSET(A78,-1,0)+1 )</f>
+        <v>55</v>
+      </c>
+      <c r="B78" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="26"/>
+    </row>
+    <row r="79" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A79" s="65">
+        <f t="shared" ref="A79:A80" ca="1" si="4">IF(OFFSET(A79,-1,0) ="",OFFSET(A79,-2,0)+1,OFFSET(A79,-1,0)+1 )</f>
+        <v>56</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="26"/>
+    </row>
+    <row r="80" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A80" s="65">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="26"/>
+    </row>
+    <row r="81" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A81" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B81" s="101" t="s">
+        <v>494</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="26"/>
+    </row>
+    <row r="82" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A82" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B82" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="26"/>
+    </row>
+    <row r="83" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A83" s="43"/>
+      <c r="B83" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="C83" s="61"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="63"/>
+    </row>
+    <row r="84" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A84" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="26"/>
+    </row>
+    <row r="85" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A85" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="26"/>
+    </row>
+    <row r="86" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A86" s="65">
+        <f ca="1">IF(OFFSET(A86,-1,0) ="",OFFSET(A86,-2,0)+1,OFFSET(A86,-1,0)+1 )</f>
+        <v>62</v>
+      </c>
+      <c r="B86" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="26"/>
+    </row>
+    <row r="87" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A87" s="65">
+        <f t="shared" ref="A87:A88" ca="1" si="5">IF(OFFSET(A87,-1,0) ="",OFFSET(A87,-2,0)+1,OFFSET(A87,-1,0)+1 )</f>
+        <v>63</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="26"/>
+    </row>
+    <row r="88" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A88" s="65">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="26"/>
+    </row>
+    <row r="89" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A89" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B89" s="101" t="s">
+        <v>497</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="26"/>
+    </row>
+    <row r="90" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A90" s="65">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B90" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="84"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="26"/>
+    </row>
+    <row r="91" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A91" s="43"/>
+      <c r="B91" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="C91" s="61"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="83"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="63"/>
+    </row>
+    <row r="92" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A92" s="65">
+        <f t="shared" ref="A92:A98" ca="1" si="6">IF(OFFSET(A92,-1,0) ="",OFFSET(A92,-2,0)+1,OFFSET(A92,-1,0)+1 )</f>
+        <v>67</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="84"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="67"/>
+    </row>
+    <row r="93" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A93" s="65">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="67"/>
+    </row>
+    <row r="94" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A94" s="65">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="67"/>
+    </row>
+    <row r="95" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A95" s="43"/>
+      <c r="B95" s="53" t="s">
+        <v>506</v>
+      </c>
+      <c r="C95" s="61"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="63"/>
+    </row>
+    <row r="96" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A96" s="65">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="67"/>
+    </row>
+    <row r="97" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A97" s="65">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="67"/>
+    </row>
+    <row r="98" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A98" s="65">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="67"/>
+    </row>
+    <row r="99" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A99" s="68"/>
+      <c r="B99" s="160" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="161"/>
+      <c r="D99" s="162"/>
+      <c r="E99" s="86"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="69"/>
+    </row>
+    <row r="100" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A100" s="71">
+        <f t="shared" ref="A100:A103" ca="1" si="7">IF(OFFSET(A100,-1,0) ="",OFFSET(A100,-2,0)+1,OFFSET(A100,-1,0)+1 )</f>
+        <v>73</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="26"/>
+    </row>
+    <row r="101" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A101" s="71">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="26"/>
+    </row>
+    <row r="102" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A102" s="71">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="84"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="26"/>
+    </row>
+    <row r="103" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A103" s="71">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="26"/>
+    </row>
+    <row r="104" spans="1:9" ht="12.75">
+      <c r="E104" s="87"/>
+    </row>
+    <row r="105" spans="1:9" ht="12.75">
+      <c r="E105" s="87"/>
+    </row>
+    <row r="106" spans="1:9" ht="12.75">
+      <c r="E106" s="87"/>
+    </row>
+    <row r="107" spans="1:9" ht="12.75">
+      <c r="E107" s="87"/>
+    </row>
+    <row r="108" spans="1:9" ht="12.75">
+      <c r="E108" s="87"/>
+    </row>
+    <row r="109" spans="1:9" ht="12.75">
+      <c r="E109" s="87"/>
+    </row>
+    <row r="110" spans="1:9" ht="12.75">
+      <c r="E110" s="87"/>
+    </row>
+    <row r="111" spans="1:9" ht="12.75">
+      <c r="E111" s="87"/>
+    </row>
+    <row r="112" spans="1:9" ht="12.75">
+      <c r="E112" s="87"/>
+    </row>
+    <row r="113" spans="5:5" ht="12.75">
+      <c r="E113" s="87"/>
+    </row>
+    <row r="114" spans="5:5" ht="12.75">
+      <c r="E114" s="87"/>
+    </row>
+    <row r="115" spans="5:5" ht="12.75">
+      <c r="E115" s="87"/>
+    </row>
+    <row r="116" spans="5:5" ht="12.75">
+      <c r="E116" s="87"/>
+    </row>
+    <row r="117" spans="5:5" ht="12.75">
+      <c r="E117" s="87"/>
+    </row>
+    <row r="118" spans="5:5" ht="12.75">
+      <c r="E118" s="87"/>
+    </row>
+    <row r="119" spans="5:5" ht="12.75">
+      <c r="E119" s="87"/>
+    </row>
+    <row r="120" spans="5:5" ht="12.75">
+      <c r="E120" s="87"/>
+    </row>
+    <row r="121" spans="5:5" ht="12.75">
+      <c r="E121" s="87"/>
+    </row>
+    <row r="122" spans="5:5" ht="12.75">
+      <c r="E122" s="87"/>
+    </row>
+    <row r="123" spans="5:5" ht="12.75">
+      <c r="E123" s="87"/>
+    </row>
+    <row r="124" spans="5:5" ht="12.75">
+      <c r="E124" s="87"/>
+    </row>
+    <row r="125" spans="5:5" ht="12.75">
+      <c r="E125" s="87"/>
+    </row>
+    <row r="126" spans="5:5" ht="12.75">
+      <c r="E126" s="87"/>
+    </row>
+    <row r="127" spans="5:5" ht="12.75">
+      <c r="E127" s="87"/>
+    </row>
+    <row r="128" spans="5:5" ht="12.75">
+      <c r="E128" s="87"/>
+    </row>
+    <row r="129" spans="5:5" ht="12.75">
+      <c r="E129" s="87"/>
+    </row>
+    <row r="130" spans="5:5" ht="12.75">
+      <c r="E130" s="87"/>
+    </row>
+    <row r="131" spans="5:5" ht="12.75">
+      <c r="E131" s="87"/>
+    </row>
+    <row r="132" spans="5:5" ht="12.75">
+      <c r="E132" s="87"/>
+    </row>
+    <row r="133" spans="5:5" ht="12.75">
+      <c r="E133" s="87"/>
+    </row>
+    <row r="134" spans="5:5" ht="12.75">
+      <c r="E134" s="87"/>
+    </row>
+    <row r="135" spans="5:5" ht="12.75">
+      <c r="E135" s="87"/>
+    </row>
+    <row r="136" spans="5:5" ht="12.75">
+      <c r="E136" s="87"/>
+    </row>
+    <row r="137" spans="5:5" ht="12.75">
+      <c r="E137" s="87"/>
+    </row>
+    <row r="138" spans="5:5" ht="12.75">
+      <c r="E138" s="87"/>
+    </row>
+    <row r="139" spans="5:5" ht="12.75">
+      <c r="E139" s="87"/>
+    </row>
+    <row r="140" spans="5:5" ht="12.75">
+      <c r="E140" s="87"/>
+    </row>
+    <row r="141" spans="5:5" ht="12.75">
+      <c r="E141" s="87"/>
+    </row>
+    <row r="142" spans="5:5" ht="12.75">
+      <c r="E142" s="87"/>
+    </row>
+    <row r="143" spans="5:5" ht="12.75">
+      <c r="E143" s="87"/>
+    </row>
+    <row r="144" spans="5:5" ht="12.75">
+      <c r="E144" s="87"/>
+    </row>
+    <row r="145" spans="5:5" ht="12.75">
+      <c r="E145" s="87"/>
+    </row>
+    <row r="146" spans="5:5" ht="12.75">
+      <c r="E146" s="87"/>
+    </row>
+    <row r="147" spans="5:5" ht="12.75">
+      <c r="E147" s="87"/>
+    </row>
+    <row r="148" spans="5:5" ht="12.75">
+      <c r="E148" s="87"/>
+    </row>
+    <row r="149" spans="5:5" ht="12.75">
+      <c r="E149" s="87"/>
+    </row>
+    <row r="150" spans="5:5" ht="12.75">
+      <c r="E150" s="87"/>
+    </row>
+    <row r="151" spans="5:5" ht="12.75">
+      <c r="E151" s="87"/>
+    </row>
+    <row r="152" spans="5:5" ht="12.75">
+      <c r="E152" s="87"/>
+    </row>
+    <row r="153" spans="5:5" ht="12.75">
+      <c r="E153" s="87"/>
+    </row>
+    <row r="154" spans="5:5" ht="12.75">
+      <c r="E154" s="87"/>
+    </row>
+    <row r="155" spans="5:5" ht="12.75">
+      <c r="E155" s="87"/>
+    </row>
+    <row r="156" spans="5:5" ht="12.75">
+      <c r="E156" s="87"/>
+    </row>
+    <row r="157" spans="5:5" ht="12.75">
+      <c r="E157" s="87"/>
+    </row>
+    <row r="158" spans="5:5" ht="12.75">
+      <c r="E158" s="87"/>
+    </row>
+    <row r="159" spans="5:5" ht="12.75">
+      <c r="E159" s="87"/>
+    </row>
+    <row r="160" spans="5:5" ht="12.75">
+      <c r="E160" s="87"/>
+    </row>
+    <row r="161" spans="5:5" ht="12.75">
+      <c r="E161" s="87"/>
+    </row>
+    <row r="162" spans="5:5" ht="12.75">
+      <c r="E162" s="87"/>
+    </row>
+    <row r="163" spans="5:5" ht="12.75">
+      <c r="E163" s="87"/>
+    </row>
+    <row r="164" spans="5:5" ht="12.75">
+      <c r="E164" s="87"/>
+    </row>
+    <row r="165" spans="5:5" ht="12.75">
+      <c r="E165" s="87"/>
+    </row>
+    <row r="166" spans="5:5" ht="12.75">
+      <c r="E166" s="87"/>
+    </row>
+    <row r="167" spans="5:5" ht="12.75">
+      <c r="E167" s="87"/>
+    </row>
+    <row r="168" spans="5:5" ht="12.75">
+      <c r="E168" s="87"/>
+    </row>
+    <row r="169" spans="5:5" ht="12.75">
+      <c r="E169" s="87"/>
+    </row>
+    <row r="170" spans="5:5" ht="12.75">
+      <c r="E170" s="87"/>
+    </row>
+    <row r="171" spans="5:5" ht="12.75">
+      <c r="E171" s="87"/>
+    </row>
+    <row r="172" spans="5:5" ht="12.75">
+      <c r="E172" s="87"/>
+    </row>
+    <row r="173" spans="5:5" ht="12.75">
+      <c r="E173" s="87"/>
+    </row>
+    <row r="174" spans="5:5" ht="12.75">
+      <c r="E174" s="87"/>
+    </row>
+    <row r="175" spans="5:5" ht="12.75">
+      <c r="E175" s="87"/>
+    </row>
+    <row r="176" spans="5:5" ht="12.75">
+      <c r="E176" s="87"/>
+    </row>
+    <row r="177" spans="5:5" ht="12.75">
+      <c r="E177" s="87"/>
+    </row>
+    <row r="178" spans="5:5" ht="12.75">
+      <c r="E178" s="87"/>
+    </row>
+    <row r="179" spans="5:5" ht="12.75">
+      <c r="E179" s="87"/>
+    </row>
+    <row r="180" spans="5:5" ht="12.75">
+      <c r="E180" s="87"/>
+    </row>
+    <row r="181" spans="5:5" ht="12.75">
+      <c r="E181" s="87"/>
+    </row>
+    <row r="182" spans="5:5" ht="12.75">
+      <c r="E182" s="87"/>
+    </row>
+    <row r="183" spans="5:5" ht="12.75">
+      <c r="E183" s="87"/>
+    </row>
+    <row r="184" spans="5:5" ht="12.75">
+      <c r="E184" s="87"/>
+    </row>
+    <row r="185" spans="5:5" ht="12.75">
+      <c r="E185" s="87"/>
+    </row>
+    <row r="186" spans="5:5" ht="12.75">
+      <c r="E186" s="87"/>
+    </row>
+    <row r="187" spans="5:5" ht="12.75">
+      <c r="E187" s="87"/>
+    </row>
+    <row r="188" spans="5:5" ht="12.75">
+      <c r="E188" s="87"/>
+    </row>
+    <row r="189" spans="5:5" ht="12.75">
+      <c r="E189" s="87"/>
+    </row>
+    <row r="190" spans="5:5" ht="12.75">
+      <c r="E190" s="87"/>
+    </row>
+    <row r="191" spans="5:5" ht="12.75">
+      <c r="E191" s="87"/>
+    </row>
+    <row r="192" spans="5:5" ht="12.75">
+      <c r="E192" s="87"/>
+    </row>
+    <row r="193" spans="5:5" ht="12.75">
+      <c r="E193" s="87"/>
+    </row>
+    <row r="194" spans="5:5" ht="12.75">
+      <c r="E194" s="87"/>
+    </row>
+    <row r="195" spans="5:5" ht="12.75">
+      <c r="E195" s="87"/>
+    </row>
+    <row r="196" spans="5:5" ht="12.75">
+      <c r="E196" s="87"/>
+    </row>
+    <row r="197" spans="5:5" ht="12.75">
+      <c r="E197" s="87"/>
+    </row>
+    <row r="198" spans="5:5" ht="12.75">
+      <c r="E198" s="87"/>
+    </row>
+    <row r="199" spans="5:5" ht="12.75">
+      <c r="E199" s="87"/>
+    </row>
+    <row r="200" spans="5:5" ht="12.75">
+      <c r="E200" s="87"/>
+    </row>
+    <row r="201" spans="5:5" ht="12.75">
+      <c r="E201" s="87"/>
+    </row>
+    <row r="202" spans="5:5" ht="12.75">
+      <c r="E202" s="87"/>
+    </row>
+    <row r="203" spans="5:5" ht="12.75">
+      <c r="E203" s="87"/>
+    </row>
+    <row r="204" spans="5:5" ht="12.75">
+      <c r="E204" s="87"/>
+    </row>
+    <row r="205" spans="5:5" ht="12.75">
+      <c r="E205" s="87"/>
+    </row>
+    <row r="206" spans="5:5" ht="12.75">
+      <c r="E206" s="87"/>
+    </row>
+    <row r="207" spans="5:5" ht="12.75">
+      <c r="E207" s="87"/>
+    </row>
+    <row r="208" spans="5:5" ht="12.75">
+      <c r="E208" s="87"/>
+    </row>
+    <row r="209" spans="5:5" ht="12.75">
+      <c r="E209" s="87"/>
+    </row>
+    <row r="210" spans="5:5" ht="12.75">
+      <c r="E210" s="87"/>
+    </row>
+    <row r="211" spans="5:5" ht="12.75">
+      <c r="E211" s="87"/>
+    </row>
+    <row r="212" spans="5:5" ht="12.75">
+      <c r="E212" s="87"/>
+    </row>
+    <row r="213" spans="5:5" ht="12.75">
+      <c r="E213" s="87"/>
+    </row>
+    <row r="214" spans="5:5" ht="12.75">
+      <c r="E214" s="87"/>
+    </row>
+    <row r="215" spans="5:5" ht="12.75">
+      <c r="E215" s="87"/>
+    </row>
+    <row r="216" spans="5:5" ht="12.75">
+      <c r="E216" s="87"/>
+    </row>
+    <row r="217" spans="5:5" ht="12.75">
+      <c r="E217" s="87"/>
+    </row>
+    <row r="218" spans="5:5" ht="12.75">
+      <c r="E218" s="87"/>
+    </row>
+    <row r="219" spans="5:5" ht="12.75">
+      <c r="E219" s="87"/>
+    </row>
+    <row r="220" spans="5:5" ht="12.75">
+      <c r="E220" s="87"/>
+    </row>
+    <row r="221" spans="5:5" ht="12.75">
+      <c r="E221" s="87"/>
+    </row>
+    <row r="222" spans="5:5" ht="12.75">
+      <c r="E222" s="87"/>
+    </row>
+    <row r="223" spans="5:5" ht="12.75">
+      <c r="E223" s="87"/>
+    </row>
+    <row r="224" spans="5:5" ht="12.75">
+      <c r="E224" s="87"/>
+    </row>
+    <row r="225" spans="5:5" ht="12.75">
+      <c r="E225" s="87"/>
+    </row>
+    <row r="226" spans="5:5" ht="12.75">
+      <c r="E226" s="87"/>
+    </row>
+    <row r="227" spans="5:5" ht="12.75">
+      <c r="E227" s="87"/>
+    </row>
+    <row r="228" spans="5:5" ht="12.75">
+      <c r="E228" s="87"/>
+    </row>
+    <row r="229" spans="5:5" ht="12.75">
+      <c r="E229" s="87"/>
+    </row>
+    <row r="230" spans="5:5" ht="12.75">
+      <c r="E230" s="87"/>
+    </row>
+    <row r="231" spans="5:5" ht="12.75">
+      <c r="E231" s="87"/>
+    </row>
+    <row r="232" spans="5:5" ht="12.75">
+      <c r="E232" s="87"/>
+    </row>
+    <row r="233" spans="5:5" ht="12.75">
+      <c r="E233" s="87"/>
+    </row>
+    <row r="234" spans="5:5" ht="12.75">
+      <c r="E234" s="87"/>
+    </row>
+    <row r="235" spans="5:5" ht="12.75">
+      <c r="E235" s="87"/>
+    </row>
+    <row r="236" spans="5:5" ht="12.75">
+      <c r="E236" s="87"/>
+    </row>
+    <row r="237" spans="5:5" ht="12.75">
+      <c r="E237" s="87"/>
+    </row>
+    <row r="238" spans="5:5" ht="12.75">
+      <c r="E238" s="87"/>
+    </row>
+    <row r="239" spans="5:5" ht="12.75">
+      <c r="E239" s="87"/>
+    </row>
+    <row r="240" spans="5:5" ht="12.75">
+      <c r="E240" s="87"/>
+    </row>
+    <row r="241" spans="5:5" ht="12.75">
+      <c r="E241" s="87"/>
+    </row>
+    <row r="242" spans="5:5" ht="12.75">
+      <c r="E242" s="87"/>
+    </row>
+    <row r="243" spans="5:5" ht="12.75">
+      <c r="E243" s="87"/>
+    </row>
+    <row r="244" spans="5:5" ht="12.75">
+      <c r="E244" s="87"/>
+    </row>
+    <row r="245" spans="5:5" ht="12.75">
+      <c r="E245" s="87"/>
+    </row>
+    <row r="246" spans="5:5" ht="12.75">
+      <c r="E246" s="87"/>
+    </row>
+    <row r="247" spans="5:5" ht="12.75">
+      <c r="E247" s="87"/>
+    </row>
+    <row r="248" spans="5:5" ht="12.75">
+      <c r="E248" s="87"/>
+    </row>
+    <row r="249" spans="5:5" ht="12.75">
+      <c r="E249" s="87"/>
+    </row>
+    <row r="250" spans="5:5" ht="12.75">
+      <c r="E250" s="87"/>
+    </row>
+    <row r="251" spans="5:5" ht="12.75">
+      <c r="E251" s="87"/>
+    </row>
+    <row r="252" spans="5:5" ht="12.75">
+      <c r="E252" s="87"/>
+    </row>
+    <row r="253" spans="5:5" ht="12.75">
+      <c r="E253" s="87"/>
+    </row>
+    <row r="254" spans="5:5" ht="12.75">
+      <c r="E254" s="87"/>
+    </row>
+    <row r="255" spans="5:5" ht="12.75">
+      <c r="E255" s="87"/>
+    </row>
+    <row r="256" spans="5:5" ht="12.75">
+      <c r="E256" s="87"/>
+    </row>
+    <row r="257" spans="5:5" ht="12.75">
+      <c r="E257" s="87"/>
+    </row>
+    <row r="258" spans="5:5" ht="12.75">
+      <c r="E258" s="87"/>
+    </row>
+    <row r="259" spans="5:5" ht="12.75">
+      <c r="E259" s="87"/>
+    </row>
+    <row r="260" spans="5:5" ht="12.75">
+      <c r="E260" s="87"/>
+    </row>
+    <row r="261" spans="5:5" ht="12.75">
+      <c r="E261" s="87"/>
+    </row>
+    <row r="262" spans="5:5" ht="12.75">
+      <c r="E262" s="87"/>
+    </row>
+    <row r="263" spans="5:5" ht="12.75">
+      <c r="E263" s="87"/>
+    </row>
+    <row r="264" spans="5:5" ht="12.75">
+      <c r="E264" s="87"/>
+    </row>
+    <row r="265" spans="5:5" ht="12.75">
+      <c r="E265" s="87"/>
+    </row>
+    <row r="266" spans="5:5" ht="12.75">
+      <c r="E266" s="87"/>
+    </row>
+    <row r="267" spans="5:5" ht="12.75">
+      <c r="E267" s="87"/>
+    </row>
+    <row r="268" spans="5:5" ht="12.75">
+      <c r="E268" s="87"/>
+    </row>
+    <row r="269" spans="5:5" ht="12.75">
+      <c r="E269" s="87"/>
+    </row>
+    <row r="270" spans="5:5" ht="12.75">
+      <c r="E270" s="87"/>
+    </row>
+    <row r="271" spans="5:5" ht="12.75">
+      <c r="E271" s="87"/>
+    </row>
+    <row r="272" spans="5:5" ht="12.75">
+      <c r="E272" s="87"/>
+    </row>
+    <row r="273" spans="5:5" ht="12.75">
+      <c r="E273" s="87"/>
+    </row>
+    <row r="274" spans="5:5" ht="12.75">
+      <c r="E274" s="87"/>
+    </row>
+    <row r="275" spans="5:5" ht="12.75">
+      <c r="E275" s="87"/>
+    </row>
+    <row r="276" spans="5:5" ht="12.75">
+      <c r="E276" s="87"/>
+    </row>
+    <row r="277" spans="5:5" ht="12.75">
+      <c r="E277" s="87"/>
+    </row>
+    <row r="278" spans="5:5" ht="12.75">
+      <c r="E278" s="87"/>
+    </row>
+    <row r="279" spans="5:5" ht="12.75">
+      <c r="E279" s="87"/>
+    </row>
+    <row r="280" spans="5:5" ht="12.75">
+      <c r="E280" s="87"/>
+    </row>
+    <row r="281" spans="5:5" ht="12.75">
+      <c r="E281" s="87"/>
+    </row>
+    <row r="282" spans="5:5" ht="12.75">
+      <c r="E282" s="87"/>
+    </row>
+    <row r="283" spans="5:5" ht="12.75">
+      <c r="E283" s="87"/>
+    </row>
+    <row r="284" spans="5:5" ht="12.75">
+      <c r="E284" s="87"/>
+    </row>
+    <row r="285" spans="5:5" ht="12.75">
+      <c r="E285" s="87"/>
+    </row>
+    <row r="286" spans="5:5" ht="12.75">
+      <c r="E286" s="87"/>
+    </row>
+    <row r="287" spans="5:5" ht="12.75">
+      <c r="E287" s="87"/>
+    </row>
+    <row r="288" spans="5:5" ht="12.75">
+      <c r="E288" s="87"/>
+    </row>
+    <row r="289" spans="5:5" ht="12.75">
+      <c r="E289" s="87"/>
+    </row>
+    <row r="290" spans="5:5" ht="12.75">
+      <c r="E290" s="87"/>
+    </row>
+    <row r="291" spans="5:5" ht="12.75">
+      <c r="E291" s="87"/>
+    </row>
+    <row r="292" spans="5:5" ht="12.75">
+      <c r="E292" s="87"/>
+    </row>
+    <row r="293" spans="5:5" ht="12.75">
+      <c r="E293" s="87"/>
+    </row>
+    <row r="294" spans="5:5" ht="12.75">
+      <c r="E294" s="87"/>
+    </row>
+    <row r="295" spans="5:5" ht="12.75">
+      <c r="E295" s="87"/>
+    </row>
+    <row r="296" spans="5:5" ht="12.75">
+      <c r="E296" s="87"/>
+    </row>
+    <row r="297" spans="5:5" ht="12.75">
+      <c r="E297" s="87"/>
+    </row>
+    <row r="298" spans="5:5" ht="12.75">
+      <c r="E298" s="87"/>
+    </row>
+    <row r="299" spans="5:5" ht="12.75">
+      <c r="E299" s="87"/>
+    </row>
+    <row r="300" spans="5:5" ht="12.75">
+      <c r="E300" s="87"/>
+    </row>
+    <row r="301" spans="5:5" ht="12.75">
+      <c r="E301" s="87"/>
+    </row>
+    <row r="302" spans="5:5" ht="12.75">
+      <c r="E302" s="87"/>
+    </row>
+    <row r="303" spans="5:5" ht="12.75">
+      <c r="E303" s="87"/>
+    </row>
+    <row r="304" spans="5:5" ht="12.75">
+      <c r="E304" s="87"/>
+    </row>
+    <row r="305" spans="5:5" ht="12.75">
+      <c r="E305" s="87"/>
+    </row>
+    <row r="306" spans="5:5" ht="12.75">
+      <c r="E306" s="87"/>
+    </row>
+    <row r="307" spans="5:5" ht="12.75">
+      <c r="E307" s="87"/>
+    </row>
+    <row r="308" spans="5:5" ht="12.75">
+      <c r="E308" s="87"/>
+    </row>
+    <row r="309" spans="5:5" ht="12.75">
+      <c r="E309" s="87"/>
+    </row>
+    <row r="310" spans="5:5" ht="12.75">
+      <c r="E310" s="87"/>
+    </row>
+    <row r="311" spans="5:5" ht="12.75">
+      <c r="E311" s="87"/>
+    </row>
+    <row r="312" spans="5:5" ht="12.75">
+      <c r="E312" s="87"/>
+    </row>
+    <row r="313" spans="5:5" ht="12.75">
+      <c r="E313" s="87"/>
+    </row>
+    <row r="314" spans="5:5" ht="12.75">
+      <c r="E314" s="87"/>
+    </row>
+    <row r="315" spans="5:5" ht="12.75">
+      <c r="E315" s="87"/>
+    </row>
+    <row r="316" spans="5:5" ht="12.75">
+      <c r="E316" s="87"/>
+    </row>
+    <row r="317" spans="5:5" ht="12.75">
+      <c r="E317" s="87"/>
+    </row>
+    <row r="318" spans="5:5" ht="12.75">
+      <c r="E318" s="87"/>
+    </row>
+    <row r="319" spans="5:5" ht="12.75">
+      <c r="E319" s="87"/>
+    </row>
+    <row r="320" spans="5:5" ht="12.75">
+      <c r="E320" s="87"/>
+    </row>
+    <row r="321" spans="5:5" ht="12.75">
+      <c r="E321" s="87"/>
+    </row>
+    <row r="322" spans="5:5" ht="12.75">
+      <c r="E322" s="87"/>
+    </row>
+    <row r="323" spans="5:5" ht="12.75">
+      <c r="E323" s="87"/>
+    </row>
+    <row r="324" spans="5:5" ht="12.75">
+      <c r="E324" s="87"/>
+    </row>
+    <row r="325" spans="5:5" ht="12.75">
+      <c r="E325" s="87"/>
+    </row>
+    <row r="326" spans="5:5" ht="12.75">
+      <c r="E326" s="87"/>
+    </row>
+    <row r="327" spans="5:5" ht="12.75">
+      <c r="E327" s="87"/>
+    </row>
+    <row r="328" spans="5:5" ht="12.75">
+      <c r="E328" s="87"/>
+    </row>
+    <row r="329" spans="5:5" ht="12.75">
+      <c r="E329" s="87"/>
+    </row>
+    <row r="330" spans="5:5" ht="12.75">
+      <c r="E330" s="87"/>
+    </row>
+    <row r="331" spans="5:5" ht="12.75">
+      <c r="E331" s="87"/>
+    </row>
+    <row r="332" spans="5:5" ht="12.75">
+      <c r="E332" s="87"/>
+    </row>
+    <row r="333" spans="5:5" ht="12.75">
+      <c r="E333" s="87"/>
+    </row>
+    <row r="334" spans="5:5" ht="12.75">
+      <c r="E334" s="87"/>
+    </row>
+    <row r="335" spans="5:5" ht="12.75">
+      <c r="E335" s="87"/>
+    </row>
+    <row r="336" spans="5:5" ht="12.75">
+      <c r="E336" s="87"/>
+    </row>
+    <row r="337" spans="5:5" ht="12.75">
+      <c r="E337" s="87"/>
+    </row>
+    <row r="338" spans="5:5" ht="12.75">
+      <c r="E338" s="87"/>
+    </row>
+    <row r="339" spans="5:5" ht="12.75">
+      <c r="E339" s="87"/>
+    </row>
+    <row r="340" spans="5:5" ht="12.75">
+      <c r="E340" s="87"/>
+    </row>
+    <row r="341" spans="5:5" ht="12.75">
+      <c r="E341" s="87"/>
+    </row>
+    <row r="342" spans="5:5" ht="12.75">
+      <c r="E342" s="87"/>
+    </row>
+    <row r="343" spans="5:5" ht="12.75">
+      <c r="E343" s="87"/>
+    </row>
+    <row r="344" spans="5:5" ht="12.75">
+      <c r="E344" s="87"/>
+    </row>
+    <row r="345" spans="5:5" ht="12.75">
+      <c r="E345" s="87"/>
+    </row>
+    <row r="346" spans="5:5" ht="12.75">
+      <c r="E346" s="87"/>
+    </row>
+    <row r="347" spans="5:5" ht="12.75">
+      <c r="E347" s="87"/>
+    </row>
+    <row r="348" spans="5:5" ht="12.75">
+      <c r="E348" s="87"/>
+    </row>
+    <row r="349" spans="5:5" ht="12.75">
+      <c r="E349" s="87"/>
+    </row>
+    <row r="350" spans="5:5" ht="12.75">
+      <c r="E350" s="87"/>
+    </row>
+    <row r="351" spans="5:5" ht="12.75">
+      <c r="E351" s="87"/>
+    </row>
+    <row r="352" spans="5:5" ht="12.75">
+      <c r="E352" s="87"/>
+    </row>
+    <row r="353" spans="5:5" ht="12.75">
+      <c r="E353" s="87"/>
+    </row>
+    <row r="354" spans="5:5" ht="12.75">
+      <c r="E354" s="87"/>
+    </row>
+    <row r="355" spans="5:5" ht="12.75">
+      <c r="E355" s="87"/>
+    </row>
+    <row r="356" spans="5:5" ht="12.75">
+      <c r="E356" s="87"/>
+    </row>
+    <row r="357" spans="5:5" ht="12.75">
+      <c r="E357" s="87"/>
+    </row>
+    <row r="358" spans="5:5" ht="12.75">
+      <c r="E358" s="87"/>
+    </row>
+    <row r="359" spans="5:5" ht="12.75">
+      <c r="E359" s="87"/>
+    </row>
+    <row r="360" spans="5:5" ht="12.75">
+      <c r="E360" s="87"/>
+    </row>
+    <row r="361" spans="5:5" ht="12.75">
+      <c r="E361" s="87"/>
+    </row>
+    <row r="362" spans="5:5" ht="12.75">
+      <c r="E362" s="87"/>
+    </row>
+    <row r="363" spans="5:5" ht="12.75">
+      <c r="E363" s="87"/>
+    </row>
+    <row r="364" spans="5:5" ht="12.75">
+      <c r="E364" s="87"/>
+    </row>
+    <row r="365" spans="5:5" ht="12.75">
+      <c r="E365" s="87"/>
+    </row>
+    <row r="366" spans="5:5" ht="12.75">
+      <c r="E366" s="87"/>
+    </row>
+    <row r="367" spans="5:5" ht="12.75">
+      <c r="E367" s="87"/>
+    </row>
+    <row r="368" spans="5:5" ht="12.75">
+      <c r="E368" s="87"/>
+    </row>
+    <row r="369" spans="5:5" ht="12.75">
+      <c r="E369" s="87"/>
+    </row>
+    <row r="370" spans="5:5" ht="12.75">
+      <c r="E370" s="87"/>
+    </row>
+    <row r="371" spans="5:5" ht="12.75">
+      <c r="E371" s="87"/>
+    </row>
+    <row r="372" spans="5:5" ht="12.75">
+      <c r="E372" s="87"/>
+    </row>
+    <row r="373" spans="5:5" ht="12.75">
+      <c r="E373" s="87"/>
+    </row>
+    <row r="374" spans="5:5" ht="12.75">
+      <c r="E374" s="87"/>
+    </row>
+    <row r="375" spans="5:5" ht="12.75">
+      <c r="E375" s="87"/>
+    </row>
+    <row r="376" spans="5:5" ht="12.75">
+      <c r="E376" s="87"/>
+    </row>
+    <row r="377" spans="5:5" ht="12.75">
+      <c r="E377" s="87"/>
+    </row>
+    <row r="378" spans="5:5" ht="12.75">
+      <c r="E378" s="87"/>
+    </row>
+    <row r="379" spans="5:5" ht="12.75">
+      <c r="E379" s="87"/>
+    </row>
+    <row r="380" spans="5:5" ht="12.75">
+      <c r="E380" s="87"/>
+    </row>
+    <row r="381" spans="5:5" ht="12.75">
+      <c r="E381" s="87"/>
+    </row>
+    <row r="382" spans="5:5" ht="12.75">
+      <c r="E382" s="87"/>
+    </row>
+    <row r="383" spans="5:5" ht="12.75">
+      <c r="E383" s="87"/>
+    </row>
+    <row r="384" spans="5:5" ht="12.75">
+      <c r="E384" s="87"/>
+    </row>
+    <row r="385" spans="5:5" ht="12.75">
+      <c r="E385" s="87"/>
+    </row>
+    <row r="386" spans="5:5" ht="12.75">
+      <c r="E386" s="87"/>
+    </row>
+    <row r="387" spans="5:5" ht="12.75">
+      <c r="E387" s="87"/>
+    </row>
+    <row r="388" spans="5:5" ht="12.75">
+      <c r="E388" s="87"/>
+    </row>
+    <row r="389" spans="5:5" ht="12.75">
+      <c r="E389" s="87"/>
+    </row>
+    <row r="390" spans="5:5" ht="12.75">
+      <c r="E390" s="87"/>
+    </row>
+    <row r="391" spans="5:5" ht="12.75">
+      <c r="E391" s="87"/>
+    </row>
+    <row r="392" spans="5:5" ht="12.75">
+      <c r="E392" s="87"/>
+    </row>
+    <row r="393" spans="5:5" ht="12.75">
+      <c r="E393" s="87"/>
+    </row>
+    <row r="394" spans="5:5" ht="12.75">
+      <c r="E394" s="87"/>
+    </row>
+    <row r="395" spans="5:5" ht="12.75">
+      <c r="E395" s="87"/>
+    </row>
+    <row r="396" spans="5:5" ht="12.75">
+      <c r="E396" s="87"/>
+    </row>
+    <row r="397" spans="5:5" ht="12.75">
+      <c r="E397" s="87"/>
+    </row>
+    <row r="398" spans="5:5" ht="12.75">
+      <c r="E398" s="87"/>
+    </row>
+    <row r="399" spans="5:5" ht="12.75">
+      <c r="E399" s="87"/>
+    </row>
+    <row r="400" spans="5:5" ht="12.75">
+      <c r="E400" s="87"/>
+    </row>
+    <row r="401" spans="5:5" ht="12.75">
+      <c r="E401" s="87"/>
+    </row>
+    <row r="402" spans="5:5" ht="12.75">
+      <c r="E402" s="87"/>
+    </row>
+    <row r="403" spans="5:5" ht="12.75">
+      <c r="E403" s="87"/>
+    </row>
+    <row r="404" spans="5:5" ht="12.75">
+      <c r="E404" s="87"/>
+    </row>
+    <row r="405" spans="5:5" ht="12.75">
+      <c r="E405" s="87"/>
+    </row>
+    <row r="406" spans="5:5" ht="12.75">
+      <c r="E406" s="87"/>
+    </row>
+    <row r="407" spans="5:5" ht="12.75">
+      <c r="E407" s="87"/>
+    </row>
+    <row r="408" spans="5:5" ht="12.75">
+      <c r="E408" s="87"/>
+    </row>
+    <row r="409" spans="5:5" ht="12.75">
+      <c r="E409" s="87"/>
+    </row>
+    <row r="410" spans="5:5" ht="12.75">
+      <c r="E410" s="87"/>
+    </row>
+    <row r="411" spans="5:5" ht="12.75">
+      <c r="E411" s="87"/>
+    </row>
+    <row r="412" spans="5:5" ht="12.75">
+      <c r="E412" s="87"/>
+    </row>
+    <row r="413" spans="5:5" ht="12.75">
+      <c r="E413" s="87"/>
+    </row>
+    <row r="414" spans="5:5" ht="12.75">
+      <c r="E414" s="87"/>
+    </row>
+    <row r="415" spans="5:5" ht="12.75">
+      <c r="E415" s="87"/>
+    </row>
+    <row r="416" spans="5:5" ht="12.75">
+      <c r="E416" s="87"/>
+    </row>
+    <row r="417" spans="5:5" ht="12.75">
+      <c r="E417" s="87"/>
+    </row>
+    <row r="418" spans="5:5" ht="12.75">
+      <c r="E418" s="87"/>
+    </row>
+    <row r="419" spans="5:5" ht="12.75">
+      <c r="E419" s="87"/>
+    </row>
+    <row r="420" spans="5:5" ht="12.75">
+      <c r="E420" s="87"/>
+    </row>
+    <row r="421" spans="5:5" ht="12.75">
+      <c r="E421" s="87"/>
+    </row>
+    <row r="422" spans="5:5" ht="12.75">
+      <c r="E422" s="87"/>
+    </row>
+    <row r="423" spans="5:5" ht="12.75">
+      <c r="E423" s="87"/>
+    </row>
+    <row r="424" spans="5:5" ht="12.75">
+      <c r="E424" s="87"/>
+    </row>
+    <row r="425" spans="5:5" ht="12.75">
+      <c r="E425" s="87"/>
+    </row>
+    <row r="426" spans="5:5" ht="12.75">
+      <c r="E426" s="87"/>
+    </row>
+    <row r="427" spans="5:5" ht="12.75">
+      <c r="E427" s="87"/>
+    </row>
+    <row r="428" spans="5:5" ht="12.75">
+      <c r="E428" s="87"/>
+    </row>
+    <row r="429" spans="5:5" ht="12.75">
+      <c r="E429" s="87"/>
+    </row>
+    <row r="430" spans="5:5" ht="12.75">
+      <c r="E430" s="87"/>
+    </row>
+    <row r="431" spans="5:5" ht="12.75">
+      <c r="E431" s="87"/>
+    </row>
+    <row r="432" spans="5:5" ht="12.75">
+      <c r="E432" s="87"/>
+    </row>
+    <row r="433" spans="5:5" ht="12.75">
+      <c r="E433" s="87"/>
+    </row>
+    <row r="434" spans="5:5" ht="12.75">
+      <c r="E434" s="87"/>
+    </row>
+    <row r="435" spans="5:5" ht="12.75">
+      <c r="E435" s="87"/>
+    </row>
+    <row r="436" spans="5:5" ht="12.75">
+      <c r="E436" s="87"/>
+    </row>
+    <row r="437" spans="5:5" ht="12.75">
+      <c r="E437" s="87"/>
+    </row>
+    <row r="438" spans="5:5" ht="12.75">
+      <c r="E438" s="87"/>
+    </row>
+    <row r="439" spans="5:5" ht="12.75">
+      <c r="E439" s="87"/>
+    </row>
+    <row r="440" spans="5:5" ht="12.75">
+      <c r="E440" s="87"/>
+    </row>
+    <row r="441" spans="5:5" ht="12.75">
+      <c r="E441" s="87"/>
+    </row>
+    <row r="442" spans="5:5" ht="12.75">
+      <c r="E442" s="87"/>
+    </row>
+    <row r="443" spans="5:5" ht="12.75">
+      <c r="E443" s="87"/>
+    </row>
+    <row r="444" spans="5:5" ht="12.75">
+      <c r="E444" s="87"/>
+    </row>
+    <row r="445" spans="5:5" ht="12.75">
+      <c r="E445" s="87"/>
+    </row>
+    <row r="446" spans="5:5" ht="12.75">
+      <c r="E446" s="87"/>
+    </row>
+    <row r="447" spans="5:5" ht="12.75">
+      <c r="E447" s="87"/>
+    </row>
+    <row r="448" spans="5:5" ht="12.75">
+      <c r="E448" s="87"/>
+    </row>
+    <row r="449" spans="5:5" ht="12.75">
+      <c r="E449" s="87"/>
+    </row>
+    <row r="450" spans="5:5" ht="12.75">
+      <c r="E450" s="87"/>
+    </row>
+    <row r="451" spans="5:5" ht="12.75">
+      <c r="E451" s="87"/>
+    </row>
+    <row r="452" spans="5:5" ht="12.75">
+      <c r="E452" s="87"/>
+    </row>
+    <row r="453" spans="5:5" ht="12.75">
+      <c r="E453" s="87"/>
+    </row>
+    <row r="454" spans="5:5" ht="12.75">
+      <c r="E454" s="87"/>
+    </row>
+    <row r="455" spans="5:5" ht="12.75">
+      <c r="E455" s="87"/>
+    </row>
+    <row r="456" spans="5:5" ht="12.75">
+      <c r="E456" s="87"/>
+    </row>
+    <row r="457" spans="5:5" ht="12.75">
+      <c r="E457" s="87"/>
+    </row>
+    <row r="458" spans="5:5" ht="12.75">
+      <c r="E458" s="87"/>
+    </row>
+    <row r="459" spans="5:5" ht="12.75">
+      <c r="E459" s="87"/>
+    </row>
+    <row r="460" spans="5:5" ht="12.75">
+      <c r="E460" s="87"/>
+    </row>
+    <row r="461" spans="5:5" ht="12.75">
+      <c r="E461" s="87"/>
+    </row>
+    <row r="462" spans="5:5" ht="12.75">
+      <c r="E462" s="87"/>
+    </row>
+    <row r="463" spans="5:5" ht="12.75">
+      <c r="E463" s="87"/>
+    </row>
+    <row r="464" spans="5:5" ht="12.75">
+      <c r="E464" s="87"/>
+    </row>
+    <row r="465" spans="5:5" ht="12.75">
+      <c r="E465" s="87"/>
+    </row>
+    <row r="466" spans="5:5" ht="12.75">
+      <c r="E466" s="87"/>
+    </row>
+    <row r="467" spans="5:5" ht="12.75">
+      <c r="E467" s="87"/>
+    </row>
+    <row r="468" spans="5:5" ht="12.75">
+      <c r="E468" s="87"/>
+    </row>
+    <row r="469" spans="5:5" ht="12.75">
+      <c r="E469" s="87"/>
+    </row>
+    <row r="470" spans="5:5" ht="12.75">
+      <c r="E470" s="87"/>
+    </row>
+    <row r="471" spans="5:5" ht="12.75">
+      <c r="E471" s="87"/>
+    </row>
+    <row r="472" spans="5:5" ht="12.75">
+      <c r="E472" s="87"/>
+    </row>
+    <row r="473" spans="5:5" ht="12.75">
+      <c r="E473" s="87"/>
+    </row>
+    <row r="474" spans="5:5" ht="12.75">
+      <c r="E474" s="87"/>
+    </row>
+    <row r="475" spans="5:5" ht="12.75">
+      <c r="E475" s="87"/>
+    </row>
+    <row r="476" spans="5:5" ht="12.75">
+      <c r="E476" s="87"/>
+    </row>
+    <row r="477" spans="5:5" ht="12.75">
+      <c r="E477" s="87"/>
+    </row>
+    <row r="478" spans="5:5" ht="12.75">
+      <c r="E478" s="87"/>
+    </row>
+    <row r="479" spans="5:5" ht="12.75">
+      <c r="E479" s="87"/>
+    </row>
+    <row r="480" spans="5:5" ht="12.75">
+      <c r="E480" s="87"/>
+    </row>
+    <row r="481" spans="5:5" ht="12.75">
+      <c r="E481" s="87"/>
+    </row>
+    <row r="482" spans="5:5" ht="12.75">
+      <c r="E482" s="87"/>
+    </row>
+    <row r="483" spans="5:5" ht="12.75">
+      <c r="E483" s="87"/>
+    </row>
+    <row r="484" spans="5:5" ht="12.75">
+      <c r="E484" s="87"/>
+    </row>
+    <row r="485" spans="5:5" ht="12.75">
+      <c r="E485" s="87"/>
+    </row>
+    <row r="486" spans="5:5" ht="12.75">
+      <c r="E486" s="87"/>
+    </row>
+    <row r="487" spans="5:5" ht="12.75">
+      <c r="E487" s="87"/>
+    </row>
+    <row r="488" spans="5:5" ht="12.75">
+      <c r="E488" s="87"/>
+    </row>
+    <row r="489" spans="5:5" ht="12.75">
+      <c r="E489" s="87"/>
+    </row>
+    <row r="490" spans="5:5" ht="12.75">
+      <c r="E490" s="87"/>
+    </row>
+    <row r="491" spans="5:5" ht="12.75">
+      <c r="E491" s="87"/>
+    </row>
+    <row r="492" spans="5:5" ht="12.75">
+      <c r="E492" s="87"/>
+    </row>
+    <row r="493" spans="5:5" ht="12.75">
+      <c r="E493" s="87"/>
+    </row>
+    <row r="494" spans="5:5" ht="12.75">
+      <c r="E494" s="87"/>
+    </row>
+    <row r="495" spans="5:5" ht="12.75">
+      <c r="E495" s="87"/>
+    </row>
+    <row r="496" spans="5:5" ht="12.75">
+      <c r="E496" s="87"/>
+    </row>
+    <row r="497" spans="5:5" ht="12.75">
+      <c r="E497" s="87"/>
+    </row>
+    <row r="498" spans="5:5" ht="12.75">
+      <c r="E498" s="87"/>
+    </row>
+    <row r="499" spans="5:5" ht="12.75">
+      <c r="E499" s="87"/>
+    </row>
+    <row r="500" spans="5:5" ht="12.75">
+      <c r="E500" s="87"/>
+    </row>
+    <row r="501" spans="5:5" ht="12.75">
+      <c r="E501" s="87"/>
+    </row>
+    <row r="502" spans="5:5" ht="12.75">
+      <c r="E502" s="87"/>
+    </row>
+    <row r="503" spans="5:5" ht="12.75">
+      <c r="E503" s="87"/>
+    </row>
+    <row r="504" spans="5:5" ht="12.75">
+      <c r="E504" s="87"/>
+    </row>
+    <row r="505" spans="5:5" ht="12.75">
+      <c r="E505" s="87"/>
+    </row>
+    <row r="506" spans="5:5" ht="12.75">
+      <c r="E506" s="87"/>
+    </row>
+    <row r="507" spans="5:5" ht="12.75">
+      <c r="E507" s="87"/>
+    </row>
+    <row r="508" spans="5:5" ht="12.75">
+      <c r="E508" s="87"/>
+    </row>
+    <row r="509" spans="5:5" ht="12.75">
+      <c r="E509" s="87"/>
+    </row>
+    <row r="510" spans="5:5" ht="12.75">
+      <c r="E510" s="87"/>
+    </row>
+    <row r="511" spans="5:5" ht="12.75">
+      <c r="E511" s="87"/>
+    </row>
+    <row r="512" spans="5:5" ht="12.75">
+      <c r="E512" s="87"/>
+    </row>
+    <row r="513" spans="5:5" ht="12.75">
+      <c r="E513" s="87"/>
+    </row>
+    <row r="514" spans="5:5" ht="12.75">
+      <c r="E514" s="87"/>
+    </row>
+    <row r="515" spans="5:5" ht="12.75">
+      <c r="E515" s="87"/>
+    </row>
+    <row r="516" spans="5:5" ht="12.75">
+      <c r="E516" s="87"/>
+    </row>
+    <row r="517" spans="5:5" ht="12.75">
+      <c r="E517" s="87"/>
+    </row>
+    <row r="518" spans="5:5" ht="12.75">
+      <c r="E518" s="87"/>
+    </row>
+    <row r="519" spans="5:5" ht="12.75">
+      <c r="E519" s="87"/>
+    </row>
+    <row r="520" spans="5:5" ht="12.75">
+      <c r="E520" s="87"/>
+    </row>
+    <row r="521" spans="5:5" ht="12.75">
+      <c r="E521" s="87"/>
+    </row>
+    <row r="522" spans="5:5" ht="12.75">
+      <c r="E522" s="87"/>
+    </row>
+    <row r="523" spans="5:5" ht="12.75">
+      <c r="E523" s="87"/>
+    </row>
+    <row r="524" spans="5:5" ht="12.75">
+      <c r="E524" s="87"/>
+    </row>
+    <row r="525" spans="5:5" ht="12.75">
+      <c r="E525" s="87"/>
+    </row>
+    <row r="526" spans="5:5" ht="12.75">
+      <c r="E526" s="87"/>
+    </row>
+    <row r="527" spans="5:5" ht="12.75">
+      <c r="E527" s="87"/>
+    </row>
+    <row r="528" spans="5:5" ht="12.75">
+      <c r="E528" s="87"/>
+    </row>
+    <row r="529" spans="5:5" ht="12.75">
+      <c r="E529" s="87"/>
+    </row>
+    <row r="530" spans="5:5" ht="12.75">
+      <c r="E530" s="87"/>
+    </row>
+    <row r="531" spans="5:5" ht="12.75">
+      <c r="E531" s="87"/>
+    </row>
+    <row r="532" spans="5:5" ht="12.75">
+      <c r="E532" s="87"/>
+    </row>
+    <row r="533" spans="5:5" ht="12.75">
+      <c r="E533" s="87"/>
+    </row>
+    <row r="534" spans="5:5" ht="12.75">
+      <c r="E534" s="87"/>
+    </row>
+    <row r="535" spans="5:5" ht="12.75">
+      <c r="E535" s="87"/>
+    </row>
+    <row r="536" spans="5:5" ht="12.75">
+      <c r="E536" s="87"/>
+    </row>
+    <row r="537" spans="5:5" ht="12.75">
+      <c r="E537" s="87"/>
+    </row>
+    <row r="538" spans="5:5" ht="12.75">
+      <c r="E538" s="87"/>
+    </row>
+    <row r="539" spans="5:5" ht="12.75">
+      <c r="E539" s="87"/>
+    </row>
+    <row r="540" spans="5:5" ht="12.75">
+      <c r="E540" s="87"/>
+    </row>
+    <row r="541" spans="5:5" ht="12.75">
+      <c r="E541" s="87"/>
+    </row>
+    <row r="542" spans="5:5" ht="12.75">
+      <c r="E542" s="87"/>
+    </row>
+    <row r="543" spans="5:5" ht="12.75">
+      <c r="E543" s="87"/>
+    </row>
+    <row r="544" spans="5:5" ht="12.75">
+      <c r="E544" s="87"/>
+    </row>
+    <row r="545" spans="5:5" ht="12.75">
+      <c r="E545" s="87"/>
+    </row>
+    <row r="546" spans="5:5" ht="12.75">
+      <c r="E546" s="87"/>
+    </row>
+    <row r="547" spans="5:5" ht="12.75">
+      <c r="E547" s="87"/>
+    </row>
+    <row r="548" spans="5:5" ht="12.75">
+      <c r="E548" s="87"/>
+    </row>
+    <row r="549" spans="5:5" ht="12.75">
+      <c r="E549" s="87"/>
+    </row>
+    <row r="550" spans="5:5" ht="12.75">
+      <c r="E550" s="87"/>
+    </row>
+    <row r="551" spans="5:5" ht="12.75">
+      <c r="E551" s="87"/>
+    </row>
+    <row r="552" spans="5:5" ht="12.75">
+      <c r="E552" s="87"/>
+    </row>
+    <row r="553" spans="5:5" ht="12.75">
+      <c r="E553" s="87"/>
+    </row>
+    <row r="554" spans="5:5" ht="12.75">
+      <c r="E554" s="87"/>
+    </row>
+    <row r="555" spans="5:5" ht="12.75">
+      <c r="E555" s="87"/>
+    </row>
+    <row r="556" spans="5:5" ht="12.75">
+      <c r="E556" s="87"/>
+    </row>
+    <row r="557" spans="5:5" ht="12.75">
+      <c r="E557" s="87"/>
+    </row>
+    <row r="558" spans="5:5" ht="12.75">
+      <c r="E558" s="87"/>
+    </row>
+    <row r="559" spans="5:5" ht="12.75">
+      <c r="E559" s="87"/>
+    </row>
+    <row r="560" spans="5:5" ht="12.75">
+      <c r="E560" s="87"/>
+    </row>
+    <row r="561" spans="5:5" ht="12.75">
+      <c r="E561" s="87"/>
+    </row>
+    <row r="562" spans="5:5" ht="12.75">
+      <c r="E562" s="87"/>
+    </row>
+    <row r="563" spans="5:5" ht="12.75">
+      <c r="E563" s="87"/>
+    </row>
+    <row r="564" spans="5:5" ht="12.75">
+      <c r="E564" s="87"/>
+    </row>
+    <row r="565" spans="5:5" ht="12.75">
+      <c r="E565" s="87"/>
+    </row>
+    <row r="566" spans="5:5" ht="12.75">
+      <c r="E566" s="87"/>
+    </row>
+    <row r="567" spans="5:5" ht="12.75">
+      <c r="E567" s="87"/>
+    </row>
+    <row r="568" spans="5:5" ht="12.75">
+      <c r="E568" s="87"/>
+    </row>
+    <row r="569" spans="5:5" ht="12.75">
+      <c r="E569" s="87"/>
+    </row>
+    <row r="570" spans="5:5" ht="12.75">
+      <c r="E570" s="87"/>
+    </row>
+    <row r="571" spans="5:5" ht="12.75">
+      <c r="E571" s="87"/>
+    </row>
+    <row r="572" spans="5:5" ht="12.75">
+      <c r="E572" s="87"/>
+    </row>
+    <row r="573" spans="5:5" ht="12.75">
+      <c r="E573" s="87"/>
+    </row>
+    <row r="574" spans="5:5" ht="12.75">
+      <c r="E574" s="87"/>
+    </row>
+    <row r="575" spans="5:5" ht="12.75">
+      <c r="E575" s="87"/>
+    </row>
+    <row r="576" spans="5:5" ht="12.75">
+      <c r="E576" s="87"/>
+    </row>
+    <row r="577" spans="5:5" ht="12.75">
+      <c r="E577" s="87"/>
+    </row>
+    <row r="578" spans="5:5" ht="12.75">
+      <c r="E578" s="87"/>
+    </row>
+    <row r="579" spans="5:5" ht="12.75">
+      <c r="E579" s="87"/>
+    </row>
+    <row r="580" spans="5:5" ht="12.75">
+      <c r="E580" s="87"/>
+    </row>
+    <row r="581" spans="5:5" ht="12.75">
+      <c r="E581" s="87"/>
+    </row>
+    <row r="582" spans="5:5" ht="12.75">
+      <c r="E582" s="87"/>
+    </row>
+    <row r="583" spans="5:5" ht="12.75">
+      <c r="E583" s="87"/>
+    </row>
+    <row r="584" spans="5:5" ht="12.75">
+      <c r="E584" s="87"/>
+    </row>
+    <row r="585" spans="5:5" ht="12.75">
+      <c r="E585" s="87"/>
+    </row>
+    <row r="586" spans="5:5" ht="12.75">
+      <c r="E586" s="87"/>
+    </row>
+    <row r="587" spans="5:5" ht="12.75">
+      <c r="E587" s="87"/>
+    </row>
+    <row r="588" spans="5:5" ht="12.75">
+      <c r="E588" s="87"/>
+    </row>
+    <row r="589" spans="5:5" ht="12.75">
+      <c r="E589" s="87"/>
+    </row>
+    <row r="590" spans="5:5" ht="12.75">
+      <c r="E590" s="87"/>
+    </row>
+    <row r="591" spans="5:5" ht="12.75">
+      <c r="E591" s="87"/>
+    </row>
+    <row r="592" spans="5:5" ht="12.75">
+      <c r="E592" s="87"/>
+    </row>
+    <row r="593" spans="5:5" ht="12.75">
+      <c r="E593" s="87"/>
+    </row>
+    <row r="594" spans="5:5" ht="12.75">
+      <c r="E594" s="87"/>
+    </row>
+    <row r="595" spans="5:5" ht="12.75">
+      <c r="E595" s="87"/>
+    </row>
+    <row r="596" spans="5:5" ht="12.75">
+      <c r="E596" s="87"/>
+    </row>
+    <row r="597" spans="5:5" ht="12.75">
+      <c r="E597" s="87"/>
+    </row>
+    <row r="598" spans="5:5" ht="12.75">
+      <c r="E598" s="87"/>
+    </row>
+    <row r="599" spans="5:5" ht="12.75">
+      <c r="E599" s="87"/>
+    </row>
+    <row r="600" spans="5:5" ht="12.75">
+      <c r="E600" s="87"/>
+    </row>
+    <row r="601" spans="5:5" ht="12.75">
+      <c r="E601" s="87"/>
+    </row>
+    <row r="602" spans="5:5" ht="12.75">
+      <c r="E602" s="87"/>
+    </row>
+    <row r="603" spans="5:5" ht="12.75">
+      <c r="E603" s="87"/>
+    </row>
+    <row r="604" spans="5:5" ht="12.75">
+      <c r="E604" s="87"/>
+    </row>
+    <row r="605" spans="5:5" ht="12.75">
+      <c r="E605" s="87"/>
+    </row>
+    <row r="606" spans="5:5" ht="12.75">
+      <c r="E606" s="87"/>
+    </row>
+    <row r="607" spans="5:5" ht="12.75">
+      <c r="E607" s="87"/>
+    </row>
+    <row r="608" spans="5:5" ht="12.75">
+      <c r="E608" s="87"/>
+    </row>
+    <row r="609" spans="5:5" ht="12.75">
+      <c r="E609" s="87"/>
+    </row>
+    <row r="610" spans="5:5" ht="12.75">
+      <c r="E610" s="87"/>
+    </row>
+    <row r="611" spans="5:5" ht="12.75">
+      <c r="E611" s="87"/>
+    </row>
+    <row r="612" spans="5:5" ht="12.75">
+      <c r="E612" s="87"/>
+    </row>
+    <row r="613" spans="5:5" ht="12.75">
+      <c r="E613" s="87"/>
+    </row>
+    <row r="614" spans="5:5" ht="12.75">
+      <c r="E614" s="87"/>
+    </row>
+    <row r="615" spans="5:5" ht="12.75">
+      <c r="E615" s="87"/>
+    </row>
+    <row r="616" spans="5:5" ht="12.75">
+      <c r="E616" s="87"/>
+    </row>
+    <row r="617" spans="5:5" ht="12.75">
+      <c r="E617" s="87"/>
+    </row>
+    <row r="618" spans="5:5" ht="12.75">
+      <c r="E618" s="87"/>
+    </row>
+    <row r="619" spans="5:5" ht="12.75">
+      <c r="E619" s="87"/>
+    </row>
+    <row r="620" spans="5:5" ht="12.75">
+      <c r="E620" s="87"/>
+    </row>
+    <row r="621" spans="5:5" ht="12.75">
+      <c r="E621" s="87"/>
+    </row>
+    <row r="622" spans="5:5" ht="12.75">
+      <c r="E622" s="87"/>
+    </row>
+    <row r="623" spans="5:5" ht="12.75">
+      <c r="E623" s="87"/>
+    </row>
+    <row r="624" spans="5:5" ht="12.75">
+      <c r="E624" s="87"/>
+    </row>
+    <row r="625" spans="5:5" ht="12.75">
+      <c r="E625" s="87"/>
+    </row>
+    <row r="626" spans="5:5" ht="12.75">
+      <c r="E626" s="87"/>
+    </row>
+    <row r="627" spans="5:5" ht="12.75">
+      <c r="E627" s="87"/>
+    </row>
+    <row r="628" spans="5:5" ht="12.75">
+      <c r="E628" s="87"/>
+    </row>
+    <row r="629" spans="5:5" ht="12.75">
+      <c r="E629" s="87"/>
+    </row>
+    <row r="630" spans="5:5" ht="12.75">
+      <c r="E630" s="87"/>
+    </row>
+    <row r="631" spans="5:5" ht="12.75">
+      <c r="E631" s="87"/>
+    </row>
+    <row r="632" spans="5:5" ht="12.75">
+      <c r="E632" s="87"/>
+    </row>
+    <row r="633" spans="5:5" ht="12.75">
+      <c r="E633" s="87"/>
+    </row>
+    <row r="634" spans="5:5" ht="12.75">
+      <c r="E634" s="87"/>
+    </row>
+    <row r="635" spans="5:5" ht="12.75">
+      <c r="E635" s="87"/>
+    </row>
+    <row r="636" spans="5:5" ht="12.75">
+      <c r="E636" s="87"/>
+    </row>
+    <row r="637" spans="5:5" ht="12.75">
+      <c r="E637" s="87"/>
+    </row>
+    <row r="638" spans="5:5" ht="12.75">
+      <c r="E638" s="87"/>
+    </row>
+    <row r="639" spans="5:5" ht="12.75">
+      <c r="E639" s="87"/>
+    </row>
+    <row r="640" spans="5:5" ht="12.75">
+      <c r="E640" s="87"/>
+    </row>
+    <row r="641" spans="5:5" ht="12.75">
+      <c r="E641" s="87"/>
+    </row>
+    <row r="642" spans="5:5" ht="12.75">
+      <c r="E642" s="87"/>
+    </row>
+    <row r="643" spans="5:5" ht="12.75">
+      <c r="E643" s="87"/>
+    </row>
+    <row r="644" spans="5:5" ht="12.75">
+      <c r="E644" s="87"/>
+    </row>
+    <row r="645" spans="5:5" ht="12.75">
+      <c r="E645" s="87"/>
+    </row>
+    <row r="646" spans="5:5" ht="12.75">
+      <c r="E646" s="87"/>
+    </row>
+    <row r="647" spans="5:5" ht="12.75">
+      <c r="E647" s="87"/>
+    </row>
+    <row r="648" spans="5:5" ht="12.75">
+      <c r="E648" s="87"/>
+    </row>
+    <row r="649" spans="5:5" ht="12.75">
+      <c r="E649" s="87"/>
+    </row>
+    <row r="650" spans="5:5" ht="12.75">
+      <c r="E650" s="87"/>
+    </row>
+    <row r="651" spans="5:5" ht="12.75">
+      <c r="E651" s="87"/>
+    </row>
+    <row r="652" spans="5:5" ht="12.75">
+      <c r="E652" s="87"/>
+    </row>
+    <row r="653" spans="5:5" ht="12.75">
+      <c r="E653" s="87"/>
+    </row>
+    <row r="654" spans="5:5" ht="12.75">
+      <c r="E654" s="87"/>
+    </row>
+    <row r="655" spans="5:5" ht="12.75">
+      <c r="E655" s="87"/>
+    </row>
+    <row r="656" spans="5:5" ht="12.75">
+      <c r="E656" s="87"/>
+    </row>
+    <row r="657" spans="5:5" ht="12.75">
+      <c r="E657" s="87"/>
+    </row>
+    <row r="658" spans="5:5" ht="12.75">
+      <c r="E658" s="87"/>
+    </row>
+    <row r="659" spans="5:5" ht="12.75">
+      <c r="E659" s="87"/>
+    </row>
+    <row r="660" spans="5:5" ht="12.75">
+      <c r="E660" s="87"/>
+    </row>
+    <row r="661" spans="5:5" ht="12.75">
+      <c r="E661" s="87"/>
+    </row>
+    <row r="662" spans="5:5" ht="12.75">
+      <c r="E662" s="87"/>
+    </row>
+    <row r="663" spans="5:5" ht="12.75">
+      <c r="E663" s="87"/>
+    </row>
+    <row r="664" spans="5:5" ht="12.75">
+      <c r="E664" s="87"/>
+    </row>
+    <row r="665" spans="5:5" ht="12.75">
+      <c r="E665" s="87"/>
+    </row>
+    <row r="666" spans="5:5" ht="12.75">
+      <c r="E666" s="87"/>
+    </row>
+    <row r="667" spans="5:5" ht="12.75">
+      <c r="E667" s="87"/>
+    </row>
+    <row r="668" spans="5:5" ht="12.75">
+      <c r="E668" s="87"/>
+    </row>
+    <row r="669" spans="5:5" ht="12.75">
+      <c r="E669" s="87"/>
+    </row>
+    <row r="670" spans="5:5" ht="12.75">
+      <c r="E670" s="87"/>
+    </row>
+    <row r="671" spans="5:5" ht="12.75">
+      <c r="E671" s="87"/>
+    </row>
+    <row r="672" spans="5:5" ht="12.75">
+      <c r="E672" s="87"/>
+    </row>
+    <row r="673" spans="5:5" ht="12.75">
+      <c r="E673" s="87"/>
+    </row>
+    <row r="674" spans="5:5" ht="12.75">
+      <c r="E674" s="87"/>
+    </row>
+    <row r="675" spans="5:5" ht="12.75">
+      <c r="E675" s="87"/>
+    </row>
+    <row r="676" spans="5:5" ht="12.75">
+      <c r="E676" s="87"/>
+    </row>
+    <row r="677" spans="5:5" ht="12.75">
+      <c r="E677" s="87"/>
+    </row>
+    <row r="678" spans="5:5" ht="12.75">
+      <c r="E678" s="87"/>
+    </row>
+    <row r="679" spans="5:5" ht="12.75">
+      <c r="E679" s="87"/>
+    </row>
+    <row r="680" spans="5:5" ht="12.75">
+      <c r="E680" s="87"/>
+    </row>
+    <row r="681" spans="5:5" ht="12.75">
+      <c r="E681" s="87"/>
+    </row>
+    <row r="682" spans="5:5" ht="12.75">
+      <c r="E682" s="87"/>
+    </row>
+    <row r="683" spans="5:5" ht="12.75">
+      <c r="E683" s="87"/>
+    </row>
+    <row r="684" spans="5:5" ht="12.75">
+      <c r="E684" s="87"/>
+    </row>
+    <row r="685" spans="5:5" ht="12.75">
+      <c r="E685" s="87"/>
+    </row>
+    <row r="686" spans="5:5" ht="12.75">
+      <c r="E686" s="87"/>
+    </row>
+    <row r="687" spans="5:5" ht="12.75">
+      <c r="E687" s="87"/>
+    </row>
+    <row r="688" spans="5:5" ht="12.75">
+      <c r="E688" s="87"/>
+    </row>
+    <row r="689" spans="5:5" ht="12.75">
+      <c r="E689" s="87"/>
+    </row>
+    <row r="690" spans="5:5" ht="12.75">
+      <c r="E690" s="87"/>
+    </row>
+    <row r="691" spans="5:5" ht="12.75">
+      <c r="E691" s="87"/>
+    </row>
+    <row r="692" spans="5:5" ht="12.75">
+      <c r="E692" s="87"/>
+    </row>
+    <row r="693" spans="5:5" ht="12.75">
+      <c r="E693" s="87"/>
+    </row>
+    <row r="694" spans="5:5" ht="12.75">
+      <c r="E694" s="87"/>
+    </row>
+    <row r="695" spans="5:5" ht="12.75">
+      <c r="E695" s="87"/>
+    </row>
+    <row r="696" spans="5:5" ht="12.75">
+      <c r="E696" s="87"/>
+    </row>
+    <row r="697" spans="5:5" ht="12.75">
+      <c r="E697" s="87"/>
+    </row>
+    <row r="698" spans="5:5" ht="12.75">
+      <c r="E698" s="87"/>
+    </row>
+    <row r="699" spans="5:5" ht="12.75">
+      <c r="E699" s="87"/>
+    </row>
+    <row r="700" spans="5:5" ht="12.75">
+      <c r="E700" s="87"/>
+    </row>
+    <row r="701" spans="5:5" ht="12.75">
+      <c r="E701" s="87"/>
+    </row>
+    <row r="702" spans="5:5" ht="12.75">
+      <c r="E702" s="87"/>
+    </row>
+    <row r="703" spans="5:5" ht="12.75">
+      <c r="E703" s="87"/>
+    </row>
+    <row r="704" spans="5:5" ht="12.75">
+      <c r="E704" s="87"/>
+    </row>
+    <row r="705" spans="5:5" ht="12.75">
+      <c r="E705" s="87"/>
+    </row>
+    <row r="706" spans="5:5" ht="12.75">
+      <c r="E706" s="87"/>
+    </row>
+    <row r="707" spans="5:5" ht="12.75">
+      <c r="E707" s="87"/>
+    </row>
+    <row r="708" spans="5:5" ht="12.75">
+      <c r="E708" s="87"/>
+    </row>
+    <row r="709" spans="5:5" ht="12.75">
+      <c r="E709" s="87"/>
+    </row>
+    <row r="710" spans="5:5" ht="12.75">
+      <c r="E710" s="87"/>
+    </row>
+    <row r="711" spans="5:5" ht="12.75">
+      <c r="E711" s="87"/>
+    </row>
+    <row r="712" spans="5:5" ht="12.75">
+      <c r="E712" s="87"/>
+    </row>
+    <row r="713" spans="5:5" ht="12.75">
+      <c r="E713" s="87"/>
+    </row>
+    <row r="714" spans="5:5" ht="12.75">
+      <c r="E714" s="87"/>
+    </row>
+    <row r="715" spans="5:5" ht="12.75">
+      <c r="E715" s="87"/>
+    </row>
+    <row r="716" spans="5:5" ht="12.75">
+      <c r="E716" s="87"/>
+    </row>
+    <row r="717" spans="5:5" ht="12.75">
+      <c r="E717" s="87"/>
+    </row>
+    <row r="718" spans="5:5" ht="12.75">
+      <c r="E718" s="87"/>
+    </row>
+    <row r="719" spans="5:5" ht="12.75">
+      <c r="E719" s="87"/>
+    </row>
+    <row r="720" spans="5:5" ht="12.75">
+      <c r="E720" s="87"/>
+    </row>
+    <row r="721" spans="5:5" ht="12.75">
+      <c r="E721" s="87"/>
+    </row>
+    <row r="722" spans="5:5" ht="12.75">
+      <c r="E722" s="87"/>
+    </row>
+    <row r="723" spans="5:5" ht="12.75">
+      <c r="E723" s="87"/>
+    </row>
+    <row r="724" spans="5:5" ht="12.75">
+      <c r="E724" s="87"/>
+    </row>
+    <row r="725" spans="5:5" ht="12.75">
+      <c r="E725" s="87"/>
+    </row>
+    <row r="726" spans="5:5" ht="12.75">
+      <c r="E726" s="87"/>
+    </row>
+    <row r="727" spans="5:5" ht="12.75">
+      <c r="E727" s="87"/>
+    </row>
+    <row r="728" spans="5:5" ht="12.75">
+      <c r="E728" s="87"/>
+    </row>
+    <row r="729" spans="5:5" ht="12.75">
+      <c r="E729" s="87"/>
+    </row>
+    <row r="730" spans="5:5" ht="12.75">
+      <c r="E730" s="87"/>
+    </row>
+    <row r="731" spans="5:5" ht="12.75">
+      <c r="E731" s="87"/>
+    </row>
+    <row r="732" spans="5:5" ht="12.75">
+      <c r="E732" s="87"/>
+    </row>
+    <row r="733" spans="5:5" ht="12.75">
+      <c r="E733" s="87"/>
+    </row>
+    <row r="734" spans="5:5" ht="12.75">
+      <c r="E734" s="87"/>
+    </row>
+    <row r="735" spans="5:5" ht="12.75">
+      <c r="E735" s="87"/>
+    </row>
+    <row r="736" spans="5:5" ht="12.75">
+      <c r="E736" s="87"/>
+    </row>
+    <row r="737" spans="5:5" ht="12.75">
+      <c r="E737" s="87"/>
+    </row>
+    <row r="738" spans="5:5" ht="12.75">
+      <c r="E738" s="87"/>
+    </row>
+    <row r="739" spans="5:5" ht="12.75">
+      <c r="E739" s="87"/>
+    </row>
+    <row r="740" spans="5:5" ht="12.75">
+      <c r="E740" s="87"/>
+    </row>
+    <row r="741" spans="5:5" ht="12.75">
+      <c r="E741" s="87"/>
+    </row>
+    <row r="742" spans="5:5" ht="12.75">
+      <c r="E742" s="87"/>
+    </row>
+    <row r="743" spans="5:5" ht="12.75">
+      <c r="E743" s="87"/>
+    </row>
+    <row r="744" spans="5:5" ht="12.75">
+      <c r="E744" s="87"/>
+    </row>
+    <row r="745" spans="5:5" ht="12.75">
+      <c r="E745" s="87"/>
+    </row>
+    <row r="746" spans="5:5" ht="12.75">
+      <c r="E746" s="87"/>
+    </row>
+    <row r="747" spans="5:5" ht="12.75">
+      <c r="E747" s="87"/>
+    </row>
+    <row r="748" spans="5:5" ht="12.75">
+      <c r="E748" s="87"/>
+    </row>
+    <row r="749" spans="5:5" ht="12.75">
+      <c r="E749" s="87"/>
+    </row>
+    <row r="750" spans="5:5" ht="12.75">
+      <c r="E750" s="87"/>
+    </row>
+    <row r="751" spans="5:5" ht="12.75">
+      <c r="E751" s="87"/>
+    </row>
+    <row r="752" spans="5:5" ht="12.75">
+      <c r="E752" s="87"/>
+    </row>
+    <row r="753" spans="5:5" ht="12.75">
+      <c r="E753" s="87"/>
+    </row>
+    <row r="754" spans="5:5" ht="12.75">
+      <c r="E754" s="87"/>
+    </row>
+    <row r="755" spans="5:5" ht="12.75">
+      <c r="E755" s="87"/>
+    </row>
+    <row r="756" spans="5:5" ht="12.75">
+      <c r="E756" s="87"/>
+    </row>
+    <row r="757" spans="5:5" ht="12.75">
+      <c r="E757" s="87"/>
+    </row>
+    <row r="758" spans="5:5" ht="12.75">
+      <c r="E758" s="87"/>
+    </row>
+    <row r="759" spans="5:5" ht="12.75">
+      <c r="E759" s="87"/>
+    </row>
+    <row r="760" spans="5:5" ht="12.75">
+      <c r="E760" s="87"/>
+    </row>
+    <row r="761" spans="5:5" ht="12.75">
+      <c r="E761" s="87"/>
+    </row>
+    <row r="762" spans="5:5" ht="12.75">
+      <c r="E762" s="87"/>
+    </row>
+    <row r="763" spans="5:5" ht="12.75">
+      <c r="E763" s="87"/>
+    </row>
+    <row r="764" spans="5:5" ht="12.75">
+      <c r="E764" s="87"/>
+    </row>
+    <row r="765" spans="5:5" ht="12.75">
+      <c r="E765" s="87"/>
+    </row>
+    <row r="766" spans="5:5" ht="12.75">
+      <c r="E766" s="87"/>
+    </row>
+    <row r="767" spans="5:5" ht="12.75">
+      <c r="E767" s="87"/>
+    </row>
+    <row r="768" spans="5:5" ht="12.75">
+      <c r="E768" s="87"/>
+    </row>
+    <row r="769" spans="5:5" ht="12.75">
+      <c r="E769" s="87"/>
+    </row>
+    <row r="770" spans="5:5" ht="12.75">
+      <c r="E770" s="87"/>
+    </row>
+    <row r="771" spans="5:5" ht="12.75">
+      <c r="E771" s="87"/>
+    </row>
+    <row r="772" spans="5:5" ht="12.75">
+      <c r="E772" s="87"/>
+    </row>
+    <row r="773" spans="5:5" ht="12.75">
+      <c r="E773" s="87"/>
+    </row>
+    <row r="774" spans="5:5" ht="12.75">
+      <c r="E774" s="87"/>
+    </row>
+    <row r="775" spans="5:5" ht="12.75">
+      <c r="E775" s="87"/>
+    </row>
+    <row r="776" spans="5:5" ht="12.75">
+      <c r="E776" s="87"/>
+    </row>
+    <row r="777" spans="5:5" ht="12.75">
+      <c r="E777" s="87"/>
+    </row>
+    <row r="778" spans="5:5" ht="12.75">
+      <c r="E778" s="87"/>
+    </row>
+    <row r="779" spans="5:5" ht="12.75">
+      <c r="E779" s="87"/>
+    </row>
+    <row r="780" spans="5:5" ht="12.75">
+      <c r="E780" s="87"/>
+    </row>
+    <row r="781" spans="5:5" ht="12.75">
+      <c r="E781" s="87"/>
+    </row>
+    <row r="782" spans="5:5" ht="12.75">
+      <c r="E782" s="87"/>
+    </row>
+    <row r="783" spans="5:5" ht="12.75">
+      <c r="E783" s="87"/>
+    </row>
+    <row r="784" spans="5:5" ht="12.75">
+      <c r="E784" s="87"/>
+    </row>
+    <row r="785" spans="5:5" ht="12.75">
+      <c r="E785" s="87"/>
+    </row>
+    <row r="786" spans="5:5" ht="12.75">
+      <c r="E786" s="87"/>
+    </row>
+    <row r="787" spans="5:5" ht="12.75">
+      <c r="E787" s="87"/>
+    </row>
+    <row r="788" spans="5:5" ht="12.75">
+      <c r="E788" s="87"/>
+    </row>
+    <row r="789" spans="5:5" ht="12.75">
+      <c r="E789" s="87"/>
+    </row>
+    <row r="790" spans="5:5" ht="12.75">
+      <c r="E790" s="87"/>
+    </row>
+    <row r="791" spans="5:5" ht="12.75">
+      <c r="E791" s="87"/>
+    </row>
+    <row r="792" spans="5:5" ht="12.75">
+      <c r="E792" s="87"/>
+    </row>
+    <row r="793" spans="5:5" ht="12.75">
+      <c r="E793" s="87"/>
+    </row>
+    <row r="794" spans="5:5" ht="12.75">
+      <c r="E794" s="87"/>
+    </row>
+    <row r="795" spans="5:5" ht="12.75">
+      <c r="E795" s="87"/>
+    </row>
+    <row r="796" spans="5:5" ht="12.75">
+      <c r="E796" s="87"/>
+    </row>
+    <row r="797" spans="5:5" ht="12.75">
+      <c r="E797" s="87"/>
+    </row>
+    <row r="798" spans="5:5" ht="12.75">
+      <c r="E798" s="87"/>
+    </row>
+    <row r="799" spans="5:5" ht="12.75">
+      <c r="E799" s="87"/>
+    </row>
+    <row r="800" spans="5:5" ht="12.75">
+      <c r="E800" s="87"/>
+    </row>
+    <row r="801" spans="5:5" ht="12.75">
+      <c r="E801" s="87"/>
+    </row>
+    <row r="802" spans="5:5" ht="12.75">
+      <c r="E802" s="87"/>
+    </row>
+    <row r="803" spans="5:5" ht="12.75">
+      <c r="E803" s="87"/>
+    </row>
+    <row r="804" spans="5:5" ht="12.75">
+      <c r="E804" s="87"/>
+    </row>
+    <row r="805" spans="5:5" ht="12.75">
+      <c r="E805" s="87"/>
+    </row>
+    <row r="806" spans="5:5" ht="12.75">
+      <c r="E806" s="87"/>
+    </row>
+    <row r="807" spans="5:5" ht="12.75">
+      <c r="E807" s="87"/>
+    </row>
+    <row r="808" spans="5:5" ht="12.75">
+      <c r="E808" s="87"/>
+    </row>
+    <row r="809" spans="5:5" ht="12.75">
+      <c r="E809" s="87"/>
+    </row>
+    <row r="810" spans="5:5" ht="12.75">
+      <c r="E810" s="87"/>
+    </row>
+    <row r="811" spans="5:5" ht="12.75">
+      <c r="E811" s="87"/>
+    </row>
+    <row r="812" spans="5:5" ht="12.75">
+      <c r="E812" s="87"/>
+    </row>
+    <row r="813" spans="5:5" ht="12.75">
+      <c r="E813" s="87"/>
+    </row>
+    <row r="814" spans="5:5" ht="12.75">
+      <c r="E814" s="87"/>
+    </row>
+    <row r="815" spans="5:5" ht="12.75">
+      <c r="E815" s="87"/>
+    </row>
+    <row r="816" spans="5:5" ht="12.75">
+      <c r="E816" s="87"/>
+    </row>
+    <row r="817" spans="5:5" ht="12.75">
+      <c r="E817" s="87"/>
+    </row>
+    <row r="818" spans="5:5" ht="12.75">
+      <c r="E818" s="87"/>
+    </row>
+    <row r="819" spans="5:5" ht="12.75">
+      <c r="E819" s="87"/>
+    </row>
+    <row r="820" spans="5:5" ht="12.75">
+      <c r="E820" s="87"/>
+    </row>
+    <row r="821" spans="5:5" ht="12.75">
+      <c r="E821" s="87"/>
+    </row>
+    <row r="822" spans="5:5" ht="12.75">
+      <c r="E822" s="87"/>
+    </row>
+    <row r="823" spans="5:5" ht="12.75">
+      <c r="E823" s="87"/>
+    </row>
+    <row r="824" spans="5:5" ht="12.75">
+      <c r="E824" s="87"/>
+    </row>
+    <row r="825" spans="5:5" ht="12.75">
+      <c r="E825" s="87"/>
+    </row>
+    <row r="826" spans="5:5" ht="12.75">
+      <c r="E826" s="87"/>
+    </row>
+    <row r="827" spans="5:5" ht="12.75">
+      <c r="E827" s="87"/>
+    </row>
+    <row r="828" spans="5:5" ht="12.75">
+      <c r="E828" s="87"/>
+    </row>
+    <row r="829" spans="5:5" ht="12.75">
+      <c r="E829" s="87"/>
+    </row>
+    <row r="830" spans="5:5" ht="12.75">
+      <c r="E830" s="87"/>
+    </row>
+    <row r="831" spans="5:5" ht="12.75">
+      <c r="E831" s="87"/>
+    </row>
+    <row r="832" spans="5:5" ht="12.75">
+      <c r="E832" s="87"/>
+    </row>
+    <row r="833" spans="5:5" ht="12.75">
+      <c r="E833" s="87"/>
+    </row>
+    <row r="834" spans="5:5" ht="12.75">
+      <c r="E834" s="87"/>
+    </row>
+    <row r="835" spans="5:5" ht="12.75">
+      <c r="E835" s="87"/>
+    </row>
+    <row r="836" spans="5:5" ht="12.75">
+      <c r="E836" s="87"/>
+    </row>
+    <row r="837" spans="5:5" ht="12.75">
+      <c r="E837" s="87"/>
+    </row>
+    <row r="838" spans="5:5" ht="12.75">
+      <c r="E838" s="87"/>
+    </row>
+    <row r="839" spans="5:5" ht="12.75">
+      <c r="E839" s="87"/>
+    </row>
+    <row r="840" spans="5:5" ht="12.75">
+      <c r="E840" s="87"/>
+    </row>
+    <row r="841" spans="5:5" ht="12.75">
+      <c r="E841" s="87"/>
+    </row>
+    <row r="842" spans="5:5" ht="12.75">
+      <c r="E842" s="87"/>
+    </row>
+    <row r="843" spans="5:5" ht="12.75">
+      <c r="E843" s="87"/>
+    </row>
+    <row r="844" spans="5:5" ht="12.75">
+      <c r="E844" s="87"/>
+    </row>
+    <row r="845" spans="5:5" ht="12.75">
+      <c r="E845" s="87"/>
+    </row>
+    <row r="846" spans="5:5" ht="12.75">
+      <c r="E846" s="87"/>
+    </row>
+    <row r="847" spans="5:5" ht="12.75">
+      <c r="E847" s="87"/>
+    </row>
+    <row r="848" spans="5:5" ht="12.75">
+      <c r="E848" s="87"/>
+    </row>
+    <row r="849" spans="5:5" ht="12.75">
+      <c r="E849" s="87"/>
+    </row>
+    <row r="850" spans="5:5" ht="12.75">
+      <c r="E850" s="87"/>
+    </row>
+    <row r="851" spans="5:5" ht="12.75">
+      <c r="E851" s="87"/>
+    </row>
+    <row r="852" spans="5:5" ht="12.75">
+      <c r="E852" s="87"/>
+    </row>
+    <row r="853" spans="5:5" ht="12.75">
+      <c r="E853" s="87"/>
+    </row>
+    <row r="854" spans="5:5" ht="12.75">
+      <c r="E854" s="87"/>
+    </row>
+    <row r="855" spans="5:5" ht="12.75">
+      <c r="E855" s="87"/>
+    </row>
+    <row r="856" spans="5:5" ht="12.75">
+      <c r="E856" s="87"/>
+    </row>
+    <row r="857" spans="5:5" ht="12.75">
+      <c r="E857" s="87"/>
+    </row>
+    <row r="858" spans="5:5" ht="12.75">
+      <c r="E858" s="87"/>
+    </row>
+    <row r="859" spans="5:5" ht="12.75">
+      <c r="E859" s="87"/>
+    </row>
+    <row r="860" spans="5:5" ht="12.75">
+      <c r="E860" s="87"/>
+    </row>
+    <row r="861" spans="5:5" ht="12.75">
+      <c r="E861" s="87"/>
+    </row>
+    <row r="862" spans="5:5" ht="12.75">
+      <c r="E862" s="87"/>
+    </row>
+    <row r="863" spans="5:5" ht="12.75">
+      <c r="E863" s="87"/>
+    </row>
+    <row r="864" spans="5:5" ht="12.75">
+      <c r="E864" s="87"/>
+    </row>
+    <row r="865" spans="5:5" ht="12.75">
+      <c r="E865" s="87"/>
+    </row>
+    <row r="866" spans="5:5" ht="12.75">
+      <c r="E866" s="87"/>
+    </row>
+    <row r="867" spans="5:5" ht="12.75">
+      <c r="E867" s="87"/>
+    </row>
+    <row r="868" spans="5:5" ht="12.75">
+      <c r="E868" s="87"/>
+    </row>
+    <row r="869" spans="5:5" ht="12.75">
+      <c r="E869" s="87"/>
+    </row>
+    <row r="870" spans="5:5" ht="12.75">
+      <c r="E870" s="87"/>
+    </row>
+    <row r="871" spans="5:5" ht="12.75">
+      <c r="E871" s="87"/>
+    </row>
+    <row r="872" spans="5:5" ht="12.75">
+      <c r="E872" s="87"/>
+    </row>
+    <row r="873" spans="5:5" ht="12.75">
+      <c r="E873" s="87"/>
+    </row>
+    <row r="874" spans="5:5" ht="12.75">
+      <c r="E874" s="87"/>
+    </row>
+    <row r="875" spans="5:5" ht="12.75">
+      <c r="E875" s="87"/>
+    </row>
+    <row r="876" spans="5:5" ht="12.75">
+      <c r="E876" s="87"/>
+    </row>
+    <row r="877" spans="5:5" ht="12.75">
+      <c r="E877" s="87"/>
+    </row>
+    <row r="878" spans="5:5" ht="12.75">
+      <c r="E878" s="87"/>
+    </row>
+    <row r="879" spans="5:5" ht="12.75">
+      <c r="E879" s="87"/>
+    </row>
+    <row r="880" spans="5:5" ht="12.75">
+      <c r="E880" s="87"/>
+    </row>
+    <row r="881" spans="5:5" ht="12.75">
+      <c r="E881" s="87"/>
+    </row>
+    <row r="882" spans="5:5" ht="12.75">
+      <c r="E882" s="87"/>
+    </row>
+    <row r="883" spans="5:5" ht="12.75">
+      <c r="E883" s="87"/>
+    </row>
+    <row r="884" spans="5:5" ht="12.75">
+      <c r="E884" s="87"/>
+    </row>
+    <row r="885" spans="5:5" ht="12.75">
+      <c r="E885" s="87"/>
+    </row>
+    <row r="886" spans="5:5" ht="12.75">
+      <c r="E886" s="87"/>
+    </row>
+    <row r="887" spans="5:5" ht="12.75">
+      <c r="E887" s="87"/>
+    </row>
+    <row r="888" spans="5:5" ht="12.75">
+      <c r="E888" s="87"/>
+    </row>
+    <row r="889" spans="5:5" ht="12.75">
+      <c r="E889" s="87"/>
+    </row>
+    <row r="890" spans="5:5" ht="12.75">
+      <c r="E890" s="87"/>
+    </row>
+    <row r="891" spans="5:5" ht="12.75">
+      <c r="E891" s="87"/>
+    </row>
+    <row r="892" spans="5:5" ht="12.75">
+      <c r="E892" s="87"/>
+    </row>
+    <row r="893" spans="5:5" ht="12.75">
+      <c r="E893" s="87"/>
+    </row>
+    <row r="894" spans="5:5" ht="12.75">
+      <c r="E894" s="87"/>
+    </row>
+    <row r="895" spans="5:5" ht="12.75">
+      <c r="E895" s="87"/>
+    </row>
+    <row r="896" spans="5:5" ht="12.75">
+      <c r="E896" s="87"/>
+    </row>
+    <row r="897" spans="5:5" ht="12.75">
+      <c r="E897" s="87"/>
+    </row>
+    <row r="898" spans="5:5" ht="12.75">
+      <c r="E898" s="87"/>
+    </row>
+    <row r="899" spans="5:5" ht="12.75">
+      <c r="E899" s="87"/>
+    </row>
+    <row r="900" spans="5:5" ht="12.75">
+      <c r="E900" s="87"/>
+    </row>
+    <row r="901" spans="5:5" ht="12.75">
+      <c r="E901" s="87"/>
+    </row>
+    <row r="902" spans="5:5" ht="12.75">
+      <c r="E902" s="87"/>
+    </row>
+    <row r="903" spans="5:5" ht="12.75">
+      <c r="E903" s="87"/>
+    </row>
+    <row r="904" spans="5:5" ht="12.75">
+      <c r="E904" s="87"/>
+    </row>
+    <row r="905" spans="5:5" ht="12.75">
+      <c r="E905" s="87"/>
+    </row>
+    <row r="906" spans="5:5" ht="12.75">
+      <c r="E906" s="87"/>
+    </row>
+    <row r="907" spans="5:5" ht="12.75">
+      <c r="E907" s="87"/>
+    </row>
+    <row r="908" spans="5:5" ht="12.75">
+      <c r="E908" s="87"/>
+    </row>
+    <row r="909" spans="5:5" ht="12.75">
+      <c r="E909" s="87"/>
+    </row>
+    <row r="910" spans="5:5" ht="12.75">
+      <c r="E910" s="87"/>
+    </row>
+    <row r="911" spans="5:5" ht="12.75">
+      <c r="E911" s="87"/>
+    </row>
+    <row r="912" spans="5:5" ht="12.75">
+      <c r="E912" s="87"/>
+    </row>
+    <row r="913" spans="5:5" ht="12.75">
+      <c r="E913" s="87"/>
+    </row>
+    <row r="914" spans="5:5" ht="12.75">
+      <c r="E914" s="87"/>
+    </row>
+    <row r="915" spans="5:5" ht="12.75">
+      <c r="E915" s="87"/>
+    </row>
+    <row r="916" spans="5:5" ht="12.75">
+      <c r="E916" s="87"/>
+    </row>
+    <row r="917" spans="5:5" ht="12.75">
+      <c r="E917" s="87"/>
+    </row>
+    <row r="918" spans="5:5" ht="12.75">
+      <c r="E918" s="87"/>
+    </row>
+    <row r="919" spans="5:5" ht="12.75">
+      <c r="E919" s="87"/>
+    </row>
+    <row r="920" spans="5:5" ht="12.75">
+      <c r="E920" s="87"/>
+    </row>
+    <row r="921" spans="5:5" ht="12.75">
+      <c r="E921" s="87"/>
+    </row>
+    <row r="922" spans="5:5" ht="12.75">
+      <c r="E922" s="87"/>
+    </row>
+    <row r="923" spans="5:5" ht="12.75">
+      <c r="E923" s="87"/>
+    </row>
+    <row r="924" spans="5:5" ht="12.75">
+      <c r="E924" s="87"/>
+    </row>
+    <row r="925" spans="5:5" ht="12.75">
+      <c r="E925" s="87"/>
+    </row>
+    <row r="926" spans="5:5" ht="12.75">
+      <c r="E926" s="87"/>
+    </row>
+    <row r="927" spans="5:5" ht="12.75">
+      <c r="E927" s="87"/>
+    </row>
+    <row r="928" spans="5:5" ht="12.75">
+      <c r="E928" s="87"/>
+    </row>
+    <row r="929" spans="5:5" ht="12.75">
+      <c r="E929" s="87"/>
+    </row>
+    <row r="930" spans="5:5" ht="12.75">
+      <c r="E930" s="87"/>
+    </row>
+    <row r="931" spans="5:5" ht="12.75">
+      <c r="E931" s="87"/>
+    </row>
+    <row r="932" spans="5:5" ht="12.75">
+      <c r="E932" s="87"/>
+    </row>
+    <row r="933" spans="5:5" ht="12.75">
+      <c r="E933" s="87"/>
+    </row>
+    <row r="934" spans="5:5" ht="12.75">
+      <c r="E934" s="87"/>
+    </row>
+    <row r="935" spans="5:5" ht="12.75">
+      <c r="E935" s="87"/>
+    </row>
+    <row r="936" spans="5:5" ht="12.75">
+      <c r="E936" s="87"/>
+    </row>
+    <row r="937" spans="5:5" ht="12.75">
+      <c r="E937" s="87"/>
+    </row>
+    <row r="938" spans="5:5" ht="12.75">
+      <c r="E938" s="87"/>
+    </row>
+    <row r="939" spans="5:5" ht="12.75">
+      <c r="E939" s="87"/>
+    </row>
+    <row r="940" spans="5:5" ht="12.75">
+      <c r="E940" s="87"/>
+    </row>
+    <row r="941" spans="5:5" ht="12.75">
+      <c r="E941" s="87"/>
+    </row>
+    <row r="942" spans="5:5" ht="12.75">
+      <c r="E942" s="87"/>
+    </row>
+    <row r="943" spans="5:5" ht="12.75">
+      <c r="E943" s="87"/>
+    </row>
+    <row r="944" spans="5:5" ht="12.75">
+      <c r="E944" s="87"/>
+    </row>
+    <row r="945" spans="5:5" ht="12.75">
+      <c r="E945" s="87"/>
+    </row>
+    <row r="946" spans="5:5" ht="12.75">
+      <c r="E946" s="87"/>
+    </row>
+    <row r="947" spans="5:5" ht="12.75">
+      <c r="E947" s="87"/>
+    </row>
+    <row r="948" spans="5:5" ht="12.75">
+      <c r="E948" s="87"/>
+    </row>
+    <row r="949" spans="5:5" ht="12.75">
+      <c r="E949" s="87"/>
+    </row>
+    <row r="950" spans="5:5" ht="12.75">
+      <c r="E950" s="87"/>
+    </row>
+    <row r="951" spans="5:5" ht="12.75">
+      <c r="E951" s="87"/>
+    </row>
+    <row r="952" spans="5:5" ht="12.75">
+      <c r="E952" s="87"/>
+    </row>
+    <row r="953" spans="5:5" ht="12.75">
+      <c r="E953" s="87"/>
+    </row>
+    <row r="954" spans="5:5" ht="12.75">
+      <c r="E954" s="87"/>
+    </row>
+    <row r="955" spans="5:5" ht="12.75">
+      <c r="E955" s="87"/>
+    </row>
+    <row r="956" spans="5:5" ht="12.75">
+      <c r="E956" s="87"/>
+    </row>
+    <row r="957" spans="5:5" ht="12.75">
+      <c r="E957" s="87"/>
+    </row>
+    <row r="958" spans="5:5" ht="12.75">
+      <c r="E958" s="87"/>
+    </row>
+    <row r="959" spans="5:5" ht="12.75">
+      <c r="E959" s="87"/>
+    </row>
+    <row r="960" spans="5:5" ht="12.75">
+      <c r="E960" s="87"/>
+    </row>
+    <row r="961" spans="5:5" ht="12.75">
+      <c r="E961" s="87"/>
+    </row>
+    <row r="962" spans="5:5" ht="12.75">
+      <c r="E962" s="87"/>
+    </row>
+    <row r="963" spans="5:5" ht="12.75">
+      <c r="E963" s="87"/>
+    </row>
+    <row r="964" spans="5:5" ht="12.75">
+      <c r="E964" s="87"/>
+    </row>
+    <row r="965" spans="5:5" ht="12.75">
+      <c r="E965" s="87"/>
+    </row>
+    <row r="966" spans="5:5" ht="12.75">
+      <c r="E966" s="87"/>
+    </row>
+    <row r="967" spans="5:5" ht="12.75">
+      <c r="E967" s="87"/>
+    </row>
+    <row r="968" spans="5:5" ht="12.75">
+      <c r="E968" s="87"/>
+    </row>
+    <row r="969" spans="5:5" ht="12.75">
+      <c r="E969" s="87"/>
+    </row>
+    <row r="970" spans="5:5" ht="12.75">
+      <c r="E970" s="87"/>
+    </row>
+    <row r="971" spans="5:5" ht="12.75">
+      <c r="E971" s="87"/>
+    </row>
+    <row r="972" spans="5:5" ht="12.75">
+      <c r="E972" s="87"/>
+    </row>
+    <row r="973" spans="5:5" ht="12.75">
+      <c r="E973" s="87"/>
+    </row>
+    <row r="974" spans="5:5" ht="12.75">
+      <c r="E974" s="87"/>
+    </row>
+    <row r="975" spans="5:5" ht="12.75">
+      <c r="E975" s="87"/>
+    </row>
+    <row r="976" spans="5:5" ht="12.75">
+      <c r="E976" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="F45:F49 F84:H90 F20:H36 F69:H74 G38:H49 F38 F40:F41 F51:H67 F43 F77:H82 F92:H94 F96:H103">
+      <formula1>$A$11:$A$15</formula1>
+    </dataValidation>
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F75:H76 F91:H91 F83:H83 F37:H37 F68:H68 F18:H19 F50:H50 F95:H95"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
+++ b/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
@@ -4,101 +4,119 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1" sheetId="3" r:id="rId1"/>
     <sheet name="Assignment 2" sheetId="4" r:id="rId2"/>
     <sheet name="Assignment 3" sheetId="6" r:id="rId3"/>
     <sheet name="Assignment 4" sheetId="7" r:id="rId4"/>
+    <sheet name="Assignment 5" sheetId="9" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assignment 1'!$A$17:$X$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Assignment 2'!$A$19:$Z$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Assignment 3'!$A$17:$X$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Assignment 4'!$A$37:$Z$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Assignment 4'!$A$20:$I$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Assignment 5'!$A$17:$X$17</definedName>
     <definedName name="abc" localSheetId="0">#REF!</definedName>
     <definedName name="abc" localSheetId="1">#REF!</definedName>
     <definedName name="abc" localSheetId="2">#REF!</definedName>
     <definedName name="abc" localSheetId="3">#REF!</definedName>
+    <definedName name="abc" localSheetId="4">#REF!</definedName>
     <definedName name="abc">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="0">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="1">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="2">#REF!</definedName>
     <definedName name="Check_inputed_mail_address" localSheetId="3">#REF!</definedName>
+    <definedName name="Check_inputed_mail_address" localSheetId="4">#REF!</definedName>
     <definedName name="Check_inputed_mail_address">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="2">#REF!</definedName>
     <definedName name="CS_IT_1.1_001" localSheetId="3">#REF!</definedName>
+    <definedName name="CS_IT_1.1_001" localSheetId="4">#REF!</definedName>
     <definedName name="CS_IT_1.1_001">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="2">#REF!</definedName>
     <definedName name="CS_IT_1.1_002" localSheetId="3">#REF!</definedName>
+    <definedName name="CS_IT_1.1_002" localSheetId="4">#REF!</definedName>
     <definedName name="CS_IT_1.1_002">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="2">#REF!</definedName>
     <definedName name="CS_IT_1.1_003" localSheetId="3">#REF!</definedName>
+    <definedName name="CS_IT_1.1_003" localSheetId="4">#REF!</definedName>
     <definedName name="CS_IT_1.1_003">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="0">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="1">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="2">#REF!</definedName>
     <definedName name="CS_IT_1.1_004" localSheetId="3">#REF!</definedName>
+    <definedName name="CS_IT_1.1_004" localSheetId="4">#REF!</definedName>
     <definedName name="CS_IT_1.1_004">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="0">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="1">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="2">#REF!</definedName>
     <definedName name="Evaluation" localSheetId="3">#REF!</definedName>
+    <definedName name="Evaluation" localSheetId="4">#REF!</definedName>
     <definedName name="Evaluation">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="0">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="1">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="2">#REF!</definedName>
     <definedName name="JaEnNickname" localSheetId="3">#REF!</definedName>
+    <definedName name="JaEnNickname" localSheetId="4">#REF!</definedName>
     <definedName name="JaEnNickname">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="0">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="1">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="2">#REF!</definedName>
     <definedName name="Mail_Magazine" localSheetId="3">#REF!</definedName>
+    <definedName name="Mail_Magazine" localSheetId="4">#REF!</definedName>
     <definedName name="Mail_Magazine">#REF!</definedName>
     <definedName name="project_code" localSheetId="0">#REF!</definedName>
     <definedName name="project_code" localSheetId="1">#REF!</definedName>
     <definedName name="project_code" localSheetId="2">#REF!</definedName>
     <definedName name="project_code" localSheetId="3">#REF!</definedName>
+    <definedName name="project_code" localSheetId="4">#REF!</definedName>
     <definedName name="project_code">#REF!</definedName>
     <definedName name="ProjectName" localSheetId="0">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName" localSheetId="1">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName" localSheetId="2">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName" localSheetId="3">'[1]Version 1'!#REF!</definedName>
+    <definedName name="ProjectName" localSheetId="4">'[1]Version 1'!#REF!</definedName>
     <definedName name="ProjectName">'[1]Version 1'!#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="2">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001" localSheetId="3">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_001" localSheetId="4">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_001">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="2">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002" localSheetId="3">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_002" localSheetId="4">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_002">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="2">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003" localSheetId="3">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_003" localSheetId="4">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_003">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="0">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="1">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="2">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004" localSheetId="3">#REF!</definedName>
+    <definedName name="Result_CS_IT_1.1_004" localSheetId="4">#REF!</definedName>
     <definedName name="Result_CS_IT_1.1_004">#REF!</definedName>
     <definedName name="safa" localSheetId="0">#REF!</definedName>
     <definedName name="safa" localSheetId="1">#REF!</definedName>
     <definedName name="safa" localSheetId="2">#REF!</definedName>
     <definedName name="safa" localSheetId="3">#REF!</definedName>
+    <definedName name="safa" localSheetId="4">#REF!</definedName>
     <definedName name="safa">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
@@ -463,8 +481,72 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="652">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -2292,9 +2374,6 @@
     <t>When the user selects a Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">Check default status </t>
-  </si>
-  <si>
     <t>When Home is in default status</t>
   </si>
   <si>
@@ -2319,9 +2398,6 @@
     <t>Check Office button</t>
   </si>
   <si>
-    <t>New address can be added successfully when all fields are entered valid values</t>
-  </si>
-  <si>
     <t>Add address fail when all fields are entered invalid value</t>
   </si>
   <si>
@@ -2334,7 +2410,537 @@
     <t>Add address fail when the user clicks on the Cancel button</t>
   </si>
   <si>
+    <t>Check default value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special characters:
+- html
+- javascript
+- SQL injection </t>
+  </si>
+  <si>
+    <t>Check mandatory</t>
+  </si>
+  <si>
+    <t>New address as home can be added successfully when all fields are entered valid values</t>
+  </si>
+  <si>
+    <t>New address as office can be added successfully when all fields are entered valid values</t>
+  </si>
+  <si>
     <t>New address can be added successfully when all mandatory fields are entered valid values</t>
+  </si>
+  <si>
+    <t>Open Add New Address screen</t>
+  </si>
+  <si>
+    <t>1. Observe the display of the Full Name</t>
+  </si>
+  <si>
+    <t>1. Don't enter value 
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>Full Name is blank 
+The placeholder is "First Last"</t>
+  </si>
+  <si>
+    <t>1. Enter "Nguyen Thi Van Anh"
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>System will show error message "Please enter your Full name"</t>
+  </si>
+  <si>
+    <t>1. Enter "^&amp;*"
+2. Click on Close (x) button
+3. Enter HTML code: &lt;!DOCTYPE html&gt;&lt;html&gt;&lt;body&gt;&lt;h1&gt;Học lập trình HTML&lt;/h1&gt;&lt;/body&gt;&lt;/html&gt;
+4. Click on Close (x) button
+5. Enter javascript: &lt;script src="myScript.js"&gt;&lt;/script&gt;
+6. Click on Close (x) button
+7. Enter SQL injection: SELECT * FROM Users WHERE Username = 'Vanh' AND Password = '12345678'</t>
+  </si>
+  <si>
+    <t>System will show error message "Name should not contain special characters"</t>
+  </si>
+  <si>
+    <t>1. Enter "12345678"
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter "Vanh1234"
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter "123$%^"</t>
+  </si>
+  <si>
+    <t>1. Enter "Vanh$%^"</t>
+  </si>
+  <si>
+    <t>1. Enter "Vanh1234%^&amp;"</t>
+  </si>
+  <si>
+    <t>Allow Copy/Paste Full Name</t>
+  </si>
+  <si>
+    <t>1. Enter " Nguyen Thi Van Anh "
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>'System will show error message "The name length should be 2-50 characters"</t>
+  </si>
+  <si>
+    <t>1. Enter 2 characters (valid Full Name)
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 3 characters (valid Full Name)
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 50 characters (valid Full Name)
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Observe the display of the Phone Number</t>
+  </si>
+  <si>
+    <t>System will show error message "The name length should be 2-50 characters"</t>
+  </si>
+  <si>
+    <t>System will show error message "Please enter your Phone number"</t>
+  </si>
+  <si>
+    <t>Phone Number is blank 
+The placeholder is "Please enter your Phone number"</t>
+  </si>
+  <si>
+    <t>1. Enter any character
+2. Click on close (x) button</t>
+  </si>
+  <si>
+    <t>1. Enter "^&amp;*"
+2. Enter HTML code: &lt;!DOCTYPE html&gt;&lt;html&gt;&lt;body&gt;&lt;h1&gt;Học lập trình HTML&lt;/h1&gt;&lt;/body&gt;&lt;/html&gt;
+3. Enter javascript: &lt;script src="myScript.js"&gt;&lt;/script&gt;
+4. Enter SQL injection: SELECT * FROM Users WHERE Username = 'Vanh' AND Password = '12345678'</t>
+  </si>
+  <si>
+    <t>1. Enter "0981980721"
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter " 0981 980 721 "</t>
+  </si>
+  <si>
+    <t>System will show error message "The length of phone number should be 10 characters"</t>
+  </si>
+  <si>
+    <t>1. Enter "123"</t>
+  </si>
+  <si>
+    <t>1. Enter "09819807211"</t>
+  </si>
+  <si>
+    <t>1. Enter "Nguyen Thi Van Anh"</t>
+  </si>
+  <si>
+    <t>1. Enter "0981980721"</t>
+  </si>
+  <si>
+    <t>1. Observe the display of the Address</t>
+  </si>
+  <si>
+    <t>System will show error message "Please enter your Address"</t>
+  </si>
+  <si>
+    <t>Allow Copy/Paste Address</t>
+  </si>
+  <si>
+    <t>Address is blank 
+The placeholder is "Please enter your Address"</t>
+  </si>
+  <si>
+    <t>1. Enter "Đường Láng"
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>System will show error message "The Address should not contain special characters"</t>
+  </si>
+  <si>
+    <t>1. Enter " Đường Láng "
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>'System will show error message "The Address length should be 5-350 characters"</t>
+  </si>
+  <si>
+    <t>System will show error message "The Address length should be 5-350 characters"</t>
+  </si>
+  <si>
+    <t>1. Enter 5 characters (valid Address)
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 6 characters (valid Address)
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 350 characters (valid Address)
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 4 characters</t>
+  </si>
+  <si>
+    <t>1. Enter 351 characters</t>
+  </si>
+  <si>
+    <t>1. Enter 1 character</t>
+  </si>
+  <si>
+    <t>1. Enter 51 characters</t>
+  </si>
+  <si>
+    <t>System will show error message "Please select your Province"</t>
+  </si>
+  <si>
+    <t>Province is blank
+The placeholder is "Please choose your Province"</t>
+  </si>
+  <si>
+    <t>Sorting trong lazada trình bày khó</t>
+  </si>
+  <si>
+    <t>There is a scrollbar when the list of Province exceeds the display frame</t>
+  </si>
+  <si>
+    <t>There are 63 provinces of VN</t>
+  </si>
+  <si>
+    <t>Do not allow paste, allow copy Province</t>
+  </si>
+  <si>
+    <t>1. Click on Province</t>
+  </si>
+  <si>
+    <t>1. Click on Province
+2. Observe the display of dropdown list</t>
+  </si>
+  <si>
+    <t>1. Click on District</t>
+  </si>
+  <si>
+    <t>1. Don't select value
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Click on Province
+2. Select a Province
+3. Enter other fields are valid
+4. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>Check Copy/Paste Province</t>
+  </si>
+  <si>
+    <t>Check Copy/Paste Ward</t>
+  </si>
+  <si>
+    <t>Check Copy/Paste District</t>
+  </si>
+  <si>
+    <t>1. Paste value
+2. Click on Province
+2. Select a Province
+3. Copy value
+4. Paste into other text fields</t>
+  </si>
+  <si>
+    <t>1. Enter character</t>
+  </si>
+  <si>
+    <t>1. Observe the display of the Province</t>
+  </si>
+  <si>
+    <t>1. Observe the display of the District</t>
+  </si>
+  <si>
+    <t>1. Select a Province
+2. Observe the display of the District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District is blank and disable
+The placeholder is "Please choose your District"
+</t>
+  </si>
+  <si>
+    <t>District is enable</t>
+  </si>
+  <si>
+    <t>There is a scrollbar when the list of District exceeds the display frame</t>
+  </si>
+  <si>
+    <t>System will show error message "Please select your District"</t>
+  </si>
+  <si>
+    <t>1. Click on District
+2. Select a District
+3. Enter other fields are valid
+4. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>Do not allow paste, allow copy District</t>
+  </si>
+  <si>
+    <t>1. Paste value
+2. Click on District
+2. Select a District
+3. Copy value
+4. Paste into other text fields</t>
+  </si>
+  <si>
+    <t>1. Click on District
+2. Observe the display of dropdown list</t>
+  </si>
+  <si>
+    <t>1.Copy/Paste "abc123$%^"</t>
+  </si>
+  <si>
+    <t>Allow Copy/Paste only numeric characters</t>
+  </si>
+  <si>
+    <t>1. Observe the display of the Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ward is blank and disable
+The placeholder is "Please choose your Ward"
+</t>
+  </si>
+  <si>
+    <t>Ward is enable</t>
+  </si>
+  <si>
+    <t>1. Click on Ward
+2. Observe the display of dropdown list</t>
+  </si>
+  <si>
+    <t>1. Click on Ward</t>
+  </si>
+  <si>
+    <t>There is a scrollbar when the list of Ward exceeds the display frame</t>
+  </si>
+  <si>
+    <t>System will show error message "Please select your Ward"</t>
+  </si>
+  <si>
+    <t>1. Click on Ward
+2. Select a Ward
+3. Enter other fields are valid
+4. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Paste value
+2. Click on Ward
+2. Select a Ward
+3. Copy value
+4. Paste into other text fields</t>
+  </si>
+  <si>
+    <t>Do not allow paste, allow copy Ward</t>
+  </si>
+  <si>
+    <t>1. Select a District
+2. Observe the display of the Ward</t>
+  </si>
+  <si>
+    <t>Value of Dropdown will be depended on Province value and sorted alphabetically</t>
+  </si>
+  <si>
+    <t>Value of Dropdown will be depended on District value and sorted alphabetically</t>
+  </si>
+  <si>
+    <t>1. Observe the display of the Home button</t>
+  </si>
+  <si>
+    <t>Home button is enable and unchecked</t>
+  </si>
+  <si>
+    <t>Icon on Home button is gray</t>
+  </si>
+  <si>
+    <t>1. Don’t click on Home button
+2. Observe the display of the Home button</t>
+  </si>
+  <si>
+    <t>1. Click on Home button
+2. Observe the display of Home button</t>
+  </si>
+  <si>
+    <t>Icon on Home button is hightlighted</t>
+  </si>
+  <si>
+    <t>1. Observe the display of the Office button</t>
+  </si>
+  <si>
+    <t>Office button is enable and unchecked</t>
+  </si>
+  <si>
+    <t>1. Don’t click on Office button
+2. Observe the display of the Office button</t>
+  </si>
+  <si>
+    <t>Icon on Office button is gray</t>
+  </si>
+  <si>
+    <t>1. Click on Office button
+2. Observe the display of Office button</t>
+  </si>
+  <si>
+    <t>Icon on Office button is hightlighted</t>
+  </si>
+  <si>
+    <t>1. Enter all fields are valid
+2. Select Home button
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book</t>
+  </si>
+  <si>
+    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book, automatic delete all leading, trailing spaces from Full Name</t>
+  </si>
+  <si>
+    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book, automatic delete all leading, trailing spaces from Address</t>
+  </si>
+  <si>
+    <t>Add new address as home successfully, return to Address book screen, new address will be displayed on the top of Address Book</t>
+  </si>
+  <si>
+    <t>Add new address as office successfully, return to Address book screen, new address will be displayed on the top of Address Book</t>
+  </si>
+  <si>
+    <t>1. Enter all fields are valid
+2. Select Office button
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Enter all mandatory fields are valid
+2. Don't Select Office button/Home button
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book
+Two button: Home and Office are displayed at the created address</t>
+  </si>
+  <si>
+    <t>1. Enter all fields are invalid
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>Add address fail, the system will display the corresponding error message below each field</t>
+  </si>
+  <si>
+    <t>1. Enter value into fields
+2. Click on Cancel button</t>
+  </si>
+  <si>
+    <t>Precondition: The user added 1 address
+1. Enter the value of all fields same previous address
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>Add address fail, return to Address book screen</t>
+  </si>
+  <si>
+    <t>When the user adds duplicate addresses</t>
+  </si>
+  <si>
+    <t>Precondition: The user added 1 address
+1. Enter Full Name and Phone number are same Previous address
+2. Enter other fields are different
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>When the user adds a new address completely different from the previous one</t>
+  </si>
+  <si>
+    <t>When the user adds a new address with the same consignee as the previous address</t>
+  </si>
+  <si>
+    <t>Precondition: The user added 1 address
+1. Enter the value of all fields are different previous address
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Check Delete Address function</t>
+  </si>
+  <si>
+    <t>Verify that a confirmation pop-up is displayed when the user click on Delete icon</t>
+  </si>
+  <si>
+    <t>Delete address successfully when the user click on Delete button on pop-up</t>
+  </si>
+  <si>
+    <t>Delete address fail when the user click on Cancel button on pop-up</t>
+  </si>
+  <si>
+    <t>Verify that the user cannot delete default address</t>
+  </si>
+  <si>
+    <t>Show error message "You cannot delete your default address"</t>
+  </si>
+  <si>
+    <t>Delete address successfully, this address is not displayed in Address Book anymore</t>
+  </si>
+  <si>
+    <t>1. Select an address
+1. Click on Delete icon</t>
+  </si>
+  <si>
+    <t>1. Select an address that is not default address
+2. Click on Delete icon
+3. Click on Delete button on pop-up</t>
+  </si>
+  <si>
+    <t>1. Select an address
+2. Click on Delete icon
+3. Click on Delete button on pop-up</t>
+  </si>
+  <si>
+    <t>1. Select default address
+2. Click on Delete icon
+3. Click on Delete button on pop-up</t>
+  </si>
+  <si>
+    <t>1. Select an address
+2. Click on Delete icon
+3. Click on Cancel button on pop-up</t>
+  </si>
+  <si>
+    <t>Delete address fail, return to the Edit address screen</t>
+  </si>
+  <si>
+    <t>Delete address fail when the user click on Close (x) icon on pop-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A confirmation pop-up is displayed
+This pop up shows selected address information correctly </t>
   </si>
 </sst>
 </file>
@@ -2841,7 +3447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3291,6 +3897,33 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3601,7 +4234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -21137,8 +21770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD121"/>
+    <sheetView showGridLines="0" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -23141,8 +23774,8 @@
       <c r="C103" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D103" s="24" t="s">
-        <v>364</v>
+      <c r="D103" s="107" t="s">
+        <v>529</v>
       </c>
       <c r="E103" s="84"/>
       <c r="F103" s="1"/>
@@ -26299,8 +26932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X983"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -30224,18 +30857,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I976"/>
+  <dimension ref="A1:I982"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
     <col min="2" max="2" width="61.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="175" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="37" customWidth="1"/>
     <col min="5" max="5" width="32.140625" style="147" customWidth="1"/>
     <col min="6" max="6" width="13" style="37" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" style="37" customWidth="1"/>
@@ -30309,7 +30942,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="157"/>
+      <c r="B6" s="157" t="s">
+        <v>516</v>
+      </c>
       <c r="C6" s="158"/>
       <c r="D6" s="158"/>
       <c r="E6" s="77"/>
@@ -30354,7 +30989,7 @@
         <f>F17</f>
         <v>Internal Build 03112011</v>
       </c>
-      <c r="C9" s="13" t="str">
+      <c r="C9" s="167" t="str">
         <f>G17</f>
         <v>Internal build 14112011</v>
       </c>
@@ -30376,7 +31011,7 @@
         <f>SUM(B11:B14)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="170">
         <f>SUM(C11:C14)</f>
         <v>0</v>
       </c>
@@ -30395,15 +31030,15 @@
         <v>13</v>
       </c>
       <c r="B11" s="15">
-        <f>COUNTIF($F$18:$F$103,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$107,"*Passed")</f>
         <v>0</v>
       </c>
-      <c r="C11" s="15">
-        <f>COUNTIF($G$18:$G$103,"*Passed")</f>
+      <c r="C11" s="171">
+        <f>COUNTIF($G$18:$G$107,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <f>COUNTIF($H$18:$H$103,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$107,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E11" s="78"/>
@@ -30417,15 +31052,15 @@
         <v>14</v>
       </c>
       <c r="B12" s="15">
-        <f>COUNTIF($F$18:$F$103,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$107,"*Failed*")</f>
         <v>0</v>
       </c>
-      <c r="C12" s="15">
-        <f>COUNTIF($G$18:$G$103,"*Failed*")</f>
+      <c r="C12" s="171">
+        <f>COUNTIF($G$18:$G$107,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <f>COUNTIF($H$18:$H$103,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$107,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="78"/>
@@ -30439,15 +31074,15 @@
         <v>15</v>
       </c>
       <c r="B13" s="15">
-        <f>COUNTIF($F$18:$F$103,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$107,"*Not Run*")</f>
         <v>0</v>
       </c>
-      <c r="C13" s="15">
-        <f>COUNTIF($G$18:$G$103,"*Not Run*")</f>
+      <c r="C13" s="171">
+        <f>COUNTIF($G$18:$G$107,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <f>COUNTIF($H$18:$H$103,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$107,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="79"/>
@@ -30461,15 +31096,15 @@
         <v>16</v>
       </c>
       <c r="B14" s="15">
-        <f>COUNTIF($F$18:$F$103,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$107,"*NA*")</f>
         <v>0</v>
       </c>
-      <c r="C14" s="15">
-        <f>COUNTIF($G$18:$G$103,"*NA*")</f>
+      <c r="C14" s="171">
+        <f>COUNTIF($G$18:$G$107,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <f>COUNTIF($H$18:$H$103,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$107,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="79"/>
@@ -30483,15 +31118,15 @@
         <v>17</v>
       </c>
       <c r="B15" s="15">
-        <f>COUNTIF($F$18:$F$103,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$107,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="15">
-        <f>COUNTIF($G$18:$G$103,"*Passed in previous build*")</f>
+      <c r="C15" s="171">
+        <f>COUNTIF($G$18:$G$107,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <f>COUNTIF($H$18:$H$103,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$107,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="79"/>
@@ -30503,7 +31138,7 @@
     <row r="16" spans="1:9" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="57"/>
       <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="C16" s="172"/>
       <c r="D16" s="18"/>
       <c r="E16" s="80"/>
       <c r="F16" s="148" t="s">
@@ -30520,7 +31155,7 @@
       <c r="B17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="168" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -30560,7 +31195,7 @@
       <c r="B19" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="169"/>
       <c r="D19" s="62"/>
       <c r="E19" s="83"/>
       <c r="F19" s="64"/>
@@ -30568,160 +31203,202 @@
       <c r="H19" s="64"/>
       <c r="I19" s="63"/>
     </row>
-    <row r="20" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="20" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A20" s="65">
-        <f t="shared" ref="A20:A35" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <f t="shared" ref="A20:A36" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="24"/>
+        <v>510</v>
+      </c>
+      <c r="C20" s="173" t="s">
+        <v>517</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>519</v>
+      </c>
       <c r="E20" s="84"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="26"/>
     </row>
-    <row r="21" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="21" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A21" s="65">
-        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+        <f t="shared" ref="A21:A31" ca="1" si="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="24"/>
+        <v>512</v>
+      </c>
+      <c r="C21" s="173" t="s">
+        <v>518</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>521</v>
+      </c>
       <c r="E21" s="84"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="67"/>
     </row>
-    <row r="22" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="22" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A22" s="65">
         <f ca="1">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="24"/>
+        <v>160</v>
+      </c>
+      <c r="C22" s="173" t="s">
+        <v>539</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>253</v>
+      </c>
       <c r="E22" s="84"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="I22" s="67"/>
+    </row>
+    <row r="23" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A23" s="65">
-        <f ca="1">IF(OFFSET(A23,-1,0) ="",OFFSET(A23,-2,0)+1,OFFSET(A23,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="24"/>
+        <v>201</v>
+      </c>
+      <c r="C23" s="173" t="s">
+        <v>520</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E23" s="84"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="26"/>
     </row>
-    <row r="24" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="24" spans="1:9" s="27" customFormat="1" ht="127.5">
       <c r="A24" s="65">
-        <f ca="1">IF(OFFSET(A24,-1,0) ="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="84"/>
+        <v>202</v>
+      </c>
+      <c r="C24" s="173" t="s">
+        <v>522</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>511</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="25" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A25" s="65">
-        <f ca="1">IF(OFFSET(A25,-1,0) ="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="24"/>
+        <v>203</v>
+      </c>
+      <c r="C25" s="173" t="s">
+        <v>524</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E25" s="84"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="26" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A26" s="65">
-        <f ca="1">IF(OFFSET(A26,-1,0) ="",OFFSET(A26,-2,0)+1,OFFSET(A26,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="24"/>
+        <v>174</v>
+      </c>
+      <c r="C26" s="173" t="s">
+        <v>525</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E26" s="84"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="26"/>
     </row>
-    <row r="27" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="27" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A27" s="65">
-        <f ca="1">IF(OFFSET(A27,-1,0) ="",OFFSET(A27,-2,0)+1,OFFSET(A27,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="24"/>
+        <v>175</v>
+      </c>
+      <c r="C27" s="173" t="s">
+        <v>526</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>523</v>
+      </c>
       <c r="E27" s="84"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="26"/>
     </row>
-    <row r="28" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="28" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A28" s="65">
-        <f ca="1">IF(OFFSET(A28,-1,0) ="",OFFSET(A28,-2,0)+1,OFFSET(A28,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="24"/>
+        <v>176</v>
+      </c>
+      <c r="C28" s="173" t="s">
+        <v>527</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>523</v>
+      </c>
       <c r="E28" s="84"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="26"/>
     </row>
-    <row r="29" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="29" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A29" s="65">
-        <f ca="1">IF(OFFSET(A29,-1,0) ="",OFFSET(A29,-2,0)+1,OFFSET(A29,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="24"/>
+        <v>177</v>
+      </c>
+      <c r="C29" s="173" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>523</v>
+      </c>
       <c r="E29" s="84"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -30730,110 +31407,138 @@
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="12.75">
       <c r="A30" s="65">
-        <f ca="1">IF(OFFSET(A30,-1,0) ="",OFFSET(A30,-2,0)+1,OFFSET(A30,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="24"/>
+        <v>208</v>
+      </c>
+      <c r="C30" s="173" t="s">
+        <v>591</v>
+      </c>
+      <c r="D30" s="107" t="s">
+        <v>529</v>
+      </c>
       <c r="E30" s="84"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="26"/>
     </row>
-    <row r="31" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="31" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A31" s="65">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="24"/>
+        <v>169</v>
+      </c>
+      <c r="C31" s="173" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>620</v>
+      </c>
       <c r="E31" s="84"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="67"/>
-    </row>
-    <row r="32" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A32" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="24"/>
+        <v>482</v>
+      </c>
+      <c r="C32" s="173" t="s">
+        <v>562</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>531</v>
+      </c>
       <c r="E32" s="84"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="67"/>
     </row>
-    <row r="33" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="33" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A33" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="24"/>
+        <v>483</v>
+      </c>
+      <c r="C33" s="173" t="s">
+        <v>532</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E33" s="84"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="67"/>
     </row>
-    <row r="34" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="34" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A34" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="24"/>
+        <v>484</v>
+      </c>
+      <c r="C34" s="173" t="s">
+        <v>533</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E34" s="84"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="67"/>
     </row>
-    <row r="35" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="35" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A35" s="65">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="24"/>
+        <v>205</v>
+      </c>
+      <c r="C35" s="173" t="s">
+        <v>534</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E35" s="84"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="67"/>
     </row>
-    <row r="36" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A36" s="65">
-        <f ca="1">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="70"/>
+        <v>204</v>
+      </c>
+      <c r="C36" s="173" t="s">
+        <v>563</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>536</v>
+      </c>
       <c r="E36" s="84"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -30845,7 +31550,7 @@
       <c r="B37" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="61"/>
+      <c r="C37" s="169"/>
       <c r="D37" s="62"/>
       <c r="E37" s="83"/>
       <c r="F37" s="64"/>
@@ -30853,349 +31558,437 @@
       <c r="H37" s="64"/>
       <c r="I37" s="63"/>
     </row>
-    <row r="38" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="38" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A38" s="65">
-        <f t="shared" ref="A38:A90" ca="1" si="1">IF(OFFSET(A38,-1,0) ="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1 )</f>
+        <f t="shared" ref="A38:A92" ca="1" si="2">IF(OFFSET(A38,-1,0) ="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1 )</f>
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="24"/>
+        <v>510</v>
+      </c>
+      <c r="C38" s="173" t="s">
+        <v>535</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>538</v>
+      </c>
       <c r="E38" s="84"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="26"/>
     </row>
-    <row r="39" spans="1:9" s="105" customFormat="1" ht="14.25">
+    <row r="39" spans="1:9" s="105" customFormat="1" ht="38.25">
       <c r="A39" s="100">
         <f ca="1">IF(OFFSET(A39,-1,0) ="",OFFSET(A39,-2,0)+1,OFFSET(A39,-1,0)+1 )</f>
         <v>19</v>
       </c>
-      <c r="B39" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
+      <c r="B39" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C39" s="173" t="s">
+        <v>518</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>537</v>
+      </c>
       <c r="E39" s="107"/>
       <c r="F39" s="107"/>
       <c r="G39" s="101"/>
       <c r="H39" s="101"/>
       <c r="I39" s="104"/>
     </row>
-    <row r="40" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="40" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A40" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A40,-1,0) ="",OFFSET(A40,-2,0)+1,OFFSET(A40,-1,0)+1 )</f>
         <v>20</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="84"/>
+      <c r="B40" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="173" t="s">
+        <v>539</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="85"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="26"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="1:9" s="27" customFormat="1" ht="12.75">
       <c r="A41" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="24"/>
+        <v>163</v>
+      </c>
+      <c r="C41" s="173" t="s">
+        <v>546</v>
+      </c>
+      <c r="D41" s="103" t="s">
+        <v>259</v>
+      </c>
       <c r="E41" s="84"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:9" s="110" customFormat="1" ht="12.75">
-      <c r="A42" s="100">
-        <f t="shared" ca="1" si="1"/>
+    <row r="42" spans="1:9" s="27" customFormat="1" ht="89.25">
+      <c r="A42" s="65">
+        <f t="shared" ca="1" si="2"/>
         <v>22</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="173" t="s">
+        <v>540</v>
+      </c>
+      <c r="D42" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" s="84" t="s">
+        <v>511</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:9" s="110" customFormat="1" ht="12.75">
+      <c r="A43" s="100">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B43" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="109"/>
-    </row>
-    <row r="43" spans="1:9" s="27" customFormat="1" ht="12.75">
-      <c r="A43" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="D43" s="107" t="s">
+        <v>364</v>
+      </c>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="109"/>
+    </row>
+    <row r="44" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A44" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="26"/>
-    </row>
-    <row r="44" spans="1:9" s="118" customFormat="1" ht="12.75">
-      <c r="A44" s="114">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B44" s="115" t="s">
+      <c r="C44" s="173" t="s">
+        <v>591</v>
+      </c>
+      <c r="D44" s="107" t="s">
+        <v>592</v>
+      </c>
+      <c r="E44" s="85"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" s="118" customFormat="1" ht="12.75">
+      <c r="A45" s="114">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B45" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="117"/>
-    </row>
-    <row r="45" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A45" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="174" t="s">
+        <v>542</v>
+      </c>
+      <c r="D45" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="117"/>
+    </row>
+    <row r="46" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A46" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="67"/>
-    </row>
-    <row r="46" spans="1:9" s="105" customFormat="1" ht="14.25">
-      <c r="A46" s="100">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B46" s="101" t="s">
+      <c r="C46" s="173" t="s">
+        <v>544</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="E46" s="85"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="67"/>
+    </row>
+    <row r="47" spans="1:9" s="105" customFormat="1" ht="38.25">
+      <c r="A47" s="100">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B47" s="101" t="s">
         <v>485</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="104"/>
-    </row>
-    <row r="47" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A47" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="173" t="s">
+        <v>541</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E47" s="103"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="104"/>
+    </row>
+    <row r="48" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A48" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="67"/>
-    </row>
-    <row r="48" spans="1:9" s="105" customFormat="1" ht="14.25">
-      <c r="A48" s="100">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B48" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="104"/>
-    </row>
-    <row r="49" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A49" s="65">
-        <f t="shared" ca="1" si="1"/>
+      <c r="C48" s="173" t="s">
+        <v>545</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="E48" s="85"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="67"/>
+    </row>
+    <row r="49" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="43"/>
+      <c r="B49" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="C49" s="169"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="63"/>
+    </row>
+    <row r="50" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A50" s="65">
+        <f t="shared" ref="A50:A66" ca="1" si="3">IF(OFFSET(A50,-1,0) ="",OFFSET(A50,-2,0)+1,OFFSET(A50,-1,0)+1 )</f>
         <v>29</v>
       </c>
-      <c r="B49" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="67"/>
-    </row>
-    <row r="50" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="53" t="s">
-        <v>477</v>
-      </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="63"/>
-    </row>
-    <row r="51" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="B50" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C50" s="173" t="s">
+        <v>548</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="E50" s="84"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A51" s="65">
-        <f t="shared" ref="A51:A66" ca="1" si="2">IF(OFFSET(A51,-1,0) ="",OFFSET(A51,-2,0)+1,OFFSET(A51,-1,0)+1 )</f>
+        <f t="shared" ref="A51:A61" ca="1" si="4">IF(OFFSET(A51,-1,0) ="",OFFSET(A51,-2,0)+1,OFFSET(A51,-1,0)+1 )</f>
         <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="24"/>
+        <v>512</v>
+      </c>
+      <c r="C51" s="173" t="s">
+        <v>518</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>549</v>
+      </c>
       <c r="E51" s="84"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="26"/>
-    </row>
-    <row r="52" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="I51" s="67"/>
+    </row>
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A52" s="65">
         <f ca="1">IF(OFFSET(A52,-1,0) ="",OFFSET(A52,-2,0)+1,OFFSET(A52,-1,0)+1 )</f>
         <v>31</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="24"/>
+        <v>160</v>
+      </c>
+      <c r="C52" s="173" t="s">
+        <v>539</v>
+      </c>
+      <c r="D52" s="70" t="s">
+        <v>253</v>
+      </c>
       <c r="E52" s="84"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="67"/>
     </row>
-    <row r="53" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="53" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A53" s="65">
-        <f ca="1">IF(OFFSET(A53,-1,0) ="",OFFSET(A53,-2,0)+1,OFFSET(A53,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="24"/>
+      <c r="C53" s="173" t="s">
+        <v>552</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E53" s="84"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="26"/>
     </row>
-    <row r="54" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="54" spans="1:9" s="27" customFormat="1" ht="127.5">
       <c r="A54" s="65">
-        <f ca="1">IF(OFFSET(A54,-1,0) ="",OFFSET(A54,-2,0)+1,OFFSET(A54,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="84"/>
+      <c r="C54" s="173" t="s">
+        <v>522</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="E54" s="84" t="s">
+        <v>511</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="26"/>
     </row>
-    <row r="55" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="55" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A55" s="65">
-        <f ca="1">IF(OFFSET(A55,-1,0) ="",OFFSET(A55,-2,0)+1,OFFSET(A55,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="24"/>
+      <c r="C55" s="173" t="s">
+        <v>524</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E55" s="84"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="26"/>
     </row>
-    <row r="56" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="56" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A56" s="65">
-        <f ca="1">IF(OFFSET(A56,-1,0) ="",OFFSET(A56,-2,0)+1,OFFSET(A56,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="4"/>
         <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="173" t="s">
+        <v>525</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E56" s="84"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="26"/>
     </row>
-    <row r="57" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="57" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A57" s="65">
-        <f ca="1">IF(OFFSET(A57,-1,0) ="",OFFSET(A57,-2,0)+1,OFFSET(A57,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="4"/>
         <v>36</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="24"/>
+      <c r="C57" s="173" t="s">
+        <v>526</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>553</v>
+      </c>
       <c r="E57" s="84"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="26"/>
     </row>
-    <row r="58" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="58" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A58" s="65">
-        <f ca="1">IF(OFFSET(A58,-1,0) ="",OFFSET(A58,-2,0)+1,OFFSET(A58,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="4"/>
         <v>37</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="24"/>
+      <c r="C58" s="173" t="s">
+        <v>527</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>553</v>
+      </c>
       <c r="E58" s="84"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="26"/>
     </row>
-    <row r="59" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="59" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A59" s="65">
-        <f ca="1">IF(OFFSET(A59,-1,0) ="",OFFSET(A59,-2,0)+1,OFFSET(A59,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="4"/>
         <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="24"/>
+      <c r="C59" s="173" t="s">
+        <v>528</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>553</v>
+      </c>
       <c r="E59" s="84"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -31204,219 +31997,272 @@
     </row>
     <row r="60" spans="1:9" s="27" customFormat="1" ht="12.75">
       <c r="A60" s="65">
-        <f ca="1">IF(OFFSET(A60,-1,0) ="",OFFSET(A60,-2,0)+1,OFFSET(A60,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="4"/>
         <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="24"/>
+      <c r="C60" s="173" t="s">
+        <v>591</v>
+      </c>
+      <c r="D60" s="107" t="s">
+        <v>550</v>
+      </c>
       <c r="E60" s="84"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="26"/>
     </row>
-    <row r="61" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="61" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A61" s="65">
-        <f ca="1">IF(OFFSET(A61,-1,0) ="",OFFSET(A61,-2,0)+1,OFFSET(A61,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="4"/>
         <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="24"/>
+      <c r="C61" s="173" t="s">
+        <v>554</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>621</v>
+      </c>
       <c r="E61" s="84"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="26"/>
     </row>
-    <row r="62" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="62" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A62" s="65">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>41</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="24"/>
+      <c r="C62" s="173" t="s">
+        <v>560</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>555</v>
+      </c>
       <c r="E62" s="84"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="67"/>
     </row>
-    <row r="63" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="63" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A63" s="65">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="24"/>
+      <c r="C63" s="173" t="s">
+        <v>557</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E63" s="84"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="67"/>
     </row>
-    <row r="64" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="64" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A64" s="65">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="24"/>
+      <c r="C64" s="173" t="s">
+        <v>558</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E64" s="84"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="67"/>
     </row>
-    <row r="65" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="65" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A65" s="65">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>44</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="24"/>
+      <c r="C65" s="173" t="s">
+        <v>559</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E65" s="84"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="67"/>
     </row>
-    <row r="66" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="66" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A66" s="65">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="24"/>
+      <c r="C66" s="173" t="s">
+        <v>561</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>556</v>
+      </c>
       <c r="E66" s="84"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="67"/>
     </row>
-    <row r="67" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A67" s="65">
-        <f ca="1">IF(OFFSET(A67,-1,0) ="",OFFSET(A67,-2,0)+1,OFFSET(A67,-1,0)+1 )</f>
+    <row r="67" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="43"/>
+      <c r="B67" s="53" t="s">
+        <v>478</v>
+      </c>
+      <c r="C67" s="169"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="63"/>
+    </row>
+    <row r="68" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A68" s="65">
+        <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="67"/>
-    </row>
-    <row r="68" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="43"/>
-      <c r="B68" s="53" t="s">
-        <v>478</v>
-      </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="63"/>
-    </row>
-    <row r="69" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="B68" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C68" s="173" t="s">
+        <v>580</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="E68" s="84"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A69" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A69,-1,0) ="",OFFSET(A69,-2,0)+1,OFFSET(A69,-1,0)+1 )</f>
         <v>47</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="84"/>
+      <c r="B69" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="173" t="s">
+        <v>571</v>
+      </c>
+      <c r="D69" s="102" t="s">
+        <v>568</v>
+      </c>
+      <c r="E69" s="84" t="s">
+        <v>566</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="70" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A70" s="65">
-        <f ca="1">IF(OFFSET(A70,-1,0) ="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1 )</f>
+        <f t="shared" ref="A70:A71" ca="1" si="5">IF(OFFSET(A70,-1,0) ="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1 )</f>
         <v>48</v>
       </c>
-      <c r="B70" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="84"/>
+      <c r="B70" s="54" t="s">
+        <v>493</v>
+      </c>
+      <c r="C70" s="173" t="s">
+        <v>570</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="71" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A71" s="65">
-        <f t="shared" ref="A71:A72" ca="1" si="3">IF(OFFSET(A71,-1,0) ="",OFFSET(A71,-2,0)+1,OFFSET(A71,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="5"/>
         <v>49</v>
       </c>
-      <c r="B71" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="24"/>
+      <c r="B71" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C71" s="173" t="s">
+        <v>573</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>564</v>
+      </c>
       <c r="E71" s="84"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="26"/>
     </row>
-    <row r="72" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="72" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A72" s="65">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="24"/>
+      <c r="B72" s="101" t="s">
+        <v>492</v>
+      </c>
+      <c r="C72" s="173" t="s">
+        <v>574</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E72" s="84"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="26"/>
     </row>
-    <row r="73" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="73" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A73" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
-      <c r="B73" s="101" t="s">
-        <v>492</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="24"/>
+      <c r="B73" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C73" s="173" t="s">
+        <v>578</v>
+      </c>
+      <c r="D73" s="101" t="s">
+        <v>569</v>
+      </c>
       <c r="E73" s="84"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -31425,14 +32271,18 @@
     </row>
     <row r="74" spans="1:9" s="27" customFormat="1" ht="12.75">
       <c r="A74" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
       <c r="B74" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="24"/>
+      <c r="C74" s="173" t="s">
+        <v>579</v>
+      </c>
+      <c r="D74" s="101" t="s">
+        <v>312</v>
+      </c>
       <c r="E74" s="84"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -31444,7 +32294,7 @@
       <c r="B75" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="C75" s="61"/>
+      <c r="C75" s="169"/>
       <c r="D75" s="62"/>
       <c r="E75" s="83"/>
       <c r="F75" s="64"/>
@@ -31452,39 +32302,47 @@
       <c r="H75" s="64"/>
       <c r="I75" s="63"/>
     </row>
-    <row r="76" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="76" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A76" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="24"/>
+        <v>510</v>
+      </c>
+      <c r="C76" s="173" t="s">
+        <v>581</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>583</v>
+      </c>
       <c r="E76" s="84"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="26"/>
     </row>
-    <row r="77" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="77" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A77" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="24"/>
+        <v>508</v>
+      </c>
+      <c r="C77" s="173" t="s">
+        <v>582</v>
+      </c>
+      <c r="D77" s="102" t="s">
+        <v>584</v>
+      </c>
       <c r="E77" s="84"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="26"/>
     </row>
-    <row r="78" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="78" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A78" s="65">
         <f ca="1">IF(OFFSET(A78,-1,0) ="",OFFSET(A78,-2,0)+1,OFFSET(A78,-1,0)+1 )</f>
         <v>55</v>
@@ -31492,419 +32350,608 @@
       <c r="B78" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="84"/>
+      <c r="C78" s="173" t="s">
+        <v>590</v>
+      </c>
+      <c r="D78" s="84" t="s">
+        <v>604</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="26"/>
     </row>
-    <row r="79" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="79" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A79" s="65">
-        <f t="shared" ref="A79:A80" ca="1" si="4">IF(OFFSET(A79,-1,0) ="",OFFSET(A79,-2,0)+1,OFFSET(A79,-1,0)+1 )</f>
+        <f t="shared" ref="A79:A80" ca="1" si="6">IF(OFFSET(A79,-1,0) ="",OFFSET(A79,-2,0)+1,OFFSET(A79,-1,0)+1 )</f>
         <v>56</v>
       </c>
       <c r="B79" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="24"/>
+      <c r="C79" s="173" t="s">
+        <v>572</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="E79" s="84"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="26"/>
     </row>
-    <row r="80" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="80" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A80" s="65">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>57</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="24"/>
+        <v>512</v>
+      </c>
+      <c r="C80" s="173" t="s">
+        <v>573</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>586</v>
+      </c>
       <c r="E80" s="84"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="26"/>
     </row>
-    <row r="81" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="81" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A81" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
       <c r="B81" s="101" t="s">
         <v>494</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="24"/>
+      <c r="C81" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E81" s="84"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="26"/>
     </row>
-    <row r="82" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="82" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A82" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
-      <c r="B82" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="24"/>
+      <c r="B82" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C82" s="173" t="s">
+        <v>589</v>
+      </c>
+      <c r="D82" s="101" t="s">
+        <v>588</v>
+      </c>
       <c r="E82" s="84"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="26"/>
     </row>
-    <row r="83" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A83" s="43"/>
-      <c r="B83" s="53" t="s">
+    <row r="83" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="A83" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B83" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="173" t="s">
+        <v>579</v>
+      </c>
+      <c r="D83" s="101" t="s">
+        <v>312</v>
+      </c>
+      <c r="E83" s="84"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="26"/>
+    </row>
+    <row r="84" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A84" s="43"/>
+      <c r="B84" s="53" t="s">
         <v>480</v>
       </c>
-      <c r="C83" s="61"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="63"/>
-    </row>
-    <row r="84" spans="1:9" s="27" customFormat="1" ht="12.75">
-      <c r="A84" s="65">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="26"/>
-    </row>
-    <row r="85" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="C84" s="169"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="63"/>
+    </row>
+    <row r="85" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A85" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="24"/>
+        <v>510</v>
+      </c>
+      <c r="C85" s="173" t="s">
+        <v>593</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>594</v>
+      </c>
       <c r="E85" s="84"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="26"/>
     </row>
-    <row r="86" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="86" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A86" s="65">
-        <f ca="1">IF(OFFSET(A86,-1,0) ="",OFFSET(A86,-2,0)+1,OFFSET(A86,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
-      <c r="B86" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="24"/>
+      <c r="B86" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C86" s="173" t="s">
+        <v>603</v>
+      </c>
+      <c r="D86" s="102" t="s">
+        <v>595</v>
+      </c>
       <c r="E86" s="84"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="26"/>
     </row>
-    <row r="87" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="87" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A87" s="65">
-        <f t="shared" ref="A87:A88" ca="1" si="5">IF(OFFSET(A87,-1,0) ="",OFFSET(A87,-2,0)+1,OFFSET(A87,-1,0)+1 )</f>
+        <f ca="1">IF(OFFSET(A87,-1,0) ="",OFFSET(A87,-2,0)+1,OFFSET(A87,-1,0)+1 )</f>
         <v>63</v>
       </c>
-      <c r="B87" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="24"/>
+      <c r="B87" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="173" t="s">
+        <v>596</v>
+      </c>
+      <c r="D87" s="84" t="s">
+        <v>605</v>
+      </c>
       <c r="E87" s="84"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="26"/>
     </row>
-    <row r="88" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="88" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A88" s="65">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="A88:A89" ca="1" si="7">IF(OFFSET(A88,-1,0) ="",OFFSET(A88,-2,0)+1,OFFSET(A88,-1,0)+1 )</f>
         <v>64</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="24"/>
+      <c r="B88" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="C88" s="173" t="s">
+        <v>597</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="E88" s="84"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="26"/>
     </row>
-    <row r="89" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="89" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A89" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>65</v>
       </c>
-      <c r="B89" s="101" t="s">
-        <v>497</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="24"/>
+      <c r="B89" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C89" s="173" t="s">
+        <v>573</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>599</v>
+      </c>
       <c r="E89" s="84"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="26"/>
     </row>
-    <row r="90" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="90" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A90" s="65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>66</v>
       </c>
-      <c r="B90" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="24"/>
+      <c r="B90" s="101" t="s">
+        <v>497</v>
+      </c>
+      <c r="C90" s="173" t="s">
+        <v>600</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>619</v>
+      </c>
       <c r="E90" s="84"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="26"/>
     </row>
-    <row r="91" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A91" s="43"/>
-      <c r="B91" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="63"/>
-    </row>
-    <row r="92" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="91" spans="1:9" s="27" customFormat="1" ht="63.75">
+      <c r="A91" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C91" s="173" t="s">
+        <v>601</v>
+      </c>
+      <c r="D91" s="101" t="s">
+        <v>602</v>
+      </c>
+      <c r="E91" s="84"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="26"/>
+    </row>
+    <row r="92" spans="1:9" s="27" customFormat="1" ht="12.75">
       <c r="A92" s="65">
-        <f t="shared" ref="A92:A98" ca="1" si="6">IF(OFFSET(A92,-1,0) ="",OFFSET(A92,-2,0)+1,OFFSET(A92,-1,0)+1 )</f>
-        <v>67</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="24"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B92" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" s="173" t="s">
+        <v>579</v>
+      </c>
+      <c r="D92" s="101" t="s">
+        <v>312</v>
+      </c>
       <c r="E92" s="84"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="67"/>
-    </row>
-    <row r="93" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A93" s="65">
-        <f t="shared" ca="1" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="67"/>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A93" s="43"/>
+      <c r="B93" s="53" t="s">
+        <v>504</v>
+      </c>
+      <c r="C93" s="169"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="63"/>
     </row>
     <row r="94" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A94" s="65">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="A94:A100" ca="1" si="8">IF(OFFSET(A94,-1,0) ="",OFFSET(A94,-2,0)+1,OFFSET(A94,-1,0)+1 )</f>
         <v>69</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="24"/>
+        <v>498</v>
+      </c>
+      <c r="C94" s="173" t="s">
+        <v>606</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>607</v>
+      </c>
       <c r="E94" s="84"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="67"/>
     </row>
-    <row r="95" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A95" s="43"/>
-      <c r="B95" s="53" t="s">
-        <v>506</v>
-      </c>
-      <c r="C95" s="61"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="63"/>
-    </row>
-    <row r="96" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="95" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A95" s="65">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C95" s="173" t="s">
+        <v>609</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="E95" s="84"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="67"/>
+    </row>
+    <row r="96" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A96" s="65">
-        <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>71</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="24"/>
+        <v>500</v>
+      </c>
+      <c r="C96" s="173" t="s">
+        <v>610</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>611</v>
+      </c>
       <c r="E96" s="84"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="67"/>
     </row>
-    <row r="97" spans="1:9" s="29" customFormat="1" ht="14.25">
-      <c r="A97" s="65">
-        <f t="shared" ca="1" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="67"/>
+    <row r="97" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A97" s="43"/>
+      <c r="B97" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="C97" s="169"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="63"/>
     </row>
     <row r="98" spans="1:9" s="29" customFormat="1" ht="14.25">
       <c r="A98" s="65">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>72</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="24"/>
+        <v>501</v>
+      </c>
+      <c r="C98" s="173" t="s">
+        <v>612</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>613</v>
+      </c>
       <c r="E98" s="84"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="67"/>
     </row>
-    <row r="99" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A99" s="68"/>
-      <c r="B99" s="160" t="s">
-        <v>210</v>
-      </c>
-      <c r="C99" s="161"/>
-      <c r="D99" s="162"/>
-      <c r="E99" s="86"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="69"/>
-    </row>
-    <row r="100" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A100" s="71">
-        <f t="shared" ref="A100:A103" ca="1" si="7">IF(OFFSET(A100,-1,0) ="",OFFSET(A100,-2,0)+1,OFFSET(A100,-1,0)+1 )</f>
+    <row r="99" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A99" s="65">
+        <f t="shared" ca="1" si="8"/>
         <v>73</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C99" s="173" t="s">
+        <v>614</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="E99" s="84"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="67"/>
+    </row>
+    <row r="100" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A100" s="65">
+        <f t="shared" ca="1" si="8"/>
+        <v>74</v>
+      </c>
       <c r="B100" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="24"/>
+        <v>503</v>
+      </c>
+      <c r="C100" s="173" t="s">
+        <v>616</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>617</v>
+      </c>
       <c r="E100" s="84"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="26"/>
-    </row>
-    <row r="101" spans="1:9" s="27" customFormat="1" ht="25.5">
-      <c r="A101" s="71">
-        <f t="shared" ca="1" si="7"/>
-        <v>74</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="26"/>
-    </row>
-    <row r="102" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="I100" s="67"/>
+    </row>
+    <row r="101" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A101" s="68"/>
+      <c r="B101" s="160" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" s="161"/>
+      <c r="D101" s="162"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="69"/>
+    </row>
+    <row r="102" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A102" s="71">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="A102:A109" ca="1" si="9">IF(OFFSET(A102,-1,0) ="",OFFSET(A102,-2,0)+1,OFFSET(A102,-1,0)+1 )</f>
         <v>75</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="24"/>
+        <v>513</v>
+      </c>
+      <c r="C102" s="173" t="s">
+        <v>618</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>622</v>
+      </c>
       <c r="E102" s="84"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="26"/>
     </row>
-    <row r="103" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="103" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A103" s="71">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>76</v>
       </c>
-      <c r="B103" s="54" t="s">
-        <v>511</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="24"/>
+      <c r="B103" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C103" s="173" t="s">
+        <v>624</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>623</v>
+      </c>
       <c r="E103" s="84"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="26"/>
     </row>
-    <row r="104" spans="1:9" ht="12.75">
-      <c r="E104" s="87"/>
-    </row>
-    <row r="105" spans="1:9" ht="12.75">
-      <c r="E105" s="87"/>
-    </row>
-    <row r="106" spans="1:9" ht="12.75">
-      <c r="E106" s="87"/>
-    </row>
-    <row r="107" spans="1:9" ht="12.75">
-      <c r="E107" s="87"/>
-    </row>
-    <row r="108" spans="1:9" ht="12.75">
-      <c r="E108" s="87"/>
-    </row>
-    <row r="109" spans="1:9" ht="12.75">
-      <c r="E109" s="87"/>
+    <row r="104" spans="1:9" s="27" customFormat="1" ht="63.75">
+      <c r="A104" s="71">
+        <f t="shared" ca="1" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C104" s="173" t="s">
+        <v>625</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="E104" s="84"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="26"/>
+    </row>
+    <row r="105" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A105" s="71">
+        <f t="shared" ca="1" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C105" s="173" t="s">
+        <v>627</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="E105" s="84"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="26"/>
+    </row>
+    <row r="106" spans="1:9" s="27" customFormat="1" ht="25.5">
+      <c r="A106" s="71">
+        <f t="shared" ca="1" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="C106" s="173" t="s">
+        <v>629</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="E106" s="84"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="26"/>
+    </row>
+    <row r="107" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A107" s="71">
+        <f t="shared" ca="1" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="B107" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="C107" s="173" t="s">
+        <v>630</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E107" s="84"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="26"/>
+    </row>
+    <row r="108" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A108" s="71">
+        <f t="shared" ca="1" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="B108" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="C108" s="173" t="s">
+        <v>636</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E108" s="84"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="26"/>
+    </row>
+    <row r="109" spans="1:9" s="27" customFormat="1" ht="63.75">
+      <c r="A109" s="71">
+        <f t="shared" ca="1" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="B109" s="54" t="s">
+        <v>635</v>
+      </c>
+      <c r="C109" s="173" t="s">
+        <v>633</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E109" s="84"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="26"/>
     </row>
     <row r="110" spans="1:9" ht="12.75">
       <c r="E110" s="87"/>
@@ -34507,14 +35554,476 @@
     <row r="976" spans="5:5" ht="12.75">
       <c r="E976" s="87"/>
     </row>
+    <row r="977" spans="5:5" ht="12.75">
+      <c r="E977" s="87"/>
+    </row>
+    <row r="978" spans="5:5" ht="12.75">
+      <c r="E978" s="87"/>
+    </row>
+    <row r="979" spans="5:5" ht="12.75">
+      <c r="E979" s="87"/>
+    </row>
+    <row r="980" spans="5:5" ht="12.75">
+      <c r="E980" s="87"/>
+    </row>
+    <row r="981" spans="5:5" ht="12.75">
+      <c r="E981" s="87"/>
+    </row>
+    <row r="982" spans="5:5" ht="12.75">
+      <c r="E982" s="87"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A20:I109"/>
   <mergeCells count="12">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="F38 F41:F42 F20:H36 F44 F94:H96 F77:H83 F68:H74 F85:H92 F98:H109 F50:H66 G38:H39 G41:H48 F40:H40 F46:F48">
+      <formula1>$A$11:$A$15</formula1>
+    </dataValidation>
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F75:H76 F93:H93 F84:H84 F37:H37 F67:H67 F18:H19 F49:H49 F97:H97"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="12" style="36" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="37" customWidth="1"/>
+    <col min="3" max="4" width="35.140625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="37" customWidth="1"/>
+    <col min="6" max="8" width="9.7109375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
+      <c r="A1" s="152"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" s="9" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="X4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="9" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="X5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="9" customFormat="1" ht="25.5">
+      <c r="A6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:24" s="9" customFormat="1">
+      <c r="A7" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="158" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" s="12" customFormat="1">
+      <c r="A8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:24" s="12" customFormat="1">
+      <c r="A9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f>F17</f>
+        <v>Internal Build 03112011</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <f>G17</f>
+        <v>Internal build 14112011</v>
+      </c>
+      <c r="D9" s="13" t="str">
+        <f>H17</f>
+        <v>External build 16112011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="12" customFormat="1">
+      <c r="A10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <f>SUM(B11:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <f>SUM(C11:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <f>SUM(D11:D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="12" customFormat="1">
+      <c r="A11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15">
+        <f>COUNTIF($F$18:$F$21,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <f>COUNTIF($G$18:$G$21,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <f>COUNTIF($H$18:$H$21,"*Passed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="12" customFormat="1">
+      <c r="A12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15">
+        <f>COUNTIF($F$18:$F$21,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <f>COUNTIF($G$18:$G$21,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <f>COUNTIF($H$18:$H$21,"*Failed*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="12" customFormat="1">
+      <c r="A13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15">
+        <f>COUNTIF($F$18:$F$21,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <f>COUNTIF($G$18:$G$21,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <f>COUNTIF($H$18:$H$21,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" s="12" customFormat="1">
+      <c r="A14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="15">
+        <f>COUNTIF($F$18:$F$21,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <f>COUNTIF($G$18:$G$21,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <f>COUNTIF($H$18:$H$21,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" s="12" customFormat="1" ht="38.25">
+      <c r="A15" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15">
+        <f>COUNTIF($F$18:$F$21,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <f>COUNTIF($G$18:$G$21,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <f>COUNTIF($H$18:$H$21,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" s="21" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
+      <c r="A17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="149" t="s">
+        <v>637</v>
+      </c>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A20" s="2">
+        <f t="shared" ref="A20:A23" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" s="27" customFormat="1" ht="51">
+      <c r="A21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B99:D99"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
@@ -34523,11 +36032,11 @@
     <mergeCell ref="B5:D5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="F45:F49 F84:H90 F20:H36 F69:H74 G38:H49 F38 F40:F41 F51:H67 F43 F77:H82 F92:H94 F96:H103">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18"/>
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
+    <dataValidation type="list" allowBlank="1" sqref="F19:H23">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F75:H76 F91:H91 F83:H83 F37:H37 F68:H68 F18:H19 F50:H50 F95:H95"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
+++ b/Test Design Techniques - Nguyễn Thị Vân Anh.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assignment 1'!$A$17:$X$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Assignment 2'!$A$19:$Z$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Assignment 3'!$A$17:$X$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Assignment 4'!$A$20:$I$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Assignment 4'!$A$20:$I$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Assignment 5'!$A$17:$X$17</definedName>
     <definedName name="abc" localSheetId="0">#REF!</definedName>
     <definedName name="abc" localSheetId="1">#REF!</definedName>
@@ -546,7 +546,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="705">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -2326,72 +2326,18 @@
 4. Click on Sign up button</t>
   </si>
   <si>
-    <t xml:space="preserve">When the user enters less than 2 characters  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user enters 2 characters  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user enters greater than 2 and less than 50 characters  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user enters 10 numeric characters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user enters less than 5 characters  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user enters 5 characters  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user enters greater than 5 and less than 350 characters  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user enters 350 characters  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the user enters greater than 350 characters  </t>
-  </si>
-  <si>
     <t>Check Copy/Paste Address</t>
   </si>
   <si>
     <t>When the user selects a Province</t>
   </si>
   <si>
-    <t>Check scroll bar of Province</t>
-  </si>
-  <si>
     <t>When the user selects a District</t>
   </si>
   <si>
-    <t>Check scroll bar of District</t>
-  </si>
-  <si>
-    <t>Check scroll bar of Ward</t>
-  </si>
-  <si>
     <t>When the user selects a Ward</t>
   </si>
   <si>
-    <t>When Home is in default status</t>
-  </si>
-  <si>
-    <t>When Home is unchecked</t>
-  </si>
-  <si>
-    <t>When Home is checked</t>
-  </si>
-  <si>
-    <t>When Office is in default status</t>
-  </si>
-  <si>
-    <t>When Office is unchecked</t>
-  </si>
-  <si>
-    <t>When Office is checked</t>
-  </si>
-  <si>
     <t>Check Home button</t>
   </si>
   <si>
@@ -2408,9 +2354,6 @@
   </si>
   <si>
     <t>Add address fail when the user clicks on the Cancel button</t>
-  </si>
-  <si>
-    <t>Check default value</t>
   </si>
   <si>
     <t xml:space="preserve">Special characters:
@@ -2419,9 +2362,6 @@
 - SQL injection </t>
   </si>
   <si>
-    <t>Check mandatory</t>
-  </si>
-  <si>
     <t>New address as home can be added successfully when all fields are entered valid values</t>
   </si>
   <si>
@@ -2435,80 +2375,22 @@
   </si>
   <si>
     <t>1. Observe the display of the Full Name</t>
-  </si>
-  <si>
-    <t>1. Don't enter value 
-2. Enter other fields are valid
-3. Click on "Save" button</t>
   </si>
   <si>
     <t>Full Name is blank 
 The placeholder is "First Last"</t>
   </si>
   <si>
-    <t>1. Enter "Nguyen Thi Van Anh"
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
     <t>System will show error message "Please enter your Full name"</t>
   </si>
   <si>
-    <t>1. Enter "^&amp;*"
-2. Click on Close (x) button
-3. Enter HTML code: &lt;!DOCTYPE html&gt;&lt;html&gt;&lt;body&gt;&lt;h1&gt;Học lập trình HTML&lt;/h1&gt;&lt;/body&gt;&lt;/html&gt;
-4. Click on Close (x) button
-5. Enter javascript: &lt;script src="myScript.js"&gt;&lt;/script&gt;
-6. Click on Close (x) button
-7. Enter SQL injection: SELECT * FROM Users WHERE Username = 'Vanh' AND Password = '12345678'</t>
-  </si>
-  <si>
     <t>System will show error message "Name should not contain special characters"</t>
   </si>
   <si>
-    <t>1. Enter "12345678"
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
-    <t>1. Enter "Vanh1234"
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
-    <t>1. Enter "123$%^"</t>
-  </si>
-  <si>
-    <t>1. Enter "Vanh$%^"</t>
-  </si>
-  <si>
-    <t>1. Enter "Vanh1234%^&amp;"</t>
-  </si>
-  <si>
     <t>Allow Copy/Paste Full Name</t>
   </si>
   <si>
-    <t>1. Enter " Nguyen Thi Van Anh "
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
     <t>'System will show error message "The name length should be 2-50 characters"</t>
-  </si>
-  <si>
-    <t>1. Enter 2 characters (valid Full Name)
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
-    <t>1. Enter 3 characters (valid Full Name)
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
-    <t>1. Enter 50 characters (valid Full Name)
-2. Enter other fields are valid
-3. Click on "Save" button</t>
   </si>
   <si>
     <t>1. Observe the display of the Phone Number</t>
@@ -2524,37 +2406,7 @@
 The placeholder is "Please enter your Phone number"</t>
   </si>
   <si>
-    <t>1. Enter any character
-2. Click on close (x) button</t>
-  </si>
-  <si>
-    <t>1. Enter "^&amp;*"
-2. Enter HTML code: &lt;!DOCTYPE html&gt;&lt;html&gt;&lt;body&gt;&lt;h1&gt;Học lập trình HTML&lt;/h1&gt;&lt;/body&gt;&lt;/html&gt;
-3. Enter javascript: &lt;script src="myScript.js"&gt;&lt;/script&gt;
-4. Enter SQL injection: SELECT * FROM Users WHERE Username = 'Vanh' AND Password = '12345678'</t>
-  </si>
-  <si>
-    <t>1. Enter "0981980721"
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
-    <t>1. Enter " 0981 980 721 "</t>
-  </si>
-  <si>
     <t>System will show error message "The length of phone number should be 10 characters"</t>
-  </si>
-  <si>
-    <t>1. Enter "123"</t>
-  </si>
-  <si>
-    <t>1. Enter "09819807211"</t>
-  </si>
-  <si>
-    <t>1. Enter "Nguyen Thi Van Anh"</t>
-  </si>
-  <si>
-    <t>1. Enter "0981980721"</t>
   </si>
   <si>
     <t>1. Observe the display of the Address</t>
@@ -2570,50 +2422,13 @@
 The placeholder is "Please enter your Address"</t>
   </si>
   <si>
-    <t>1. Enter "Đường Láng"
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
     <t>System will show error message "The Address should not contain special characters"</t>
   </si>
   <si>
-    <t>1. Enter " Đường Láng "
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
     <t>'System will show error message "The Address length should be 5-350 characters"</t>
   </si>
   <si>
     <t>System will show error message "The Address length should be 5-350 characters"</t>
-  </si>
-  <si>
-    <t>1. Enter 5 characters (valid Address)
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
-    <t>1. Enter 6 characters (valid Address)
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
-    <t>1. Enter 350 characters (valid Address)
-2. Enter other fields are valid
-3. Click on "Save" button</t>
-  </si>
-  <si>
-    <t>1. Enter 4 characters</t>
-  </si>
-  <si>
-    <t>1. Enter 351 characters</t>
-  </si>
-  <si>
-    <t>1. Enter 1 character</t>
-  </si>
-  <si>
-    <t>1. Enter 51 characters</t>
   </si>
   <si>
     <t>System will show error message "Please select your Province"</t>
@@ -2623,26 +2438,11 @@
 The placeholder is "Please choose your Province"</t>
   </si>
   <si>
-    <t>Sorting trong lazada trình bày khó</t>
-  </si>
-  <si>
-    <t>There is a scrollbar when the list of Province exceeds the display frame</t>
-  </si>
-  <si>
-    <t>There are 63 provinces of VN</t>
-  </si>
-  <si>
     <t>Do not allow paste, allow copy Province</t>
-  </si>
-  <si>
-    <t>1. Click on Province</t>
   </si>
   <si>
     <t>1. Click on Province
 2. Observe the display of dropdown list</t>
-  </si>
-  <si>
-    <t>1. Click on District</t>
   </si>
   <si>
     <t>1. Don't select value
@@ -2665,282 +2465,671 @@
     <t>Check Copy/Paste District</t>
   </si>
   <si>
-    <t>1. Paste value
+    <t>1. Observe the display of the Province</t>
+  </si>
+  <si>
+    <t>1. Select a Province
+2. Observe the display of the District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District is blank and disable
+The placeholder is "Please choose your District"
+</t>
+  </si>
+  <si>
+    <t>District is enable</t>
+  </si>
+  <si>
+    <t>System will show error message "Please select your District"</t>
+  </si>
+  <si>
+    <t>1. Click on District
+2. Select a District
+3. Enter other fields are valid
+4. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>Do not allow paste, allow copy District</t>
+  </si>
+  <si>
+    <t>1. Click on District
+2. Observe the display of dropdown list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ward is blank and disable
+The placeholder is "Please choose your Ward"
+</t>
+  </si>
+  <si>
+    <t>Ward is enable</t>
+  </si>
+  <si>
+    <t>1. Click on Ward
+2. Observe the display of dropdown list</t>
+  </si>
+  <si>
+    <t>System will show error message "Please select your Ward"</t>
+  </si>
+  <si>
+    <t>1. Click on Ward
+2. Select a Ward
+3. Enter other fields are valid
+4. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>Do not allow paste, allow copy Ward</t>
+  </si>
+  <si>
+    <t>1. Select a District
+2. Observe the display of the Ward</t>
+  </si>
+  <si>
+    <t>1. Observe the display of the Home button</t>
+  </si>
+  <si>
+    <t>Home button is enable and unchecked</t>
+  </si>
+  <si>
+    <t>Icon on Home button is gray</t>
+  </si>
+  <si>
+    <t>1. Don’t click on Home button
+2. Observe the display of the Home button</t>
+  </si>
+  <si>
+    <t>1. Click on Home button
+2. Observe the display of Home button</t>
+  </si>
+  <si>
+    <t>Icon on Home button is hightlighted</t>
+  </si>
+  <si>
+    <t>1. Observe the display of the Office button</t>
+  </si>
+  <si>
+    <t>Office button is enable and unchecked</t>
+  </si>
+  <si>
+    <t>1. Don’t click on Office button
+2. Observe the display of the Office button</t>
+  </si>
+  <si>
+    <t>Icon on Office button is gray</t>
+  </si>
+  <si>
+    <t>1. Click on Office button
+2. Observe the display of Office button</t>
+  </si>
+  <si>
+    <t>Icon on Office button is hightlighted</t>
+  </si>
+  <si>
+    <t>1. Enter all fields are valid
+2. Select Home button
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book</t>
+  </si>
+  <si>
+    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book, automatic delete all leading, trailing spaces from Full Name</t>
+  </si>
+  <si>
+    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book, automatic delete all leading, trailing spaces from Address</t>
+  </si>
+  <si>
+    <t>Add new address as home successfully, return to Address book screen, new address will be displayed on the top of Address Book</t>
+  </si>
+  <si>
+    <t>Add new address as office successfully, return to Address book screen, new address will be displayed on the top of Address Book</t>
+  </si>
+  <si>
+    <t>1. Enter all fields are valid
+2. Select Office button
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Enter all mandatory fields are valid
+2. Don't Select Office button/Home button
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book
+Two button: Home and Office are displayed at the created address</t>
+  </si>
+  <si>
+    <t>1. Enter all fields are invalid
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>Add address fail, the system will display the corresponding error message below each field</t>
+  </si>
+  <si>
+    <t>1. Enter value into fields
+2. Click on Cancel button</t>
+  </si>
+  <si>
+    <t>Precondition: The user added 1 address
+1. Enter the value of all fields same previous address
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>Add address fail, return to Address book screen</t>
+  </si>
+  <si>
+    <t>When the user adds duplicate addresses</t>
+  </si>
+  <si>
+    <t>Precondition: The user added 1 address
+1. Enter Full Name and Phone number are same Previous address
+2. Enter other fields are different
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>When the user adds a new address completely different from the previous one</t>
+  </si>
+  <si>
+    <t>When the user adds a new address with the same consignee as the previous address</t>
+  </si>
+  <si>
+    <t>Precondition: The user added 1 address
+1. Enter the value of all fields are different previous address
+2. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Check Delete Address function</t>
+  </si>
+  <si>
+    <t>Verify that a confirmation pop-up is displayed when the user click on Delete icon</t>
+  </si>
+  <si>
+    <t>Delete address successfully when the user click on Delete button on pop-up</t>
+  </si>
+  <si>
+    <t>Delete address fail when the user click on Cancel button on pop-up</t>
+  </si>
+  <si>
+    <t>Verify that the user cannot delete default address</t>
+  </si>
+  <si>
+    <t>Show error message "You cannot delete your default address"</t>
+  </si>
+  <si>
+    <t>Delete address successfully, this address is not displayed in Address Book anymore</t>
+  </si>
+  <si>
+    <t>1. Select an address
+1. Click on Delete icon</t>
+  </si>
+  <si>
+    <t>1. Select an address that is not default address
+2. Click on Delete icon
+3. Click on Delete button on pop-up</t>
+  </si>
+  <si>
+    <t>1. Select an address
+2. Click on Delete icon
+3. Click on Delete button on pop-up</t>
+  </si>
+  <si>
+    <t>1. Select default address
+2. Click on Delete icon
+3. Click on Delete button on pop-up</t>
+  </si>
+  <si>
+    <t>1. Select an address
+2. Click on Delete icon
+3. Click on Cancel button on pop-up</t>
+  </si>
+  <si>
+    <t>Delete address fail, return to the Edit address screen</t>
+  </si>
+  <si>
+    <t>Delete address fail when the user click on Close (x) icon on pop-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A confirmation pop-up is displayed
+This pop up shows selected address information correctly </t>
+  </si>
+  <si>
+    <t>Show "123"
+Allow Copy/Paste only numeric characters</t>
+  </si>
+  <si>
+    <t>All will show error message "The Address should not contain special characters"</t>
+  </si>
+  <si>
+    <t>Precondition: The user don't select District
+1. Observe the display of the Ward</t>
+  </si>
+  <si>
+    <t>Precondition: The user don't select Province
+1. Observe the display of the District</t>
+  </si>
+  <si>
+    <t>Delete address fail when the user pressed ESC key from keyboard</t>
+  </si>
+  <si>
+    <t>1. Select an address
+2. Click on Delete icon
+3.  Pressed ESC key from keyboard</t>
+  </si>
+  <si>
+    <t>Check default value of Full Name</t>
+  </si>
+  <si>
+    <t>Check mandatory of Ful Name</t>
+  </si>
+  <si>
+    <t>1. Don't enter value into the Full Name
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter any character into the Full Name
+2. Click on Clear all button</t>
+  </si>
+  <si>
+    <t>1. Enter "Nguyen Thi Van Anh" into the Full Name
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter "^&amp;*" into the Full Name
+2. Click on Clear all button
+3. Enter HTML code: &lt;!DOCTYPE html&gt;&lt;html&gt;&lt;body&gt;&lt;h1&gt;Học lập trình HTML&lt;/h1&gt;&lt;/body&gt;&lt;/html&gt; into the Full Name
+4. Click on Clear all button
+5. Enter javascript: &lt;script src="myScript.js"&gt;&lt;/script&gt; into the Full Name
+6. Click on Clear all button
+7. Enter SQL injection: SELECT * FROM Users WHERE Username = 'Vanh' AND Password = '12345678' into the Full Name</t>
+  </si>
+  <si>
+    <t>Check Full Name when the user clicks on Clear all button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters only alphabetic characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters only special characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters only numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters alphabetic and numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters numeric and special characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters alphabetic and special characters  </t>
+  </si>
+  <si>
+    <t>Check Full Name when the user enters alphabetic, numeric and special characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters less than 2 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters 2 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters greater than 2 and less than 50 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters 50 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Full Name when the user enters greater than 50 characters  </t>
+  </si>
+  <si>
+    <t>1. Enter "12345678" into the Full Name
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter "Vanh1234" into the Full Name
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter "123$%^" into the Full Name</t>
+  </si>
+  <si>
+    <t>1. Enter "Vanh$%^" into the Full Name</t>
+  </si>
+  <si>
+    <t>1. Enter "Vanh1234%^&amp;" into the Full Name</t>
+  </si>
+  <si>
+    <t>1.Copy/Paste "abc123$%^" into the Full Name</t>
+  </si>
+  <si>
+    <t>1. Enter " Nguyen Thi Van Anh " into the Full Name
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 1 character into the Full Name</t>
+  </si>
+  <si>
+    <t>1. Enter 2 characters (valid Full Name) into the Full Name
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 3 characters (valid Full Name) into the Full Name
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 50 characters (valid Full Name) into the Full Name
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 51 characters into the Full Name</t>
+  </si>
+  <si>
+    <t>Check Trim space of Full Name</t>
+  </si>
+  <si>
+    <t>Check Phone Number when the user clicks on Clear all button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Phone Number when the user enters alphabetic characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Phone Number when the user enters special characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Phone Number when the user enters numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Phone Number when the user enters less than 10 numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Phone Number when the user enters 10 numeric characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Phone Number when the user enters greater than 10 numeric characters  </t>
+  </si>
+  <si>
+    <t>Check default value of Phone Number</t>
+  </si>
+  <si>
+    <t>Check mandatory of Phone Number</t>
+  </si>
+  <si>
+    <t>Check Trim space of Phone Number</t>
+  </si>
+  <si>
+    <t>1. Don't enter value into the Phone Number
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter any character  into the Phone Number
+2. Click on Clear all button</t>
+  </si>
+  <si>
+    <t>1. Enter "Nguyen Thi Van Anh"  into the Phone Number</t>
+  </si>
+  <si>
+    <t>1. Enter "^&amp;*"  into the Phone Number
+2. Enter HTML code: &lt;!DOCTYPE html&gt;&lt;html&gt;&lt;body&gt;&lt;h1&gt;Học lập trình HTML&lt;/h1&gt;&lt;/body&gt;&lt;/html&gt;  into the Phone Number
+3. Enter javascript: &lt;script src="myScript.js"&gt;&lt;/script&gt; into the Phone Number
+4. Enter SQL injection: SELECT * FROM Users WHERE Username = 'Vanh' AND Password = '12345678'  into the Phone Number</t>
+  </si>
+  <si>
+    <t>1. Enter "0981980721"  into the Phone Number</t>
+  </si>
+  <si>
+    <t>1.Copy/Paste "abc123$%^"  into the Phone Number</t>
+  </si>
+  <si>
+    <t>1. Enter " 0981 980 721 "  into the Phone Number</t>
+  </si>
+  <si>
+    <t>1. Enter "123"  into the Phone Number</t>
+  </si>
+  <si>
+    <t>1. Enter "0981980721"  into the Phone Number
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter "09819807211"  into the Phone Number</t>
+  </si>
+  <si>
+    <t>Check default value of Address</t>
+  </si>
+  <si>
+    <t>Check mandatory of Address</t>
+  </si>
+  <si>
+    <t>Check Trim space of Address</t>
+  </si>
+  <si>
+    <t>Check Address when the user clicks on Clear all button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters only alphabetic characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters only special characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters only numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters alphabetic and numeric characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters numeric and special characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters alphabetic and special characters  </t>
+  </si>
+  <si>
+    <t>Check Address when the user enters alphabetic, numeric and special characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters less than 5 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters 5 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters greater than 5 and less than 350 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters 350 characters  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Address when the user enters greater than 350 characters  </t>
+  </si>
+  <si>
+    <t>1. Don't enter value into the Address
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter any character into the Address
+2. Click on Clear all button</t>
+  </si>
+  <si>
+    <t>1. Enter "Đường Láng" into the Address
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter "^&amp;*" into the Address
+2. Click on Clear all button
+3. Enter HTML code: &lt;!DOCTYPE html&gt;&lt;html&gt;&lt;body&gt;&lt;h1&gt;Học lập trình HTML&lt;/h1&gt;&lt;/body&gt;&lt;/html&gt; into the Address
+4. Click on Clear all button
+5. Enter javascript: &lt;script src="myScript.js"&gt;&lt;/script&gt; into the Address
+6. Click on Clear all button
+7. Enter SQL injection: SELECT * FROM Users WHERE Username = 'Vanh' AND Password = '12345678' into the Address</t>
+  </si>
+  <si>
+    <t>1. Enter "12345678" into the Address
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter "Vanh1234" into the Address
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter "123$%^" into the Address</t>
+  </si>
+  <si>
+    <t>1. Enter "Vanh$%^" into the Address</t>
+  </si>
+  <si>
+    <t>1. Enter "Vanh1234%^&amp;" into the Address</t>
+  </si>
+  <si>
+    <t>1.Copy/Paste "abc123$%^" into the Address</t>
+  </si>
+  <si>
+    <t>1. Enter " Đường Láng " into the Address
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 4 characters into the Address</t>
+  </si>
+  <si>
+    <t>1. Enter 5 characters (valid Address) into the Address
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 6 characters (valid Address) into the Address
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 350 characters (valid Address) into the Address
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>1. Enter 351 characters into the Address</t>
+  </si>
+  <si>
+    <t>Check default value of Province</t>
+  </si>
+  <si>
+    <t>Check mandatory of Province</t>
+  </si>
+  <si>
+    <t>Check Province when the user enters from keyboard</t>
+  </si>
+  <si>
+    <t>1. Don't select any Province value
+2. Enter other fields are valid
+3. Click on "Save" button</t>
+  </si>
+  <si>
+    <t>There are 63 provinces of VN that sorted alphabetically
+There is a scrollbar when the list of Province exceeds the display frame</t>
+  </si>
+  <si>
+    <t>1. Paste value into Province
 2. Click on Province
 2. Select a Province
 3. Copy value
 4. Paste into other text fields</t>
   </si>
   <si>
-    <t>1. Enter character</t>
-  </si>
-  <si>
-    <t>1. Observe the display of the Province</t>
-  </si>
-  <si>
-    <t>1. Observe the display of the District</t>
-  </si>
-  <si>
-    <t>1. Select a Province
-2. Observe the display of the District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District is blank and disable
-The placeholder is "Please choose your District"
-</t>
-  </si>
-  <si>
-    <t>District is enable</t>
-  </si>
-  <si>
-    <t>There is a scrollbar when the list of District exceeds the display frame</t>
-  </si>
-  <si>
-    <t>System will show error message "Please select your District"</t>
-  </si>
-  <si>
-    <t>1. Click on District
-2. Select a District
-3. Enter other fields are valid
-4. Click on "Save" button</t>
-  </si>
-  <si>
-    <t>Do not allow paste, allow copy District</t>
-  </si>
-  <si>
-    <t>1. Paste value
+    <t>1. Enter character from keyboard</t>
+  </si>
+  <si>
+    <t>Check default value of District</t>
+  </si>
+  <si>
+    <t>Check mandatory of District</t>
+  </si>
+  <si>
+    <t>Value of Dropdown will be depended on Province value and sorted alphabetically.
+There is a scrollbar when the list of District exceeds the display frame.</t>
+  </si>
+  <si>
+    <t>1. Paste value into District
 2. Click on District
 2. Select a District
 3. Copy value
 4. Paste into other text fields</t>
   </si>
   <si>
-    <t>1. Click on District
-2. Observe the display of dropdown list</t>
-  </si>
-  <si>
-    <t>1.Copy/Paste "abc123$%^"</t>
-  </si>
-  <si>
-    <t>Allow Copy/Paste only numeric characters</t>
-  </si>
-  <si>
-    <t>1. Observe the display of the Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ward is blank and disable
-The placeholder is "Please choose your Ward"
-</t>
-  </si>
-  <si>
-    <t>Ward is enable</t>
-  </si>
-  <si>
-    <t>1. Click on Ward
-2. Observe the display of dropdown list</t>
-  </si>
-  <si>
-    <t>1. Click on Ward</t>
-  </si>
-  <si>
-    <t>There is a scrollbar when the list of Ward exceeds the display frame</t>
-  </si>
-  <si>
-    <t>System will show error message "Please select your Ward"</t>
-  </si>
-  <si>
-    <t>1. Click on Ward
-2. Select a Ward
-3. Enter other fields are valid
-4. Click on "Save" button</t>
-  </si>
-  <si>
-    <t>1. Paste value
+    <t>Check default value of Ward</t>
+  </si>
+  <si>
+    <t>Check mandatory  of Ward</t>
+  </si>
+  <si>
+    <t>Value of Dropdown will be depended on District value and sorted alphabetically
+There is a scrollbar when the list of Ward exceeds the display frame</t>
+  </si>
+  <si>
+    <t>Check dropdown list and scrollbar of Province</t>
+  </si>
+  <si>
+    <t>Check dropdown list and scrollbar of District</t>
+  </si>
+  <si>
+    <t>Check dropdown list and scrollbar of Ward</t>
+  </si>
+  <si>
+    <t>1. Paste value into the Ward
 2. Click on Ward
 2. Select a Ward
 3. Copy value
 4. Paste into other text fields</t>
   </si>
   <si>
-    <t>Do not allow paste, allow copy Ward</t>
-  </si>
-  <si>
-    <t>1. Select a District
-2. Observe the display of the Ward</t>
-  </si>
-  <si>
-    <t>Value of Dropdown will be depended on Province value and sorted alphabetically</t>
-  </si>
-  <si>
-    <t>Value of Dropdown will be depended on District value and sorted alphabetically</t>
-  </si>
-  <si>
-    <t>1. Observe the display of the Home button</t>
-  </si>
-  <si>
-    <t>Home button is enable and unchecked</t>
-  </si>
-  <si>
-    <t>Icon on Home button is gray</t>
-  </si>
-  <si>
-    <t>1. Don’t click on Home button
-2. Observe the display of the Home button</t>
+    <t>Check Home button when Home is in default status</t>
+  </si>
+  <si>
+    <t>Check Home button when Home is unchecked</t>
+  </si>
+  <si>
+    <t>Check Home button when Home is checked</t>
+  </si>
+  <si>
+    <t>Check Office button when Office is in default status</t>
+  </si>
+  <si>
+    <t>Check Office button when Office is unchecked</t>
+  </si>
+  <si>
+    <t>Check Office button when Office is checked</t>
+  </si>
+  <si>
+    <t>Check Home button when the user switches selection from Home to Office</t>
+  </si>
+  <si>
+    <t>Check Home button when the user switches selection from Office to Home</t>
   </si>
   <si>
     <t>1. Click on Home button
-2. Observe the display of Home button</t>
-  </si>
-  <si>
-    <t>Icon on Home button is hightlighted</t>
-  </si>
-  <si>
-    <t>1. Observe the display of the Office button</t>
-  </si>
-  <si>
-    <t>Office button is enable and unchecked</t>
-  </si>
-  <si>
-    <t>1. Don’t click on Office button
-2. Observe the display of the Office button</t>
-  </si>
-  <si>
-    <t>Icon on Office button is gray</t>
+2. Click on Office button
+3. Observe the display of Home button</t>
+  </si>
+  <si>
+    <t>Icon on Home button is not highlighted anymore</t>
+  </si>
+  <si>
+    <t>Icon on Office button is not highlighted anymore</t>
   </si>
   <si>
     <t>1. Click on Office button
-2. Observe the display of Office button</t>
-  </si>
-  <si>
-    <t>Icon on Office button is hightlighted</t>
-  </si>
-  <si>
-    <t>1. Enter all fields are valid
-2. Select Home button
-3. Click on Save button</t>
-  </si>
-  <si>
-    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book</t>
-  </si>
-  <si>
-    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book, automatic delete all leading, trailing spaces from Full Name</t>
-  </si>
-  <si>
-    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book, automatic delete all leading, trailing spaces from Address</t>
-  </si>
-  <si>
-    <t>Add new address as home successfully, return to Address book screen, new address will be displayed on the top of Address Book</t>
-  </si>
-  <si>
-    <t>Add new address as office successfully, return to Address book screen, new address will be displayed on the top of Address Book</t>
-  </si>
-  <si>
-    <t>1. Enter all fields are valid
-2. Select Office button
-3. Click on Save button</t>
-  </si>
-  <si>
-    <t>1. Enter all mandatory fields are valid
-2. Don't Select Office button/Home button
-3. Click on Save button</t>
-  </si>
-  <si>
-    <t>Add new address successfully, return to Address book screen, new address will be displayed on the top of Address Book
-Two button: Home and Office are displayed at the created address</t>
-  </si>
-  <si>
-    <t>1. Enter all fields are invalid
-2. Click on Save button</t>
-  </si>
-  <si>
-    <t>Add address fail, the system will display the corresponding error message below each field</t>
-  </si>
-  <si>
-    <t>1. Enter value into fields
-2. Click on Cancel button</t>
-  </si>
-  <si>
-    <t>Precondition: The user added 1 address
-1. Enter the value of all fields same previous address
-2. Click on Save button</t>
-  </si>
-  <si>
-    <t>Add address fail, return to Address book screen</t>
-  </si>
-  <si>
-    <t>When the user adds duplicate addresses</t>
-  </si>
-  <si>
-    <t>Precondition: The user added 1 address
-1. Enter Full Name and Phone number are same Previous address
-2. Enter other fields are different
-2. Click on Save button</t>
-  </si>
-  <si>
-    <t>When the user adds a new address completely different from the previous one</t>
-  </si>
-  <si>
-    <t>When the user adds a new address with the same consignee as the previous address</t>
-  </si>
-  <si>
-    <t>Precondition: The user added 1 address
-1. Enter the value of all fields are different previous address
-2. Click on Save button</t>
-  </si>
-  <si>
-    <t>1. Check Delete Address function</t>
-  </si>
-  <si>
-    <t>Verify that a confirmation pop-up is displayed when the user click on Delete icon</t>
-  </si>
-  <si>
-    <t>Delete address successfully when the user click on Delete button on pop-up</t>
-  </si>
-  <si>
-    <t>Delete address fail when the user click on Cancel button on pop-up</t>
-  </si>
-  <si>
-    <t>Verify that the user cannot delete default address</t>
-  </si>
-  <si>
-    <t>Show error message "You cannot delete your default address"</t>
-  </si>
-  <si>
-    <t>Delete address successfully, this address is not displayed in Address Book anymore</t>
-  </si>
-  <si>
-    <t>1. Select an address
-1. Click on Delete icon</t>
-  </si>
-  <si>
-    <t>1. Select an address that is not default address
-2. Click on Delete icon
-3. Click on Delete button on pop-up</t>
-  </si>
-  <si>
-    <t>1. Select an address
-2. Click on Delete icon
-3. Click on Delete button on pop-up</t>
-  </si>
-  <si>
-    <t>1. Select default address
-2. Click on Delete icon
-3. Click on Delete button on pop-up</t>
-  </si>
-  <si>
-    <t>1. Select an address
-2. Click on Delete icon
-3. Click on Cancel button on pop-up</t>
-  </si>
-  <si>
-    <t>Delete address fail, return to the Edit address screen</t>
-  </si>
-  <si>
-    <t>Delete address fail when the user click on Close (x) icon on pop-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A confirmation pop-up is displayed
-This pop up shows selected address information correctly </t>
+2. Click on Home button
+3. Observe the display of Home button</t>
   </si>
 </sst>
 </file>
@@ -3842,6 +4031,33 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3896,33 +4112,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4250,10 +4439,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="152"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
+      <c r="A1" s="161"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4262,13 +4451,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -4277,9 +4466,9 @@
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="154"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="163"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -4290,11 +4479,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4308,9 +4497,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4324,9 +4513,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4337,11 +4526,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4353,9 +4542,9 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1">
@@ -4498,11 +4687,11 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="148" t="s">
+      <c r="F16" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:16384" s="21" customFormat="1" ht="38.25">
@@ -4536,11 +4725,11 @@
     </row>
     <row r="18" spans="1:16384" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -21389,11 +21578,11 @@
     </row>
     <row r="43" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="30"/>
-      <c r="B43" s="149" t="s">
+      <c r="B43" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="150"/>
-      <c r="D43" s="151"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="160"/>
       <c r="E43" s="31"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -21788,10 +21977,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="152"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
+      <c r="A1" s="161"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="76"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -21799,13 +21988,13 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="163"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="172"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -21813,9 +22002,9 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -21825,11 +22014,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="77"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -21840,9 +22029,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="77"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -21853,9 +22042,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
       <c r="E6" s="77"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -21866,11 +22055,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
       <c r="E7" s="77"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -21881,9 +22070,9 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="77"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -22050,11 +22239,11 @@
       <c r="C16" s="58"/>
       <c r="D16" s="18"/>
       <c r="E16" s="80"/>
-      <c r="F16" s="148" t="s">
+      <c r="F16" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
@@ -22088,11 +22277,11 @@
     </row>
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="59"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="169" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="82"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -23775,7 +23964,7 @@
         <v>326</v>
       </c>
       <c r="D103" s="107" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="E103" s="84"/>
       <c r="F103" s="1"/>
@@ -24071,11 +24260,11 @@
     </row>
     <row r="119" spans="1:26" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="68"/>
-      <c r="B119" s="160" t="s">
+      <c r="B119" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="C119" s="161"/>
-      <c r="D119" s="162"/>
+      <c r="C119" s="170"/>
+      <c r="D119" s="171"/>
       <c r="E119" s="86"/>
       <c r="F119" s="32"/>
       <c r="G119" s="32"/>
@@ -26949,10 +27138,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="152"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
+      <c r="A1" s="161"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="119"/>
       <c r="F1" s="119"/>
       <c r="G1" s="119"/>
@@ -26961,13 +27150,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="166"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="175"/>
       <c r="F2" s="120"/>
       <c r="G2" s="120"/>
       <c r="H2" s="120"/>
@@ -26976,9 +27165,9 @@
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="166"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="175"/>
       <c r="F3" s="120"/>
       <c r="G3" s="120"/>
       <c r="H3" s="120"/>
@@ -26989,11 +27178,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="121"/>
       <c r="F4" s="121"/>
       <c r="G4" s="121"/>
@@ -27007,9 +27196,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="121"/>
       <c r="F5" s="121"/>
       <c r="G5" s="121"/>
@@ -27023,9 +27212,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
       <c r="E6" s="121"/>
       <c r="F6" s="121"/>
       <c r="G6" s="121"/>
@@ -27036,11 +27225,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
       <c r="E7" s="121"/>
       <c r="F7" s="121"/>
       <c r="G7" s="121"/>
@@ -27052,9 +27241,9 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="121"/>
       <c r="F8" s="124"/>
       <c r="G8" s="124"/>
@@ -27221,11 +27410,11 @@
       <c r="C16" s="92"/>
       <c r="D16" s="18"/>
       <c r="E16" s="126"/>
-      <c r="F16" s="165" t="s">
+      <c r="F16" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
       <c r="I16" s="127"/>
     </row>
     <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
@@ -27259,11 +27448,11 @@
     </row>
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="158" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="129"/>
       <c r="F18" s="130"/>
       <c r="G18" s="130"/>
@@ -27291,11 +27480,11 @@
     </row>
     <row r="20" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="158" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="150"/>
-      <c r="D20" s="151"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="129"/>
       <c r="F20" s="130"/>
       <c r="G20" s="130"/>
@@ -30857,17 +31046,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I982"/>
+  <dimension ref="A1:I981"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111:C112"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="36" customWidth="1"/>
     <col min="2" max="2" width="61.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" style="175" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="156" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" style="37" customWidth="1"/>
     <col min="5" max="5" width="32.140625" style="147" customWidth="1"/>
     <col min="6" max="6" width="13" style="37" customWidth="1"/>
@@ -30877,10 +31066,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="152"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
+      <c r="A1" s="161"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="76"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -30888,13 +31077,13 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="163"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="172"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -30902,9 +31091,9 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -30914,11 +31103,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="77"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -30929,9 +31118,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="77"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -30942,11 +31131,11 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="157" t="s">
-        <v>516</v>
-      </c>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
+      <c r="B6" s="166" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
       <c r="E6" s="77"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -30957,11 +31146,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
       <c r="E7" s="77"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -30972,9 +31161,9 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="77"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -30989,7 +31178,7 @@
         <f>F17</f>
         <v>Internal Build 03112011</v>
       </c>
-      <c r="C9" s="167" t="str">
+      <c r="C9" s="148" t="str">
         <f>G17</f>
         <v>Internal build 14112011</v>
       </c>
@@ -31011,7 +31200,7 @@
         <f>SUM(B11:B14)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="170">
+      <c r="C10" s="151">
         <f>SUM(C11:C14)</f>
         <v>0</v>
       </c>
@@ -31030,15 +31219,15 @@
         <v>13</v>
       </c>
       <c r="B11" s="15">
-        <f>COUNTIF($F$18:$F$107,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$106,"*Passed")</f>
         <v>0</v>
       </c>
-      <c r="C11" s="171">
-        <f>COUNTIF($G$18:$G$107,"*Passed")</f>
+      <c r="C11" s="152">
+        <f>COUNTIF($G$18:$G$106,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="15">
-        <f>COUNTIF($H$18:$H$107,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$106,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E11" s="78"/>
@@ -31052,15 +31241,15 @@
         <v>14</v>
       </c>
       <c r="B12" s="15">
-        <f>COUNTIF($F$18:$F$107,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$106,"*Failed*")</f>
         <v>0</v>
       </c>
-      <c r="C12" s="171">
-        <f>COUNTIF($G$18:$G$107,"*Failed*")</f>
+      <c r="C12" s="152">
+        <f>COUNTIF($G$18:$G$106,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <f>COUNTIF($H$18:$H$107,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$106,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="78"/>
@@ -31074,15 +31263,15 @@
         <v>15</v>
       </c>
       <c r="B13" s="15">
-        <f>COUNTIF($F$18:$F$107,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$106,"*Not Run*")</f>
         <v>0</v>
       </c>
-      <c r="C13" s="171">
-        <f>COUNTIF($G$18:$G$107,"*Not Run*")</f>
+      <c r="C13" s="152">
+        <f>COUNTIF($G$18:$G$106,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="15">
-        <f>COUNTIF($H$18:$H$107,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$106,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="79"/>
@@ -31096,15 +31285,15 @@
         <v>16</v>
       </c>
       <c r="B14" s="15">
-        <f>COUNTIF($F$18:$F$107,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$106,"*NA*")</f>
         <v>0</v>
       </c>
-      <c r="C14" s="171">
-        <f>COUNTIF($G$18:$G$107,"*NA*")</f>
+      <c r="C14" s="152">
+        <f>COUNTIF($G$18:$G$106,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="15">
-        <f>COUNTIF($H$18:$H$107,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$106,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="79"/>
@@ -31118,15 +31307,15 @@
         <v>17</v>
       </c>
       <c r="B15" s="15">
-        <f>COUNTIF($F$18:$F$107,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$106,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="171">
-        <f>COUNTIF($G$18:$G$107,"*Passed in previous build*")</f>
+      <c r="C15" s="152">
+        <f>COUNTIF($G$18:$G$106,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="15">
-        <f>COUNTIF($H$18:$H$107,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$106,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="79"/>
@@ -31138,14 +31327,14 @@
     <row r="16" spans="1:9" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="57"/>
       <c r="B16" s="58"/>
-      <c r="C16" s="172"/>
+      <c r="C16" s="153"/>
       <c r="D16" s="18"/>
       <c r="E16" s="80"/>
-      <c r="F16" s="148" t="s">
+      <c r="F16" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
@@ -31155,7 +31344,7 @@
       <c r="B17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="168" t="s">
+      <c r="C17" s="149" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="42" t="s">
@@ -31179,11 +31368,11 @@
     </row>
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="59"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="169" t="s">
         <v>476</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="82"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -31195,7 +31384,7 @@
       <c r="B19" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="169"/>
+      <c r="C19" s="150"/>
       <c r="D19" s="62"/>
       <c r="E19" s="83"/>
       <c r="F19" s="64"/>
@@ -31209,13 +31398,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C20" s="173" t="s">
-        <v>517</v>
+        <v>591</v>
+      </c>
+      <c r="C20" s="154" t="s">
+        <v>497</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="1"/>
@@ -31229,13 +31418,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C21" s="173" t="s">
-        <v>518</v>
+        <v>592</v>
+      </c>
+      <c r="C21" s="154" t="s">
+        <v>593</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="E21" s="84"/>
       <c r="F21" s="1"/>
@@ -31249,10 +31438,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="173" t="s">
-        <v>539</v>
+        <v>597</v>
+      </c>
+      <c r="C22" s="154" t="s">
+        <v>594</v>
       </c>
       <c r="D22" s="70" t="s">
         <v>253</v>
@@ -31269,13 +31458,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="173" t="s">
-        <v>520</v>
+        <v>598</v>
+      </c>
+      <c r="C23" s="154" t="s">
+        <v>595</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E23" s="84"/>
       <c r="F23" s="1"/>
@@ -31283,22 +31472,22 @@
       <c r="H23" s="1"/>
       <c r="I23" s="26"/>
     </row>
-    <row r="24" spans="1:9" s="27" customFormat="1" ht="127.5">
+    <row r="24" spans="1:9" s="27" customFormat="1" ht="153">
       <c r="A24" s="65">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="173" t="s">
-        <v>522</v>
+        <v>599</v>
+      </c>
+      <c r="C24" s="154" t="s">
+        <v>596</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -31311,13 +31500,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="173" t="s">
-        <v>524</v>
+        <v>600</v>
+      </c>
+      <c r="C25" s="154" t="s">
+        <v>610</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E25" s="84"/>
       <c r="F25" s="1"/>
@@ -31331,13 +31520,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="173" t="s">
-        <v>525</v>
+        <v>601</v>
+      </c>
+      <c r="C26" s="154" t="s">
+        <v>611</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E26" s="84"/>
       <c r="F26" s="1"/>
@@ -31351,13 +31540,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="173" t="s">
-        <v>526</v>
+        <v>602</v>
+      </c>
+      <c r="C27" s="154" t="s">
+        <v>612</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="E27" s="84"/>
       <c r="F27" s="1"/>
@@ -31371,13 +31560,13 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="173" t="s">
-        <v>527</v>
+        <v>603</v>
+      </c>
+      <c r="C28" s="154" t="s">
+        <v>613</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="E28" s="84"/>
       <c r="F28" s="1"/>
@@ -31391,13 +31580,13 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="173" t="s">
-        <v>528</v>
+        <v>604</v>
+      </c>
+      <c r="C29" s="154" t="s">
+        <v>614</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="E29" s="84"/>
       <c r="F29" s="1"/>
@@ -31413,11 +31602,11 @@
       <c r="B30" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="173" t="s">
-        <v>591</v>
+      <c r="C30" s="154" t="s">
+        <v>615</v>
       </c>
       <c r="D30" s="107" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="E30" s="84"/>
       <c r="F30" s="1"/>
@@ -31431,13 +31620,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="173" t="s">
-        <v>530</v>
+        <v>622</v>
+      </c>
+      <c r="C31" s="154" t="s">
+        <v>616</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="E31" s="84"/>
       <c r="F31" s="1"/>
@@ -31451,13 +31640,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C32" s="173" t="s">
-        <v>562</v>
+        <v>605</v>
+      </c>
+      <c r="C32" s="154" t="s">
+        <v>617</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="E32" s="84"/>
       <c r="F32" s="1"/>
@@ -31471,13 +31660,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C33" s="173" t="s">
-        <v>532</v>
+        <v>606</v>
+      </c>
+      <c r="C33" s="154" t="s">
+        <v>618</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E33" s="84"/>
       <c r="F33" s="1"/>
@@ -31491,13 +31680,13 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C34" s="173" t="s">
-        <v>533</v>
+        <v>607</v>
+      </c>
+      <c r="C34" s="154" t="s">
+        <v>619</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E34" s="84"/>
       <c r="F34" s="1"/>
@@ -31511,13 +31700,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="173" t="s">
-        <v>534</v>
+        <v>608</v>
+      </c>
+      <c r="C35" s="154" t="s">
+        <v>620</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E35" s="84"/>
       <c r="F35" s="1"/>
@@ -31531,13 +31720,13 @@
         <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="173" t="s">
-        <v>563</v>
+        <v>609</v>
+      </c>
+      <c r="C36" s="154" t="s">
+        <v>621</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E36" s="84"/>
       <c r="F36" s="1"/>
@@ -31550,7 +31739,7 @@
       <c r="B37" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="169"/>
+      <c r="C37" s="150"/>
       <c r="D37" s="62"/>
       <c r="E37" s="83"/>
       <c r="F37" s="64"/>
@@ -31560,17 +31749,17 @@
     </row>
     <row r="38" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A38" s="65">
-        <f t="shared" ref="A38:A92" ca="1" si="2">IF(OFFSET(A38,-1,0) ="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1 )</f>
+        <f t="shared" ref="A38:A89" ca="1" si="2">IF(OFFSET(A38,-1,0) ="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1 )</f>
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C38" s="173" t="s">
-        <v>535</v>
+        <v>630</v>
+      </c>
+      <c r="C38" s="154" t="s">
+        <v>503</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="E38" s="84"/>
       <c r="F38" s="1"/>
@@ -31584,13 +31773,13 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C39" s="173" t="s">
-        <v>518</v>
+        <v>631</v>
+      </c>
+      <c r="C39" s="154" t="s">
+        <v>633</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="E39" s="107"/>
       <c r="F39" s="107"/>
@@ -31604,10 +31793,10 @@
         <v>20</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="173" t="s">
-        <v>539</v>
+        <v>623</v>
+      </c>
+      <c r="C40" s="154" t="s">
+        <v>634</v>
       </c>
       <c r="D40" s="70" t="s">
         <v>253</v>
@@ -31624,10 +31813,10 @@
         <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" s="173" t="s">
-        <v>546</v>
+        <v>624</v>
+      </c>
+      <c r="C41" s="154" t="s">
+        <v>635</v>
       </c>
       <c r="D41" s="103" t="s">
         <v>259</v>
@@ -31638,22 +31827,22 @@
       <c r="H41" s="1"/>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:9" s="27" customFormat="1" ht="89.25">
+    <row r="42" spans="1:9" s="27" customFormat="1" ht="114.75">
       <c r="A42" s="65">
         <f t="shared" ca="1" si="2"/>
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="173" t="s">
-        <v>540</v>
+        <v>625</v>
+      </c>
+      <c r="C42" s="154" t="s">
+        <v>636</v>
       </c>
       <c r="D42" s="96" t="s">
         <v>260</v>
       </c>
       <c r="E42" s="84" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -31666,10 +31855,10 @@
         <v>23</v>
       </c>
       <c r="B43" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="173" t="s">
-        <v>547</v>
+        <v>626</v>
+      </c>
+      <c r="C43" s="154" t="s">
+        <v>637</v>
       </c>
       <c r="D43" s="107" t="s">
         <v>364</v>
@@ -31680,7 +31869,7 @@
       <c r="H43" s="101"/>
       <c r="I43" s="109"/>
     </row>
-    <row r="44" spans="1:9" s="27" customFormat="1" ht="12.75">
+    <row r="44" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A44" s="65">
         <f t="shared" ca="1" si="2"/>
         <v>24</v>
@@ -31688,11 +31877,11 @@
       <c r="B44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="173" t="s">
-        <v>591</v>
+      <c r="C44" s="154" t="s">
+        <v>638</v>
       </c>
       <c r="D44" s="107" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E44" s="85"/>
       <c r="F44" s="1"/>
@@ -31706,10 +31895,10 @@
         <v>25</v>
       </c>
       <c r="B45" s="115" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="174" t="s">
-        <v>542</v>
+        <v>632</v>
+      </c>
+      <c r="C45" s="155" t="s">
+        <v>639</v>
       </c>
       <c r="D45" s="103" t="s">
         <v>265</v>
@@ -31726,13 +31915,13 @@
         <v>26</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C46" s="173" t="s">
-        <v>544</v>
+        <v>627</v>
+      </c>
+      <c r="C46" s="154" t="s">
+        <v>640</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="E46" s="85"/>
       <c r="F46" s="1"/>
@@ -31746,13 +31935,13 @@
         <v>27</v>
       </c>
       <c r="B47" s="101" t="s">
-        <v>485</v>
-      </c>
-      <c r="C47" s="173" t="s">
-        <v>541</v>
+        <v>628</v>
+      </c>
+      <c r="C47" s="154" t="s">
+        <v>641</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E47" s="103"/>
       <c r="F47" s="101"/>
@@ -31766,13 +31955,13 @@
         <v>28</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="173" t="s">
-        <v>545</v>
+        <v>629</v>
+      </c>
+      <c r="C48" s="154" t="s">
+        <v>642</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="E48" s="85"/>
       <c r="F48" s="1"/>
@@ -31785,7 +31974,7 @@
       <c r="B49" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="C49" s="169"/>
+      <c r="C49" s="150"/>
       <c r="D49" s="62"/>
       <c r="E49" s="83"/>
       <c r="F49" s="64"/>
@@ -31799,13 +31988,13 @@
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C50" s="173" t="s">
-        <v>548</v>
+        <v>643</v>
+      </c>
+      <c r="C50" s="154" t="s">
+        <v>508</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="E50" s="84"/>
       <c r="F50" s="1"/>
@@ -31819,13 +32008,13 @@
         <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C51" s="173" t="s">
-        <v>518</v>
+        <v>644</v>
+      </c>
+      <c r="C51" s="154" t="s">
+        <v>659</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="E51" s="84"/>
       <c r="F51" s="1"/>
@@ -31839,10 +32028,10 @@
         <v>31</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="173" t="s">
-        <v>539</v>
+        <v>646</v>
+      </c>
+      <c r="C52" s="154" t="s">
+        <v>660</v>
       </c>
       <c r="D52" s="70" t="s">
         <v>253</v>
@@ -31859,13 +32048,13 @@
         <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="173" t="s">
+        <v>647</v>
+      </c>
+      <c r="C53" s="154" t="s">
+        <v>661</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>552</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>619</v>
       </c>
       <c r="E53" s="84"/>
       <c r="F53" s="1"/>
@@ -31873,22 +32062,22 @@
       <c r="H53" s="1"/>
       <c r="I53" s="26"/>
     </row>
-    <row r="54" spans="1:9" s="27" customFormat="1" ht="127.5">
+    <row r="54" spans="1:9" s="27" customFormat="1" ht="153">
       <c r="A54" s="65">
         <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" s="173" t="s">
-        <v>522</v>
+        <v>648</v>
+      </c>
+      <c r="C54" s="154" t="s">
+        <v>662</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="E54" s="84" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -31901,13 +32090,13 @@
         <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="173" t="s">
-        <v>524</v>
+        <v>649</v>
+      </c>
+      <c r="C55" s="154" t="s">
+        <v>663</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E55" s="84"/>
       <c r="F55" s="1"/>
@@ -31921,13 +32110,13 @@
         <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="173" t="s">
-        <v>525</v>
+        <v>650</v>
+      </c>
+      <c r="C56" s="154" t="s">
+        <v>664</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E56" s="84"/>
       <c r="F56" s="1"/>
@@ -31941,13 +32130,13 @@
         <v>36</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="173" t="s">
-        <v>526</v>
+        <v>651</v>
+      </c>
+      <c r="C57" s="154" t="s">
+        <v>665</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="E57" s="84"/>
       <c r="F57" s="1"/>
@@ -31961,13 +32150,13 @@
         <v>37</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" s="173" t="s">
-        <v>527</v>
+        <v>652</v>
+      </c>
+      <c r="C58" s="154" t="s">
+        <v>666</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="E58" s="84"/>
       <c r="F58" s="1"/>
@@ -31981,13 +32170,13 @@
         <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="173" t="s">
-        <v>528</v>
+        <v>653</v>
+      </c>
+      <c r="C59" s="154" t="s">
+        <v>667</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="E59" s="84"/>
       <c r="F59" s="1"/>
@@ -32001,13 +32190,13 @@
         <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C60" s="173" t="s">
-        <v>591</v>
+        <v>482</v>
+      </c>
+      <c r="C60" s="154" t="s">
+        <v>668</v>
       </c>
       <c r="D60" s="107" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="E60" s="84"/>
       <c r="F60" s="1"/>
@@ -32021,13 +32210,13 @@
         <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="173" t="s">
+        <v>645</v>
+      </c>
+      <c r="C61" s="154" t="s">
+        <v>669</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>554</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>621</v>
       </c>
       <c r="E61" s="84"/>
       <c r="F61" s="1"/>
@@ -32041,13 +32230,13 @@
         <v>41</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C62" s="173" t="s">
-        <v>560</v>
+        <v>654</v>
+      </c>
+      <c r="C62" s="154" t="s">
+        <v>670</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>555</v>
+        <v>513</v>
       </c>
       <c r="E62" s="84"/>
       <c r="F62" s="1"/>
@@ -32061,13 +32250,13 @@
         <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C63" s="173" t="s">
-        <v>557</v>
+        <v>655</v>
+      </c>
+      <c r="C63" s="154" t="s">
+        <v>671</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E63" s="84"/>
       <c r="F63" s="1"/>
@@ -32081,13 +32270,13 @@
         <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C64" s="173" t="s">
-        <v>558</v>
+        <v>656</v>
+      </c>
+      <c r="C64" s="154" t="s">
+        <v>672</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E64" s="84"/>
       <c r="F64" s="1"/>
@@ -32101,13 +32290,13 @@
         <v>44</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C65" s="173" t="s">
-        <v>559</v>
+        <v>657</v>
+      </c>
+      <c r="C65" s="154" t="s">
+        <v>673</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E65" s="84"/>
       <c r="F65" s="1"/>
@@ -32121,13 +32310,13 @@
         <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C66" s="173" t="s">
-        <v>561</v>
+        <v>658</v>
+      </c>
+      <c r="C66" s="154" t="s">
+        <v>674</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="E66" s="84"/>
       <c r="F66" s="1"/>
@@ -32140,7 +32329,7 @@
       <c r="B67" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="C67" s="169"/>
+      <c r="C67" s="150"/>
       <c r="D67" s="62"/>
       <c r="E67" s="83"/>
       <c r="F67" s="64"/>
@@ -32154,13 +32343,13 @@
         <v>46</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C68" s="173" t="s">
-        <v>580</v>
+        <v>675</v>
+      </c>
+      <c r="C68" s="154" t="s">
+        <v>524</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="E68" s="84"/>
       <c r="F68" s="1"/>
@@ -32168,60 +32357,59 @@
       <c r="H68" s="1"/>
       <c r="I68" s="26"/>
     </row>
-    <row r="69" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="69" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A69" s="65">
         <f ca="1">IF(OFFSET(A69,-1,0) ="",OFFSET(A69,-2,0)+1,OFFSET(A69,-1,0)+1 )</f>
         <v>47</v>
       </c>
-      <c r="B69" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="173" t="s">
-        <v>571</v>
-      </c>
-      <c r="D69" s="102" t="s">
-        <v>568</v>
-      </c>
-      <c r="E69" s="84" t="s">
-        <v>566</v>
-      </c>
+      <c r="B69" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C69" s="154" t="s">
+        <v>678</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E69" s="84"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="26"/>
     </row>
-    <row r="70" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="70" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A70" s="65">
-        <f t="shared" ref="A70:A71" ca="1" si="5">IF(OFFSET(A70,-1,0) ="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1 )</f>
+        <f ca="1">IF(OFFSET(A70,-1,0) ="",OFFSET(A70,-2,0)+1,OFFSET(A70,-1,0)+1 )</f>
         <v>48</v>
       </c>
-      <c r="B70" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="C70" s="173" t="s">
-        <v>570</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>567</v>
-      </c>
+      <c r="B70" s="101" t="s">
+        <v>689</v>
+      </c>
+      <c r="C70" s="154" t="s">
+        <v>518</v>
+      </c>
+      <c r="D70" s="102" t="s">
+        <v>679</v>
+      </c>
+      <c r="E70" s="84"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="26"/>
     </row>
-    <row r="71" spans="1:9" s="27" customFormat="1" ht="38.25">
+    <row r="71" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A71" s="65">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="2"/>
         <v>49</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C71" s="173" t="s">
-        <v>573</v>
+      <c r="B71" s="101" t="s">
+        <v>483</v>
+      </c>
+      <c r="C71" s="154" t="s">
+        <v>520</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E71" s="84"/>
       <c r="F71" s="1"/>
@@ -32229,19 +32417,19 @@
       <c r="H71" s="1"/>
       <c r="I71" s="26"/>
     </row>
-    <row r="72" spans="1:9" s="27" customFormat="1" ht="51">
+    <row r="72" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A72" s="65">
         <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
-      <c r="B72" s="101" t="s">
-        <v>492</v>
-      </c>
-      <c r="C72" s="173" t="s">
-        <v>574</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>619</v>
+      <c r="B72" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C72" s="154" t="s">
+        <v>680</v>
+      </c>
+      <c r="D72" s="101" t="s">
+        <v>517</v>
       </c>
       <c r="E72" s="84"/>
       <c r="F72" s="1"/>
@@ -32249,19 +32437,19 @@
       <c r="H72" s="1"/>
       <c r="I72" s="26"/>
     </row>
-    <row r="73" spans="1:9" s="27" customFormat="1" ht="63.75">
+    <row r="73" spans="1:9" s="27" customFormat="1" ht="12.75">
       <c r="A73" s="65">
         <f t="shared" ca="1" si="2"/>
         <v>51</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C73" s="173" t="s">
-        <v>578</v>
+      <c r="B73" s="112" t="s">
+        <v>677</v>
+      </c>
+      <c r="C73" s="154" t="s">
+        <v>681</v>
       </c>
       <c r="D73" s="101" t="s">
-        <v>569</v>
+        <v>312</v>
       </c>
       <c r="E73" s="84"/>
       <c r="F73" s="1"/>
@@ -32269,52 +32457,52 @@
       <c r="H73" s="1"/>
       <c r="I73" s="26"/>
     </row>
-    <row r="74" spans="1:9" s="27" customFormat="1" ht="12.75">
-      <c r="A74" s="65">
+    <row r="74" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="43"/>
+      <c r="B74" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="C74" s="150"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="63"/>
+    </row>
+    <row r="75" spans="1:9" s="27" customFormat="1" ht="51">
+      <c r="A75" s="65">
         <f t="shared" ca="1" si="2"/>
         <v>52</v>
       </c>
-      <c r="B74" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="C74" s="173" t="s">
-        <v>579</v>
-      </c>
-      <c r="D74" s="101" t="s">
-        <v>312</v>
-      </c>
-      <c r="E74" s="84"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="26"/>
-    </row>
-    <row r="75" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A75" s="43"/>
-      <c r="B75" s="53" t="s">
-        <v>479</v>
-      </c>
-      <c r="C75" s="169"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="63"/>
-    </row>
-    <row r="76" spans="1:9" s="27" customFormat="1" ht="51">
+      <c r="B75" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C75" s="154" t="s">
+        <v>588</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="E75" s="84"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="26"/>
+    </row>
+    <row r="76" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A76" s="65">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(OFFSET(A76,-1,0) ="",OFFSET(A76,-2,0)+1,OFFSET(A76,-1,0)+1 )</f>
         <v>53</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C76" s="173" t="s">
-        <v>581</v>
+        <v>683</v>
+      </c>
+      <c r="C76" s="154" t="s">
+        <v>519</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="E76" s="84"/>
       <c r="F76" s="1"/>
@@ -32328,13 +32516,13 @@
         <v>54</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C77" s="173" t="s">
-        <v>582</v>
+        <v>490</v>
+      </c>
+      <c r="C77" s="154" t="s">
+        <v>525</v>
       </c>
       <c r="D77" s="102" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="E77" s="84"/>
       <c r="F77" s="1"/>
@@ -32342,38 +32530,38 @@
       <c r="H77" s="1"/>
       <c r="I77" s="26"/>
     </row>
-    <row r="78" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="78" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A78" s="65">
         <f ca="1">IF(OFFSET(A78,-1,0) ="",OFFSET(A78,-2,0)+1,OFFSET(A78,-1,0)+1 )</f>
         <v>55</v>
       </c>
       <c r="B78" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="C78" s="173" t="s">
-        <v>590</v>
+        <v>690</v>
+      </c>
+      <c r="C78" s="154" t="s">
+        <v>531</v>
       </c>
       <c r="D78" s="84" t="s">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="26"/>
     </row>
-    <row r="79" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="79" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A79" s="65">
-        <f t="shared" ref="A79:A80" ca="1" si="6">IF(OFFSET(A79,-1,0) ="",OFFSET(A79,-2,0)+1,OFFSET(A79,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="2"/>
         <v>56</v>
       </c>
-      <c r="B79" s="54" t="s">
-        <v>495</v>
-      </c>
-      <c r="C79" s="173" t="s">
-        <v>572</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>585</v>
+      <c r="B79" s="101" t="s">
+        <v>484</v>
+      </c>
+      <c r="C79" s="154" t="s">
+        <v>529</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>552</v>
       </c>
       <c r="E79" s="84"/>
       <c r="F79" s="1"/>
@@ -32381,19 +32569,19 @@
       <c r="H79" s="1"/>
       <c r="I79" s="26"/>
     </row>
-    <row r="80" spans="1:9" s="27" customFormat="1" ht="38.25">
+    <row r="80" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A80" s="65">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="2"/>
         <v>57</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C80" s="173" t="s">
-        <v>573</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>586</v>
+        <v>523</v>
+      </c>
+      <c r="C80" s="154" t="s">
+        <v>685</v>
+      </c>
+      <c r="D80" s="101" t="s">
+        <v>530</v>
       </c>
       <c r="E80" s="84"/>
       <c r="F80" s="1"/>
@@ -32401,19 +32589,19 @@
       <c r="H80" s="1"/>
       <c r="I80" s="26"/>
     </row>
-    <row r="81" spans="1:9" s="27" customFormat="1" ht="51">
+    <row r="81" spans="1:9" s="27" customFormat="1" ht="12.75">
       <c r="A81" s="65">
         <f t="shared" ca="1" si="2"/>
         <v>58</v>
       </c>
-      <c r="B81" s="101" t="s">
-        <v>494</v>
-      </c>
-      <c r="C81" s="173" t="s">
-        <v>587</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>619</v>
+      <c r="B81" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="154" t="s">
+        <v>681</v>
+      </c>
+      <c r="D81" s="101" t="s">
+        <v>312</v>
       </c>
       <c r="E81" s="84"/>
       <c r="F81" s="1"/>
@@ -32421,39 +32609,32 @@
       <c r="H81" s="1"/>
       <c r="I81" s="26"/>
     </row>
-    <row r="82" spans="1:9" s="27" customFormat="1" ht="63.75">
-      <c r="A82" s="65">
+    <row r="82" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A82" s="43"/>
+      <c r="B82" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="C82" s="150"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="63"/>
+    </row>
+    <row r="83" spans="1:9" s="27" customFormat="1" ht="51">
+      <c r="A83" s="65">
         <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C82" s="173" t="s">
-        <v>589</v>
-      </c>
-      <c r="D82" s="101" t="s">
-        <v>588</v>
-      </c>
-      <c r="E82" s="84"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="26"/>
-    </row>
-    <row r="83" spans="1:9" s="27" customFormat="1" ht="12.75">
-      <c r="A83" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="B83" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="C83" s="173" t="s">
-        <v>579</v>
-      </c>
-      <c r="D83" s="101" t="s">
-        <v>312</v>
+      <c r="B83" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C83" s="154" t="s">
+        <v>587</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>532</v>
       </c>
       <c r="E83" s="84"/>
       <c r="F83" s="1"/>
@@ -32461,32 +32642,39 @@
       <c r="H83" s="1"/>
       <c r="I83" s="26"/>
     </row>
-    <row r="84" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="43"/>
-      <c r="B84" s="53" t="s">
-        <v>480</v>
-      </c>
-      <c r="C84" s="169"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="63"/>
-    </row>
-    <row r="85" spans="1:9" s="27" customFormat="1" ht="51">
+    <row r="84" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A84" s="65">
+        <f ca="1">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
+        <v>60</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C84" s="154" t="s">
+        <v>519</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="E84" s="84"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="26"/>
+    </row>
+    <row r="85" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A85" s="65">
         <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C85" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>594</v>
+        <v>489</v>
+      </c>
+      <c r="C85" s="154" t="s">
+        <v>538</v>
+      </c>
+      <c r="D85" s="102" t="s">
+        <v>533</v>
       </c>
       <c r="E85" s="84"/>
       <c r="F85" s="1"/>
@@ -32494,19 +32682,19 @@
       <c r="H85" s="1"/>
       <c r="I85" s="26"/>
     </row>
-    <row r="86" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="86" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A86" s="65">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(OFFSET(A86,-1,0) ="",OFFSET(A86,-2,0)+1,OFFSET(A86,-1,0)+1 )</f>
         <v>62</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C86" s="173" t="s">
-        <v>603</v>
-      </c>
-      <c r="D86" s="102" t="s">
-        <v>595</v>
+      <c r="B86" s="101" t="s">
+        <v>691</v>
+      </c>
+      <c r="C86" s="154" t="s">
+        <v>534</v>
+      </c>
+      <c r="D86" s="84" t="s">
+        <v>688</v>
       </c>
       <c r="E86" s="84"/>
       <c r="F86" s="1"/>
@@ -32514,19 +32702,19 @@
       <c r="H86" s="1"/>
       <c r="I86" s="26"/>
     </row>
-    <row r="87" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="87" spans="1:9" s="27" customFormat="1" ht="51">
       <c r="A87" s="65">
-        <f ca="1">IF(OFFSET(A87,-1,0) ="",OFFSET(A87,-2,0)+1,OFFSET(A87,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="2"/>
         <v>63</v>
       </c>
       <c r="B87" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="173" t="s">
-        <v>596</v>
-      </c>
-      <c r="D87" s="84" t="s">
-        <v>605</v>
+        <v>485</v>
+      </c>
+      <c r="C87" s="154" t="s">
+        <v>536</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>552</v>
       </c>
       <c r="E87" s="84"/>
       <c r="F87" s="1"/>
@@ -32534,19 +32722,19 @@
       <c r="H87" s="1"/>
       <c r="I87" s="26"/>
     </row>
-    <row r="88" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="88" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A88" s="65">
-        <f t="shared" ref="A88:A89" ca="1" si="7">IF(OFFSET(A88,-1,0) ="",OFFSET(A88,-2,0)+1,OFFSET(A88,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
-      <c r="B88" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="C88" s="173" t="s">
-        <v>597</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>598</v>
+      <c r="B88" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C88" s="154" t="s">
+        <v>692</v>
+      </c>
+      <c r="D88" s="101" t="s">
+        <v>537</v>
       </c>
       <c r="E88" s="84"/>
       <c r="F88" s="1"/>
@@ -32554,19 +32742,19 @@
       <c r="H88" s="1"/>
       <c r="I88" s="26"/>
     </row>
-    <row r="89" spans="1:9" s="27" customFormat="1" ht="38.25">
+    <row r="89" spans="1:9" s="27" customFormat="1" ht="12.75">
       <c r="A89" s="65">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="2"/>
         <v>65</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C89" s="173" t="s">
-        <v>573</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>599</v>
+      <c r="B89" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" s="154" t="s">
+        <v>681</v>
+      </c>
+      <c r="D89" s="101" t="s">
+        <v>312</v>
       </c>
       <c r="E89" s="84"/>
       <c r="F89" s="1"/>
@@ -32574,92 +32762,92 @@
       <c r="H89" s="1"/>
       <c r="I89" s="26"/>
     </row>
-    <row r="90" spans="1:9" s="27" customFormat="1" ht="51">
-      <c r="A90" s="65">
-        <f t="shared" ca="1" si="2"/>
+    <row r="90" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A90" s="43"/>
+      <c r="B90" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="C90" s="150"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="63"/>
+    </row>
+    <row r="91" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A91" s="65">
+        <f t="shared" ref="A91:A99" ca="1" si="5">IF(OFFSET(A91,-1,0) ="",OFFSET(A91,-2,0)+1,OFFSET(A91,-1,0)+1 )</f>
         <v>66</v>
       </c>
-      <c r="B90" s="101" t="s">
-        <v>497</v>
-      </c>
-      <c r="C90" s="173" t="s">
-        <v>600</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E90" s="84"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="26"/>
-    </row>
-    <row r="91" spans="1:9" s="27" customFormat="1" ht="63.75">
-      <c r="A91" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
-      </c>
       <c r="B91" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C91" s="173" t="s">
-        <v>601</v>
-      </c>
-      <c r="D91" s="101" t="s">
-        <v>602</v>
+        <v>693</v>
+      </c>
+      <c r="C91" s="154" t="s">
+        <v>539</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>540</v>
       </c>
       <c r="E91" s="84"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="26"/>
-    </row>
-    <row r="92" spans="1:9" s="27" customFormat="1" ht="12.75">
+      <c r="I91" s="67"/>
+    </row>
+    <row r="92" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A92" s="65">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B92" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" s="173" t="s">
-        <v>579</v>
-      </c>
-      <c r="D92" s="101" t="s">
-        <v>312</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C92" s="154" t="s">
+        <v>542</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>541</v>
       </c>
       <c r="E92" s="84"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="26"/>
-    </row>
-    <row r="93" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="43"/>
-      <c r="B93" s="53" t="s">
-        <v>504</v>
-      </c>
-      <c r="C93" s="169"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="64"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="63"/>
-    </row>
-    <row r="94" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="I92" s="67"/>
+    </row>
+    <row r="93" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A93" s="65">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C93" s="154" t="s">
+        <v>543</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="E93" s="84"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="67"/>
+    </row>
+    <row r="94" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A94" s="65">
-        <f t="shared" ref="A94:A100" ca="1" si="8">IF(OFFSET(A94,-1,0) ="",OFFSET(A94,-2,0)+1,OFFSET(A94,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="5"/>
         <v>69</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C94" s="173" t="s">
-        <v>606</v>
+        <v>699</v>
+      </c>
+      <c r="C94" s="154" t="s">
+        <v>701</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>607</v>
+        <v>702</v>
       </c>
       <c r="E94" s="84"/>
       <c r="F94" s="1"/>
@@ -32667,39 +32855,32 @@
       <c r="H94" s="1"/>
       <c r="I94" s="67"/>
     </row>
-    <row r="95" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A95" s="65">
-        <f t="shared" ca="1" si="8"/>
+    <row r="95" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A95" s="43"/>
+      <c r="B95" s="53" t="s">
+        <v>487</v>
+      </c>
+      <c r="C95" s="150"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="63"/>
+    </row>
+    <row r="96" spans="1:9" s="29" customFormat="1" ht="14.25">
+      <c r="A96" s="65">
+        <f t="shared" ca="1" si="5"/>
         <v>70</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C95" s="173" t="s">
-        <v>609</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="E95" s="84"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="67"/>
-    </row>
-    <row r="96" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A96" s="65">
-        <f t="shared" ca="1" si="8"/>
-        <v>71</v>
-      </c>
       <c r="B96" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C96" s="173" t="s">
-        <v>610</v>
+        <v>696</v>
+      </c>
+      <c r="C96" s="154" t="s">
+        <v>545</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>611</v>
+        <v>546</v>
       </c>
       <c r="E96" s="84"/>
       <c r="F96" s="1"/>
@@ -32707,32 +32888,39 @@
       <c r="H96" s="1"/>
       <c r="I96" s="67"/>
     </row>
-    <row r="97" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A97" s="43"/>
-      <c r="B97" s="53" t="s">
-        <v>505</v>
-      </c>
-      <c r="C97" s="169"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="63"/>
-    </row>
-    <row r="98" spans="1:9" s="29" customFormat="1" ht="14.25">
+    <row r="97" spans="1:9" s="29" customFormat="1" ht="25.5">
+      <c r="A97" s="65">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C97" s="154" t="s">
+        <v>547</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="E97" s="84"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="67"/>
+    </row>
+    <row r="98" spans="1:9" s="29" customFormat="1" ht="25.5">
       <c r="A98" s="65">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="5"/>
         <v>72</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C98" s="173" t="s">
-        <v>612</v>
+        <v>698</v>
+      </c>
+      <c r="C98" s="154" t="s">
+        <v>549</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>613</v>
+        <v>550</v>
       </c>
       <c r="E98" s="84"/>
       <c r="F98" s="1"/>
@@ -32740,19 +32928,19 @@
       <c r="H98" s="1"/>
       <c r="I98" s="67"/>
     </row>
-    <row r="99" spans="1:9" s="29" customFormat="1" ht="25.5">
+    <row r="99" spans="1:9" s="29" customFormat="1" ht="38.25">
       <c r="A99" s="65">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="5"/>
         <v>73</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C99" s="173" t="s">
-        <v>614</v>
+        <v>700</v>
+      </c>
+      <c r="C99" s="154" t="s">
+        <v>704</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="E99" s="84"/>
       <c r="F99" s="1"/>
@@ -32760,52 +32948,52 @@
       <c r="H99" s="1"/>
       <c r="I99" s="67"/>
     </row>
-    <row r="100" spans="1:9" s="29" customFormat="1" ht="25.5">
-      <c r="A100" s="65">
-        <f t="shared" ca="1" si="8"/>
+    <row r="100" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A100" s="68"/>
+      <c r="B100" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" s="170"/>
+      <c r="D100" s="171"/>
+      <c r="E100" s="86"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="69"/>
+    </row>
+    <row r="101" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A101" s="71">
+        <f t="shared" ref="A101:A108" ca="1" si="6">IF(OFFSET(A101,-1,0) ="",OFFSET(A101,-2,0)+1,OFFSET(A101,-1,0)+1 )</f>
         <v>74</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C100" s="173" t="s">
-        <v>616</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="E100" s="84"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="67"/>
-    </row>
-    <row r="101" spans="1:9" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A101" s="68"/>
-      <c r="B101" s="160" t="s">
-        <v>210</v>
-      </c>
-      <c r="C101" s="161"/>
-      <c r="D101" s="162"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="69"/>
+      <c r="B101" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C101" s="154" t="s">
+        <v>551</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="E101" s="84"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="26"/>
     </row>
     <row r="102" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A102" s="71">
-        <f t="shared" ref="A102:A109" ca="1" si="9">IF(OFFSET(A102,-1,0) ="",OFFSET(A102,-2,0)+1,OFFSET(A102,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="6"/>
         <v>75</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C102" s="173" t="s">
-        <v>618</v>
+        <v>494</v>
+      </c>
+      <c r="C102" s="154" t="s">
+        <v>557</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>622</v>
+        <v>556</v>
       </c>
       <c r="E102" s="84"/>
       <c r="F102" s="1"/>
@@ -32813,19 +33001,19 @@
       <c r="H102" s="1"/>
       <c r="I102" s="26"/>
     </row>
-    <row r="103" spans="1:9" s="27" customFormat="1" ht="38.25">
+    <row r="103" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A103" s="71">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>76</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C103" s="173" t="s">
-        <v>624</v>
+        <v>495</v>
+      </c>
+      <c r="C103" s="154" t="s">
+        <v>558</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>623</v>
+        <v>559</v>
       </c>
       <c r="E103" s="84"/>
       <c r="F103" s="1"/>
@@ -32833,19 +33021,19 @@
       <c r="H103" s="1"/>
       <c r="I103" s="26"/>
     </row>
-    <row r="104" spans="1:9" s="27" customFormat="1" ht="63.75">
+    <row r="104" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A104" s="71">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>77</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C104" s="173" t="s">
-        <v>625</v>
+        <v>488</v>
+      </c>
+      <c r="C104" s="154" t="s">
+        <v>560</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>626</v>
+        <v>561</v>
       </c>
       <c r="E104" s="84"/>
       <c r="F104" s="1"/>
@@ -32855,17 +33043,17 @@
     </row>
     <row r="105" spans="1:9" s="27" customFormat="1" ht="25.5">
       <c r="A105" s="71">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>78</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C105" s="173" t="s">
-        <v>627</v>
+      <c r="B105" s="54" t="s">
+        <v>491</v>
+      </c>
+      <c r="C105" s="154" t="s">
+        <v>562</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>628</v>
+        <v>564</v>
       </c>
       <c r="E105" s="84"/>
       <c r="F105" s="1"/>
@@ -32873,19 +33061,19 @@
       <c r="H105" s="1"/>
       <c r="I105" s="26"/>
     </row>
-    <row r="106" spans="1:9" s="27" customFormat="1" ht="25.5">
+    <row r="106" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A106" s="71">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>79</v>
       </c>
       <c r="B106" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="C106" s="173" t="s">
-        <v>629</v>
+        <v>565</v>
+      </c>
+      <c r="C106" s="154" t="s">
+        <v>563</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>631</v>
+        <v>552</v>
       </c>
       <c r="E106" s="84"/>
       <c r="F106" s="1"/>
@@ -32895,17 +33083,17 @@
     </row>
     <row r="107" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A107" s="71">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>80</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>632</v>
-      </c>
-      <c r="C107" s="173" t="s">
-        <v>630</v>
+        <v>567</v>
+      </c>
+      <c r="C107" s="154" t="s">
+        <v>569</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E107" s="84"/>
       <c r="F107" s="1"/>
@@ -32913,19 +33101,19 @@
       <c r="H107" s="1"/>
       <c r="I107" s="26"/>
     </row>
-    <row r="108" spans="1:9" s="27" customFormat="1" ht="38.25">
+    <row r="108" spans="1:9" s="27" customFormat="1" ht="63.75">
       <c r="A108" s="71">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="6"/>
         <v>81</v>
       </c>
       <c r="B108" s="54" t="s">
-        <v>634</v>
-      </c>
-      <c r="C108" s="173" t="s">
-        <v>636</v>
+        <v>568</v>
+      </c>
+      <c r="C108" s="154" t="s">
+        <v>566</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="E108" s="84"/>
       <c r="F108" s="1"/>
@@ -32933,25 +33121,8 @@
       <c r="H108" s="1"/>
       <c r="I108" s="26"/>
     </row>
-    <row r="109" spans="1:9" s="27" customFormat="1" ht="63.75">
-      <c r="A109" s="71">
-        <f t="shared" ca="1" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="B109" s="54" t="s">
-        <v>635</v>
-      </c>
-      <c r="C109" s="173" t="s">
-        <v>633</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E109" s="84"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="26"/>
+    <row r="109" spans="1:9" ht="12.75">
+      <c r="E109" s="87"/>
     </row>
     <row r="110" spans="1:9" ht="12.75">
       <c r="E110" s="87"/>
@@ -35569,15 +35740,12 @@
     <row r="981" spans="5:5" ht="12.75">
       <c r="E981" s="87"/>
     </row>
-    <row r="982" spans="5:5" ht="12.75">
-      <c r="E982" s="87"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A20:I109"/>
+  <autoFilter ref="A20:I108"/>
   <mergeCells count="12">
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B100:D100"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
@@ -35588,12 +35756,12 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="F38 F41:F42 F20:H36 F44 F94:H96 F77:H83 F68:H74 F85:H92 F98:H109 F50:H66 G38:H39 G41:H48 F40:H40 F46:F48">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" sqref="F38 F41:F42 F20:H36 F44 F83:H89 F46:F48 F96:H108 F50:H66 G38:H39 G41:H48 F40:H40 F68:H73 F76:H81 F91:H94">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F75:H76 F93:H93 F84:H84 F37:H37 F67:H67 F18:H19 F49:H49 F97:H97"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F95:H95 F90:H90 F82:H82 F37:H37 F67:H67 F18:H19 F49:H49 F74:H75"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -35603,10 +35771,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -35621,10 +35789,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="14.25">
-      <c r="A1" s="152"/>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
+      <c r="A1" s="161"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -35633,13 +35801,13 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -35648,9 +35816,9 @@
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="154"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="163"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -35661,11 +35829,11 @@
       <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -35679,9 +35847,9 @@
       <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -35695,9 +35863,9 @@
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -35708,11 +35876,11 @@
       <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -35724,9 +35892,9 @@
       <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1">
@@ -35869,11 +36037,11 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="148" t="s">
+      <c r="F16" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" s="21" customFormat="1" ht="38.25">
@@ -35907,11 +36075,11 @@
     </row>
     <row r="18" spans="1:9" s="21" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="149" t="s">
-        <v>637</v>
-      </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="151"/>
+      <c r="B18" s="158" t="s">
+        <v>570</v>
+      </c>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -35923,13 +36091,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>644</v>
+        <v>577</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>651</v>
+        <v>584</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="1"/>
@@ -35939,17 +36107,17 @@
     </row>
     <row r="20" spans="1:9" s="27" customFormat="1" ht="38.25">
       <c r="A20" s="2">
-        <f t="shared" ref="A20:A23" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <f t="shared" ref="A20:A24" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>641</v>
+        <v>574</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="1"/>
@@ -35963,13 +36131,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>639</v>
+        <v>572</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>645</v>
+        <v>578</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>643</v>
+        <v>576</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="1"/>
@@ -35983,13 +36151,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>640</v>
+        <v>573</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>648</v>
+        <v>581</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="1"/>
@@ -36003,19 +36171,39 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>646</v>
+        <v>579</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" s="27" customFormat="1" ht="38.25">
+      <c r="A24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -36024,17 +36212,17 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H23">
+    <dataValidation type="list" allowBlank="1" sqref="F19:H24">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
